--- a/Översikt FALKÖPING.xlsx
+++ b/Översikt FALKÖPING.xlsx
@@ -572,7 +572,7 @@
         <v>44950</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -666,7 +666,7 @@
         <v>44890</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -753,7 +753,7 @@
         <v>44418</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -839,7 +839,7 @@
         <v>44748</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -925,7 +925,7 @@
         <v>43349</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1010,7 +1010,7 @@
         <v>43451</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1095,7 +1095,7 @@
         <v>43549</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1180,7 +1180,7 @@
         <v>44349</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1265,7 +1265,7 @@
         <v>44427</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1350,7 +1350,7 @@
         <v>44474</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1435,7 +1435,7 @@
         <v>44805</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1520,7 +1520,7 @@
         <v>44906</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1605,7 +1605,7 @@
         <v>43325</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1662,7 +1662,7 @@
         <v>43340</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1719,7 +1719,7 @@
         <v>43347</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1776,7 +1776,7 @@
         <v>43362</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1833,7 +1833,7 @@
         <v>43362</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1890,7 +1890,7 @@
         <v>43362</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1947,7 +1947,7 @@
         <v>43368</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2004,7 +2004,7 @@
         <v>43368</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2061,7 +2061,7 @@
         <v>43368</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2118,7 +2118,7 @@
         <v>43368</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2175,7 +2175,7 @@
         <v>43368</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2232,7 +2232,7 @@
         <v>43368</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2289,7 +2289,7 @@
         <v>43370</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2346,7 +2346,7 @@
         <v>43370</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2403,7 +2403,7 @@
         <v>43392</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2460,7 +2460,7 @@
         <v>43405</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2517,7 +2517,7 @@
         <v>43412</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2574,7 +2574,7 @@
         <v>43423</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2631,7 +2631,7 @@
         <v>43424</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2688,7 +2688,7 @@
         <v>43424</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2745,7 +2745,7 @@
         <v>43424</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2802,7 +2802,7 @@
         <v>43425</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2859,7 +2859,7 @@
         <v>43425</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -2916,7 +2916,7 @@
         <v>43426</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -2973,7 +2973,7 @@
         <v>43426</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3030,7 +3030,7 @@
         <v>43427</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3087,7 +3087,7 @@
         <v>43430</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3144,7 +3144,7 @@
         <v>43431</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3201,7 +3201,7 @@
         <v>43439</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3258,7 +3258,7 @@
         <v>43444</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3315,7 +3315,7 @@
         <v>43444</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3372,7 +3372,7 @@
         <v>43446</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3429,7 +3429,7 @@
         <v>43446</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3486,7 +3486,7 @@
         <v>43446</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3543,7 +3543,7 @@
         <v>43446</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3600,7 +3600,7 @@
         <v>43447</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3662,7 +3662,7 @@
         <v>43447</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3719,7 +3719,7 @@
         <v>43451</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3776,7 +3776,7 @@
         <v>43452</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3833,7 +3833,7 @@
         <v>43452</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -3890,7 +3890,7 @@
         <v>43452</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -3947,7 +3947,7 @@
         <v>43453</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4004,7 +4004,7 @@
         <v>43453</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4061,7 +4061,7 @@
         <v>43469</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4118,7 +4118,7 @@
         <v>43473</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4175,7 +4175,7 @@
         <v>43473</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4232,7 +4232,7 @@
         <v>43475</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4289,7 +4289,7 @@
         <v>43476</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4346,7 +4346,7 @@
         <v>43479</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4403,7 +4403,7 @@
         <v>43479</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4460,7 +4460,7 @@
         <v>43486</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4517,7 +4517,7 @@
         <v>43490</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4574,7 +4574,7 @@
         <v>43490</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4631,7 +4631,7 @@
         <v>43500</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4688,7 +4688,7 @@
         <v>43500</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4745,7 +4745,7 @@
         <v>43502</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -4802,7 +4802,7 @@
         <v>43502</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -4859,7 +4859,7 @@
         <v>43509</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -4916,7 +4916,7 @@
         <v>43509</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -4973,7 +4973,7 @@
         <v>43514</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5030,7 +5030,7 @@
         <v>43518</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5087,7 +5087,7 @@
         <v>43542</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5144,7 +5144,7 @@
         <v>43542</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5201,7 +5201,7 @@
         <v>43542</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5258,7 +5258,7 @@
         <v>43542</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5315,7 +5315,7 @@
         <v>43543</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5372,7 +5372,7 @@
         <v>43578</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5429,7 +5429,7 @@
         <v>43592</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5486,7 +5486,7 @@
         <v>43595</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5543,7 +5543,7 @@
         <v>43595</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5600,7 +5600,7 @@
         <v>43604</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5657,7 +5657,7 @@
         <v>43604</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5714,7 +5714,7 @@
         <v>43605</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -5776,7 +5776,7 @@
         <v>43607</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -5833,7 +5833,7 @@
         <v>43609</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -5890,7 +5890,7 @@
         <v>43612</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -5947,7 +5947,7 @@
         <v>43614</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6004,7 +6004,7 @@
         <v>43619</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6061,7 +6061,7 @@
         <v>43628</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6118,7 +6118,7 @@
         <v>43640</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6175,7 +6175,7 @@
         <v>43643</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6232,7 +6232,7 @@
         <v>43651</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6289,7 +6289,7 @@
         <v>43657</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6346,7 +6346,7 @@
         <v>43663</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6403,7 +6403,7 @@
         <v>43671</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6460,7 +6460,7 @@
         <v>43685</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6517,7 +6517,7 @@
         <v>43685</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6574,7 +6574,7 @@
         <v>43699</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6631,7 +6631,7 @@
         <v>43699</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -6688,7 +6688,7 @@
         <v>43700</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -6745,7 +6745,7 @@
         <v>43700</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -6802,7 +6802,7 @@
         <v>43700</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -6859,7 +6859,7 @@
         <v>43700</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -6916,7 +6916,7 @@
         <v>43700</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -6973,7 +6973,7 @@
         <v>43700</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7030,7 +7030,7 @@
         <v>43707</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7087,7 +7087,7 @@
         <v>43711</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7144,7 +7144,7 @@
         <v>43731</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7201,7 +7201,7 @@
         <v>43762</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7258,7 +7258,7 @@
         <v>43762</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7315,7 +7315,7 @@
         <v>43762</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7372,7 +7372,7 @@
         <v>43762</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7429,7 +7429,7 @@
         <v>43774</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7486,7 +7486,7 @@
         <v>43782</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7543,7 +7543,7 @@
         <v>43783</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -7605,7 +7605,7 @@
         <v>43788</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -7662,7 +7662,7 @@
         <v>43790</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -7719,7 +7719,7 @@
         <v>43790</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -7776,7 +7776,7 @@
         <v>43791</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -7833,7 +7833,7 @@
         <v>43798</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -7890,7 +7890,7 @@
         <v>43798</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -7947,7 +7947,7 @@
         <v>43803</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8004,7 +8004,7 @@
         <v>43803</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8061,7 +8061,7 @@
         <v>43812</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8118,7 +8118,7 @@
         <v>43826</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8175,7 +8175,7 @@
         <v>43826</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8232,7 +8232,7 @@
         <v>43839</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8289,7 +8289,7 @@
         <v>43850</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8346,7 +8346,7 @@
         <v>43850</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8403,7 +8403,7 @@
         <v>43852</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8460,7 +8460,7 @@
         <v>43852</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -8517,7 +8517,7 @@
         <v>43852</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -8574,7 +8574,7 @@
         <v>43852</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -8631,7 +8631,7 @@
         <v>43852</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -8688,7 +8688,7 @@
         <v>43852</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -8745,7 +8745,7 @@
         <v>43852</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -8802,7 +8802,7 @@
         <v>43852</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -8859,7 +8859,7 @@
         <v>43852</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -8916,7 +8916,7 @@
         <v>43853</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -8978,7 +8978,7 @@
         <v>43853</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -9040,7 +9040,7 @@
         <v>43858</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9097,7 +9097,7 @@
         <v>43866</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9159,7 +9159,7 @@
         <v>43868</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9216,7 +9216,7 @@
         <v>43868</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9273,7 +9273,7 @@
         <v>43868</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9330,7 +9330,7 @@
         <v>43873</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9387,7 +9387,7 @@
         <v>43873</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -9444,7 +9444,7 @@
         <v>43874</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -9501,7 +9501,7 @@
         <v>43878</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -9558,7 +9558,7 @@
         <v>43889</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -9615,7 +9615,7 @@
         <v>43890</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -9672,7 +9672,7 @@
         <v>43894</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -9729,7 +9729,7 @@
         <v>43907</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -9786,7 +9786,7 @@
         <v>43907</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -9843,7 +9843,7 @@
         <v>43907</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -9900,7 +9900,7 @@
         <v>43907</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -9957,7 +9957,7 @@
         <v>43908</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -10014,7 +10014,7 @@
         <v>43908</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -10076,7 +10076,7 @@
         <v>43908</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -10133,7 +10133,7 @@
         <v>43919</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -10190,7 +10190,7 @@
         <v>43921</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -10247,7 +10247,7 @@
         <v>43921</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -10304,7 +10304,7 @@
         <v>43989</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -10361,7 +10361,7 @@
         <v>43990</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -10418,7 +10418,7 @@
         <v>43992</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -10475,7 +10475,7 @@
         <v>44000</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -10532,7 +10532,7 @@
         <v>44012</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -10589,7 +10589,7 @@
         <v>44020</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -10646,7 +10646,7 @@
         <v>44024</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -10703,7 +10703,7 @@
         <v>44071</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -10760,7 +10760,7 @@
         <v>44089</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -10817,7 +10817,7 @@
         <v>44089</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -10874,7 +10874,7 @@
         <v>44089</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -10931,7 +10931,7 @@
         <v>44089</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -10988,7 +10988,7 @@
         <v>44105</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -11045,7 +11045,7 @@
         <v>44106</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -11102,7 +11102,7 @@
         <v>44109</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -11159,7 +11159,7 @@
         <v>44109</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -11216,7 +11216,7 @@
         <v>44117</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -11273,7 +11273,7 @@
         <v>44120</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -11330,7 +11330,7 @@
         <v>44125</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -11387,7 +11387,7 @@
         <v>44126</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -11444,7 +11444,7 @@
         <v>44131</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -11501,7 +11501,7 @@
         <v>44131</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -11558,7 +11558,7 @@
         <v>44142</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -11615,7 +11615,7 @@
         <v>44142</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -11672,7 +11672,7 @@
         <v>44146</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -11729,7 +11729,7 @@
         <v>44146</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -11786,7 +11786,7 @@
         <v>44153</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -11843,7 +11843,7 @@
         <v>44155</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -11900,7 +11900,7 @@
         <v>44157</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -11957,7 +11957,7 @@
         <v>44157</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -12014,7 +12014,7 @@
         <v>44157</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -12071,7 +12071,7 @@
         <v>44162</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -12128,7 +12128,7 @@
         <v>44162</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -12185,7 +12185,7 @@
         <v>44165</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -12242,7 +12242,7 @@
         <v>44181</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -12299,7 +12299,7 @@
         <v>44206</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -12356,7 +12356,7 @@
         <v>44209</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -12413,7 +12413,7 @@
         <v>44215</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -12470,7 +12470,7 @@
         <v>44215</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -12527,7 +12527,7 @@
         <v>44215</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -12584,7 +12584,7 @@
         <v>44220</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -12641,7 +12641,7 @@
         <v>44220</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -12698,7 +12698,7 @@
         <v>44228</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -12755,7 +12755,7 @@
         <v>44228</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -12812,7 +12812,7 @@
         <v>44230</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -12869,7 +12869,7 @@
         <v>44252</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -12926,7 +12926,7 @@
         <v>44258</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -12988,7 +12988,7 @@
         <v>44263</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -13045,7 +13045,7 @@
         <v>44265</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -13102,7 +13102,7 @@
         <v>44266</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -13159,7 +13159,7 @@
         <v>44270</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -13216,7 +13216,7 @@
         <v>44293</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -13273,7 +13273,7 @@
         <v>44299</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -13330,7 +13330,7 @@
         <v>44300</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -13387,7 +13387,7 @@
         <v>44312</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -13444,7 +13444,7 @@
         <v>44322</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -13501,7 +13501,7 @@
         <v>44332</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -13558,7 +13558,7 @@
         <v>44334</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -13615,7 +13615,7 @@
         <v>44350</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -13672,7 +13672,7 @@
         <v>44350</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -13729,7 +13729,7 @@
         <v>44351</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -13786,7 +13786,7 @@
         <v>44360</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -13843,7 +13843,7 @@
         <v>44361</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -13900,7 +13900,7 @@
         <v>44368</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -13957,7 +13957,7 @@
         <v>44418</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -14014,7 +14014,7 @@
         <v>44420</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -14071,7 +14071,7 @@
         <v>44428</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -14128,7 +14128,7 @@
         <v>44428</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -14185,7 +14185,7 @@
         <v>44429</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -14242,7 +14242,7 @@
         <v>44429</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -14299,7 +14299,7 @@
         <v>44433</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -14356,7 +14356,7 @@
         <v>44433</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -14413,7 +14413,7 @@
         <v>44434</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -14470,7 +14470,7 @@
         <v>44447</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -14527,7 +14527,7 @@
         <v>44454</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -14584,7 +14584,7 @@
         <v>44466</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -14641,7 +14641,7 @@
         <v>44469</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -14698,7 +14698,7 @@
         <v>44470</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -14755,7 +14755,7 @@
         <v>44474</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -14812,7 +14812,7 @@
         <v>44475</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -14869,7 +14869,7 @@
         <v>44489</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -14926,7 +14926,7 @@
         <v>44497</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -14983,7 +14983,7 @@
         <v>44503</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -15045,7 +15045,7 @@
         <v>44512</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -15102,7 +15102,7 @@
         <v>44529</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -15159,7 +15159,7 @@
         <v>44529</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -15216,7 +15216,7 @@
         <v>44529</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -15273,7 +15273,7 @@
         <v>44543</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -15330,7 +15330,7 @@
         <v>44572</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -15387,7 +15387,7 @@
         <v>44573</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -15449,7 +15449,7 @@
         <v>44578</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -15506,7 +15506,7 @@
         <v>44594</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -15563,7 +15563,7 @@
         <v>44594</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -15620,7 +15620,7 @@
         <v>44601</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -15677,7 +15677,7 @@
         <v>44602</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -15734,7 +15734,7 @@
         <v>44603</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -15791,7 +15791,7 @@
         <v>44616</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -15848,7 +15848,7 @@
         <v>44622</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -15905,7 +15905,7 @@
         <v>44623</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -15962,7 +15962,7 @@
         <v>44627</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -16024,7 +16024,7 @@
         <v>44629</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -16081,7 +16081,7 @@
         <v>44630</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -16138,7 +16138,7 @@
         <v>44630</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -16195,7 +16195,7 @@
         <v>44636</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -16252,7 +16252,7 @@
         <v>44636</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -16309,7 +16309,7 @@
         <v>44637</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -16366,7 +16366,7 @@
         <v>44663</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -16423,7 +16423,7 @@
         <v>44672</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -16480,7 +16480,7 @@
         <v>44707</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -16537,7 +16537,7 @@
         <v>44711</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -16594,7 +16594,7 @@
         <v>44713</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -16651,7 +16651,7 @@
         <v>44722</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -16708,7 +16708,7 @@
         <v>44726</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -16765,7 +16765,7 @@
         <v>44729</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -16822,7 +16822,7 @@
         <v>44739</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -16879,7 +16879,7 @@
         <v>44742</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -16936,7 +16936,7 @@
         <v>44742</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -16993,7 +16993,7 @@
         <v>44802</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -17050,7 +17050,7 @@
         <v>44802</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -17107,7 +17107,7 @@
         <v>44803</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -17164,7 +17164,7 @@
         <v>44805</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -17221,7 +17221,7 @@
         <v>44819</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -17278,7 +17278,7 @@
         <v>44823</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -17335,7 +17335,7 @@
         <v>44823</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -17392,7 +17392,7 @@
         <v>44838</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -17449,7 +17449,7 @@
         <v>44838</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -17506,7 +17506,7 @@
         <v>44861</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -17563,7 +17563,7 @@
         <v>44869</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -17620,7 +17620,7 @@
         <v>44880</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -17677,7 +17677,7 @@
         <v>44880</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -17734,7 +17734,7 @@
         <v>44882</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -17791,7 +17791,7 @@
         <v>44895</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -17848,7 +17848,7 @@
         <v>44928</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -17905,7 +17905,7 @@
         <v>44928</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -17962,7 +17962,7 @@
         <v>44945</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -18019,7 +18019,7 @@
         <v>44952</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -18076,7 +18076,7 @@
         <v>44952</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -18133,7 +18133,7 @@
         <v>44952</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -18190,7 +18190,7 @@
         <v>44952</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -18247,7 +18247,7 @@
         <v>44957</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -18304,7 +18304,7 @@
         <v>44957</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -18361,7 +18361,7 @@
         <v>44960</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -18418,7 +18418,7 @@
         <v>44974</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -18475,7 +18475,7 @@
         <v>44979</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -18537,7 +18537,7 @@
         <v>44985</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -18594,7 +18594,7 @@
         <v>44993</v>
       </c>
       <c r="C311" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -18651,7 +18651,7 @@
         <v>45014</v>
       </c>
       <c r="C312" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -18708,7 +18708,7 @@
         <v>45014</v>
       </c>
       <c r="C313" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -18765,7 +18765,7 @@
         <v>45014</v>
       </c>
       <c r="C314" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -18822,7 +18822,7 @@
         <v>45014</v>
       </c>
       <c r="C315" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -18879,7 +18879,7 @@
         <v>45014</v>
       </c>
       <c r="C316" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -18936,7 +18936,7 @@
         <v>45022</v>
       </c>
       <c r="C317" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -18993,7 +18993,7 @@
         <v>45022</v>
       </c>
       <c r="C318" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -19050,7 +19050,7 @@
         <v>45027</v>
       </c>
       <c r="C319" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -19107,7 +19107,7 @@
         <v>45033</v>
       </c>
       <c r="C320" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -19164,7 +19164,7 @@
         <v>45033</v>
       </c>
       <c r="C321" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
@@ -19221,7 +19221,7 @@
         <v>45033</v>
       </c>
       <c r="C322" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
@@ -19278,7 +19278,7 @@
         <v>45036</v>
       </c>
       <c r="C323" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
@@ -19335,7 +19335,7 @@
         <v>45050</v>
       </c>
       <c r="C324" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D324" t="inlineStr">
         <is>
@@ -19392,7 +19392,7 @@
         <v>45050</v>
       </c>
       <c r="C325" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D325" t="inlineStr">
         <is>
@@ -19449,7 +19449,7 @@
         <v>45065</v>
       </c>
       <c r="C326" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D326" t="inlineStr">
         <is>
@@ -19506,7 +19506,7 @@
         <v>45072</v>
       </c>
       <c r="C327" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D327" t="inlineStr">
         <is>
@@ -19563,7 +19563,7 @@
         <v>45073</v>
       </c>
       <c r="C328" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D328" t="inlineStr">
         <is>
@@ -19620,7 +19620,7 @@
         <v>45076</v>
       </c>
       <c r="C329" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D329" t="inlineStr">
         <is>
@@ -19677,7 +19677,7 @@
         <v>45076</v>
       </c>
       <c r="C330" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D330" t="inlineStr">
         <is>
@@ -19734,7 +19734,7 @@
         <v>45076</v>
       </c>
       <c r="C331" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D331" t="inlineStr">
         <is>
@@ -19791,7 +19791,7 @@
         <v>45076</v>
       </c>
       <c r="C332" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D332" t="inlineStr">
         <is>
@@ -19848,7 +19848,7 @@
         <v>45076</v>
       </c>
       <c r="C333" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D333" t="inlineStr">
         <is>
@@ -19905,7 +19905,7 @@
         <v>45078</v>
       </c>
       <c r="C334" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D334" t="inlineStr">
         <is>
@@ -19962,7 +19962,7 @@
         <v>45082</v>
       </c>
       <c r="C335" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D335" t="inlineStr">
         <is>
@@ -20019,7 +20019,7 @@
         <v>45082</v>
       </c>
       <c r="C336" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D336" t="inlineStr">
         <is>
@@ -20081,7 +20081,7 @@
         <v>45084</v>
       </c>
       <c r="C337" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D337" t="inlineStr">
         <is>
@@ -20138,7 +20138,7 @@
         <v>45084</v>
       </c>
       <c r="C338" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D338" t="inlineStr">
         <is>
@@ -20195,7 +20195,7 @@
         <v>45085</v>
       </c>
       <c r="C339" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D339" t="inlineStr">
         <is>
@@ -20252,7 +20252,7 @@
         <v>45085</v>
       </c>
       <c r="C340" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D340" t="inlineStr">
         <is>
@@ -20309,7 +20309,7 @@
         <v>45089</v>
       </c>
       <c r="C341" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D341" t="inlineStr">
         <is>
@@ -20366,7 +20366,7 @@
         <v>45089</v>
       </c>
       <c r="C342" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D342" t="inlineStr">
         <is>
@@ -20423,7 +20423,7 @@
         <v>45090</v>
       </c>
       <c r="C343" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D343" t="inlineStr">
         <is>
@@ -20480,7 +20480,7 @@
         <v>45091</v>
       </c>
       <c r="C344" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D344" t="inlineStr">
         <is>
@@ -20537,7 +20537,7 @@
         <v>45091</v>
       </c>
       <c r="C345" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D345" t="inlineStr">
         <is>
@@ -20594,7 +20594,7 @@
         <v>45091</v>
       </c>
       <c r="C346" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D346" t="inlineStr">
         <is>
@@ -20651,7 +20651,7 @@
         <v>45092</v>
       </c>
       <c r="C347" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D347" t="inlineStr">
         <is>
@@ -20708,7 +20708,7 @@
         <v>45093</v>
       </c>
       <c r="C348" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D348" t="inlineStr">
         <is>
@@ -20765,7 +20765,7 @@
         <v>45097</v>
       </c>
       <c r="C349" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D349" t="inlineStr">
         <is>
@@ -20822,7 +20822,7 @@
         <v>45103</v>
       </c>
       <c r="C350" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D350" t="inlineStr">
         <is>
@@ -20879,7 +20879,7 @@
         <v>45105</v>
       </c>
       <c r="C351" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D351" t="inlineStr">
         <is>
@@ -20936,7 +20936,7 @@
         <v>45107</v>
       </c>
       <c r="C352" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D352" t="inlineStr">
         <is>
@@ -20993,7 +20993,7 @@
         <v>45112</v>
       </c>
       <c r="C353" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D353" t="inlineStr">
         <is>
@@ -21050,7 +21050,7 @@
         <v>45116</v>
       </c>
       <c r="C354" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D354" t="inlineStr">
         <is>
@@ -21107,7 +21107,7 @@
         <v>45141</v>
       </c>
       <c r="C355" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D355" t="inlineStr">
         <is>
@@ -21164,7 +21164,7 @@
         <v>45142</v>
       </c>
       <c r="C356" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D356" t="inlineStr">
         <is>
@@ -21221,7 +21221,7 @@
         <v>45146</v>
       </c>
       <c r="C357" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D357" t="inlineStr">
         <is>
@@ -21278,7 +21278,7 @@
         <v>45148</v>
       </c>
       <c r="C358" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D358" t="inlineStr">
         <is>
@@ -21335,7 +21335,7 @@
         <v>45148</v>
       </c>
       <c r="C359" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D359" t="inlineStr">
         <is>
@@ -21392,7 +21392,7 @@
         <v>45154</v>
       </c>
       <c r="C360" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D360" t="inlineStr">
         <is>

--- a/Översikt FALKÖPING.xlsx
+++ b/Översikt FALKÖPING.xlsx
@@ -572,7 +572,7 @@
         <v>44950</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -666,7 +666,7 @@
         <v>44890</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -753,7 +753,7 @@
         <v>44418</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -839,7 +839,7 @@
         <v>44748</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -925,7 +925,7 @@
         <v>43349</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1010,7 +1010,7 @@
         <v>43451</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1095,7 +1095,7 @@
         <v>43549</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1180,7 +1180,7 @@
         <v>44349</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1265,7 +1265,7 @@
         <v>44427</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1350,7 +1350,7 @@
         <v>44474</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1435,7 +1435,7 @@
         <v>44805</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1520,7 +1520,7 @@
         <v>44906</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1605,7 +1605,7 @@
         <v>43325</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1662,7 +1662,7 @@
         <v>43340</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1719,7 +1719,7 @@
         <v>43347</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1776,7 +1776,7 @@
         <v>43362</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1833,7 +1833,7 @@
         <v>43362</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1890,7 +1890,7 @@
         <v>43362</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1947,7 +1947,7 @@
         <v>43368</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2004,7 +2004,7 @@
         <v>43368</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2061,7 +2061,7 @@
         <v>43368</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2118,7 +2118,7 @@
         <v>43368</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2175,7 +2175,7 @@
         <v>43368</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2232,7 +2232,7 @@
         <v>43368</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2289,7 +2289,7 @@
         <v>43370</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2346,7 +2346,7 @@
         <v>43370</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2403,7 +2403,7 @@
         <v>43392</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2460,7 +2460,7 @@
         <v>43405</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2517,7 +2517,7 @@
         <v>43412</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2574,7 +2574,7 @@
         <v>43423</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2631,7 +2631,7 @@
         <v>43424</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2688,7 +2688,7 @@
         <v>43424</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2745,7 +2745,7 @@
         <v>43424</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2802,7 +2802,7 @@
         <v>43425</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2859,7 +2859,7 @@
         <v>43425</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -2916,7 +2916,7 @@
         <v>43426</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -2973,7 +2973,7 @@
         <v>43426</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3030,7 +3030,7 @@
         <v>43427</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3087,7 +3087,7 @@
         <v>43430</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3144,7 +3144,7 @@
         <v>43431</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3201,7 +3201,7 @@
         <v>43439</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3258,7 +3258,7 @@
         <v>43444</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3315,7 +3315,7 @@
         <v>43444</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3372,7 +3372,7 @@
         <v>43446</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3429,7 +3429,7 @@
         <v>43446</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3486,7 +3486,7 @@
         <v>43446</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3543,7 +3543,7 @@
         <v>43446</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3600,7 +3600,7 @@
         <v>43447</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3662,7 +3662,7 @@
         <v>43447</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3719,7 +3719,7 @@
         <v>43451</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3776,7 +3776,7 @@
         <v>43452</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3833,7 +3833,7 @@
         <v>43452</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -3890,7 +3890,7 @@
         <v>43452</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -3947,7 +3947,7 @@
         <v>43453</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4004,7 +4004,7 @@
         <v>43453</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4061,7 +4061,7 @@
         <v>43469</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4118,7 +4118,7 @@
         <v>43473</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4175,7 +4175,7 @@
         <v>43473</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4232,7 +4232,7 @@
         <v>43475</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4289,7 +4289,7 @@
         <v>43476</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4346,7 +4346,7 @@
         <v>43479</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4403,7 +4403,7 @@
         <v>43479</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4460,7 +4460,7 @@
         <v>43486</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4517,7 +4517,7 @@
         <v>43490</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4574,7 +4574,7 @@
         <v>43490</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4631,7 +4631,7 @@
         <v>43500</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4688,7 +4688,7 @@
         <v>43500</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4745,7 +4745,7 @@
         <v>43502</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -4802,7 +4802,7 @@
         <v>43502</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -4859,7 +4859,7 @@
         <v>43509</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -4916,7 +4916,7 @@
         <v>43509</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -4973,7 +4973,7 @@
         <v>43514</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5030,7 +5030,7 @@
         <v>43518</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5087,7 +5087,7 @@
         <v>43542</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5144,7 +5144,7 @@
         <v>43542</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5201,7 +5201,7 @@
         <v>43542</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5258,7 +5258,7 @@
         <v>43542</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5315,7 +5315,7 @@
         <v>43543</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5372,7 +5372,7 @@
         <v>43578</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5429,7 +5429,7 @@
         <v>43592</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5486,7 +5486,7 @@
         <v>43595</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5543,7 +5543,7 @@
         <v>43595</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5600,7 +5600,7 @@
         <v>43604</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5657,7 +5657,7 @@
         <v>43604</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5714,7 +5714,7 @@
         <v>43605</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -5776,7 +5776,7 @@
         <v>43607</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -5833,7 +5833,7 @@
         <v>43609</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -5890,7 +5890,7 @@
         <v>43612</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -5947,7 +5947,7 @@
         <v>43614</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6004,7 +6004,7 @@
         <v>43619</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6061,7 +6061,7 @@
         <v>43628</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6118,7 +6118,7 @@
         <v>43640</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6175,7 +6175,7 @@
         <v>43643</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6232,7 +6232,7 @@
         <v>43651</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6289,7 +6289,7 @@
         <v>43657</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6346,7 +6346,7 @@
         <v>43663</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6403,7 +6403,7 @@
         <v>43671</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6460,7 +6460,7 @@
         <v>43685</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6517,7 +6517,7 @@
         <v>43685</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6574,7 +6574,7 @@
         <v>43699</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6631,7 +6631,7 @@
         <v>43699</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -6688,7 +6688,7 @@
         <v>43700</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -6745,7 +6745,7 @@
         <v>43700</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -6802,7 +6802,7 @@
         <v>43700</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -6859,7 +6859,7 @@
         <v>43700</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -6916,7 +6916,7 @@
         <v>43700</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -6973,7 +6973,7 @@
         <v>43700</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7030,7 +7030,7 @@
         <v>43707</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7087,7 +7087,7 @@
         <v>43711</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7144,7 +7144,7 @@
         <v>43731</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7201,7 +7201,7 @@
         <v>43762</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7258,7 +7258,7 @@
         <v>43762</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7315,7 +7315,7 @@
         <v>43762</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7372,7 +7372,7 @@
         <v>43762</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7429,7 +7429,7 @@
         <v>43774</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7486,7 +7486,7 @@
         <v>43782</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7543,7 +7543,7 @@
         <v>43783</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -7605,7 +7605,7 @@
         <v>43788</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -7662,7 +7662,7 @@
         <v>43790</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -7719,7 +7719,7 @@
         <v>43790</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -7776,7 +7776,7 @@
         <v>43791</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -7833,7 +7833,7 @@
         <v>43798</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -7890,7 +7890,7 @@
         <v>43798</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -7947,7 +7947,7 @@
         <v>43803</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8004,7 +8004,7 @@
         <v>43803</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8061,7 +8061,7 @@
         <v>43812</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8118,7 +8118,7 @@
         <v>43826</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8175,7 +8175,7 @@
         <v>43826</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8232,7 +8232,7 @@
         <v>43839</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8289,7 +8289,7 @@
         <v>43850</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8346,7 +8346,7 @@
         <v>43850</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8403,7 +8403,7 @@
         <v>43852</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8460,7 +8460,7 @@
         <v>43852</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -8517,7 +8517,7 @@
         <v>43852</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -8574,7 +8574,7 @@
         <v>43852</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -8631,7 +8631,7 @@
         <v>43852</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -8688,7 +8688,7 @@
         <v>43852</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -8745,7 +8745,7 @@
         <v>43852</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -8802,7 +8802,7 @@
         <v>43852</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -8859,7 +8859,7 @@
         <v>43852</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -8916,7 +8916,7 @@
         <v>43853</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -8978,7 +8978,7 @@
         <v>43853</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -9040,7 +9040,7 @@
         <v>43858</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9097,7 +9097,7 @@
         <v>43866</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9159,7 +9159,7 @@
         <v>43868</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9216,7 +9216,7 @@
         <v>43868</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9273,7 +9273,7 @@
         <v>43868</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9330,7 +9330,7 @@
         <v>43873</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9387,7 +9387,7 @@
         <v>43873</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -9444,7 +9444,7 @@
         <v>43874</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -9501,7 +9501,7 @@
         <v>43878</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -9558,7 +9558,7 @@
         <v>43889</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -9615,7 +9615,7 @@
         <v>43890</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -9672,7 +9672,7 @@
         <v>43894</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -9729,7 +9729,7 @@
         <v>43907</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -9786,7 +9786,7 @@
         <v>43907</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -9843,7 +9843,7 @@
         <v>43907</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -9900,7 +9900,7 @@
         <v>43907</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -9957,7 +9957,7 @@
         <v>43908</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -10014,7 +10014,7 @@
         <v>43908</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -10076,7 +10076,7 @@
         <v>43908</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -10133,7 +10133,7 @@
         <v>43919</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -10190,7 +10190,7 @@
         <v>43921</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -10247,7 +10247,7 @@
         <v>43921</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -10304,7 +10304,7 @@
         <v>43989</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -10361,7 +10361,7 @@
         <v>43990</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -10418,7 +10418,7 @@
         <v>43992</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -10475,7 +10475,7 @@
         <v>44000</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -10532,7 +10532,7 @@
         <v>44012</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -10589,7 +10589,7 @@
         <v>44020</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -10646,7 +10646,7 @@
         <v>44024</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -10703,7 +10703,7 @@
         <v>44071</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -10760,7 +10760,7 @@
         <v>44089</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -10817,7 +10817,7 @@
         <v>44089</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -10874,7 +10874,7 @@
         <v>44089</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -10931,7 +10931,7 @@
         <v>44089</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -10988,7 +10988,7 @@
         <v>44105</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -11045,7 +11045,7 @@
         <v>44106</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -11102,7 +11102,7 @@
         <v>44109</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -11159,7 +11159,7 @@
         <v>44109</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -11216,7 +11216,7 @@
         <v>44117</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -11273,7 +11273,7 @@
         <v>44120</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -11330,7 +11330,7 @@
         <v>44125</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -11387,7 +11387,7 @@
         <v>44126</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -11444,7 +11444,7 @@
         <v>44131</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -11501,7 +11501,7 @@
         <v>44131</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -11558,7 +11558,7 @@
         <v>44142</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -11615,7 +11615,7 @@
         <v>44142</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -11672,7 +11672,7 @@
         <v>44146</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -11729,7 +11729,7 @@
         <v>44146</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -11786,7 +11786,7 @@
         <v>44153</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -11843,7 +11843,7 @@
         <v>44155</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -11900,7 +11900,7 @@
         <v>44157</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -11957,7 +11957,7 @@
         <v>44157</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -12014,7 +12014,7 @@
         <v>44157</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -12071,7 +12071,7 @@
         <v>44162</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -12128,7 +12128,7 @@
         <v>44162</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -12185,7 +12185,7 @@
         <v>44165</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -12242,7 +12242,7 @@
         <v>44181</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -12299,7 +12299,7 @@
         <v>44206</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -12356,7 +12356,7 @@
         <v>44209</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -12413,7 +12413,7 @@
         <v>44215</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -12470,7 +12470,7 @@
         <v>44215</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -12527,7 +12527,7 @@
         <v>44215</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -12584,7 +12584,7 @@
         <v>44220</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -12641,7 +12641,7 @@
         <v>44220</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -12698,7 +12698,7 @@
         <v>44228</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -12755,7 +12755,7 @@
         <v>44228</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -12812,7 +12812,7 @@
         <v>44230</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -12869,7 +12869,7 @@
         <v>44252</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -12926,7 +12926,7 @@
         <v>44258</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -12988,7 +12988,7 @@
         <v>44263</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -13045,7 +13045,7 @@
         <v>44265</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -13102,7 +13102,7 @@
         <v>44266</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -13159,7 +13159,7 @@
         <v>44270</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -13216,7 +13216,7 @@
         <v>44293</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -13273,7 +13273,7 @@
         <v>44299</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -13330,7 +13330,7 @@
         <v>44300</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -13387,7 +13387,7 @@
         <v>44312</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -13444,7 +13444,7 @@
         <v>44322</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -13501,7 +13501,7 @@
         <v>44332</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -13558,7 +13558,7 @@
         <v>44334</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -13615,7 +13615,7 @@
         <v>44350</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -13672,7 +13672,7 @@
         <v>44350</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -13729,7 +13729,7 @@
         <v>44351</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -13786,7 +13786,7 @@
         <v>44360</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -13843,7 +13843,7 @@
         <v>44361</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -13900,7 +13900,7 @@
         <v>44368</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -13957,7 +13957,7 @@
         <v>44418</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -14014,7 +14014,7 @@
         <v>44420</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -14071,7 +14071,7 @@
         <v>44428</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -14128,7 +14128,7 @@
         <v>44428</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -14185,7 +14185,7 @@
         <v>44429</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -14242,7 +14242,7 @@
         <v>44429</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -14299,7 +14299,7 @@
         <v>44433</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -14356,7 +14356,7 @@
         <v>44433</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -14413,7 +14413,7 @@
         <v>44434</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -14470,7 +14470,7 @@
         <v>44447</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -14527,7 +14527,7 @@
         <v>44454</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -14584,7 +14584,7 @@
         <v>44466</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -14641,7 +14641,7 @@
         <v>44469</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -14698,7 +14698,7 @@
         <v>44470</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -14755,7 +14755,7 @@
         <v>44474</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -14812,7 +14812,7 @@
         <v>44475</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -14869,7 +14869,7 @@
         <v>44489</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -14926,7 +14926,7 @@
         <v>44497</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -14983,7 +14983,7 @@
         <v>44503</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -15045,7 +15045,7 @@
         <v>44512</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -15102,7 +15102,7 @@
         <v>44529</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -15159,7 +15159,7 @@
         <v>44529</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -15216,7 +15216,7 @@
         <v>44529</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -15273,7 +15273,7 @@
         <v>44543</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -15330,7 +15330,7 @@
         <v>44572</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -15387,7 +15387,7 @@
         <v>44573</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -15449,7 +15449,7 @@
         <v>44578</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -15506,7 +15506,7 @@
         <v>44594</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -15563,7 +15563,7 @@
         <v>44594</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -15620,7 +15620,7 @@
         <v>44601</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -15677,7 +15677,7 @@
         <v>44602</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -15734,7 +15734,7 @@
         <v>44603</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -15791,7 +15791,7 @@
         <v>44616</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -15848,7 +15848,7 @@
         <v>44622</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -15905,7 +15905,7 @@
         <v>44623</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -15962,7 +15962,7 @@
         <v>44627</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -16024,7 +16024,7 @@
         <v>44629</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -16081,7 +16081,7 @@
         <v>44630</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -16138,7 +16138,7 @@
         <v>44630</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -16195,7 +16195,7 @@
         <v>44636</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -16252,7 +16252,7 @@
         <v>44636</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -16309,7 +16309,7 @@
         <v>44637</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -16366,7 +16366,7 @@
         <v>44663</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -16423,7 +16423,7 @@
         <v>44672</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -16480,7 +16480,7 @@
         <v>44707</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -16537,7 +16537,7 @@
         <v>44711</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -16594,7 +16594,7 @@
         <v>44713</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -16651,7 +16651,7 @@
         <v>44722</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -16708,7 +16708,7 @@
         <v>44726</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -16765,7 +16765,7 @@
         <v>44729</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -16822,7 +16822,7 @@
         <v>44739</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -16879,7 +16879,7 @@
         <v>44742</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -16936,7 +16936,7 @@
         <v>44742</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -16993,7 +16993,7 @@
         <v>44802</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -17050,7 +17050,7 @@
         <v>44802</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -17107,7 +17107,7 @@
         <v>44803</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -17164,7 +17164,7 @@
         <v>44805</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -17221,7 +17221,7 @@
         <v>44819</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -17278,7 +17278,7 @@
         <v>44823</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -17335,7 +17335,7 @@
         <v>44823</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -17392,7 +17392,7 @@
         <v>44838</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -17449,7 +17449,7 @@
         <v>44838</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -17506,7 +17506,7 @@
         <v>44861</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -17563,7 +17563,7 @@
         <v>44869</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -17620,7 +17620,7 @@
         <v>44880</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -17677,7 +17677,7 @@
         <v>44880</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -17734,7 +17734,7 @@
         <v>44882</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -17791,7 +17791,7 @@
         <v>44895</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -17848,7 +17848,7 @@
         <v>44928</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -17905,7 +17905,7 @@
         <v>44928</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -17962,7 +17962,7 @@
         <v>44945</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -18019,7 +18019,7 @@
         <v>44952</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -18076,7 +18076,7 @@
         <v>44952</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -18133,7 +18133,7 @@
         <v>44952</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -18190,7 +18190,7 @@
         <v>44952</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -18247,7 +18247,7 @@
         <v>44957</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -18304,7 +18304,7 @@
         <v>44957</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -18361,7 +18361,7 @@
         <v>44960</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -18418,7 +18418,7 @@
         <v>44974</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -18475,7 +18475,7 @@
         <v>44979</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -18537,7 +18537,7 @@
         <v>44985</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -18594,7 +18594,7 @@
         <v>44993</v>
       </c>
       <c r="C311" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -18651,7 +18651,7 @@
         <v>45014</v>
       </c>
       <c r="C312" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -18708,7 +18708,7 @@
         <v>45014</v>
       </c>
       <c r="C313" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -18765,7 +18765,7 @@
         <v>45014</v>
       </c>
       <c r="C314" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -18822,7 +18822,7 @@
         <v>45014</v>
       </c>
       <c r="C315" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -18879,7 +18879,7 @@
         <v>45014</v>
       </c>
       <c r="C316" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -18936,7 +18936,7 @@
         <v>45022</v>
       </c>
       <c r="C317" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -18993,7 +18993,7 @@
         <v>45022</v>
       </c>
       <c r="C318" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -19050,7 +19050,7 @@
         <v>45027</v>
       </c>
       <c r="C319" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -19107,7 +19107,7 @@
         <v>45033</v>
       </c>
       <c r="C320" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -19164,7 +19164,7 @@
         <v>45033</v>
       </c>
       <c r="C321" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
@@ -19221,7 +19221,7 @@
         <v>45033</v>
       </c>
       <c r="C322" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
@@ -19278,7 +19278,7 @@
         <v>45036</v>
       </c>
       <c r="C323" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
@@ -19335,7 +19335,7 @@
         <v>45050</v>
       </c>
       <c r="C324" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D324" t="inlineStr">
         <is>
@@ -19392,7 +19392,7 @@
         <v>45050</v>
       </c>
       <c r="C325" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D325" t="inlineStr">
         <is>
@@ -19449,7 +19449,7 @@
         <v>45065</v>
       </c>
       <c r="C326" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D326" t="inlineStr">
         <is>
@@ -19506,7 +19506,7 @@
         <v>45072</v>
       </c>
       <c r="C327" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D327" t="inlineStr">
         <is>
@@ -19563,7 +19563,7 @@
         <v>45073</v>
       </c>
       <c r="C328" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D328" t="inlineStr">
         <is>
@@ -19620,7 +19620,7 @@
         <v>45076</v>
       </c>
       <c r="C329" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D329" t="inlineStr">
         <is>
@@ -19677,7 +19677,7 @@
         <v>45076</v>
       </c>
       <c r="C330" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D330" t="inlineStr">
         <is>
@@ -19734,7 +19734,7 @@
         <v>45076</v>
       </c>
       <c r="C331" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D331" t="inlineStr">
         <is>
@@ -19791,7 +19791,7 @@
         <v>45076</v>
       </c>
       <c r="C332" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D332" t="inlineStr">
         <is>
@@ -19848,7 +19848,7 @@
         <v>45076</v>
       </c>
       <c r="C333" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D333" t="inlineStr">
         <is>
@@ -19905,7 +19905,7 @@
         <v>45078</v>
       </c>
       <c r="C334" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D334" t="inlineStr">
         <is>
@@ -19962,7 +19962,7 @@
         <v>45082</v>
       </c>
       <c r="C335" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D335" t="inlineStr">
         <is>
@@ -20019,7 +20019,7 @@
         <v>45082</v>
       </c>
       <c r="C336" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D336" t="inlineStr">
         <is>
@@ -20081,7 +20081,7 @@
         <v>45084</v>
       </c>
       <c r="C337" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D337" t="inlineStr">
         <is>
@@ -20138,7 +20138,7 @@
         <v>45084</v>
       </c>
       <c r="C338" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D338" t="inlineStr">
         <is>
@@ -20195,7 +20195,7 @@
         <v>45085</v>
       </c>
       <c r="C339" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D339" t="inlineStr">
         <is>
@@ -20252,7 +20252,7 @@
         <v>45085</v>
       </c>
       <c r="C340" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D340" t="inlineStr">
         <is>
@@ -20309,7 +20309,7 @@
         <v>45089</v>
       </c>
       <c r="C341" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D341" t="inlineStr">
         <is>
@@ -20366,7 +20366,7 @@
         <v>45089</v>
       </c>
       <c r="C342" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D342" t="inlineStr">
         <is>
@@ -20423,7 +20423,7 @@
         <v>45090</v>
       </c>
       <c r="C343" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D343" t="inlineStr">
         <is>
@@ -20480,7 +20480,7 @@
         <v>45091</v>
       </c>
       <c r="C344" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D344" t="inlineStr">
         <is>
@@ -20537,7 +20537,7 @@
         <v>45091</v>
       </c>
       <c r="C345" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D345" t="inlineStr">
         <is>
@@ -20594,7 +20594,7 @@
         <v>45091</v>
       </c>
       <c r="C346" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D346" t="inlineStr">
         <is>
@@ -20651,7 +20651,7 @@
         <v>45092</v>
       </c>
       <c r="C347" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D347" t="inlineStr">
         <is>
@@ -20708,7 +20708,7 @@
         <v>45093</v>
       </c>
       <c r="C348" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D348" t="inlineStr">
         <is>
@@ -20765,7 +20765,7 @@
         <v>45097</v>
       </c>
       <c r="C349" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D349" t="inlineStr">
         <is>
@@ -20822,7 +20822,7 @@
         <v>45103</v>
       </c>
       <c r="C350" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D350" t="inlineStr">
         <is>
@@ -20879,7 +20879,7 @@
         <v>45105</v>
       </c>
       <c r="C351" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D351" t="inlineStr">
         <is>
@@ -20936,7 +20936,7 @@
         <v>45107</v>
       </c>
       <c r="C352" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D352" t="inlineStr">
         <is>
@@ -20993,7 +20993,7 @@
         <v>45112</v>
       </c>
       <c r="C353" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D353" t="inlineStr">
         <is>
@@ -21050,7 +21050,7 @@
         <v>45116</v>
       </c>
       <c r="C354" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D354" t="inlineStr">
         <is>
@@ -21107,7 +21107,7 @@
         <v>45141</v>
       </c>
       <c r="C355" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D355" t="inlineStr">
         <is>
@@ -21164,7 +21164,7 @@
         <v>45142</v>
       </c>
       <c r="C356" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D356" t="inlineStr">
         <is>
@@ -21221,7 +21221,7 @@
         <v>45146</v>
       </c>
       <c r="C357" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D357" t="inlineStr">
         <is>
@@ -21278,7 +21278,7 @@
         <v>45148</v>
       </c>
       <c r="C358" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D358" t="inlineStr">
         <is>
@@ -21335,7 +21335,7 @@
         <v>45148</v>
       </c>
       <c r="C359" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D359" t="inlineStr">
         <is>
@@ -21392,7 +21392,7 @@
         <v>45154</v>
       </c>
       <c r="C360" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D360" t="inlineStr">
         <is>

--- a/Översikt FALKÖPING.xlsx
+++ b/Översikt FALKÖPING.xlsx
@@ -572,7 +572,7 @@
         <v>44950</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -666,7 +666,7 @@
         <v>44890</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -753,7 +753,7 @@
         <v>44418</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -839,7 +839,7 @@
         <v>44748</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -925,7 +925,7 @@
         <v>43349</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1010,7 +1010,7 @@
         <v>43451</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1095,7 +1095,7 @@
         <v>43549</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1180,7 +1180,7 @@
         <v>44349</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1265,7 +1265,7 @@
         <v>44427</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1350,7 +1350,7 @@
         <v>44474</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1435,7 +1435,7 @@
         <v>44805</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1520,7 +1520,7 @@
         <v>44906</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1605,7 +1605,7 @@
         <v>43325</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1662,7 +1662,7 @@
         <v>43340</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1719,7 +1719,7 @@
         <v>43347</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1776,7 +1776,7 @@
         <v>43362</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1833,7 +1833,7 @@
         <v>43362</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1890,7 +1890,7 @@
         <v>43362</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1947,7 +1947,7 @@
         <v>43368</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2004,7 +2004,7 @@
         <v>43368</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2061,7 +2061,7 @@
         <v>43368</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2118,7 +2118,7 @@
         <v>43368</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2175,7 +2175,7 @@
         <v>43368</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2232,7 +2232,7 @@
         <v>43368</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2289,7 +2289,7 @@
         <v>43370</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2346,7 +2346,7 @@
         <v>43370</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2403,7 +2403,7 @@
         <v>43392</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2460,7 +2460,7 @@
         <v>43405</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2517,7 +2517,7 @@
         <v>43412</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2574,7 +2574,7 @@
         <v>43423</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2631,7 +2631,7 @@
         <v>43424</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2688,7 +2688,7 @@
         <v>43424</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2745,7 +2745,7 @@
         <v>43424</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2802,7 +2802,7 @@
         <v>43425</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2859,7 +2859,7 @@
         <v>43425</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -2916,7 +2916,7 @@
         <v>43426</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -2973,7 +2973,7 @@
         <v>43426</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3030,7 +3030,7 @@
         <v>43427</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3087,7 +3087,7 @@
         <v>43430</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3144,7 +3144,7 @@
         <v>43431</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3201,7 +3201,7 @@
         <v>43439</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3258,7 +3258,7 @@
         <v>43444</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3315,7 +3315,7 @@
         <v>43444</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3372,7 +3372,7 @@
         <v>43446</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3429,7 +3429,7 @@
         <v>43446</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3486,7 +3486,7 @@
         <v>43446</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3543,7 +3543,7 @@
         <v>43446</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3600,7 +3600,7 @@
         <v>43447</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3662,7 +3662,7 @@
         <v>43447</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3719,7 +3719,7 @@
         <v>43451</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3776,7 +3776,7 @@
         <v>43452</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3833,7 +3833,7 @@
         <v>43452</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -3890,7 +3890,7 @@
         <v>43452</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -3947,7 +3947,7 @@
         <v>43453</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4004,7 +4004,7 @@
         <v>43453</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4061,7 +4061,7 @@
         <v>43469</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4118,7 +4118,7 @@
         <v>43473</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4175,7 +4175,7 @@
         <v>43473</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4232,7 +4232,7 @@
         <v>43475</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4289,7 +4289,7 @@
         <v>43476</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4346,7 +4346,7 @@
         <v>43479</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4403,7 +4403,7 @@
         <v>43479</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4460,7 +4460,7 @@
         <v>43486</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4517,7 +4517,7 @@
         <v>43490</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4574,7 +4574,7 @@
         <v>43490</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4631,7 +4631,7 @@
         <v>43500</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4688,7 +4688,7 @@
         <v>43500</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4745,7 +4745,7 @@
         <v>43502</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -4802,7 +4802,7 @@
         <v>43502</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -4859,7 +4859,7 @@
         <v>43509</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -4916,7 +4916,7 @@
         <v>43509</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -4973,7 +4973,7 @@
         <v>43514</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5030,7 +5030,7 @@
         <v>43518</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5087,7 +5087,7 @@
         <v>43542</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5144,7 +5144,7 @@
         <v>43542</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5201,7 +5201,7 @@
         <v>43542</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5258,7 +5258,7 @@
         <v>43542</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5315,7 +5315,7 @@
         <v>43543</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5372,7 +5372,7 @@
         <v>43578</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5429,7 +5429,7 @@
         <v>43592</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5486,7 +5486,7 @@
         <v>43595</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5543,7 +5543,7 @@
         <v>43595</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5600,7 +5600,7 @@
         <v>43604</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5657,7 +5657,7 @@
         <v>43604</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5714,7 +5714,7 @@
         <v>43605</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -5776,7 +5776,7 @@
         <v>43607</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -5833,7 +5833,7 @@
         <v>43609</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -5890,7 +5890,7 @@
         <v>43612</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -5947,7 +5947,7 @@
         <v>43614</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6004,7 +6004,7 @@
         <v>43619</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6061,7 +6061,7 @@
         <v>43628</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6118,7 +6118,7 @@
         <v>43640</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6175,7 +6175,7 @@
         <v>43643</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6232,7 +6232,7 @@
         <v>43651</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6289,7 +6289,7 @@
         <v>43657</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6346,7 +6346,7 @@
         <v>43663</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6403,7 +6403,7 @@
         <v>43671</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6460,7 +6460,7 @@
         <v>43685</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6517,7 +6517,7 @@
         <v>43685</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6574,7 +6574,7 @@
         <v>43699</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6631,7 +6631,7 @@
         <v>43699</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -6688,7 +6688,7 @@
         <v>43700</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -6745,7 +6745,7 @@
         <v>43700</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -6802,7 +6802,7 @@
         <v>43700</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -6859,7 +6859,7 @@
         <v>43700</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -6916,7 +6916,7 @@
         <v>43700</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -6973,7 +6973,7 @@
         <v>43700</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7030,7 +7030,7 @@
         <v>43707</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7087,7 +7087,7 @@
         <v>43711</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7144,7 +7144,7 @@
         <v>43731</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7201,7 +7201,7 @@
         <v>43762</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7258,7 +7258,7 @@
         <v>43762</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7315,7 +7315,7 @@
         <v>43762</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7372,7 +7372,7 @@
         <v>43762</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7429,7 +7429,7 @@
         <v>43774</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7486,7 +7486,7 @@
         <v>43782</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7543,7 +7543,7 @@
         <v>43783</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -7605,7 +7605,7 @@
         <v>43788</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -7662,7 +7662,7 @@
         <v>43790</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -7719,7 +7719,7 @@
         <v>43790</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -7776,7 +7776,7 @@
         <v>43791</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -7833,7 +7833,7 @@
         <v>43798</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -7890,7 +7890,7 @@
         <v>43798</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -7947,7 +7947,7 @@
         <v>43803</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8004,7 +8004,7 @@
         <v>43803</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8061,7 +8061,7 @@
         <v>43812</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8118,7 +8118,7 @@
         <v>43826</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8175,7 +8175,7 @@
         <v>43826</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8232,7 +8232,7 @@
         <v>43839</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8289,7 +8289,7 @@
         <v>43850</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8346,7 +8346,7 @@
         <v>43850</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8403,7 +8403,7 @@
         <v>43852</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8460,7 +8460,7 @@
         <v>43852</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -8517,7 +8517,7 @@
         <v>43852</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -8574,7 +8574,7 @@
         <v>43852</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -8631,7 +8631,7 @@
         <v>43852</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -8688,7 +8688,7 @@
         <v>43852</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -8745,7 +8745,7 @@
         <v>43852</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -8802,7 +8802,7 @@
         <v>43852</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -8859,7 +8859,7 @@
         <v>43852</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -8916,7 +8916,7 @@
         <v>43853</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -8978,7 +8978,7 @@
         <v>43853</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -9040,7 +9040,7 @@
         <v>43858</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9097,7 +9097,7 @@
         <v>43866</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9159,7 +9159,7 @@
         <v>43868</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9216,7 +9216,7 @@
         <v>43868</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9273,7 +9273,7 @@
         <v>43868</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9330,7 +9330,7 @@
         <v>43873</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9387,7 +9387,7 @@
         <v>43873</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -9444,7 +9444,7 @@
         <v>43874</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -9501,7 +9501,7 @@
         <v>43878</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -9558,7 +9558,7 @@
         <v>43889</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -9615,7 +9615,7 @@
         <v>43890</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -9672,7 +9672,7 @@
         <v>43894</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -9729,7 +9729,7 @@
         <v>43907</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -9786,7 +9786,7 @@
         <v>43907</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -9843,7 +9843,7 @@
         <v>43907</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -9900,7 +9900,7 @@
         <v>43907</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -9957,7 +9957,7 @@
         <v>43908</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -10014,7 +10014,7 @@
         <v>43908</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -10076,7 +10076,7 @@
         <v>43908</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -10133,7 +10133,7 @@
         <v>43919</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -10190,7 +10190,7 @@
         <v>43921</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -10247,7 +10247,7 @@
         <v>43921</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -10304,7 +10304,7 @@
         <v>43989</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -10361,7 +10361,7 @@
         <v>43990</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -10418,7 +10418,7 @@
         <v>43992</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -10475,7 +10475,7 @@
         <v>44000</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -10532,7 +10532,7 @@
         <v>44012</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -10589,7 +10589,7 @@
         <v>44020</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -10646,7 +10646,7 @@
         <v>44024</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -10703,7 +10703,7 @@
         <v>44071</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -10760,7 +10760,7 @@
         <v>44089</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -10817,7 +10817,7 @@
         <v>44089</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -10874,7 +10874,7 @@
         <v>44089</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -10931,7 +10931,7 @@
         <v>44089</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -10988,7 +10988,7 @@
         <v>44105</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -11045,7 +11045,7 @@
         <v>44106</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -11102,7 +11102,7 @@
         <v>44109</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -11159,7 +11159,7 @@
         <v>44109</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -11216,7 +11216,7 @@
         <v>44117</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -11273,7 +11273,7 @@
         <v>44120</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -11330,7 +11330,7 @@
         <v>44125</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -11387,7 +11387,7 @@
         <v>44126</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -11444,7 +11444,7 @@
         <v>44131</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -11501,7 +11501,7 @@
         <v>44131</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -11558,7 +11558,7 @@
         <v>44142</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -11615,7 +11615,7 @@
         <v>44142</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -11672,7 +11672,7 @@
         <v>44146</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -11729,7 +11729,7 @@
         <v>44146</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -11786,7 +11786,7 @@
         <v>44153</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -11843,7 +11843,7 @@
         <v>44155</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -11900,7 +11900,7 @@
         <v>44157</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -11957,7 +11957,7 @@
         <v>44157</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -12014,7 +12014,7 @@
         <v>44157</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -12071,7 +12071,7 @@
         <v>44162</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -12128,7 +12128,7 @@
         <v>44162</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -12185,7 +12185,7 @@
         <v>44165</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -12242,7 +12242,7 @@
         <v>44181</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -12299,7 +12299,7 @@
         <v>44206</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -12356,7 +12356,7 @@
         <v>44209</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -12413,7 +12413,7 @@
         <v>44215</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -12470,7 +12470,7 @@
         <v>44215</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -12527,7 +12527,7 @@
         <v>44215</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -12584,7 +12584,7 @@
         <v>44220</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -12641,7 +12641,7 @@
         <v>44220</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -12698,7 +12698,7 @@
         <v>44228</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -12755,7 +12755,7 @@
         <v>44228</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -12812,7 +12812,7 @@
         <v>44230</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -12869,7 +12869,7 @@
         <v>44252</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -12926,7 +12926,7 @@
         <v>44258</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -12988,7 +12988,7 @@
         <v>44263</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -13045,7 +13045,7 @@
         <v>44265</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -13102,7 +13102,7 @@
         <v>44266</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -13159,7 +13159,7 @@
         <v>44270</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -13216,7 +13216,7 @@
         <v>44293</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -13273,7 +13273,7 @@
         <v>44299</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -13330,7 +13330,7 @@
         <v>44300</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -13387,7 +13387,7 @@
         <v>44312</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -13444,7 +13444,7 @@
         <v>44322</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -13501,7 +13501,7 @@
         <v>44332</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -13558,7 +13558,7 @@
         <v>44334</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -13615,7 +13615,7 @@
         <v>44350</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -13672,7 +13672,7 @@
         <v>44350</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -13729,7 +13729,7 @@
         <v>44351</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -13786,7 +13786,7 @@
         <v>44360</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -13843,7 +13843,7 @@
         <v>44361</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -13900,7 +13900,7 @@
         <v>44368</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -13957,7 +13957,7 @@
         <v>44418</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -14014,7 +14014,7 @@
         <v>44420</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -14071,7 +14071,7 @@
         <v>44428</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -14128,7 +14128,7 @@
         <v>44428</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -14185,7 +14185,7 @@
         <v>44429</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -14242,7 +14242,7 @@
         <v>44429</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -14299,7 +14299,7 @@
         <v>44433</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -14356,7 +14356,7 @@
         <v>44433</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -14413,7 +14413,7 @@
         <v>44434</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -14470,7 +14470,7 @@
         <v>44447</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -14527,7 +14527,7 @@
         <v>44454</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -14584,7 +14584,7 @@
         <v>44466</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -14641,7 +14641,7 @@
         <v>44469</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -14698,7 +14698,7 @@
         <v>44470</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -14755,7 +14755,7 @@
         <v>44474</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -14812,7 +14812,7 @@
         <v>44475</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -14869,7 +14869,7 @@
         <v>44489</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -14926,7 +14926,7 @@
         <v>44497</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -14983,7 +14983,7 @@
         <v>44503</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -15045,7 +15045,7 @@
         <v>44512</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -15102,7 +15102,7 @@
         <v>44529</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -15159,7 +15159,7 @@
         <v>44529</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -15216,7 +15216,7 @@
         <v>44529</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -15273,7 +15273,7 @@
         <v>44543</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -15330,7 +15330,7 @@
         <v>44572</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -15387,7 +15387,7 @@
         <v>44573</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -15449,7 +15449,7 @@
         <v>44578</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -15506,7 +15506,7 @@
         <v>44594</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -15563,7 +15563,7 @@
         <v>44594</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -15620,7 +15620,7 @@
         <v>44601</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -15677,7 +15677,7 @@
         <v>44602</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -15734,7 +15734,7 @@
         <v>44603</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -15791,7 +15791,7 @@
         <v>44616</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -15848,7 +15848,7 @@
         <v>44622</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -15905,7 +15905,7 @@
         <v>44623</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -15962,7 +15962,7 @@
         <v>44627</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -16024,7 +16024,7 @@
         <v>44629</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -16081,7 +16081,7 @@
         <v>44630</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -16138,7 +16138,7 @@
         <v>44630</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -16195,7 +16195,7 @@
         <v>44636</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -16252,7 +16252,7 @@
         <v>44636</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -16309,7 +16309,7 @@
         <v>44637</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -16366,7 +16366,7 @@
         <v>44663</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -16423,7 +16423,7 @@
         <v>44672</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -16480,7 +16480,7 @@
         <v>44707</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -16537,7 +16537,7 @@
         <v>44711</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -16594,7 +16594,7 @@
         <v>44713</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -16651,7 +16651,7 @@
         <v>44722</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -16708,7 +16708,7 @@
         <v>44726</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -16765,7 +16765,7 @@
         <v>44729</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -16822,7 +16822,7 @@
         <v>44739</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -16879,7 +16879,7 @@
         <v>44742</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -16936,7 +16936,7 @@
         <v>44742</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -16993,7 +16993,7 @@
         <v>44802</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -17050,7 +17050,7 @@
         <v>44802</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -17107,7 +17107,7 @@
         <v>44803</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -17164,7 +17164,7 @@
         <v>44805</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -17221,7 +17221,7 @@
         <v>44819</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -17278,7 +17278,7 @@
         <v>44823</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -17335,7 +17335,7 @@
         <v>44823</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -17392,7 +17392,7 @@
         <v>44838</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -17449,7 +17449,7 @@
         <v>44838</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -17506,7 +17506,7 @@
         <v>44861</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -17563,7 +17563,7 @@
         <v>44869</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -17620,7 +17620,7 @@
         <v>44880</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -17677,7 +17677,7 @@
         <v>44880</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -17734,7 +17734,7 @@
         <v>44882</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -17791,7 +17791,7 @@
         <v>44895</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -17848,7 +17848,7 @@
         <v>44928</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -17905,7 +17905,7 @@
         <v>44928</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -17962,7 +17962,7 @@
         <v>44945</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -18019,7 +18019,7 @@
         <v>44952</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -18076,7 +18076,7 @@
         <v>44952</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -18133,7 +18133,7 @@
         <v>44952</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -18190,7 +18190,7 @@
         <v>44952</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -18247,7 +18247,7 @@
         <v>44957</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -18304,7 +18304,7 @@
         <v>44957</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -18361,7 +18361,7 @@
         <v>44960</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -18418,7 +18418,7 @@
         <v>44974</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -18475,7 +18475,7 @@
         <v>44979</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -18537,7 +18537,7 @@
         <v>44985</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -18594,7 +18594,7 @@
         <v>44993</v>
       </c>
       <c r="C311" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -18651,7 +18651,7 @@
         <v>45014</v>
       </c>
       <c r="C312" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -18708,7 +18708,7 @@
         <v>45014</v>
       </c>
       <c r="C313" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -18765,7 +18765,7 @@
         <v>45014</v>
       </c>
       <c r="C314" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -18822,7 +18822,7 @@
         <v>45014</v>
       </c>
       <c r="C315" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -18879,7 +18879,7 @@
         <v>45014</v>
       </c>
       <c r="C316" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -18936,7 +18936,7 @@
         <v>45022</v>
       </c>
       <c r="C317" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -18993,7 +18993,7 @@
         <v>45022</v>
       </c>
       <c r="C318" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -19050,7 +19050,7 @@
         <v>45027</v>
       </c>
       <c r="C319" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -19107,7 +19107,7 @@
         <v>45033</v>
       </c>
       <c r="C320" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -19164,7 +19164,7 @@
         <v>45033</v>
       </c>
       <c r="C321" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
@@ -19221,7 +19221,7 @@
         <v>45033</v>
       </c>
       <c r="C322" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
@@ -19278,7 +19278,7 @@
         <v>45036</v>
       </c>
       <c r="C323" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
@@ -19335,7 +19335,7 @@
         <v>45050</v>
       </c>
       <c r="C324" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D324" t="inlineStr">
         <is>
@@ -19392,7 +19392,7 @@
         <v>45050</v>
       </c>
       <c r="C325" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D325" t="inlineStr">
         <is>
@@ -19449,7 +19449,7 @@
         <v>45065</v>
       </c>
       <c r="C326" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D326" t="inlineStr">
         <is>
@@ -19506,7 +19506,7 @@
         <v>45072</v>
       </c>
       <c r="C327" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D327" t="inlineStr">
         <is>
@@ -19563,7 +19563,7 @@
         <v>45073</v>
       </c>
       <c r="C328" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D328" t="inlineStr">
         <is>
@@ -19620,7 +19620,7 @@
         <v>45076</v>
       </c>
       <c r="C329" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D329" t="inlineStr">
         <is>
@@ -19677,7 +19677,7 @@
         <v>45076</v>
       </c>
       <c r="C330" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D330" t="inlineStr">
         <is>
@@ -19734,7 +19734,7 @@
         <v>45076</v>
       </c>
       <c r="C331" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D331" t="inlineStr">
         <is>
@@ -19791,7 +19791,7 @@
         <v>45076</v>
       </c>
       <c r="C332" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D332" t="inlineStr">
         <is>
@@ -19848,7 +19848,7 @@
         <v>45076</v>
       </c>
       <c r="C333" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D333" t="inlineStr">
         <is>
@@ -19905,7 +19905,7 @@
         <v>45078</v>
       </c>
       <c r="C334" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D334" t="inlineStr">
         <is>
@@ -19962,7 +19962,7 @@
         <v>45082</v>
       </c>
       <c r="C335" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D335" t="inlineStr">
         <is>
@@ -20019,7 +20019,7 @@
         <v>45082</v>
       </c>
       <c r="C336" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D336" t="inlineStr">
         <is>
@@ -20081,7 +20081,7 @@
         <v>45084</v>
       </c>
       <c r="C337" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D337" t="inlineStr">
         <is>
@@ -20138,7 +20138,7 @@
         <v>45084</v>
       </c>
       <c r="C338" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D338" t="inlineStr">
         <is>
@@ -20195,7 +20195,7 @@
         <v>45085</v>
       </c>
       <c r="C339" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D339" t="inlineStr">
         <is>
@@ -20252,7 +20252,7 @@
         <v>45085</v>
       </c>
       <c r="C340" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D340" t="inlineStr">
         <is>
@@ -20309,7 +20309,7 @@
         <v>45089</v>
       </c>
       <c r="C341" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D341" t="inlineStr">
         <is>
@@ -20366,7 +20366,7 @@
         <v>45089</v>
       </c>
       <c r="C342" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D342" t="inlineStr">
         <is>
@@ -20423,7 +20423,7 @@
         <v>45090</v>
       </c>
       <c r="C343" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D343" t="inlineStr">
         <is>
@@ -20480,7 +20480,7 @@
         <v>45091</v>
       </c>
       <c r="C344" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D344" t="inlineStr">
         <is>
@@ -20537,7 +20537,7 @@
         <v>45091</v>
       </c>
       <c r="C345" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D345" t="inlineStr">
         <is>
@@ -20594,7 +20594,7 @@
         <v>45091</v>
       </c>
       <c r="C346" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D346" t="inlineStr">
         <is>
@@ -20651,7 +20651,7 @@
         <v>45092</v>
       </c>
       <c r="C347" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D347" t="inlineStr">
         <is>
@@ -20708,7 +20708,7 @@
         <v>45093</v>
       </c>
       <c r="C348" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D348" t="inlineStr">
         <is>
@@ -20765,7 +20765,7 @@
         <v>45097</v>
       </c>
       <c r="C349" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D349" t="inlineStr">
         <is>
@@ -20822,7 +20822,7 @@
         <v>45103</v>
       </c>
       <c r="C350" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D350" t="inlineStr">
         <is>
@@ -20879,7 +20879,7 @@
         <v>45105</v>
       </c>
       <c r="C351" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D351" t="inlineStr">
         <is>
@@ -20936,7 +20936,7 @@
         <v>45107</v>
       </c>
       <c r="C352" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D352" t="inlineStr">
         <is>
@@ -20993,7 +20993,7 @@
         <v>45112</v>
       </c>
       <c r="C353" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D353" t="inlineStr">
         <is>
@@ -21050,7 +21050,7 @@
         <v>45116</v>
       </c>
       <c r="C354" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D354" t="inlineStr">
         <is>
@@ -21107,7 +21107,7 @@
         <v>45141</v>
       </c>
       <c r="C355" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D355" t="inlineStr">
         <is>
@@ -21164,7 +21164,7 @@
         <v>45142</v>
       </c>
       <c r="C356" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D356" t="inlineStr">
         <is>
@@ -21221,7 +21221,7 @@
         <v>45146</v>
       </c>
       <c r="C357" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D357" t="inlineStr">
         <is>
@@ -21278,7 +21278,7 @@
         <v>45148</v>
       </c>
       <c r="C358" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D358" t="inlineStr">
         <is>
@@ -21335,7 +21335,7 @@
         <v>45148</v>
       </c>
       <c r="C359" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D359" t="inlineStr">
         <is>
@@ -21392,7 +21392,7 @@
         <v>45154</v>
       </c>
       <c r="C360" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D360" t="inlineStr">
         <is>

--- a/Översikt FALKÖPING.xlsx
+++ b/Översikt FALKÖPING.xlsx
@@ -572,7 +572,7 @@
         <v>44950</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -666,7 +666,7 @@
         <v>44890</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -753,7 +753,7 @@
         <v>44418</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -839,7 +839,7 @@
         <v>44748</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -925,7 +925,7 @@
         <v>43349</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1010,7 +1010,7 @@
         <v>43451</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1095,7 +1095,7 @@
         <v>43549</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1180,7 +1180,7 @@
         <v>44349</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1265,7 +1265,7 @@
         <v>44427</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1350,7 +1350,7 @@
         <v>44474</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1435,7 +1435,7 @@
         <v>44805</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1520,7 +1520,7 @@
         <v>44906</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1605,7 +1605,7 @@
         <v>43325</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1662,7 +1662,7 @@
         <v>43340</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1719,7 +1719,7 @@
         <v>43347</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1776,7 +1776,7 @@
         <v>43362</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1833,7 +1833,7 @@
         <v>43362</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1890,7 +1890,7 @@
         <v>43362</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1947,7 +1947,7 @@
         <v>43368</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2004,7 +2004,7 @@
         <v>43368</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2061,7 +2061,7 @@
         <v>43368</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2118,7 +2118,7 @@
         <v>43368</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2175,7 +2175,7 @@
         <v>43368</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2232,7 +2232,7 @@
         <v>43368</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2289,7 +2289,7 @@
         <v>43370</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2346,7 +2346,7 @@
         <v>43370</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2403,7 +2403,7 @@
         <v>43392</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2460,7 +2460,7 @@
         <v>43405</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2517,7 +2517,7 @@
         <v>43412</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2574,7 +2574,7 @@
         <v>43423</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2631,7 +2631,7 @@
         <v>43424</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2688,7 +2688,7 @@
         <v>43424</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2745,7 +2745,7 @@
         <v>43424</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2802,7 +2802,7 @@
         <v>43425</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2859,7 +2859,7 @@
         <v>43425</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -2916,7 +2916,7 @@
         <v>43426</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -2973,7 +2973,7 @@
         <v>43426</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3030,7 +3030,7 @@
         <v>43427</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3087,7 +3087,7 @@
         <v>43430</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3144,7 +3144,7 @@
         <v>43431</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3201,7 +3201,7 @@
         <v>43439</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3258,7 +3258,7 @@
         <v>43444</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3315,7 +3315,7 @@
         <v>43444</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3372,7 +3372,7 @@
         <v>43446</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3429,7 +3429,7 @@
         <v>43446</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3486,7 +3486,7 @@
         <v>43446</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3543,7 +3543,7 @@
         <v>43446</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3600,7 +3600,7 @@
         <v>43447</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3662,7 +3662,7 @@
         <v>43447</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3719,7 +3719,7 @@
         <v>43451</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3776,7 +3776,7 @@
         <v>43452</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3833,7 +3833,7 @@
         <v>43452</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -3890,7 +3890,7 @@
         <v>43452</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -3947,7 +3947,7 @@
         <v>43453</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4004,7 +4004,7 @@
         <v>43453</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4061,7 +4061,7 @@
         <v>43469</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4118,7 +4118,7 @@
         <v>43473</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4175,7 +4175,7 @@
         <v>43473</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4232,7 +4232,7 @@
         <v>43475</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4289,7 +4289,7 @@
         <v>43476</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4346,7 +4346,7 @@
         <v>43479</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4403,7 +4403,7 @@
         <v>43479</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4460,7 +4460,7 @@
         <v>43486</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4517,7 +4517,7 @@
         <v>43490</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4574,7 +4574,7 @@
         <v>43490</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4631,7 +4631,7 @@
         <v>43500</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4688,7 +4688,7 @@
         <v>43500</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4745,7 +4745,7 @@
         <v>43502</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -4802,7 +4802,7 @@
         <v>43502</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -4859,7 +4859,7 @@
         <v>43509</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -4916,7 +4916,7 @@
         <v>43509</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -4973,7 +4973,7 @@
         <v>43514</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5030,7 +5030,7 @@
         <v>43518</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5087,7 +5087,7 @@
         <v>43542</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5144,7 +5144,7 @@
         <v>43542</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5201,7 +5201,7 @@
         <v>43542</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5258,7 +5258,7 @@
         <v>43542</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5315,7 +5315,7 @@
         <v>43543</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5372,7 +5372,7 @@
         <v>43578</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5429,7 +5429,7 @@
         <v>43592</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5486,7 +5486,7 @@
         <v>43595</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5543,7 +5543,7 @@
         <v>43595</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5600,7 +5600,7 @@
         <v>43604</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5657,7 +5657,7 @@
         <v>43604</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5714,7 +5714,7 @@
         <v>43605</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -5776,7 +5776,7 @@
         <v>43607</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -5833,7 +5833,7 @@
         <v>43609</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -5890,7 +5890,7 @@
         <v>43612</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -5947,7 +5947,7 @@
         <v>43614</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6004,7 +6004,7 @@
         <v>43619</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6061,7 +6061,7 @@
         <v>43628</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6118,7 +6118,7 @@
         <v>43640</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6175,7 +6175,7 @@
         <v>43643</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6232,7 +6232,7 @@
         <v>43651</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6289,7 +6289,7 @@
         <v>43657</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6346,7 +6346,7 @@
         <v>43663</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6403,7 +6403,7 @@
         <v>43671</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6460,7 +6460,7 @@
         <v>43685</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6517,7 +6517,7 @@
         <v>43685</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6574,7 +6574,7 @@
         <v>43699</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6631,7 +6631,7 @@
         <v>43699</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -6688,7 +6688,7 @@
         <v>43700</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -6745,7 +6745,7 @@
         <v>43700</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -6802,7 +6802,7 @@
         <v>43700</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -6859,7 +6859,7 @@
         <v>43700</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -6916,7 +6916,7 @@
         <v>43700</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -6973,7 +6973,7 @@
         <v>43700</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7030,7 +7030,7 @@
         <v>43707</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7087,7 +7087,7 @@
         <v>43711</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7144,7 +7144,7 @@
         <v>43731</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7201,7 +7201,7 @@
         <v>43762</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7258,7 +7258,7 @@
         <v>43762</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7315,7 +7315,7 @@
         <v>43762</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7372,7 +7372,7 @@
         <v>43762</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7429,7 +7429,7 @@
         <v>43774</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7486,7 +7486,7 @@
         <v>43782</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7543,7 +7543,7 @@
         <v>43783</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -7605,7 +7605,7 @@
         <v>43788</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -7662,7 +7662,7 @@
         <v>43790</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -7719,7 +7719,7 @@
         <v>43790</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -7776,7 +7776,7 @@
         <v>43791</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -7833,7 +7833,7 @@
         <v>43798</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -7890,7 +7890,7 @@
         <v>43798</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -7947,7 +7947,7 @@
         <v>43803</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8004,7 +8004,7 @@
         <v>43803</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8061,7 +8061,7 @@
         <v>43812</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8118,7 +8118,7 @@
         <v>43826</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8175,7 +8175,7 @@
         <v>43826</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8232,7 +8232,7 @@
         <v>43839</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8289,7 +8289,7 @@
         <v>43850</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8346,7 +8346,7 @@
         <v>43850</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8403,7 +8403,7 @@
         <v>43852</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8460,7 +8460,7 @@
         <v>43852</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -8517,7 +8517,7 @@
         <v>43852</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -8574,7 +8574,7 @@
         <v>43852</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -8631,7 +8631,7 @@
         <v>43852</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -8688,7 +8688,7 @@
         <v>43852</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -8745,7 +8745,7 @@
         <v>43852</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -8802,7 +8802,7 @@
         <v>43852</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -8859,7 +8859,7 @@
         <v>43852</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -8916,7 +8916,7 @@
         <v>43853</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -8978,7 +8978,7 @@
         <v>43853</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -9040,7 +9040,7 @@
         <v>43858</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9097,7 +9097,7 @@
         <v>43866</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9159,7 +9159,7 @@
         <v>43868</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9216,7 +9216,7 @@
         <v>43868</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9273,7 +9273,7 @@
         <v>43868</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9330,7 +9330,7 @@
         <v>43873</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9387,7 +9387,7 @@
         <v>43873</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -9444,7 +9444,7 @@
         <v>43874</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -9501,7 +9501,7 @@
         <v>43878</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -9558,7 +9558,7 @@
         <v>43889</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -9615,7 +9615,7 @@
         <v>43890</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -9672,7 +9672,7 @@
         <v>43894</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -9729,7 +9729,7 @@
         <v>43907</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -9786,7 +9786,7 @@
         <v>43907</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -9843,7 +9843,7 @@
         <v>43907</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -9900,7 +9900,7 @@
         <v>43907</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -9957,7 +9957,7 @@
         <v>43908</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -10014,7 +10014,7 @@
         <v>43908</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -10076,7 +10076,7 @@
         <v>43908</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -10133,7 +10133,7 @@
         <v>43919</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -10190,7 +10190,7 @@
         <v>43921</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -10247,7 +10247,7 @@
         <v>43921</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -10304,7 +10304,7 @@
         <v>43989</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -10361,7 +10361,7 @@
         <v>43990</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -10418,7 +10418,7 @@
         <v>43992</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -10475,7 +10475,7 @@
         <v>44000</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -10532,7 +10532,7 @@
         <v>44012</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -10589,7 +10589,7 @@
         <v>44020</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -10646,7 +10646,7 @@
         <v>44024</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -10703,7 +10703,7 @@
         <v>44071</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -10760,7 +10760,7 @@
         <v>44089</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -10817,7 +10817,7 @@
         <v>44089</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -10874,7 +10874,7 @@
         <v>44089</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -10931,7 +10931,7 @@
         <v>44089</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -10988,7 +10988,7 @@
         <v>44105</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -11045,7 +11045,7 @@
         <v>44106</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -11102,7 +11102,7 @@
         <v>44109</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -11159,7 +11159,7 @@
         <v>44109</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -11216,7 +11216,7 @@
         <v>44117</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -11273,7 +11273,7 @@
         <v>44120</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -11330,7 +11330,7 @@
         <v>44125</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -11387,7 +11387,7 @@
         <v>44126</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -11444,7 +11444,7 @@
         <v>44131</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -11501,7 +11501,7 @@
         <v>44131</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -11558,7 +11558,7 @@
         <v>44142</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -11615,7 +11615,7 @@
         <v>44142</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -11672,7 +11672,7 @@
         <v>44146</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -11729,7 +11729,7 @@
         <v>44146</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -11786,7 +11786,7 @@
         <v>44153</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -11843,7 +11843,7 @@
         <v>44155</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -11900,7 +11900,7 @@
         <v>44157</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -11957,7 +11957,7 @@
         <v>44157</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -12014,7 +12014,7 @@
         <v>44157</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -12071,7 +12071,7 @@
         <v>44162</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -12128,7 +12128,7 @@
         <v>44162</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -12185,7 +12185,7 @@
         <v>44165</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -12242,7 +12242,7 @@
         <v>44181</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -12299,7 +12299,7 @@
         <v>44206</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -12356,7 +12356,7 @@
         <v>44209</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -12413,7 +12413,7 @@
         <v>44215</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -12470,7 +12470,7 @@
         <v>44215</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -12527,7 +12527,7 @@
         <v>44215</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -12584,7 +12584,7 @@
         <v>44220</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -12641,7 +12641,7 @@
         <v>44220</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -12698,7 +12698,7 @@
         <v>44228</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -12755,7 +12755,7 @@
         <v>44228</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -12812,7 +12812,7 @@
         <v>44230</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -12869,7 +12869,7 @@
         <v>44252</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -12926,7 +12926,7 @@
         <v>44258</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -12988,7 +12988,7 @@
         <v>44263</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -13045,7 +13045,7 @@
         <v>44265</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -13102,7 +13102,7 @@
         <v>44266</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -13159,7 +13159,7 @@
         <v>44270</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -13216,7 +13216,7 @@
         <v>44293</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -13273,7 +13273,7 @@
         <v>44299</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -13330,7 +13330,7 @@
         <v>44300</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -13387,7 +13387,7 @@
         <v>44312</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -13444,7 +13444,7 @@
         <v>44322</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -13501,7 +13501,7 @@
         <v>44332</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -13558,7 +13558,7 @@
         <v>44334</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -13615,7 +13615,7 @@
         <v>44350</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -13672,7 +13672,7 @@
         <v>44350</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -13729,7 +13729,7 @@
         <v>44351</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -13786,7 +13786,7 @@
         <v>44360</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -13843,7 +13843,7 @@
         <v>44361</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -13900,7 +13900,7 @@
         <v>44368</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -13957,7 +13957,7 @@
         <v>44418</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -14014,7 +14014,7 @@
         <v>44420</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -14071,7 +14071,7 @@
         <v>44428</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -14128,7 +14128,7 @@
         <v>44428</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -14185,7 +14185,7 @@
         <v>44429</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -14242,7 +14242,7 @@
         <v>44429</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -14299,7 +14299,7 @@
         <v>44433</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -14356,7 +14356,7 @@
         <v>44433</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -14413,7 +14413,7 @@
         <v>44434</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -14470,7 +14470,7 @@
         <v>44447</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -14527,7 +14527,7 @@
         <v>44454</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -14584,7 +14584,7 @@
         <v>44466</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -14641,7 +14641,7 @@
         <v>44469</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -14698,7 +14698,7 @@
         <v>44470</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -14755,7 +14755,7 @@
         <v>44474</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -14812,7 +14812,7 @@
         <v>44475</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -14869,7 +14869,7 @@
         <v>44489</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -14926,7 +14926,7 @@
         <v>44497</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -14983,7 +14983,7 @@
         <v>44503</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -15045,7 +15045,7 @@
         <v>44512</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -15102,7 +15102,7 @@
         <v>44529</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -15159,7 +15159,7 @@
         <v>44529</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -15216,7 +15216,7 @@
         <v>44529</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -15273,7 +15273,7 @@
         <v>44543</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -15330,7 +15330,7 @@
         <v>44572</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -15387,7 +15387,7 @@
         <v>44573</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -15449,7 +15449,7 @@
         <v>44578</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -15506,7 +15506,7 @@
         <v>44594</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -15563,7 +15563,7 @@
         <v>44594</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -15620,7 +15620,7 @@
         <v>44601</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -15677,7 +15677,7 @@
         <v>44602</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -15734,7 +15734,7 @@
         <v>44603</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -15791,7 +15791,7 @@
         <v>44616</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -15848,7 +15848,7 @@
         <v>44622</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -15905,7 +15905,7 @@
         <v>44623</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -15962,7 +15962,7 @@
         <v>44627</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -16024,7 +16024,7 @@
         <v>44629</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -16081,7 +16081,7 @@
         <v>44630</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -16138,7 +16138,7 @@
         <v>44630</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -16195,7 +16195,7 @@
         <v>44636</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -16252,7 +16252,7 @@
         <v>44636</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -16309,7 +16309,7 @@
         <v>44637</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -16366,7 +16366,7 @@
         <v>44663</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -16423,7 +16423,7 @@
         <v>44672</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -16480,7 +16480,7 @@
         <v>44707</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -16537,7 +16537,7 @@
         <v>44711</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -16594,7 +16594,7 @@
         <v>44713</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -16651,7 +16651,7 @@
         <v>44722</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -16708,7 +16708,7 @@
         <v>44726</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -16765,7 +16765,7 @@
         <v>44729</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -16822,7 +16822,7 @@
         <v>44739</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -16879,7 +16879,7 @@
         <v>44742</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -16936,7 +16936,7 @@
         <v>44742</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -16993,7 +16993,7 @@
         <v>44802</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -17050,7 +17050,7 @@
         <v>44802</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -17107,7 +17107,7 @@
         <v>44803</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -17164,7 +17164,7 @@
         <v>44805</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -17221,7 +17221,7 @@
         <v>44819</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -17278,7 +17278,7 @@
         <v>44823</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -17335,7 +17335,7 @@
         <v>44823</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -17392,7 +17392,7 @@
         <v>44838</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -17449,7 +17449,7 @@
         <v>44838</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -17506,7 +17506,7 @@
         <v>44861</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -17563,7 +17563,7 @@
         <v>44869</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -17620,7 +17620,7 @@
         <v>44880</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -17677,7 +17677,7 @@
         <v>44880</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -17734,7 +17734,7 @@
         <v>44882</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -17791,7 +17791,7 @@
         <v>44895</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -17848,7 +17848,7 @@
         <v>44928</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -17905,7 +17905,7 @@
         <v>44928</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -17962,7 +17962,7 @@
         <v>44945</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -18019,7 +18019,7 @@
         <v>44952</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -18076,7 +18076,7 @@
         <v>44952</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -18133,7 +18133,7 @@
         <v>44952</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -18190,7 +18190,7 @@
         <v>44952</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -18247,7 +18247,7 @@
         <v>44957</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -18304,7 +18304,7 @@
         <v>44957</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -18361,7 +18361,7 @@
         <v>44960</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -18418,7 +18418,7 @@
         <v>44974</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -18475,7 +18475,7 @@
         <v>44979</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -18537,7 +18537,7 @@
         <v>44985</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -18594,7 +18594,7 @@
         <v>44993</v>
       </c>
       <c r="C311" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -18651,7 +18651,7 @@
         <v>45014</v>
       </c>
       <c r="C312" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -18708,7 +18708,7 @@
         <v>45014</v>
       </c>
       <c r="C313" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -18765,7 +18765,7 @@
         <v>45014</v>
       </c>
       <c r="C314" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -18822,7 +18822,7 @@
         <v>45014</v>
       </c>
       <c r="C315" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -18879,7 +18879,7 @@
         <v>45014</v>
       </c>
       <c r="C316" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -18936,7 +18936,7 @@
         <v>45022</v>
       </c>
       <c r="C317" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -18993,7 +18993,7 @@
         <v>45022</v>
       </c>
       <c r="C318" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -19050,7 +19050,7 @@
         <v>45027</v>
       </c>
       <c r="C319" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -19107,7 +19107,7 @@
         <v>45033</v>
       </c>
       <c r="C320" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -19164,7 +19164,7 @@
         <v>45033</v>
       </c>
       <c r="C321" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
@@ -19221,7 +19221,7 @@
         <v>45033</v>
       </c>
       <c r="C322" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
@@ -19278,7 +19278,7 @@
         <v>45036</v>
       </c>
       <c r="C323" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
@@ -19335,7 +19335,7 @@
         <v>45050</v>
       </c>
       <c r="C324" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D324" t="inlineStr">
         <is>
@@ -19392,7 +19392,7 @@
         <v>45050</v>
       </c>
       <c r="C325" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D325" t="inlineStr">
         <is>
@@ -19449,7 +19449,7 @@
         <v>45065</v>
       </c>
       <c r="C326" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D326" t="inlineStr">
         <is>
@@ -19506,7 +19506,7 @@
         <v>45072</v>
       </c>
       <c r="C327" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D327" t="inlineStr">
         <is>
@@ -19563,7 +19563,7 @@
         <v>45073</v>
       </c>
       <c r="C328" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D328" t="inlineStr">
         <is>
@@ -19620,7 +19620,7 @@
         <v>45076</v>
       </c>
       <c r="C329" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D329" t="inlineStr">
         <is>
@@ -19677,7 +19677,7 @@
         <v>45076</v>
       </c>
       <c r="C330" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D330" t="inlineStr">
         <is>
@@ -19734,7 +19734,7 @@
         <v>45076</v>
       </c>
       <c r="C331" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D331" t="inlineStr">
         <is>
@@ -19791,7 +19791,7 @@
         <v>45076</v>
       </c>
       <c r="C332" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D332" t="inlineStr">
         <is>
@@ -19848,7 +19848,7 @@
         <v>45076</v>
       </c>
       <c r="C333" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D333" t="inlineStr">
         <is>
@@ -19905,7 +19905,7 @@
         <v>45078</v>
       </c>
       <c r="C334" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D334" t="inlineStr">
         <is>
@@ -19962,7 +19962,7 @@
         <v>45082</v>
       </c>
       <c r="C335" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D335" t="inlineStr">
         <is>
@@ -20019,7 +20019,7 @@
         <v>45082</v>
       </c>
       <c r="C336" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D336" t="inlineStr">
         <is>
@@ -20081,7 +20081,7 @@
         <v>45084</v>
       </c>
       <c r="C337" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D337" t="inlineStr">
         <is>
@@ -20138,7 +20138,7 @@
         <v>45084</v>
       </c>
       <c r="C338" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D338" t="inlineStr">
         <is>
@@ -20195,7 +20195,7 @@
         <v>45085</v>
       </c>
       <c r="C339" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D339" t="inlineStr">
         <is>
@@ -20252,7 +20252,7 @@
         <v>45085</v>
       </c>
       <c r="C340" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D340" t="inlineStr">
         <is>
@@ -20309,7 +20309,7 @@
         <v>45089</v>
       </c>
       <c r="C341" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D341" t="inlineStr">
         <is>
@@ -20366,7 +20366,7 @@
         <v>45089</v>
       </c>
       <c r="C342" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D342" t="inlineStr">
         <is>
@@ -20423,7 +20423,7 @@
         <v>45090</v>
       </c>
       <c r="C343" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D343" t="inlineStr">
         <is>
@@ -20480,7 +20480,7 @@
         <v>45091</v>
       </c>
       <c r="C344" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D344" t="inlineStr">
         <is>
@@ -20537,7 +20537,7 @@
         <v>45091</v>
       </c>
       <c r="C345" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D345" t="inlineStr">
         <is>
@@ -20594,7 +20594,7 @@
         <v>45091</v>
       </c>
       <c r="C346" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D346" t="inlineStr">
         <is>
@@ -20651,7 +20651,7 @@
         <v>45092</v>
       </c>
       <c r="C347" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D347" t="inlineStr">
         <is>
@@ -20708,7 +20708,7 @@
         <v>45093</v>
       </c>
       <c r="C348" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D348" t="inlineStr">
         <is>
@@ -20765,7 +20765,7 @@
         <v>45097</v>
       </c>
       <c r="C349" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D349" t="inlineStr">
         <is>
@@ -20822,7 +20822,7 @@
         <v>45103</v>
       </c>
       <c r="C350" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D350" t="inlineStr">
         <is>
@@ -20879,7 +20879,7 @@
         <v>45105</v>
       </c>
       <c r="C351" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D351" t="inlineStr">
         <is>
@@ -20936,7 +20936,7 @@
         <v>45107</v>
       </c>
       <c r="C352" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D352" t="inlineStr">
         <is>
@@ -20993,7 +20993,7 @@
         <v>45112</v>
       </c>
       <c r="C353" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D353" t="inlineStr">
         <is>
@@ -21050,7 +21050,7 @@
         <v>45116</v>
       </c>
       <c r="C354" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D354" t="inlineStr">
         <is>
@@ -21107,7 +21107,7 @@
         <v>45141</v>
       </c>
       <c r="C355" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D355" t="inlineStr">
         <is>
@@ -21164,7 +21164,7 @@
         <v>45142</v>
       </c>
       <c r="C356" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D356" t="inlineStr">
         <is>
@@ -21221,7 +21221,7 @@
         <v>45146</v>
       </c>
       <c r="C357" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D357" t="inlineStr">
         <is>
@@ -21278,7 +21278,7 @@
         <v>45148</v>
       </c>
       <c r="C358" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D358" t="inlineStr">
         <is>
@@ -21335,7 +21335,7 @@
         <v>45148</v>
       </c>
       <c r="C359" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D359" t="inlineStr">
         <is>
@@ -21392,7 +21392,7 @@
         <v>45154</v>
       </c>
       <c r="C360" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D360" t="inlineStr">
         <is>

--- a/Översikt FALKÖPING.xlsx
+++ b/Översikt FALKÖPING.xlsx
@@ -572,7 +572,7 @@
         <v>44950</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -666,7 +666,7 @@
         <v>44890</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -753,7 +753,7 @@
         <v>44418</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -839,7 +839,7 @@
         <v>44748</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -925,7 +925,7 @@
         <v>43349</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1010,7 +1010,7 @@
         <v>43451</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1095,7 +1095,7 @@
         <v>43549</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1180,7 +1180,7 @@
         <v>44349</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1265,7 +1265,7 @@
         <v>44427</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1350,7 +1350,7 @@
         <v>44474</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1435,7 +1435,7 @@
         <v>44805</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1520,7 +1520,7 @@
         <v>44906</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1605,7 +1605,7 @@
         <v>43325</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1662,7 +1662,7 @@
         <v>43340</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1719,7 +1719,7 @@
         <v>43347</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1776,7 +1776,7 @@
         <v>43362</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1833,7 +1833,7 @@
         <v>43362</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1890,7 +1890,7 @@
         <v>43362</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1947,7 +1947,7 @@
         <v>43368</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2004,7 +2004,7 @@
         <v>43368</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2061,7 +2061,7 @@
         <v>43368</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2118,7 +2118,7 @@
         <v>43368</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2175,7 +2175,7 @@
         <v>43368</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2232,7 +2232,7 @@
         <v>43368</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2289,7 +2289,7 @@
         <v>43370</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2346,7 +2346,7 @@
         <v>43370</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2403,7 +2403,7 @@
         <v>43392</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2460,7 +2460,7 @@
         <v>43405</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2517,7 +2517,7 @@
         <v>43412</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2574,7 +2574,7 @@
         <v>43423</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2631,7 +2631,7 @@
         <v>43424</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2688,7 +2688,7 @@
         <v>43424</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2745,7 +2745,7 @@
         <v>43424</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2802,7 +2802,7 @@
         <v>43425</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2859,7 +2859,7 @@
         <v>43425</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -2916,7 +2916,7 @@
         <v>43426</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -2973,7 +2973,7 @@
         <v>43426</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3030,7 +3030,7 @@
         <v>43427</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3087,7 +3087,7 @@
         <v>43430</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3144,7 +3144,7 @@
         <v>43431</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3201,7 +3201,7 @@
         <v>43439</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3258,7 +3258,7 @@
         <v>43444</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3315,7 +3315,7 @@
         <v>43444</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3372,7 +3372,7 @@
         <v>43446</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3429,7 +3429,7 @@
         <v>43446</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3486,7 +3486,7 @@
         <v>43446</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3543,7 +3543,7 @@
         <v>43446</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3600,7 +3600,7 @@
         <v>43447</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3662,7 +3662,7 @@
         <v>43447</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3719,7 +3719,7 @@
         <v>43451</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3776,7 +3776,7 @@
         <v>43452</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3833,7 +3833,7 @@
         <v>43452</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -3890,7 +3890,7 @@
         <v>43452</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -3947,7 +3947,7 @@
         <v>43453</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4004,7 +4004,7 @@
         <v>43453</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4061,7 +4061,7 @@
         <v>43469</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4118,7 +4118,7 @@
         <v>43473</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4175,7 +4175,7 @@
         <v>43473</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4232,7 +4232,7 @@
         <v>43475</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4289,7 +4289,7 @@
         <v>43476</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4346,7 +4346,7 @@
         <v>43479</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4403,7 +4403,7 @@
         <v>43479</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4460,7 +4460,7 @@
         <v>43486</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4517,7 +4517,7 @@
         <v>43490</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4574,7 +4574,7 @@
         <v>43490</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4631,7 +4631,7 @@
         <v>43500</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4688,7 +4688,7 @@
         <v>43500</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4745,7 +4745,7 @@
         <v>43502</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -4802,7 +4802,7 @@
         <v>43502</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -4859,7 +4859,7 @@
         <v>43509</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -4916,7 +4916,7 @@
         <v>43509</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -4973,7 +4973,7 @@
         <v>43514</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5030,7 +5030,7 @@
         <v>43518</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5087,7 +5087,7 @@
         <v>43542</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5144,7 +5144,7 @@
         <v>43542</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5201,7 +5201,7 @@
         <v>43542</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5258,7 +5258,7 @@
         <v>43542</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5315,7 +5315,7 @@
         <v>43543</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5372,7 +5372,7 @@
         <v>43578</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5429,7 +5429,7 @@
         <v>43592</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5486,7 +5486,7 @@
         <v>43595</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5543,7 +5543,7 @@
         <v>43595</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5600,7 +5600,7 @@
         <v>43604</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5657,7 +5657,7 @@
         <v>43604</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5714,7 +5714,7 @@
         <v>43605</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -5776,7 +5776,7 @@
         <v>43607</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -5833,7 +5833,7 @@
         <v>43609</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -5890,7 +5890,7 @@
         <v>43612</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -5947,7 +5947,7 @@
         <v>43614</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6004,7 +6004,7 @@
         <v>43619</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6061,7 +6061,7 @@
         <v>43628</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6118,7 +6118,7 @@
         <v>43640</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6175,7 +6175,7 @@
         <v>43643</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6232,7 +6232,7 @@
         <v>43651</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6289,7 +6289,7 @@
         <v>43657</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6346,7 +6346,7 @@
         <v>43663</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6403,7 +6403,7 @@
         <v>43671</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6460,7 +6460,7 @@
         <v>43685</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6517,7 +6517,7 @@
         <v>43685</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6574,7 +6574,7 @@
         <v>43699</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6631,7 +6631,7 @@
         <v>43699</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -6688,7 +6688,7 @@
         <v>43700</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -6745,7 +6745,7 @@
         <v>43700</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -6802,7 +6802,7 @@
         <v>43700</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -6859,7 +6859,7 @@
         <v>43700</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -6916,7 +6916,7 @@
         <v>43700</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -6973,7 +6973,7 @@
         <v>43700</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7030,7 +7030,7 @@
         <v>43707</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7087,7 +7087,7 @@
         <v>43711</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7144,7 +7144,7 @@
         <v>43731</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7201,7 +7201,7 @@
         <v>43762</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7258,7 +7258,7 @@
         <v>43762</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7315,7 +7315,7 @@
         <v>43762</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7372,7 +7372,7 @@
         <v>43762</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7429,7 +7429,7 @@
         <v>43774</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7486,7 +7486,7 @@
         <v>43782</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7543,7 +7543,7 @@
         <v>43783</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -7605,7 +7605,7 @@
         <v>43788</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -7662,7 +7662,7 @@
         <v>43790</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -7719,7 +7719,7 @@
         <v>43790</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -7776,7 +7776,7 @@
         <v>43791</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -7833,7 +7833,7 @@
         <v>43798</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -7890,7 +7890,7 @@
         <v>43798</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -7947,7 +7947,7 @@
         <v>43803</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8004,7 +8004,7 @@
         <v>43803</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8061,7 +8061,7 @@
         <v>43812</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8118,7 +8118,7 @@
         <v>43826</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8175,7 +8175,7 @@
         <v>43826</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8232,7 +8232,7 @@
         <v>43839</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8289,7 +8289,7 @@
         <v>43850</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8346,7 +8346,7 @@
         <v>43850</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8403,7 +8403,7 @@
         <v>43852</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8460,7 +8460,7 @@
         <v>43852</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -8517,7 +8517,7 @@
         <v>43852</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -8574,7 +8574,7 @@
         <v>43852</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -8631,7 +8631,7 @@
         <v>43852</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -8688,7 +8688,7 @@
         <v>43852</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -8745,7 +8745,7 @@
         <v>43852</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -8802,7 +8802,7 @@
         <v>43852</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -8859,7 +8859,7 @@
         <v>43852</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -8916,7 +8916,7 @@
         <v>43853</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -8978,7 +8978,7 @@
         <v>43853</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -9040,7 +9040,7 @@
         <v>43858</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9097,7 +9097,7 @@
         <v>43866</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9159,7 +9159,7 @@
         <v>43868</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9216,7 +9216,7 @@
         <v>43868</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9273,7 +9273,7 @@
         <v>43868</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9330,7 +9330,7 @@
         <v>43873</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9387,7 +9387,7 @@
         <v>43873</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -9444,7 +9444,7 @@
         <v>43874</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -9501,7 +9501,7 @@
         <v>43878</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -9558,7 +9558,7 @@
         <v>43889</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -9615,7 +9615,7 @@
         <v>43890</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -9672,7 +9672,7 @@
         <v>43894</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -9729,7 +9729,7 @@
         <v>43907</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -9786,7 +9786,7 @@
         <v>43907</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -9843,7 +9843,7 @@
         <v>43907</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -9900,7 +9900,7 @@
         <v>43907</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -9957,7 +9957,7 @@
         <v>43908</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -10014,7 +10014,7 @@
         <v>43908</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -10076,7 +10076,7 @@
         <v>43908</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -10133,7 +10133,7 @@
         <v>43919</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -10190,7 +10190,7 @@
         <v>43921</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -10247,7 +10247,7 @@
         <v>43921</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -10304,7 +10304,7 @@
         <v>43989</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -10361,7 +10361,7 @@
         <v>43990</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -10418,7 +10418,7 @@
         <v>43992</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -10475,7 +10475,7 @@
         <v>44000</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -10532,7 +10532,7 @@
         <v>44012</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -10589,7 +10589,7 @@
         <v>44020</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -10646,7 +10646,7 @@
         <v>44024</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -10703,7 +10703,7 @@
         <v>44071</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -10760,7 +10760,7 @@
         <v>44089</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -10817,7 +10817,7 @@
         <v>44089</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -10874,7 +10874,7 @@
         <v>44089</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -10931,7 +10931,7 @@
         <v>44089</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -10988,7 +10988,7 @@
         <v>44105</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -11045,7 +11045,7 @@
         <v>44106</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -11102,7 +11102,7 @@
         <v>44109</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -11159,7 +11159,7 @@
         <v>44109</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -11216,7 +11216,7 @@
         <v>44117</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -11273,7 +11273,7 @@
         <v>44120</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -11330,7 +11330,7 @@
         <v>44125</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -11387,7 +11387,7 @@
         <v>44126</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -11444,7 +11444,7 @@
         <v>44131</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -11501,7 +11501,7 @@
         <v>44131</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -11558,7 +11558,7 @@
         <v>44142</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -11615,7 +11615,7 @@
         <v>44142</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -11672,7 +11672,7 @@
         <v>44146</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -11729,7 +11729,7 @@
         <v>44146</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -11786,7 +11786,7 @@
         <v>44153</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -11843,7 +11843,7 @@
         <v>44155</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -11900,7 +11900,7 @@
         <v>44157</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -11957,7 +11957,7 @@
         <v>44157</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -12014,7 +12014,7 @@
         <v>44157</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -12071,7 +12071,7 @@
         <v>44162</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -12128,7 +12128,7 @@
         <v>44162</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -12185,7 +12185,7 @@
         <v>44165</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -12242,7 +12242,7 @@
         <v>44181</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -12299,7 +12299,7 @@
         <v>44206</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -12356,7 +12356,7 @@
         <v>44209</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -12413,7 +12413,7 @@
         <v>44215</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -12470,7 +12470,7 @@
         <v>44215</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -12527,7 +12527,7 @@
         <v>44215</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -12584,7 +12584,7 @@
         <v>44220</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -12641,7 +12641,7 @@
         <v>44220</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -12698,7 +12698,7 @@
         <v>44228</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -12755,7 +12755,7 @@
         <v>44228</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -12812,7 +12812,7 @@
         <v>44230</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -12869,7 +12869,7 @@
         <v>44252</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -12926,7 +12926,7 @@
         <v>44258</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -12988,7 +12988,7 @@
         <v>44263</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -13045,7 +13045,7 @@
         <v>44265</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -13102,7 +13102,7 @@
         <v>44266</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -13159,7 +13159,7 @@
         <v>44270</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -13216,7 +13216,7 @@
         <v>44293</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -13273,7 +13273,7 @@
         <v>44299</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -13330,7 +13330,7 @@
         <v>44300</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -13387,7 +13387,7 @@
         <v>44312</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -13444,7 +13444,7 @@
         <v>44322</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -13501,7 +13501,7 @@
         <v>44332</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -13558,7 +13558,7 @@
         <v>44334</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -13615,7 +13615,7 @@
         <v>44350</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -13672,7 +13672,7 @@
         <v>44350</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -13729,7 +13729,7 @@
         <v>44351</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -13786,7 +13786,7 @@
         <v>44360</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -13843,7 +13843,7 @@
         <v>44361</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -13900,7 +13900,7 @@
         <v>44368</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -13957,7 +13957,7 @@
         <v>44418</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -14014,7 +14014,7 @@
         <v>44420</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -14071,7 +14071,7 @@
         <v>44428</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -14128,7 +14128,7 @@
         <v>44428</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -14185,7 +14185,7 @@
         <v>44429</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -14242,7 +14242,7 @@
         <v>44429</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -14299,7 +14299,7 @@
         <v>44433</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -14356,7 +14356,7 @@
         <v>44433</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -14413,7 +14413,7 @@
         <v>44434</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -14470,7 +14470,7 @@
         <v>44447</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -14527,7 +14527,7 @@
         <v>44454</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -14584,7 +14584,7 @@
         <v>44466</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -14641,7 +14641,7 @@
         <v>44469</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -14698,7 +14698,7 @@
         <v>44470</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -14755,7 +14755,7 @@
         <v>44474</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -14812,7 +14812,7 @@
         <v>44475</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -14869,7 +14869,7 @@
         <v>44489</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -14926,7 +14926,7 @@
         <v>44497</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -14983,7 +14983,7 @@
         <v>44503</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -15045,7 +15045,7 @@
         <v>44512</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -15102,7 +15102,7 @@
         <v>44529</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -15159,7 +15159,7 @@
         <v>44529</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -15216,7 +15216,7 @@
         <v>44529</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -15273,7 +15273,7 @@
         <v>44543</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -15330,7 +15330,7 @@
         <v>44572</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -15387,7 +15387,7 @@
         <v>44573</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -15449,7 +15449,7 @@
         <v>44578</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -15506,7 +15506,7 @@
         <v>44594</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -15563,7 +15563,7 @@
         <v>44594</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -15620,7 +15620,7 @@
         <v>44601</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -15677,7 +15677,7 @@
         <v>44602</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -15734,7 +15734,7 @@
         <v>44603</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -15791,7 +15791,7 @@
         <v>44616</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -15848,7 +15848,7 @@
         <v>44622</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -15905,7 +15905,7 @@
         <v>44623</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -15962,7 +15962,7 @@
         <v>44627</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -16024,7 +16024,7 @@
         <v>44629</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -16081,7 +16081,7 @@
         <v>44630</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -16138,7 +16138,7 @@
         <v>44630</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -16195,7 +16195,7 @@
         <v>44636</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -16252,7 +16252,7 @@
         <v>44636</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -16309,7 +16309,7 @@
         <v>44637</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -16366,7 +16366,7 @@
         <v>44663</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -16423,7 +16423,7 @@
         <v>44672</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -16480,7 +16480,7 @@
         <v>44707</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -16537,7 +16537,7 @@
         <v>44711</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -16594,7 +16594,7 @@
         <v>44713</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -16651,7 +16651,7 @@
         <v>44722</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -16708,7 +16708,7 @@
         <v>44726</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -16765,7 +16765,7 @@
         <v>44729</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -16822,7 +16822,7 @@
         <v>44739</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -16879,7 +16879,7 @@
         <v>44742</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -16936,7 +16936,7 @@
         <v>44742</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -16993,7 +16993,7 @@
         <v>44802</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -17050,7 +17050,7 @@
         <v>44802</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -17107,7 +17107,7 @@
         <v>44803</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -17164,7 +17164,7 @@
         <v>44805</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -17221,7 +17221,7 @@
         <v>44819</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -17278,7 +17278,7 @@
         <v>44823</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -17335,7 +17335,7 @@
         <v>44823</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -17392,7 +17392,7 @@
         <v>44838</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -17449,7 +17449,7 @@
         <v>44838</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -17506,7 +17506,7 @@
         <v>44861</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -17563,7 +17563,7 @@
         <v>44869</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -17620,7 +17620,7 @@
         <v>44880</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -17677,7 +17677,7 @@
         <v>44880</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -17734,7 +17734,7 @@
         <v>44882</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -17791,7 +17791,7 @@
         <v>44895</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -17848,7 +17848,7 @@
         <v>44928</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -17905,7 +17905,7 @@
         <v>44928</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -17962,7 +17962,7 @@
         <v>44945</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -18019,7 +18019,7 @@
         <v>44952</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -18076,7 +18076,7 @@
         <v>44952</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -18133,7 +18133,7 @@
         <v>44952</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -18190,7 +18190,7 @@
         <v>44952</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -18247,7 +18247,7 @@
         <v>44957</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -18304,7 +18304,7 @@
         <v>44957</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -18361,7 +18361,7 @@
         <v>44960</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -18418,7 +18418,7 @@
         <v>44974</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -18475,7 +18475,7 @@
         <v>44979</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -18537,7 +18537,7 @@
         <v>44985</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -18594,7 +18594,7 @@
         <v>44993</v>
       </c>
       <c r="C311" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -18651,7 +18651,7 @@
         <v>45014</v>
       </c>
       <c r="C312" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -18708,7 +18708,7 @@
         <v>45014</v>
       </c>
       <c r="C313" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -18765,7 +18765,7 @@
         <v>45014</v>
       </c>
       <c r="C314" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -18822,7 +18822,7 @@
         <v>45014</v>
       </c>
       <c r="C315" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -18879,7 +18879,7 @@
         <v>45014</v>
       </c>
       <c r="C316" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -18936,7 +18936,7 @@
         <v>45022</v>
       </c>
       <c r="C317" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -18993,7 +18993,7 @@
         <v>45022</v>
       </c>
       <c r="C318" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -19050,7 +19050,7 @@
         <v>45027</v>
       </c>
       <c r="C319" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -19107,7 +19107,7 @@
         <v>45033</v>
       </c>
       <c r="C320" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -19164,7 +19164,7 @@
         <v>45033</v>
       </c>
       <c r="C321" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
@@ -19221,7 +19221,7 @@
         <v>45033</v>
       </c>
       <c r="C322" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
@@ -19278,7 +19278,7 @@
         <v>45036</v>
       </c>
       <c r="C323" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
@@ -19335,7 +19335,7 @@
         <v>45050</v>
       </c>
       <c r="C324" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D324" t="inlineStr">
         <is>
@@ -19392,7 +19392,7 @@
         <v>45050</v>
       </c>
       <c r="C325" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D325" t="inlineStr">
         <is>
@@ -19449,7 +19449,7 @@
         <v>45065</v>
       </c>
       <c r="C326" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D326" t="inlineStr">
         <is>
@@ -19506,7 +19506,7 @@
         <v>45072</v>
       </c>
       <c r="C327" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D327" t="inlineStr">
         <is>
@@ -19563,7 +19563,7 @@
         <v>45073</v>
       </c>
       <c r="C328" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D328" t="inlineStr">
         <is>
@@ -19620,7 +19620,7 @@
         <v>45076</v>
       </c>
       <c r="C329" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D329" t="inlineStr">
         <is>
@@ -19677,7 +19677,7 @@
         <v>45076</v>
       </c>
       <c r="C330" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D330" t="inlineStr">
         <is>
@@ -19734,7 +19734,7 @@
         <v>45076</v>
       </c>
       <c r="C331" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D331" t="inlineStr">
         <is>
@@ -19791,7 +19791,7 @@
         <v>45076</v>
       </c>
       <c r="C332" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D332" t="inlineStr">
         <is>
@@ -19848,7 +19848,7 @@
         <v>45076</v>
       </c>
       <c r="C333" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D333" t="inlineStr">
         <is>
@@ -19905,7 +19905,7 @@
         <v>45078</v>
       </c>
       <c r="C334" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D334" t="inlineStr">
         <is>
@@ -19962,7 +19962,7 @@
         <v>45082</v>
       </c>
       <c r="C335" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D335" t="inlineStr">
         <is>
@@ -20019,7 +20019,7 @@
         <v>45082</v>
       </c>
       <c r="C336" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D336" t="inlineStr">
         <is>
@@ -20081,7 +20081,7 @@
         <v>45084</v>
       </c>
       <c r="C337" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D337" t="inlineStr">
         <is>
@@ -20138,7 +20138,7 @@
         <v>45084</v>
       </c>
       <c r="C338" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D338" t="inlineStr">
         <is>
@@ -20195,7 +20195,7 @@
         <v>45085</v>
       </c>
       <c r="C339" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D339" t="inlineStr">
         <is>
@@ -20252,7 +20252,7 @@
         <v>45085</v>
       </c>
       <c r="C340" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D340" t="inlineStr">
         <is>
@@ -20309,7 +20309,7 @@
         <v>45089</v>
       </c>
       <c r="C341" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D341" t="inlineStr">
         <is>
@@ -20366,7 +20366,7 @@
         <v>45089</v>
       </c>
       <c r="C342" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D342" t="inlineStr">
         <is>
@@ -20423,7 +20423,7 @@
         <v>45090</v>
       </c>
       <c r="C343" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D343" t="inlineStr">
         <is>
@@ -20480,7 +20480,7 @@
         <v>45091</v>
       </c>
       <c r="C344" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D344" t="inlineStr">
         <is>
@@ -20537,7 +20537,7 @@
         <v>45091</v>
       </c>
       <c r="C345" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D345" t="inlineStr">
         <is>
@@ -20594,7 +20594,7 @@
         <v>45091</v>
       </c>
       <c r="C346" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D346" t="inlineStr">
         <is>
@@ -20651,7 +20651,7 @@
         <v>45092</v>
       </c>
       <c r="C347" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D347" t="inlineStr">
         <is>
@@ -20708,7 +20708,7 @@
         <v>45093</v>
       </c>
       <c r="C348" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D348" t="inlineStr">
         <is>
@@ -20765,7 +20765,7 @@
         <v>45097</v>
       </c>
       <c r="C349" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D349" t="inlineStr">
         <is>
@@ -20822,7 +20822,7 @@
         <v>45103</v>
       </c>
       <c r="C350" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D350" t="inlineStr">
         <is>
@@ -20879,7 +20879,7 @@
         <v>45105</v>
       </c>
       <c r="C351" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D351" t="inlineStr">
         <is>
@@ -20936,7 +20936,7 @@
         <v>45107</v>
       </c>
       <c r="C352" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D352" t="inlineStr">
         <is>
@@ -20993,7 +20993,7 @@
         <v>45112</v>
       </c>
       <c r="C353" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D353" t="inlineStr">
         <is>
@@ -21050,7 +21050,7 @@
         <v>45116</v>
       </c>
       <c r="C354" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D354" t="inlineStr">
         <is>
@@ -21107,7 +21107,7 @@
         <v>45141</v>
       </c>
       <c r="C355" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D355" t="inlineStr">
         <is>
@@ -21164,7 +21164,7 @@
         <v>45142</v>
       </c>
       <c r="C356" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D356" t="inlineStr">
         <is>
@@ -21221,7 +21221,7 @@
         <v>45146</v>
       </c>
       <c r="C357" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D357" t="inlineStr">
         <is>
@@ -21278,7 +21278,7 @@
         <v>45148</v>
       </c>
       <c r="C358" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D358" t="inlineStr">
         <is>
@@ -21335,7 +21335,7 @@
         <v>45148</v>
       </c>
       <c r="C359" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D359" t="inlineStr">
         <is>
@@ -21392,7 +21392,7 @@
         <v>45154</v>
       </c>
       <c r="C360" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D360" t="inlineStr">
         <is>

--- a/Översikt FALKÖPING.xlsx
+++ b/Översikt FALKÖPING.xlsx
@@ -572,7 +572,7 @@
         <v>44950</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -666,7 +666,7 @@
         <v>44890</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -753,7 +753,7 @@
         <v>44418</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -839,7 +839,7 @@
         <v>44748</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -925,7 +925,7 @@
         <v>43349</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1010,7 +1010,7 @@
         <v>43451</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1095,7 +1095,7 @@
         <v>43549</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1180,7 +1180,7 @@
         <v>44349</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1265,7 +1265,7 @@
         <v>44427</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1350,7 +1350,7 @@
         <v>44474</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1435,7 +1435,7 @@
         <v>44805</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1520,7 +1520,7 @@
         <v>44906</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1605,7 +1605,7 @@
         <v>43325</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1662,7 +1662,7 @@
         <v>43340</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1719,7 +1719,7 @@
         <v>43347</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1776,7 +1776,7 @@
         <v>43362</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1833,7 +1833,7 @@
         <v>43362</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1890,7 +1890,7 @@
         <v>43362</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1947,7 +1947,7 @@
         <v>43368</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2004,7 +2004,7 @@
         <v>43368</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2061,7 +2061,7 @@
         <v>43368</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2118,7 +2118,7 @@
         <v>43368</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2175,7 +2175,7 @@
         <v>43368</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2232,7 +2232,7 @@
         <v>43368</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2289,7 +2289,7 @@
         <v>43370</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2346,7 +2346,7 @@
         <v>43370</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2403,7 +2403,7 @@
         <v>43392</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2460,7 +2460,7 @@
         <v>43405</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2517,7 +2517,7 @@
         <v>43412</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2574,7 +2574,7 @@
         <v>43423</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2631,7 +2631,7 @@
         <v>43424</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2688,7 +2688,7 @@
         <v>43424</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2745,7 +2745,7 @@
         <v>43424</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2802,7 +2802,7 @@
         <v>43425</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2859,7 +2859,7 @@
         <v>43425</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -2916,7 +2916,7 @@
         <v>43426</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -2973,7 +2973,7 @@
         <v>43426</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3030,7 +3030,7 @@
         <v>43427</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3087,7 +3087,7 @@
         <v>43430</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3144,7 +3144,7 @@
         <v>43431</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3201,7 +3201,7 @@
         <v>43439</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3258,7 +3258,7 @@
         <v>43444</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3315,7 +3315,7 @@
         <v>43444</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3372,7 +3372,7 @@
         <v>43446</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3429,7 +3429,7 @@
         <v>43446</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3486,7 +3486,7 @@
         <v>43446</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3543,7 +3543,7 @@
         <v>43446</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3600,7 +3600,7 @@
         <v>43447</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3662,7 +3662,7 @@
         <v>43447</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3719,7 +3719,7 @@
         <v>43451</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3776,7 +3776,7 @@
         <v>43452</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3833,7 +3833,7 @@
         <v>43452</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -3890,7 +3890,7 @@
         <v>43452</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -3947,7 +3947,7 @@
         <v>43453</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4004,7 +4004,7 @@
         <v>43453</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4061,7 +4061,7 @@
         <v>43469</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4118,7 +4118,7 @@
         <v>43473</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4175,7 +4175,7 @@
         <v>43473</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4232,7 +4232,7 @@
         <v>43475</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4289,7 +4289,7 @@
         <v>43476</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4346,7 +4346,7 @@
         <v>43479</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4403,7 +4403,7 @@
         <v>43479</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4460,7 +4460,7 @@
         <v>43486</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4517,7 +4517,7 @@
         <v>43490</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4574,7 +4574,7 @@
         <v>43490</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4631,7 +4631,7 @@
         <v>43500</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4688,7 +4688,7 @@
         <v>43500</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4745,7 +4745,7 @@
         <v>43502</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -4802,7 +4802,7 @@
         <v>43502</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -4859,7 +4859,7 @@
         <v>43509</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -4916,7 +4916,7 @@
         <v>43509</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -4973,7 +4973,7 @@
         <v>43514</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5030,7 +5030,7 @@
         <v>43518</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5087,7 +5087,7 @@
         <v>43542</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5144,7 +5144,7 @@
         <v>43542</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5201,7 +5201,7 @@
         <v>43542</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5258,7 +5258,7 @@
         <v>43542</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5315,7 +5315,7 @@
         <v>43543</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5372,7 +5372,7 @@
         <v>43578</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5429,7 +5429,7 @@
         <v>43592</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5486,7 +5486,7 @@
         <v>43595</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5543,7 +5543,7 @@
         <v>43595</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5600,7 +5600,7 @@
         <v>43604</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5657,7 +5657,7 @@
         <v>43604</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5714,7 +5714,7 @@
         <v>43605</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -5776,7 +5776,7 @@
         <v>43607</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -5833,7 +5833,7 @@
         <v>43609</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -5890,7 +5890,7 @@
         <v>43612</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -5947,7 +5947,7 @@
         <v>43614</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6004,7 +6004,7 @@
         <v>43619</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6061,7 +6061,7 @@
         <v>43628</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6118,7 +6118,7 @@
         <v>43640</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6175,7 +6175,7 @@
         <v>43643</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6232,7 +6232,7 @@
         <v>43651</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6289,7 +6289,7 @@
         <v>43657</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6346,7 +6346,7 @@
         <v>43663</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6403,7 +6403,7 @@
         <v>43671</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6460,7 +6460,7 @@
         <v>43685</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6517,7 +6517,7 @@
         <v>43685</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6574,7 +6574,7 @@
         <v>43699</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6631,7 +6631,7 @@
         <v>43699</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -6688,7 +6688,7 @@
         <v>43700</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -6745,7 +6745,7 @@
         <v>43700</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -6802,7 +6802,7 @@
         <v>43700</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -6859,7 +6859,7 @@
         <v>43700</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -6916,7 +6916,7 @@
         <v>43700</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -6973,7 +6973,7 @@
         <v>43700</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7030,7 +7030,7 @@
         <v>43707</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7087,7 +7087,7 @@
         <v>43711</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7144,7 +7144,7 @@
         <v>43731</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7201,7 +7201,7 @@
         <v>43762</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7258,7 +7258,7 @@
         <v>43762</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7315,7 +7315,7 @@
         <v>43762</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7372,7 +7372,7 @@
         <v>43762</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7429,7 +7429,7 @@
         <v>43774</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7486,7 +7486,7 @@
         <v>43782</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7543,7 +7543,7 @@
         <v>43783</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -7605,7 +7605,7 @@
         <v>43788</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -7662,7 +7662,7 @@
         <v>43790</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -7719,7 +7719,7 @@
         <v>43790</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -7776,7 +7776,7 @@
         <v>43791</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -7833,7 +7833,7 @@
         <v>43798</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -7890,7 +7890,7 @@
         <v>43798</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -7947,7 +7947,7 @@
         <v>43803</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8004,7 +8004,7 @@
         <v>43803</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8061,7 +8061,7 @@
         <v>43812</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8118,7 +8118,7 @@
         <v>43826</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8175,7 +8175,7 @@
         <v>43826</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8232,7 +8232,7 @@
         <v>43839</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8289,7 +8289,7 @@
         <v>43850</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8346,7 +8346,7 @@
         <v>43850</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8403,7 +8403,7 @@
         <v>43852</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8460,7 +8460,7 @@
         <v>43852</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -8517,7 +8517,7 @@
         <v>43852</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -8574,7 +8574,7 @@
         <v>43852</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -8631,7 +8631,7 @@
         <v>43852</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -8688,7 +8688,7 @@
         <v>43852</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -8745,7 +8745,7 @@
         <v>43852</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -8802,7 +8802,7 @@
         <v>43852</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -8859,7 +8859,7 @@
         <v>43852</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -8916,7 +8916,7 @@
         <v>43853</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -8978,7 +8978,7 @@
         <v>43853</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -9040,7 +9040,7 @@
         <v>43858</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9097,7 +9097,7 @@
         <v>43866</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9159,7 +9159,7 @@
         <v>43868</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9216,7 +9216,7 @@
         <v>43868</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9273,7 +9273,7 @@
         <v>43868</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9330,7 +9330,7 @@
         <v>43873</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9387,7 +9387,7 @@
         <v>43873</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -9444,7 +9444,7 @@
         <v>43874</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -9501,7 +9501,7 @@
         <v>43878</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -9558,7 +9558,7 @@
         <v>43889</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -9615,7 +9615,7 @@
         <v>43890</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -9672,7 +9672,7 @@
         <v>43894</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -9729,7 +9729,7 @@
         <v>43907</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -9786,7 +9786,7 @@
         <v>43907</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -9843,7 +9843,7 @@
         <v>43907</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -9900,7 +9900,7 @@
         <v>43907</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -9957,7 +9957,7 @@
         <v>43908</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -10014,7 +10014,7 @@
         <v>43908</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -10076,7 +10076,7 @@
         <v>43908</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -10133,7 +10133,7 @@
         <v>43919</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -10190,7 +10190,7 @@
         <v>43921</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -10247,7 +10247,7 @@
         <v>43921</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -10304,7 +10304,7 @@
         <v>43989</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -10361,7 +10361,7 @@
         <v>43990</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -10418,7 +10418,7 @@
         <v>43992</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -10475,7 +10475,7 @@
         <v>44000</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -10532,7 +10532,7 @@
         <v>44012</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -10589,7 +10589,7 @@
         <v>44020</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -10646,7 +10646,7 @@
         <v>44024</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -10703,7 +10703,7 @@
         <v>44071</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -10760,7 +10760,7 @@
         <v>44089</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -10817,7 +10817,7 @@
         <v>44089</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -10874,7 +10874,7 @@
         <v>44089</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -10931,7 +10931,7 @@
         <v>44089</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -10988,7 +10988,7 @@
         <v>44105</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -11045,7 +11045,7 @@
         <v>44106</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -11102,7 +11102,7 @@
         <v>44109</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -11159,7 +11159,7 @@
         <v>44109</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -11216,7 +11216,7 @@
         <v>44117</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -11273,7 +11273,7 @@
         <v>44120</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -11330,7 +11330,7 @@
         <v>44125</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -11387,7 +11387,7 @@
         <v>44126</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -11444,7 +11444,7 @@
         <v>44131</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -11501,7 +11501,7 @@
         <v>44131</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -11558,7 +11558,7 @@
         <v>44142</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -11615,7 +11615,7 @@
         <v>44142</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -11672,7 +11672,7 @@
         <v>44146</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -11729,7 +11729,7 @@
         <v>44146</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -11786,7 +11786,7 @@
         <v>44153</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -11843,7 +11843,7 @@
         <v>44155</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -11900,7 +11900,7 @@
         <v>44157</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -11957,7 +11957,7 @@
         <v>44157</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -12014,7 +12014,7 @@
         <v>44157</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -12071,7 +12071,7 @@
         <v>44162</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -12128,7 +12128,7 @@
         <v>44162</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -12185,7 +12185,7 @@
         <v>44165</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -12242,7 +12242,7 @@
         <v>44181</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -12299,7 +12299,7 @@
         <v>44206</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -12356,7 +12356,7 @@
         <v>44209</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -12413,7 +12413,7 @@
         <v>44215</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -12470,7 +12470,7 @@
         <v>44215</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -12527,7 +12527,7 @@
         <v>44215</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -12584,7 +12584,7 @@
         <v>44220</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -12641,7 +12641,7 @@
         <v>44220</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -12698,7 +12698,7 @@
         <v>44228</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -12755,7 +12755,7 @@
         <v>44228</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -12812,7 +12812,7 @@
         <v>44230</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -12869,7 +12869,7 @@
         <v>44252</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -12926,7 +12926,7 @@
         <v>44258</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -12988,7 +12988,7 @@
         <v>44263</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -13045,7 +13045,7 @@
         <v>44265</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -13102,7 +13102,7 @@
         <v>44266</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -13159,7 +13159,7 @@
         <v>44270</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -13216,7 +13216,7 @@
         <v>44293</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -13273,7 +13273,7 @@
         <v>44299</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -13330,7 +13330,7 @@
         <v>44300</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -13387,7 +13387,7 @@
         <v>44312</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -13444,7 +13444,7 @@
         <v>44322</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -13501,7 +13501,7 @@
         <v>44332</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -13558,7 +13558,7 @@
         <v>44334</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -13615,7 +13615,7 @@
         <v>44350</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -13672,7 +13672,7 @@
         <v>44350</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -13729,7 +13729,7 @@
         <v>44351</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -13786,7 +13786,7 @@
         <v>44360</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -13843,7 +13843,7 @@
         <v>44361</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -13900,7 +13900,7 @@
         <v>44368</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -13957,7 +13957,7 @@
         <v>44418</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -14014,7 +14014,7 @@
         <v>44420</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -14071,7 +14071,7 @@
         <v>44428</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -14128,7 +14128,7 @@
         <v>44428</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -14185,7 +14185,7 @@
         <v>44429</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -14242,7 +14242,7 @@
         <v>44429</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -14299,7 +14299,7 @@
         <v>44433</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -14356,7 +14356,7 @@
         <v>44433</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -14413,7 +14413,7 @@
         <v>44434</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -14470,7 +14470,7 @@
         <v>44447</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -14527,7 +14527,7 @@
         <v>44454</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -14584,7 +14584,7 @@
         <v>44466</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -14641,7 +14641,7 @@
         <v>44469</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -14698,7 +14698,7 @@
         <v>44470</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -14755,7 +14755,7 @@
         <v>44474</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -14812,7 +14812,7 @@
         <v>44475</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -14869,7 +14869,7 @@
         <v>44489</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -14926,7 +14926,7 @@
         <v>44497</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -14983,7 +14983,7 @@
         <v>44503</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -15045,7 +15045,7 @@
         <v>44512</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -15102,7 +15102,7 @@
         <v>44529</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -15159,7 +15159,7 @@
         <v>44529</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -15216,7 +15216,7 @@
         <v>44529</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -15273,7 +15273,7 @@
         <v>44543</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -15330,7 +15330,7 @@
         <v>44572</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -15387,7 +15387,7 @@
         <v>44573</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -15449,7 +15449,7 @@
         <v>44578</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -15506,7 +15506,7 @@
         <v>44594</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -15563,7 +15563,7 @@
         <v>44594</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -15620,7 +15620,7 @@
         <v>44601</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -15677,7 +15677,7 @@
         <v>44602</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -15734,7 +15734,7 @@
         <v>44603</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -15791,7 +15791,7 @@
         <v>44616</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -15848,7 +15848,7 @@
         <v>44622</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -15905,7 +15905,7 @@
         <v>44623</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -15962,7 +15962,7 @@
         <v>44627</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -16024,7 +16024,7 @@
         <v>44629</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -16081,7 +16081,7 @@
         <v>44630</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -16138,7 +16138,7 @@
         <v>44630</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -16195,7 +16195,7 @@
         <v>44636</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -16252,7 +16252,7 @@
         <v>44636</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -16309,7 +16309,7 @@
         <v>44637</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -16366,7 +16366,7 @@
         <v>44663</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -16423,7 +16423,7 @@
         <v>44672</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -16480,7 +16480,7 @@
         <v>44707</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -16537,7 +16537,7 @@
         <v>44711</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -16594,7 +16594,7 @@
         <v>44713</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -16651,7 +16651,7 @@
         <v>44722</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -16708,7 +16708,7 @@
         <v>44726</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -16765,7 +16765,7 @@
         <v>44729</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -16822,7 +16822,7 @@
         <v>44739</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -16879,7 +16879,7 @@
         <v>44742</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -16936,7 +16936,7 @@
         <v>44742</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -16993,7 +16993,7 @@
         <v>44802</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -17050,7 +17050,7 @@
         <v>44802</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -17107,7 +17107,7 @@
         <v>44803</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -17164,7 +17164,7 @@
         <v>44805</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -17221,7 +17221,7 @@
         <v>44819</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -17278,7 +17278,7 @@
         <v>44823</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -17335,7 +17335,7 @@
         <v>44823</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -17392,7 +17392,7 @@
         <v>44838</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -17449,7 +17449,7 @@
         <v>44838</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -17506,7 +17506,7 @@
         <v>44861</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -17563,7 +17563,7 @@
         <v>44869</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -17620,7 +17620,7 @@
         <v>44880</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -17677,7 +17677,7 @@
         <v>44880</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -17734,7 +17734,7 @@
         <v>44882</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -17791,7 +17791,7 @@
         <v>44895</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -17848,7 +17848,7 @@
         <v>44928</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -17905,7 +17905,7 @@
         <v>44928</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -17962,7 +17962,7 @@
         <v>44945</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -18019,7 +18019,7 @@
         <v>44952</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -18076,7 +18076,7 @@
         <v>44952</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -18133,7 +18133,7 @@
         <v>44952</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -18190,7 +18190,7 @@
         <v>44952</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -18247,7 +18247,7 @@
         <v>44957</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -18304,7 +18304,7 @@
         <v>44957</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -18361,7 +18361,7 @@
         <v>44960</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -18418,7 +18418,7 @@
         <v>44974</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -18475,7 +18475,7 @@
         <v>44979</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -18537,7 +18537,7 @@
         <v>44985</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -18594,7 +18594,7 @@
         <v>44993</v>
       </c>
       <c r="C311" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -18651,7 +18651,7 @@
         <v>45014</v>
       </c>
       <c r="C312" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -18708,7 +18708,7 @@
         <v>45014</v>
       </c>
       <c r="C313" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -18765,7 +18765,7 @@
         <v>45014</v>
       </c>
       <c r="C314" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -18822,7 +18822,7 @@
         <v>45014</v>
       </c>
       <c r="C315" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -18879,7 +18879,7 @@
         <v>45014</v>
       </c>
       <c r="C316" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -18936,7 +18936,7 @@
         <v>45022</v>
       </c>
       <c r="C317" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -18993,7 +18993,7 @@
         <v>45022</v>
       </c>
       <c r="C318" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -19050,7 +19050,7 @@
         <v>45027</v>
       </c>
       <c r="C319" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -19107,7 +19107,7 @@
         <v>45033</v>
       </c>
       <c r="C320" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -19164,7 +19164,7 @@
         <v>45033</v>
       </c>
       <c r="C321" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
@@ -19221,7 +19221,7 @@
         <v>45033</v>
       </c>
       <c r="C322" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
@@ -19278,7 +19278,7 @@
         <v>45036</v>
       </c>
       <c r="C323" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
@@ -19335,7 +19335,7 @@
         <v>45050</v>
       </c>
       <c r="C324" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D324" t="inlineStr">
         <is>
@@ -19392,7 +19392,7 @@
         <v>45050</v>
       </c>
       <c r="C325" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D325" t="inlineStr">
         <is>
@@ -19449,7 +19449,7 @@
         <v>45065</v>
       </c>
       <c r="C326" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D326" t="inlineStr">
         <is>
@@ -19506,7 +19506,7 @@
         <v>45072</v>
       </c>
       <c r="C327" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D327" t="inlineStr">
         <is>
@@ -19563,7 +19563,7 @@
         <v>45073</v>
       </c>
       <c r="C328" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D328" t="inlineStr">
         <is>
@@ -19620,7 +19620,7 @@
         <v>45076</v>
       </c>
       <c r="C329" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D329" t="inlineStr">
         <is>
@@ -19677,7 +19677,7 @@
         <v>45076</v>
       </c>
       <c r="C330" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D330" t="inlineStr">
         <is>
@@ -19734,7 +19734,7 @@
         <v>45076</v>
       </c>
       <c r="C331" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D331" t="inlineStr">
         <is>
@@ -19791,7 +19791,7 @@
         <v>45076</v>
       </c>
       <c r="C332" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D332" t="inlineStr">
         <is>
@@ -19848,7 +19848,7 @@
         <v>45076</v>
       </c>
       <c r="C333" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D333" t="inlineStr">
         <is>
@@ -19905,7 +19905,7 @@
         <v>45078</v>
       </c>
       <c r="C334" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D334" t="inlineStr">
         <is>
@@ -19962,7 +19962,7 @@
         <v>45082</v>
       </c>
       <c r="C335" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D335" t="inlineStr">
         <is>
@@ -20019,7 +20019,7 @@
         <v>45082</v>
       </c>
       <c r="C336" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D336" t="inlineStr">
         <is>
@@ -20081,7 +20081,7 @@
         <v>45084</v>
       </c>
       <c r="C337" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D337" t="inlineStr">
         <is>
@@ -20138,7 +20138,7 @@
         <v>45084</v>
       </c>
       <c r="C338" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D338" t="inlineStr">
         <is>
@@ -20195,7 +20195,7 @@
         <v>45085</v>
       </c>
       <c r="C339" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D339" t="inlineStr">
         <is>
@@ -20252,7 +20252,7 @@
         <v>45085</v>
       </c>
       <c r="C340" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D340" t="inlineStr">
         <is>
@@ -20309,7 +20309,7 @@
         <v>45089</v>
       </c>
       <c r="C341" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D341" t="inlineStr">
         <is>
@@ -20366,7 +20366,7 @@
         <v>45089</v>
       </c>
       <c r="C342" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D342" t="inlineStr">
         <is>
@@ -20423,7 +20423,7 @@
         <v>45090</v>
       </c>
       <c r="C343" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D343" t="inlineStr">
         <is>
@@ -20480,7 +20480,7 @@
         <v>45091</v>
       </c>
       <c r="C344" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D344" t="inlineStr">
         <is>
@@ -20537,7 +20537,7 @@
         <v>45091</v>
       </c>
       <c r="C345" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D345" t="inlineStr">
         <is>
@@ -20594,7 +20594,7 @@
         <v>45091</v>
       </c>
       <c r="C346" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D346" t="inlineStr">
         <is>
@@ -20651,7 +20651,7 @@
         <v>45092</v>
       </c>
       <c r="C347" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D347" t="inlineStr">
         <is>
@@ -20708,7 +20708,7 @@
         <v>45093</v>
       </c>
       <c r="C348" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D348" t="inlineStr">
         <is>
@@ -20765,7 +20765,7 @@
         <v>45097</v>
       </c>
       <c r="C349" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D349" t="inlineStr">
         <is>
@@ -20822,7 +20822,7 @@
         <v>45103</v>
       </c>
       <c r="C350" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D350" t="inlineStr">
         <is>
@@ -20879,7 +20879,7 @@
         <v>45105</v>
       </c>
       <c r="C351" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D351" t="inlineStr">
         <is>
@@ -20936,7 +20936,7 @@
         <v>45107</v>
       </c>
       <c r="C352" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D352" t="inlineStr">
         <is>
@@ -20993,7 +20993,7 @@
         <v>45112</v>
       </c>
       <c r="C353" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D353" t="inlineStr">
         <is>
@@ -21050,7 +21050,7 @@
         <v>45116</v>
       </c>
       <c r="C354" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D354" t="inlineStr">
         <is>
@@ -21107,7 +21107,7 @@
         <v>45141</v>
       </c>
       <c r="C355" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D355" t="inlineStr">
         <is>
@@ -21164,7 +21164,7 @@
         <v>45142</v>
       </c>
       <c r="C356" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D356" t="inlineStr">
         <is>
@@ -21221,7 +21221,7 @@
         <v>45146</v>
       </c>
       <c r="C357" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D357" t="inlineStr">
         <is>
@@ -21278,7 +21278,7 @@
         <v>45148</v>
       </c>
       <c r="C358" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D358" t="inlineStr">
         <is>
@@ -21335,7 +21335,7 @@
         <v>45148</v>
       </c>
       <c r="C359" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D359" t="inlineStr">
         <is>
@@ -21392,7 +21392,7 @@
         <v>45154</v>
       </c>
       <c r="C360" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D360" t="inlineStr">
         <is>

--- a/Översikt FALKÖPING.xlsx
+++ b/Översikt FALKÖPING.xlsx
@@ -572,7 +572,7 @@
         <v>44950</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -666,7 +666,7 @@
         <v>44890</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -753,7 +753,7 @@
         <v>44418</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -839,7 +839,7 @@
         <v>44748</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -925,7 +925,7 @@
         <v>43349</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1010,7 +1010,7 @@
         <v>43451</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1095,7 +1095,7 @@
         <v>43549</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1180,7 +1180,7 @@
         <v>44349</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1265,7 +1265,7 @@
         <v>44427</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1350,7 +1350,7 @@
         <v>44474</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1435,7 +1435,7 @@
         <v>44805</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1520,7 +1520,7 @@
         <v>44906</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1605,7 +1605,7 @@
         <v>43325</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1662,7 +1662,7 @@
         <v>43340</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1719,7 +1719,7 @@
         <v>43347</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1776,7 +1776,7 @@
         <v>43362</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1833,7 +1833,7 @@
         <v>43362</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1890,7 +1890,7 @@
         <v>43362</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1947,7 +1947,7 @@
         <v>43368</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2004,7 +2004,7 @@
         <v>43368</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2061,7 +2061,7 @@
         <v>43368</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2118,7 +2118,7 @@
         <v>43368</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2175,7 +2175,7 @@
         <v>43368</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2232,7 +2232,7 @@
         <v>43368</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2289,7 +2289,7 @@
         <v>43370</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2346,7 +2346,7 @@
         <v>43370</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2403,7 +2403,7 @@
         <v>43392</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2460,7 +2460,7 @@
         <v>43405</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2517,7 +2517,7 @@
         <v>43412</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2574,7 +2574,7 @@
         <v>43423</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2631,7 +2631,7 @@
         <v>43424</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2688,7 +2688,7 @@
         <v>43424</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2745,7 +2745,7 @@
         <v>43424</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2802,7 +2802,7 @@
         <v>43425</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2859,7 +2859,7 @@
         <v>43425</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -2916,7 +2916,7 @@
         <v>43426</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -2973,7 +2973,7 @@
         <v>43426</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3030,7 +3030,7 @@
         <v>43427</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3087,7 +3087,7 @@
         <v>43430</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3144,7 +3144,7 @@
         <v>43431</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3201,7 +3201,7 @@
         <v>43439</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3258,7 +3258,7 @@
         <v>43444</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3315,7 +3315,7 @@
         <v>43444</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3372,7 +3372,7 @@
         <v>43446</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3429,7 +3429,7 @@
         <v>43446</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3486,7 +3486,7 @@
         <v>43446</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3543,7 +3543,7 @@
         <v>43446</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3600,7 +3600,7 @@
         <v>43447</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3662,7 +3662,7 @@
         <v>43447</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3719,7 +3719,7 @@
         <v>43451</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3776,7 +3776,7 @@
         <v>43452</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3833,7 +3833,7 @@
         <v>43452</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -3890,7 +3890,7 @@
         <v>43452</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -3947,7 +3947,7 @@
         <v>43453</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4004,7 +4004,7 @@
         <v>43453</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4061,7 +4061,7 @@
         <v>43469</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4118,7 +4118,7 @@
         <v>43473</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4175,7 +4175,7 @@
         <v>43473</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4232,7 +4232,7 @@
         <v>43475</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4289,7 +4289,7 @@
         <v>43476</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4346,7 +4346,7 @@
         <v>43479</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4403,7 +4403,7 @@
         <v>43479</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4460,7 +4460,7 @@
         <v>43486</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4517,7 +4517,7 @@
         <v>43490</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4574,7 +4574,7 @@
         <v>43490</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4631,7 +4631,7 @@
         <v>43500</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4688,7 +4688,7 @@
         <v>43500</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4745,7 +4745,7 @@
         <v>43502</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -4802,7 +4802,7 @@
         <v>43502</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -4859,7 +4859,7 @@
         <v>43509</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -4916,7 +4916,7 @@
         <v>43509</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -4973,7 +4973,7 @@
         <v>43514</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5030,7 +5030,7 @@
         <v>43518</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5087,7 +5087,7 @@
         <v>43542</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5144,7 +5144,7 @@
         <v>43542</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5201,7 +5201,7 @@
         <v>43542</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5258,7 +5258,7 @@
         <v>43542</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5315,7 +5315,7 @@
         <v>43543</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5372,7 +5372,7 @@
         <v>43578</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5429,7 +5429,7 @@
         <v>43592</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5486,7 +5486,7 @@
         <v>43595</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5543,7 +5543,7 @@
         <v>43595</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5600,7 +5600,7 @@
         <v>43604</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5657,7 +5657,7 @@
         <v>43604</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5714,7 +5714,7 @@
         <v>43605</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -5776,7 +5776,7 @@
         <v>43607</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -5833,7 +5833,7 @@
         <v>43609</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -5890,7 +5890,7 @@
         <v>43612</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -5947,7 +5947,7 @@
         <v>43614</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6004,7 +6004,7 @@
         <v>43619</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6061,7 +6061,7 @@
         <v>43628</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6118,7 +6118,7 @@
         <v>43640</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6175,7 +6175,7 @@
         <v>43643</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6232,7 +6232,7 @@
         <v>43651</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6289,7 +6289,7 @@
         <v>43657</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6346,7 +6346,7 @@
         <v>43663</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6403,7 +6403,7 @@
         <v>43671</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6460,7 +6460,7 @@
         <v>43685</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6517,7 +6517,7 @@
         <v>43685</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6574,7 +6574,7 @@
         <v>43699</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6631,7 +6631,7 @@
         <v>43699</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -6688,7 +6688,7 @@
         <v>43700</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -6745,7 +6745,7 @@
         <v>43700</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -6802,7 +6802,7 @@
         <v>43700</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -6859,7 +6859,7 @@
         <v>43700</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -6916,7 +6916,7 @@
         <v>43700</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -6973,7 +6973,7 @@
         <v>43700</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7030,7 +7030,7 @@
         <v>43707</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7087,7 +7087,7 @@
         <v>43711</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7144,7 +7144,7 @@
         <v>43731</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7201,7 +7201,7 @@
         <v>43762</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7258,7 +7258,7 @@
         <v>43762</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7315,7 +7315,7 @@
         <v>43762</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7372,7 +7372,7 @@
         <v>43762</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7429,7 +7429,7 @@
         <v>43774</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7486,7 +7486,7 @@
         <v>43782</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7543,7 +7543,7 @@
         <v>43783</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -7605,7 +7605,7 @@
         <v>43788</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -7662,7 +7662,7 @@
         <v>43790</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -7719,7 +7719,7 @@
         <v>43790</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -7776,7 +7776,7 @@
         <v>43791</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -7833,7 +7833,7 @@
         <v>43798</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -7890,7 +7890,7 @@
         <v>43798</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -7947,7 +7947,7 @@
         <v>43803</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8004,7 +8004,7 @@
         <v>43803</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8061,7 +8061,7 @@
         <v>43812</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8118,7 +8118,7 @@
         <v>43826</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8175,7 +8175,7 @@
         <v>43826</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8232,7 +8232,7 @@
         <v>43839</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8289,7 +8289,7 @@
         <v>43850</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8346,7 +8346,7 @@
         <v>43850</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8403,7 +8403,7 @@
         <v>43852</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8460,7 +8460,7 @@
         <v>43852</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -8517,7 +8517,7 @@
         <v>43852</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -8574,7 +8574,7 @@
         <v>43852</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -8631,7 +8631,7 @@
         <v>43852</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -8688,7 +8688,7 @@
         <v>43852</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -8745,7 +8745,7 @@
         <v>43852</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -8802,7 +8802,7 @@
         <v>43852</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -8859,7 +8859,7 @@
         <v>43852</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -8916,7 +8916,7 @@
         <v>43853</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -8978,7 +8978,7 @@
         <v>43853</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -9040,7 +9040,7 @@
         <v>43858</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9097,7 +9097,7 @@
         <v>43866</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9159,7 +9159,7 @@
         <v>43868</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9216,7 +9216,7 @@
         <v>43868</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9273,7 +9273,7 @@
         <v>43868</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9330,7 +9330,7 @@
         <v>43873</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9387,7 +9387,7 @@
         <v>43873</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -9444,7 +9444,7 @@
         <v>43874</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -9501,7 +9501,7 @@
         <v>43878</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -9558,7 +9558,7 @@
         <v>43889</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -9615,7 +9615,7 @@
         <v>43890</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -9672,7 +9672,7 @@
         <v>43894</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -9729,7 +9729,7 @@
         <v>43907</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -9786,7 +9786,7 @@
         <v>43907</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -9843,7 +9843,7 @@
         <v>43907</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -9900,7 +9900,7 @@
         <v>43907</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -9957,7 +9957,7 @@
         <v>43908</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -10014,7 +10014,7 @@
         <v>43908</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -10076,7 +10076,7 @@
         <v>43908</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -10133,7 +10133,7 @@
         <v>43919</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -10190,7 +10190,7 @@
         <v>43921</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -10247,7 +10247,7 @@
         <v>43921</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -10304,7 +10304,7 @@
         <v>43989</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -10361,7 +10361,7 @@
         <v>43990</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -10418,7 +10418,7 @@
         <v>43992</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -10475,7 +10475,7 @@
         <v>44000</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -10532,7 +10532,7 @@
         <v>44012</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -10589,7 +10589,7 @@
         <v>44020</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -10646,7 +10646,7 @@
         <v>44024</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -10703,7 +10703,7 @@
         <v>44071</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -10760,7 +10760,7 @@
         <v>44089</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -10817,7 +10817,7 @@
         <v>44089</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -10874,7 +10874,7 @@
         <v>44089</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -10931,7 +10931,7 @@
         <v>44089</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -10988,7 +10988,7 @@
         <v>44105</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -11045,7 +11045,7 @@
         <v>44106</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -11102,7 +11102,7 @@
         <v>44109</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -11159,7 +11159,7 @@
         <v>44109</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -11216,7 +11216,7 @@
         <v>44117</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -11273,7 +11273,7 @@
         <v>44120</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -11330,7 +11330,7 @@
         <v>44125</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -11387,7 +11387,7 @@
         <v>44126</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -11444,7 +11444,7 @@
         <v>44131</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -11501,7 +11501,7 @@
         <v>44131</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -11558,7 +11558,7 @@
         <v>44142</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -11615,7 +11615,7 @@
         <v>44142</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -11672,7 +11672,7 @@
         <v>44146</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -11729,7 +11729,7 @@
         <v>44146</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -11786,7 +11786,7 @@
         <v>44153</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -11843,7 +11843,7 @@
         <v>44155</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -11900,7 +11900,7 @@
         <v>44157</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -11957,7 +11957,7 @@
         <v>44157</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -12014,7 +12014,7 @@
         <v>44157</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -12071,7 +12071,7 @@
         <v>44162</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -12128,7 +12128,7 @@
         <v>44162</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -12185,7 +12185,7 @@
         <v>44165</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -12242,7 +12242,7 @@
         <v>44181</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -12299,7 +12299,7 @@
         <v>44206</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -12356,7 +12356,7 @@
         <v>44209</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -12413,7 +12413,7 @@
         <v>44215</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -12470,7 +12470,7 @@
         <v>44215</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -12527,7 +12527,7 @@
         <v>44215</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -12584,7 +12584,7 @@
         <v>44220</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -12641,7 +12641,7 @@
         <v>44220</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -12698,7 +12698,7 @@
         <v>44228</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -12755,7 +12755,7 @@
         <v>44228</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -12812,7 +12812,7 @@
         <v>44230</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -12869,7 +12869,7 @@
         <v>44252</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -12926,7 +12926,7 @@
         <v>44258</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -12988,7 +12988,7 @@
         <v>44263</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -13045,7 +13045,7 @@
         <v>44265</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -13102,7 +13102,7 @@
         <v>44266</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -13159,7 +13159,7 @@
         <v>44270</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -13216,7 +13216,7 @@
         <v>44293</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -13273,7 +13273,7 @@
         <v>44299</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -13330,7 +13330,7 @@
         <v>44300</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -13387,7 +13387,7 @@
         <v>44312</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -13444,7 +13444,7 @@
         <v>44322</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -13501,7 +13501,7 @@
         <v>44332</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -13558,7 +13558,7 @@
         <v>44334</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -13615,7 +13615,7 @@
         <v>44350</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -13672,7 +13672,7 @@
         <v>44350</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -13729,7 +13729,7 @@
         <v>44351</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -13786,7 +13786,7 @@
         <v>44360</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -13843,7 +13843,7 @@
         <v>44361</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -13900,7 +13900,7 @@
         <v>44368</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -13957,7 +13957,7 @@
         <v>44418</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -14014,7 +14014,7 @@
         <v>44420</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -14071,7 +14071,7 @@
         <v>44428</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -14128,7 +14128,7 @@
         <v>44428</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -14185,7 +14185,7 @@
         <v>44429</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -14242,7 +14242,7 @@
         <v>44429</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -14299,7 +14299,7 @@
         <v>44433</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -14356,7 +14356,7 @@
         <v>44433</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -14413,7 +14413,7 @@
         <v>44434</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -14470,7 +14470,7 @@
         <v>44447</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -14527,7 +14527,7 @@
         <v>44454</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -14584,7 +14584,7 @@
         <v>44466</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -14641,7 +14641,7 @@
         <v>44469</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -14698,7 +14698,7 @@
         <v>44470</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -14755,7 +14755,7 @@
         <v>44474</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -14812,7 +14812,7 @@
         <v>44475</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -14869,7 +14869,7 @@
         <v>44489</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -14926,7 +14926,7 @@
         <v>44497</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -14983,7 +14983,7 @@
         <v>44503</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -15045,7 +15045,7 @@
         <v>44512</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -15102,7 +15102,7 @@
         <v>44529</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -15159,7 +15159,7 @@
         <v>44529</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -15216,7 +15216,7 @@
         <v>44529</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -15273,7 +15273,7 @@
         <v>44543</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -15330,7 +15330,7 @@
         <v>44572</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -15387,7 +15387,7 @@
         <v>44573</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -15449,7 +15449,7 @@
         <v>44578</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -15506,7 +15506,7 @@
         <v>44594</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -15563,7 +15563,7 @@
         <v>44594</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -15620,7 +15620,7 @@
         <v>44601</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -15677,7 +15677,7 @@
         <v>44602</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -15734,7 +15734,7 @@
         <v>44603</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -15791,7 +15791,7 @@
         <v>44616</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -15848,7 +15848,7 @@
         <v>44622</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -15905,7 +15905,7 @@
         <v>44623</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -15962,7 +15962,7 @@
         <v>44627</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -16024,7 +16024,7 @@
         <v>44629</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -16081,7 +16081,7 @@
         <v>44630</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -16138,7 +16138,7 @@
         <v>44630</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -16195,7 +16195,7 @@
         <v>44636</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -16252,7 +16252,7 @@
         <v>44636</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -16309,7 +16309,7 @@
         <v>44637</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -16366,7 +16366,7 @@
         <v>44663</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -16423,7 +16423,7 @@
         <v>44672</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -16480,7 +16480,7 @@
         <v>44707</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -16537,7 +16537,7 @@
         <v>44711</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -16594,7 +16594,7 @@
         <v>44713</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -16651,7 +16651,7 @@
         <v>44722</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -16708,7 +16708,7 @@
         <v>44726</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -16765,7 +16765,7 @@
         <v>44729</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -16822,7 +16822,7 @@
         <v>44739</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -16879,7 +16879,7 @@
         <v>44742</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -16936,7 +16936,7 @@
         <v>44742</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -16993,7 +16993,7 @@
         <v>44802</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -17050,7 +17050,7 @@
         <v>44802</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -17107,7 +17107,7 @@
         <v>44803</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -17164,7 +17164,7 @@
         <v>44805</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -17221,7 +17221,7 @@
         <v>44819</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -17278,7 +17278,7 @@
         <v>44823</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -17335,7 +17335,7 @@
         <v>44823</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -17392,7 +17392,7 @@
         <v>44838</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -17449,7 +17449,7 @@
         <v>44838</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -17506,7 +17506,7 @@
         <v>44861</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -17563,7 +17563,7 @@
         <v>44869</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -17620,7 +17620,7 @@
         <v>44880</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -17677,7 +17677,7 @@
         <v>44880</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -17734,7 +17734,7 @@
         <v>44882</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -17791,7 +17791,7 @@
         <v>44895</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -17848,7 +17848,7 @@
         <v>44928</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -17905,7 +17905,7 @@
         <v>44928</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -17962,7 +17962,7 @@
         <v>44945</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -18019,7 +18019,7 @@
         <v>44952</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -18076,7 +18076,7 @@
         <v>44952</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -18133,7 +18133,7 @@
         <v>44952</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -18190,7 +18190,7 @@
         <v>44952</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -18247,7 +18247,7 @@
         <v>44957</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -18304,7 +18304,7 @@
         <v>44957</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -18361,7 +18361,7 @@
         <v>44960</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -18418,7 +18418,7 @@
         <v>44974</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -18475,7 +18475,7 @@
         <v>44979</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -18537,7 +18537,7 @@
         <v>44985</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -18594,7 +18594,7 @@
         <v>44993</v>
       </c>
       <c r="C311" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -18651,7 +18651,7 @@
         <v>45014</v>
       </c>
       <c r="C312" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -18708,7 +18708,7 @@
         <v>45014</v>
       </c>
       <c r="C313" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -18765,7 +18765,7 @@
         <v>45014</v>
       </c>
       <c r="C314" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -18822,7 +18822,7 @@
         <v>45014</v>
       </c>
       <c r="C315" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -18879,7 +18879,7 @@
         <v>45014</v>
       </c>
       <c r="C316" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -18936,7 +18936,7 @@
         <v>45022</v>
       </c>
       <c r="C317" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -18993,7 +18993,7 @@
         <v>45022</v>
       </c>
       <c r="C318" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -19050,7 +19050,7 @@
         <v>45027</v>
       </c>
       <c r="C319" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -19107,7 +19107,7 @@
         <v>45033</v>
       </c>
       <c r="C320" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -19164,7 +19164,7 @@
         <v>45033</v>
       </c>
       <c r="C321" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
@@ -19221,7 +19221,7 @@
         <v>45033</v>
       </c>
       <c r="C322" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
@@ -19278,7 +19278,7 @@
         <v>45036</v>
       </c>
       <c r="C323" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
@@ -19335,7 +19335,7 @@
         <v>45050</v>
       </c>
       <c r="C324" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D324" t="inlineStr">
         <is>
@@ -19392,7 +19392,7 @@
         <v>45050</v>
       </c>
       <c r="C325" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D325" t="inlineStr">
         <is>
@@ -19449,7 +19449,7 @@
         <v>45065</v>
       </c>
       <c r="C326" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D326" t="inlineStr">
         <is>
@@ -19506,7 +19506,7 @@
         <v>45072</v>
       </c>
       <c r="C327" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D327" t="inlineStr">
         <is>
@@ -19563,7 +19563,7 @@
         <v>45073</v>
       </c>
       <c r="C328" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D328" t="inlineStr">
         <is>
@@ -19620,7 +19620,7 @@
         <v>45076</v>
       </c>
       <c r="C329" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D329" t="inlineStr">
         <is>
@@ -19677,7 +19677,7 @@
         <v>45076</v>
       </c>
       <c r="C330" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D330" t="inlineStr">
         <is>
@@ -19734,7 +19734,7 @@
         <v>45076</v>
       </c>
       <c r="C331" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D331" t="inlineStr">
         <is>
@@ -19791,7 +19791,7 @@
         <v>45076</v>
       </c>
       <c r="C332" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D332" t="inlineStr">
         <is>
@@ -19848,7 +19848,7 @@
         <v>45076</v>
       </c>
       <c r="C333" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D333" t="inlineStr">
         <is>
@@ -19905,7 +19905,7 @@
         <v>45078</v>
       </c>
       <c r="C334" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D334" t="inlineStr">
         <is>
@@ -19962,7 +19962,7 @@
         <v>45082</v>
       </c>
       <c r="C335" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D335" t="inlineStr">
         <is>
@@ -20019,7 +20019,7 @@
         <v>45082</v>
       </c>
       <c r="C336" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D336" t="inlineStr">
         <is>
@@ -20081,7 +20081,7 @@
         <v>45084</v>
       </c>
       <c r="C337" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D337" t="inlineStr">
         <is>
@@ -20138,7 +20138,7 @@
         <v>45084</v>
       </c>
       <c r="C338" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D338" t="inlineStr">
         <is>
@@ -20195,7 +20195,7 @@
         <v>45085</v>
       </c>
       <c r="C339" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D339" t="inlineStr">
         <is>
@@ -20252,7 +20252,7 @@
         <v>45085</v>
       </c>
       <c r="C340" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D340" t="inlineStr">
         <is>
@@ -20309,7 +20309,7 @@
         <v>45089</v>
       </c>
       <c r="C341" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D341" t="inlineStr">
         <is>
@@ -20366,7 +20366,7 @@
         <v>45089</v>
       </c>
       <c r="C342" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D342" t="inlineStr">
         <is>
@@ -20423,7 +20423,7 @@
         <v>45090</v>
       </c>
       <c r="C343" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D343" t="inlineStr">
         <is>
@@ -20480,7 +20480,7 @@
         <v>45091</v>
       </c>
       <c r="C344" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D344" t="inlineStr">
         <is>
@@ -20537,7 +20537,7 @@
         <v>45091</v>
       </c>
       <c r="C345" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D345" t="inlineStr">
         <is>
@@ -20594,7 +20594,7 @@
         <v>45091</v>
       </c>
       <c r="C346" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D346" t="inlineStr">
         <is>
@@ -20651,7 +20651,7 @@
         <v>45092</v>
       </c>
       <c r="C347" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D347" t="inlineStr">
         <is>
@@ -20708,7 +20708,7 @@
         <v>45093</v>
       </c>
       <c r="C348" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D348" t="inlineStr">
         <is>
@@ -20765,7 +20765,7 @@
         <v>45097</v>
       </c>
       <c r="C349" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D349" t="inlineStr">
         <is>
@@ -20822,7 +20822,7 @@
         <v>45103</v>
       </c>
       <c r="C350" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D350" t="inlineStr">
         <is>
@@ -20879,7 +20879,7 @@
         <v>45105</v>
       </c>
       <c r="C351" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D351" t="inlineStr">
         <is>
@@ -20936,7 +20936,7 @@
         <v>45107</v>
       </c>
       <c r="C352" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D352" t="inlineStr">
         <is>
@@ -20993,7 +20993,7 @@
         <v>45112</v>
       </c>
       <c r="C353" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D353" t="inlineStr">
         <is>
@@ -21050,7 +21050,7 @@
         <v>45116</v>
       </c>
       <c r="C354" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D354" t="inlineStr">
         <is>
@@ -21107,7 +21107,7 @@
         <v>45141</v>
       </c>
       <c r="C355" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D355" t="inlineStr">
         <is>
@@ -21164,7 +21164,7 @@
         <v>45142</v>
       </c>
       <c r="C356" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D356" t="inlineStr">
         <is>
@@ -21221,7 +21221,7 @@
         <v>45146</v>
       </c>
       <c r="C357" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D357" t="inlineStr">
         <is>
@@ -21278,7 +21278,7 @@
         <v>45148</v>
       </c>
       <c r="C358" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D358" t="inlineStr">
         <is>
@@ -21335,7 +21335,7 @@
         <v>45148</v>
       </c>
       <c r="C359" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D359" t="inlineStr">
         <is>
@@ -21392,7 +21392,7 @@
         <v>45154</v>
       </c>
       <c r="C360" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D360" t="inlineStr">
         <is>

--- a/Översikt FALKÖPING.xlsx
+++ b/Översikt FALKÖPING.xlsx
@@ -572,7 +572,7 @@
         <v>44950</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -666,7 +666,7 @@
         <v>44890</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -753,7 +753,7 @@
         <v>44418</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -839,7 +839,7 @@
         <v>44748</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -925,7 +925,7 @@
         <v>43349</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1010,7 +1010,7 @@
         <v>43451</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1095,7 +1095,7 @@
         <v>43549</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1180,7 +1180,7 @@
         <v>44349</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1265,7 +1265,7 @@
         <v>44427</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1350,7 +1350,7 @@
         <v>44474</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1435,7 +1435,7 @@
         <v>44805</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1520,7 +1520,7 @@
         <v>44906</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1605,7 +1605,7 @@
         <v>43325</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1662,7 +1662,7 @@
         <v>43340</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1719,7 +1719,7 @@
         <v>43347</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1776,7 +1776,7 @@
         <v>43362</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1833,7 +1833,7 @@
         <v>43362</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1890,7 +1890,7 @@
         <v>43362</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1947,7 +1947,7 @@
         <v>43368</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2004,7 +2004,7 @@
         <v>43368</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2061,7 +2061,7 @@
         <v>43368</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2118,7 +2118,7 @@
         <v>43368</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2175,7 +2175,7 @@
         <v>43368</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2232,7 +2232,7 @@
         <v>43368</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2289,7 +2289,7 @@
         <v>43370</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2346,7 +2346,7 @@
         <v>43370</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2403,7 +2403,7 @@
         <v>43392</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2460,7 +2460,7 @@
         <v>43405</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2517,7 +2517,7 @@
         <v>43412</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2574,7 +2574,7 @@
         <v>43423</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2631,7 +2631,7 @@
         <v>43424</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2688,7 +2688,7 @@
         <v>43424</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2745,7 +2745,7 @@
         <v>43424</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2802,7 +2802,7 @@
         <v>43425</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2859,7 +2859,7 @@
         <v>43425</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -2916,7 +2916,7 @@
         <v>43426</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -2973,7 +2973,7 @@
         <v>43426</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3030,7 +3030,7 @@
         <v>43427</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3087,7 +3087,7 @@
         <v>43430</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3144,7 +3144,7 @@
         <v>43431</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3201,7 +3201,7 @@
         <v>43439</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3258,7 +3258,7 @@
         <v>43444</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3315,7 +3315,7 @@
         <v>43444</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3372,7 +3372,7 @@
         <v>43446</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3429,7 +3429,7 @@
         <v>43446</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3486,7 +3486,7 @@
         <v>43446</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3543,7 +3543,7 @@
         <v>43446</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3600,7 +3600,7 @@
         <v>43447</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3662,7 +3662,7 @@
         <v>43447</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3719,7 +3719,7 @@
         <v>43451</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3776,7 +3776,7 @@
         <v>43452</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3833,7 +3833,7 @@
         <v>43452</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -3890,7 +3890,7 @@
         <v>43452</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -3947,7 +3947,7 @@
         <v>43453</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4004,7 +4004,7 @@
         <v>43453</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4061,7 +4061,7 @@
         <v>43469</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4118,7 +4118,7 @@
         <v>43473</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4175,7 +4175,7 @@
         <v>43473</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4232,7 +4232,7 @@
         <v>43475</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4289,7 +4289,7 @@
         <v>43476</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4346,7 +4346,7 @@
         <v>43479</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4403,7 +4403,7 @@
         <v>43479</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4460,7 +4460,7 @@
         <v>43486</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4517,7 +4517,7 @@
         <v>43490</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4574,7 +4574,7 @@
         <v>43490</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4631,7 +4631,7 @@
         <v>43500</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4688,7 +4688,7 @@
         <v>43500</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4745,7 +4745,7 @@
         <v>43502</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -4802,7 +4802,7 @@
         <v>43502</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -4859,7 +4859,7 @@
         <v>43509</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -4916,7 +4916,7 @@
         <v>43509</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -4973,7 +4973,7 @@
         <v>43514</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5030,7 +5030,7 @@
         <v>43518</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5087,7 +5087,7 @@
         <v>43542</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5144,7 +5144,7 @@
         <v>43542</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5201,7 +5201,7 @@
         <v>43542</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5258,7 +5258,7 @@
         <v>43542</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5315,7 +5315,7 @@
         <v>43543</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5372,7 +5372,7 @@
         <v>43578</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5429,7 +5429,7 @@
         <v>43592</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5486,7 +5486,7 @@
         <v>43595</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5543,7 +5543,7 @@
         <v>43595</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5600,7 +5600,7 @@
         <v>43604</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5657,7 +5657,7 @@
         <v>43604</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5714,7 +5714,7 @@
         <v>43605</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -5776,7 +5776,7 @@
         <v>43607</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -5833,7 +5833,7 @@
         <v>43609</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -5890,7 +5890,7 @@
         <v>43612</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -5947,7 +5947,7 @@
         <v>43614</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6004,7 +6004,7 @@
         <v>43619</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6061,7 +6061,7 @@
         <v>43628</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6118,7 +6118,7 @@
         <v>43640</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6175,7 +6175,7 @@
         <v>43643</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6232,7 +6232,7 @@
         <v>43651</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6289,7 +6289,7 @@
         <v>43657</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6346,7 +6346,7 @@
         <v>43663</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6403,7 +6403,7 @@
         <v>43671</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6460,7 +6460,7 @@
         <v>43685</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6517,7 +6517,7 @@
         <v>43685</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6574,7 +6574,7 @@
         <v>43699</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6631,7 +6631,7 @@
         <v>43699</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -6688,7 +6688,7 @@
         <v>43700</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -6745,7 +6745,7 @@
         <v>43700</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -6802,7 +6802,7 @@
         <v>43700</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -6859,7 +6859,7 @@
         <v>43700</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -6916,7 +6916,7 @@
         <v>43700</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -6973,7 +6973,7 @@
         <v>43700</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7030,7 +7030,7 @@
         <v>43707</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7087,7 +7087,7 @@
         <v>43711</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7144,7 +7144,7 @@
         <v>43731</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7201,7 +7201,7 @@
         <v>43762</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7258,7 +7258,7 @@
         <v>43762</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7315,7 +7315,7 @@
         <v>43762</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7372,7 +7372,7 @@
         <v>43762</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7429,7 +7429,7 @@
         <v>43774</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7486,7 +7486,7 @@
         <v>43782</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7543,7 +7543,7 @@
         <v>43783</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -7605,7 +7605,7 @@
         <v>43788</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -7662,7 +7662,7 @@
         <v>43790</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -7719,7 +7719,7 @@
         <v>43790</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -7776,7 +7776,7 @@
         <v>43791</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -7833,7 +7833,7 @@
         <v>43798</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -7890,7 +7890,7 @@
         <v>43798</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -7947,7 +7947,7 @@
         <v>43803</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8004,7 +8004,7 @@
         <v>43803</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8061,7 +8061,7 @@
         <v>43812</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8118,7 +8118,7 @@
         <v>43826</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8175,7 +8175,7 @@
         <v>43826</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8232,7 +8232,7 @@
         <v>43839</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8289,7 +8289,7 @@
         <v>43850</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8346,7 +8346,7 @@
         <v>43850</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8403,7 +8403,7 @@
         <v>43852</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8460,7 +8460,7 @@
         <v>43852</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -8517,7 +8517,7 @@
         <v>43852</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -8574,7 +8574,7 @@
         <v>43852</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -8631,7 +8631,7 @@
         <v>43852</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -8688,7 +8688,7 @@
         <v>43852</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -8745,7 +8745,7 @@
         <v>43852</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -8802,7 +8802,7 @@
         <v>43852</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -8859,7 +8859,7 @@
         <v>43852</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -8916,7 +8916,7 @@
         <v>43853</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -8978,7 +8978,7 @@
         <v>43853</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -9040,7 +9040,7 @@
         <v>43858</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9097,7 +9097,7 @@
         <v>43866</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9159,7 +9159,7 @@
         <v>43868</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9216,7 +9216,7 @@
         <v>43868</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9273,7 +9273,7 @@
         <v>43868</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9330,7 +9330,7 @@
         <v>43873</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9387,7 +9387,7 @@
         <v>43873</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -9444,7 +9444,7 @@
         <v>43874</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -9501,7 +9501,7 @@
         <v>43878</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -9558,7 +9558,7 @@
         <v>43889</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -9615,7 +9615,7 @@
         <v>43890</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -9672,7 +9672,7 @@
         <v>43894</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -9729,7 +9729,7 @@
         <v>43907</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -9786,7 +9786,7 @@
         <v>43907</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -9843,7 +9843,7 @@
         <v>43907</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -9900,7 +9900,7 @@
         <v>43907</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -9957,7 +9957,7 @@
         <v>43908</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -10014,7 +10014,7 @@
         <v>43908</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -10076,7 +10076,7 @@
         <v>43908</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -10133,7 +10133,7 @@
         <v>43919</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -10190,7 +10190,7 @@
         <v>43921</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -10247,7 +10247,7 @@
         <v>43921</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -10304,7 +10304,7 @@
         <v>43989</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -10361,7 +10361,7 @@
         <v>43990</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -10418,7 +10418,7 @@
         <v>43992</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -10475,7 +10475,7 @@
         <v>44000</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -10532,7 +10532,7 @@
         <v>44012</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -10589,7 +10589,7 @@
         <v>44020</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -10646,7 +10646,7 @@
         <v>44024</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -10703,7 +10703,7 @@
         <v>44071</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -10760,7 +10760,7 @@
         <v>44089</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -10817,7 +10817,7 @@
         <v>44089</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -10874,7 +10874,7 @@
         <v>44089</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -10931,7 +10931,7 @@
         <v>44089</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -10988,7 +10988,7 @@
         <v>44105</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -11045,7 +11045,7 @@
         <v>44106</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -11102,7 +11102,7 @@
         <v>44109</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -11159,7 +11159,7 @@
         <v>44109</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -11216,7 +11216,7 @@
         <v>44117</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -11273,7 +11273,7 @@
         <v>44120</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -11330,7 +11330,7 @@
         <v>44125</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -11387,7 +11387,7 @@
         <v>44126</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -11444,7 +11444,7 @@
         <v>44131</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -11501,7 +11501,7 @@
         <v>44131</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -11558,7 +11558,7 @@
         <v>44142</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -11615,7 +11615,7 @@
         <v>44142</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -11672,7 +11672,7 @@
         <v>44146</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -11729,7 +11729,7 @@
         <v>44146</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -11786,7 +11786,7 @@
         <v>44153</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -11843,7 +11843,7 @@
         <v>44155</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -11900,7 +11900,7 @@
         <v>44157</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -11957,7 +11957,7 @@
         <v>44157</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -12014,7 +12014,7 @@
         <v>44157</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -12071,7 +12071,7 @@
         <v>44162</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -12128,7 +12128,7 @@
         <v>44162</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -12185,7 +12185,7 @@
         <v>44165</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -12242,7 +12242,7 @@
         <v>44181</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -12299,7 +12299,7 @@
         <v>44206</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -12356,7 +12356,7 @@
         <v>44209</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -12413,7 +12413,7 @@
         <v>44215</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -12470,7 +12470,7 @@
         <v>44215</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -12527,7 +12527,7 @@
         <v>44215</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -12584,7 +12584,7 @@
         <v>44220</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -12641,7 +12641,7 @@
         <v>44220</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -12698,7 +12698,7 @@
         <v>44228</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -12755,7 +12755,7 @@
         <v>44228</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -12812,7 +12812,7 @@
         <v>44230</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -12869,7 +12869,7 @@
         <v>44252</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -12926,7 +12926,7 @@
         <v>44258</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -12988,7 +12988,7 @@
         <v>44263</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -13045,7 +13045,7 @@
         <v>44265</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -13102,7 +13102,7 @@
         <v>44266</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -13159,7 +13159,7 @@
         <v>44270</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -13216,7 +13216,7 @@
         <v>44293</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -13273,7 +13273,7 @@
         <v>44299</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -13330,7 +13330,7 @@
         <v>44300</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -13387,7 +13387,7 @@
         <v>44312</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -13444,7 +13444,7 @@
         <v>44322</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -13501,7 +13501,7 @@
         <v>44332</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -13558,7 +13558,7 @@
         <v>44334</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -13615,7 +13615,7 @@
         <v>44350</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -13672,7 +13672,7 @@
         <v>44350</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -13729,7 +13729,7 @@
         <v>44351</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -13786,7 +13786,7 @@
         <v>44360</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -13843,7 +13843,7 @@
         <v>44361</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -13900,7 +13900,7 @@
         <v>44368</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -13957,7 +13957,7 @@
         <v>44418</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -14014,7 +14014,7 @@
         <v>44420</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -14071,7 +14071,7 @@
         <v>44428</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -14128,7 +14128,7 @@
         <v>44428</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -14185,7 +14185,7 @@
         <v>44429</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -14242,7 +14242,7 @@
         <v>44429</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -14299,7 +14299,7 @@
         <v>44433</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -14356,7 +14356,7 @@
         <v>44433</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -14413,7 +14413,7 @@
         <v>44434</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -14470,7 +14470,7 @@
         <v>44447</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -14527,7 +14527,7 @@
         <v>44454</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -14584,7 +14584,7 @@
         <v>44466</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -14641,7 +14641,7 @@
         <v>44469</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -14698,7 +14698,7 @@
         <v>44470</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -14755,7 +14755,7 @@
         <v>44474</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -14812,7 +14812,7 @@
         <v>44475</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -14869,7 +14869,7 @@
         <v>44489</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -14926,7 +14926,7 @@
         <v>44497</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -14983,7 +14983,7 @@
         <v>44503</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -15045,7 +15045,7 @@
         <v>44512</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -15102,7 +15102,7 @@
         <v>44529</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -15159,7 +15159,7 @@
         <v>44529</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -15216,7 +15216,7 @@
         <v>44529</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -15273,7 +15273,7 @@
         <v>44543</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -15330,7 +15330,7 @@
         <v>44572</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -15387,7 +15387,7 @@
         <v>44573</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -15449,7 +15449,7 @@
         <v>44578</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -15506,7 +15506,7 @@
         <v>44594</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -15563,7 +15563,7 @@
         <v>44594</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -15620,7 +15620,7 @@
         <v>44601</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -15677,7 +15677,7 @@
         <v>44602</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -15734,7 +15734,7 @@
         <v>44603</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -15791,7 +15791,7 @@
         <v>44616</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -15848,7 +15848,7 @@
         <v>44622</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -15905,7 +15905,7 @@
         <v>44623</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -15962,7 +15962,7 @@
         <v>44627</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -16024,7 +16024,7 @@
         <v>44629</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -16081,7 +16081,7 @@
         <v>44630</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -16138,7 +16138,7 @@
         <v>44630</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -16195,7 +16195,7 @@
         <v>44636</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -16252,7 +16252,7 @@
         <v>44636</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -16309,7 +16309,7 @@
         <v>44637</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -16366,7 +16366,7 @@
         <v>44663</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -16423,7 +16423,7 @@
         <v>44672</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -16480,7 +16480,7 @@
         <v>44707</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -16537,7 +16537,7 @@
         <v>44711</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -16594,7 +16594,7 @@
         <v>44713</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -16651,7 +16651,7 @@
         <v>44722</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -16708,7 +16708,7 @@
         <v>44726</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -16765,7 +16765,7 @@
         <v>44729</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -16822,7 +16822,7 @@
         <v>44739</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -16879,7 +16879,7 @@
         <v>44742</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -16936,7 +16936,7 @@
         <v>44742</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -16993,7 +16993,7 @@
         <v>44802</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -17050,7 +17050,7 @@
         <v>44802</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -17107,7 +17107,7 @@
         <v>44803</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -17164,7 +17164,7 @@
         <v>44805</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -17221,7 +17221,7 @@
         <v>44819</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -17278,7 +17278,7 @@
         <v>44823</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -17335,7 +17335,7 @@
         <v>44823</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -17392,7 +17392,7 @@
         <v>44838</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -17449,7 +17449,7 @@
         <v>44838</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -17506,7 +17506,7 @@
         <v>44861</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -17563,7 +17563,7 @@
         <v>44869</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -17620,7 +17620,7 @@
         <v>44880</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -17677,7 +17677,7 @@
         <v>44880</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -17734,7 +17734,7 @@
         <v>44882</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -17791,7 +17791,7 @@
         <v>44895</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -17848,7 +17848,7 @@
         <v>44928</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -17905,7 +17905,7 @@
         <v>44928</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -17962,7 +17962,7 @@
         <v>44945</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -18019,7 +18019,7 @@
         <v>44952</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -18076,7 +18076,7 @@
         <v>44952</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -18133,7 +18133,7 @@
         <v>44952</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -18190,7 +18190,7 @@
         <v>44952</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -18247,7 +18247,7 @@
         <v>44957</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -18304,7 +18304,7 @@
         <v>44957</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -18361,7 +18361,7 @@
         <v>44960</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -18418,7 +18418,7 @@
         <v>44974</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -18475,7 +18475,7 @@
         <v>44979</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -18537,7 +18537,7 @@
         <v>44985</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -18594,7 +18594,7 @@
         <v>44993</v>
       </c>
       <c r="C311" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -18651,7 +18651,7 @@
         <v>45014</v>
       </c>
       <c r="C312" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -18708,7 +18708,7 @@
         <v>45014</v>
       </c>
       <c r="C313" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -18765,7 +18765,7 @@
         <v>45014</v>
       </c>
       <c r="C314" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -18822,7 +18822,7 @@
         <v>45014</v>
       </c>
       <c r="C315" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -18879,7 +18879,7 @@
         <v>45014</v>
       </c>
       <c r="C316" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -18936,7 +18936,7 @@
         <v>45022</v>
       </c>
       <c r="C317" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -18993,7 +18993,7 @@
         <v>45022</v>
       </c>
       <c r="C318" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -19050,7 +19050,7 @@
         <v>45027</v>
       </c>
       <c r="C319" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -19107,7 +19107,7 @@
         <v>45033</v>
       </c>
       <c r="C320" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -19164,7 +19164,7 @@
         <v>45033</v>
       </c>
       <c r="C321" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
@@ -19221,7 +19221,7 @@
         <v>45033</v>
       </c>
       <c r="C322" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
@@ -19278,7 +19278,7 @@
         <v>45036</v>
       </c>
       <c r="C323" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
@@ -19335,7 +19335,7 @@
         <v>45050</v>
       </c>
       <c r="C324" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D324" t="inlineStr">
         <is>
@@ -19392,7 +19392,7 @@
         <v>45050</v>
       </c>
       <c r="C325" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D325" t="inlineStr">
         <is>
@@ -19449,7 +19449,7 @@
         <v>45065</v>
       </c>
       <c r="C326" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D326" t="inlineStr">
         <is>
@@ -19506,7 +19506,7 @@
         <v>45072</v>
       </c>
       <c r="C327" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D327" t="inlineStr">
         <is>
@@ -19563,7 +19563,7 @@
         <v>45073</v>
       </c>
       <c r="C328" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D328" t="inlineStr">
         <is>
@@ -19620,7 +19620,7 @@
         <v>45076</v>
       </c>
       <c r="C329" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D329" t="inlineStr">
         <is>
@@ -19677,7 +19677,7 @@
         <v>45076</v>
       </c>
       <c r="C330" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D330" t="inlineStr">
         <is>
@@ -19734,7 +19734,7 @@
         <v>45076</v>
       </c>
       <c r="C331" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D331" t="inlineStr">
         <is>
@@ -19791,7 +19791,7 @@
         <v>45076</v>
       </c>
       <c r="C332" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D332" t="inlineStr">
         <is>
@@ -19848,7 +19848,7 @@
         <v>45076</v>
       </c>
       <c r="C333" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D333" t="inlineStr">
         <is>
@@ -19905,7 +19905,7 @@
         <v>45078</v>
       </c>
       <c r="C334" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D334" t="inlineStr">
         <is>
@@ -19962,7 +19962,7 @@
         <v>45082</v>
       </c>
       <c r="C335" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D335" t="inlineStr">
         <is>
@@ -20019,7 +20019,7 @@
         <v>45082</v>
       </c>
       <c r="C336" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D336" t="inlineStr">
         <is>
@@ -20081,7 +20081,7 @@
         <v>45084</v>
       </c>
       <c r="C337" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D337" t="inlineStr">
         <is>
@@ -20138,7 +20138,7 @@
         <v>45084</v>
       </c>
       <c r="C338" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D338" t="inlineStr">
         <is>
@@ -20195,7 +20195,7 @@
         <v>45085</v>
       </c>
       <c r="C339" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D339" t="inlineStr">
         <is>
@@ -20252,7 +20252,7 @@
         <v>45085</v>
       </c>
       <c r="C340" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D340" t="inlineStr">
         <is>
@@ -20309,7 +20309,7 @@
         <v>45089</v>
       </c>
       <c r="C341" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D341" t="inlineStr">
         <is>
@@ -20366,7 +20366,7 @@
         <v>45089</v>
       </c>
       <c r="C342" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D342" t="inlineStr">
         <is>
@@ -20423,7 +20423,7 @@
         <v>45090</v>
       </c>
       <c r="C343" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D343" t="inlineStr">
         <is>
@@ -20480,7 +20480,7 @@
         <v>45091</v>
       </c>
       <c r="C344" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D344" t="inlineStr">
         <is>
@@ -20537,7 +20537,7 @@
         <v>45091</v>
       </c>
       <c r="C345" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D345" t="inlineStr">
         <is>
@@ -20594,7 +20594,7 @@
         <v>45091</v>
       </c>
       <c r="C346" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D346" t="inlineStr">
         <is>
@@ -20651,7 +20651,7 @@
         <v>45092</v>
       </c>
       <c r="C347" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D347" t="inlineStr">
         <is>
@@ -20708,7 +20708,7 @@
         <v>45093</v>
       </c>
       <c r="C348" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D348" t="inlineStr">
         <is>
@@ -20765,7 +20765,7 @@
         <v>45097</v>
       </c>
       <c r="C349" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D349" t="inlineStr">
         <is>
@@ -20822,7 +20822,7 @@
         <v>45103</v>
       </c>
       <c r="C350" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D350" t="inlineStr">
         <is>
@@ -20879,7 +20879,7 @@
         <v>45105</v>
       </c>
       <c r="C351" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D351" t="inlineStr">
         <is>
@@ -20936,7 +20936,7 @@
         <v>45107</v>
       </c>
       <c r="C352" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D352" t="inlineStr">
         <is>
@@ -20993,7 +20993,7 @@
         <v>45112</v>
       </c>
       <c r="C353" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D353" t="inlineStr">
         <is>
@@ -21050,7 +21050,7 @@
         <v>45116</v>
       </c>
       <c r="C354" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D354" t="inlineStr">
         <is>
@@ -21107,7 +21107,7 @@
         <v>45141</v>
       </c>
       <c r="C355" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D355" t="inlineStr">
         <is>
@@ -21164,7 +21164,7 @@
         <v>45142</v>
       </c>
       <c r="C356" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D356" t="inlineStr">
         <is>
@@ -21221,7 +21221,7 @@
         <v>45146</v>
       </c>
       <c r="C357" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D357" t="inlineStr">
         <is>
@@ -21278,7 +21278,7 @@
         <v>45148</v>
       </c>
       <c r="C358" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D358" t="inlineStr">
         <is>
@@ -21335,7 +21335,7 @@
         <v>45148</v>
       </c>
       <c r="C359" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D359" t="inlineStr">
         <is>
@@ -21392,7 +21392,7 @@
         <v>45154</v>
       </c>
       <c r="C360" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D360" t="inlineStr">
         <is>

--- a/Översikt FALKÖPING.xlsx
+++ b/Översikt FALKÖPING.xlsx
@@ -572,7 +572,7 @@
         <v>44950</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -666,7 +666,7 @@
         <v>44890</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -753,7 +753,7 @@
         <v>44418</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -839,7 +839,7 @@
         <v>44748</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -925,7 +925,7 @@
         <v>43349</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1010,7 +1010,7 @@
         <v>43451</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1095,7 +1095,7 @@
         <v>43549</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1180,7 +1180,7 @@
         <v>44349</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1265,7 +1265,7 @@
         <v>44427</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1350,7 +1350,7 @@
         <v>44474</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1435,7 +1435,7 @@
         <v>44805</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1520,7 +1520,7 @@
         <v>44906</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1605,7 +1605,7 @@
         <v>43325</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1662,7 +1662,7 @@
         <v>43340</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1719,7 +1719,7 @@
         <v>43347</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1776,7 +1776,7 @@
         <v>43362</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1833,7 +1833,7 @@
         <v>43362</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1890,7 +1890,7 @@
         <v>43362</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1947,7 +1947,7 @@
         <v>43368</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2004,7 +2004,7 @@
         <v>43368</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2061,7 +2061,7 @@
         <v>43368</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2118,7 +2118,7 @@
         <v>43368</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2175,7 +2175,7 @@
         <v>43368</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2232,7 +2232,7 @@
         <v>43368</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2289,7 +2289,7 @@
         <v>43370</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2346,7 +2346,7 @@
         <v>43370</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2403,7 +2403,7 @@
         <v>43392</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2460,7 +2460,7 @@
         <v>43405</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2517,7 +2517,7 @@
         <v>43412</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2574,7 +2574,7 @@
         <v>43423</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2631,7 +2631,7 @@
         <v>43424</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2688,7 +2688,7 @@
         <v>43424</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2745,7 +2745,7 @@
         <v>43424</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2802,7 +2802,7 @@
         <v>43425</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2859,7 +2859,7 @@
         <v>43425</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -2916,7 +2916,7 @@
         <v>43426</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -2973,7 +2973,7 @@
         <v>43426</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3030,7 +3030,7 @@
         <v>43427</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3087,7 +3087,7 @@
         <v>43430</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3144,7 +3144,7 @@
         <v>43431</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3201,7 +3201,7 @@
         <v>43439</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3258,7 +3258,7 @@
         <v>43444</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3315,7 +3315,7 @@
         <v>43444</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3372,7 +3372,7 @@
         <v>43446</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3429,7 +3429,7 @@
         <v>43446</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3486,7 +3486,7 @@
         <v>43446</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3543,7 +3543,7 @@
         <v>43446</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3600,7 +3600,7 @@
         <v>43447</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3662,7 +3662,7 @@
         <v>43447</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3719,7 +3719,7 @@
         <v>43451</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3776,7 +3776,7 @@
         <v>43452</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3833,7 +3833,7 @@
         <v>43452</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -3890,7 +3890,7 @@
         <v>43452</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -3947,7 +3947,7 @@
         <v>43453</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4004,7 +4004,7 @@
         <v>43453</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4061,7 +4061,7 @@
         <v>43469</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4118,7 +4118,7 @@
         <v>43473</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4175,7 +4175,7 @@
         <v>43473</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4232,7 +4232,7 @@
         <v>43475</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4289,7 +4289,7 @@
         <v>43476</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4346,7 +4346,7 @@
         <v>43479</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4403,7 +4403,7 @@
         <v>43479</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4460,7 +4460,7 @@
         <v>43486</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4517,7 +4517,7 @@
         <v>43490</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4574,7 +4574,7 @@
         <v>43490</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4631,7 +4631,7 @@
         <v>43500</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4688,7 +4688,7 @@
         <v>43500</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4745,7 +4745,7 @@
         <v>43502</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -4802,7 +4802,7 @@
         <v>43502</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -4859,7 +4859,7 @@
         <v>43509</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -4916,7 +4916,7 @@
         <v>43509</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -4973,7 +4973,7 @@
         <v>43514</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5030,7 +5030,7 @@
         <v>43518</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5087,7 +5087,7 @@
         <v>43542</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5144,7 +5144,7 @@
         <v>43542</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5201,7 +5201,7 @@
         <v>43542</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5258,7 +5258,7 @@
         <v>43542</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5315,7 +5315,7 @@
         <v>43543</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5372,7 +5372,7 @@
         <v>43578</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5429,7 +5429,7 @@
         <v>43592</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5486,7 +5486,7 @@
         <v>43595</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5543,7 +5543,7 @@
         <v>43595</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5600,7 +5600,7 @@
         <v>43604</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5657,7 +5657,7 @@
         <v>43604</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5714,7 +5714,7 @@
         <v>43605</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -5776,7 +5776,7 @@
         <v>43607</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -5833,7 +5833,7 @@
         <v>43609</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -5890,7 +5890,7 @@
         <v>43612</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -5947,7 +5947,7 @@
         <v>43614</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6004,7 +6004,7 @@
         <v>43619</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6061,7 +6061,7 @@
         <v>43628</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6118,7 +6118,7 @@
         <v>43640</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6175,7 +6175,7 @@
         <v>43643</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6232,7 +6232,7 @@
         <v>43651</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6289,7 +6289,7 @@
         <v>43657</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6346,7 +6346,7 @@
         <v>43663</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6403,7 +6403,7 @@
         <v>43671</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6460,7 +6460,7 @@
         <v>43685</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6517,7 +6517,7 @@
         <v>43685</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6574,7 +6574,7 @@
         <v>43699</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6631,7 +6631,7 @@
         <v>43699</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -6688,7 +6688,7 @@
         <v>43700</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -6745,7 +6745,7 @@
         <v>43700</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -6802,7 +6802,7 @@
         <v>43700</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -6859,7 +6859,7 @@
         <v>43700</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -6916,7 +6916,7 @@
         <v>43700</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -6973,7 +6973,7 @@
         <v>43700</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7030,7 +7030,7 @@
         <v>43707</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7087,7 +7087,7 @@
         <v>43711</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7144,7 +7144,7 @@
         <v>43731</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7201,7 +7201,7 @@
         <v>43762</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7258,7 +7258,7 @@
         <v>43762</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7315,7 +7315,7 @@
         <v>43762</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7372,7 +7372,7 @@
         <v>43762</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7429,7 +7429,7 @@
         <v>43774</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7486,7 +7486,7 @@
         <v>43782</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7543,7 +7543,7 @@
         <v>43783</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -7605,7 +7605,7 @@
         <v>43788</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -7662,7 +7662,7 @@
         <v>43790</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -7719,7 +7719,7 @@
         <v>43790</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -7776,7 +7776,7 @@
         <v>43791</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -7833,7 +7833,7 @@
         <v>43798</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -7890,7 +7890,7 @@
         <v>43798</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -7947,7 +7947,7 @@
         <v>43803</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8004,7 +8004,7 @@
         <v>43803</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8061,7 +8061,7 @@
         <v>43812</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8118,7 +8118,7 @@
         <v>43826</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8175,7 +8175,7 @@
         <v>43826</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8232,7 +8232,7 @@
         <v>43839</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8289,7 +8289,7 @@
         <v>43850</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8346,7 +8346,7 @@
         <v>43850</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8403,7 +8403,7 @@
         <v>43852</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8460,7 +8460,7 @@
         <v>43852</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -8517,7 +8517,7 @@
         <v>43852</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -8574,7 +8574,7 @@
         <v>43852</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -8631,7 +8631,7 @@
         <v>43852</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -8688,7 +8688,7 @@
         <v>43852</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -8745,7 +8745,7 @@
         <v>43852</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -8802,7 +8802,7 @@
         <v>43852</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -8859,7 +8859,7 @@
         <v>43852</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -8916,7 +8916,7 @@
         <v>43853</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -8978,7 +8978,7 @@
         <v>43853</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -9040,7 +9040,7 @@
         <v>43858</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9097,7 +9097,7 @@
         <v>43866</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9159,7 +9159,7 @@
         <v>43868</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9216,7 +9216,7 @@
         <v>43868</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9273,7 +9273,7 @@
         <v>43868</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9330,7 +9330,7 @@
         <v>43873</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9387,7 +9387,7 @@
         <v>43873</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -9444,7 +9444,7 @@
         <v>43874</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -9501,7 +9501,7 @@
         <v>43878</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -9558,7 +9558,7 @@
         <v>43889</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -9615,7 +9615,7 @@
         <v>43890</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -9672,7 +9672,7 @@
         <v>43894</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -9729,7 +9729,7 @@
         <v>43907</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -9786,7 +9786,7 @@
         <v>43907</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -9843,7 +9843,7 @@
         <v>43907</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -9900,7 +9900,7 @@
         <v>43907</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -9957,7 +9957,7 @@
         <v>43908</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -10014,7 +10014,7 @@
         <v>43908</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -10076,7 +10076,7 @@
         <v>43908</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -10133,7 +10133,7 @@
         <v>43919</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -10190,7 +10190,7 @@
         <v>43921</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -10247,7 +10247,7 @@
         <v>43921</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -10304,7 +10304,7 @@
         <v>43989</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -10361,7 +10361,7 @@
         <v>43990</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -10418,7 +10418,7 @@
         <v>43992</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -10475,7 +10475,7 @@
         <v>44000</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -10532,7 +10532,7 @@
         <v>44012</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -10589,7 +10589,7 @@
         <v>44020</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -10646,7 +10646,7 @@
         <v>44024</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -10703,7 +10703,7 @@
         <v>44071</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -10760,7 +10760,7 @@
         <v>44089</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -10817,7 +10817,7 @@
         <v>44089</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -10874,7 +10874,7 @@
         <v>44089</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -10931,7 +10931,7 @@
         <v>44089</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -10988,7 +10988,7 @@
         <v>44105</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -11045,7 +11045,7 @@
         <v>44106</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -11102,7 +11102,7 @@
         <v>44109</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -11159,7 +11159,7 @@
         <v>44109</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -11216,7 +11216,7 @@
         <v>44117</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -11273,7 +11273,7 @@
         <v>44120</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -11330,7 +11330,7 @@
         <v>44125</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -11387,7 +11387,7 @@
         <v>44126</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -11444,7 +11444,7 @@
         <v>44131</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -11501,7 +11501,7 @@
         <v>44131</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -11558,7 +11558,7 @@
         <v>44142</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -11615,7 +11615,7 @@
         <v>44142</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -11672,7 +11672,7 @@
         <v>44146</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -11729,7 +11729,7 @@
         <v>44146</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -11786,7 +11786,7 @@
         <v>44153</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -11843,7 +11843,7 @@
         <v>44155</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -11900,7 +11900,7 @@
         <v>44157</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -11957,7 +11957,7 @@
         <v>44157</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -12014,7 +12014,7 @@
         <v>44157</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -12071,7 +12071,7 @@
         <v>44162</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -12128,7 +12128,7 @@
         <v>44162</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -12185,7 +12185,7 @@
         <v>44165</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -12242,7 +12242,7 @@
         <v>44181</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -12299,7 +12299,7 @@
         <v>44206</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -12356,7 +12356,7 @@
         <v>44209</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -12413,7 +12413,7 @@
         <v>44215</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -12470,7 +12470,7 @@
         <v>44215</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -12527,7 +12527,7 @@
         <v>44215</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -12584,7 +12584,7 @@
         <v>44220</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -12641,7 +12641,7 @@
         <v>44220</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -12698,7 +12698,7 @@
         <v>44228</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -12755,7 +12755,7 @@
         <v>44228</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -12812,7 +12812,7 @@
         <v>44230</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -12869,7 +12869,7 @@
         <v>44252</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -12926,7 +12926,7 @@
         <v>44258</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -12988,7 +12988,7 @@
         <v>44263</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -13045,7 +13045,7 @@
         <v>44265</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -13102,7 +13102,7 @@
         <v>44266</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -13159,7 +13159,7 @@
         <v>44270</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -13216,7 +13216,7 @@
         <v>44293</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -13273,7 +13273,7 @@
         <v>44299</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -13330,7 +13330,7 @@
         <v>44300</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -13387,7 +13387,7 @@
         <v>44312</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -13444,7 +13444,7 @@
         <v>44322</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -13501,7 +13501,7 @@
         <v>44332</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -13558,7 +13558,7 @@
         <v>44334</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -13615,7 +13615,7 @@
         <v>44350</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -13672,7 +13672,7 @@
         <v>44350</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -13729,7 +13729,7 @@
         <v>44351</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -13786,7 +13786,7 @@
         <v>44360</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -13843,7 +13843,7 @@
         <v>44361</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -13900,7 +13900,7 @@
         <v>44368</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -13957,7 +13957,7 @@
         <v>44418</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -14014,7 +14014,7 @@
         <v>44420</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -14071,7 +14071,7 @@
         <v>44428</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -14128,7 +14128,7 @@
         <v>44428</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -14185,7 +14185,7 @@
         <v>44429</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -14242,7 +14242,7 @@
         <v>44429</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -14299,7 +14299,7 @@
         <v>44433</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -14356,7 +14356,7 @@
         <v>44433</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -14413,7 +14413,7 @@
         <v>44434</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -14470,7 +14470,7 @@
         <v>44447</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -14527,7 +14527,7 @@
         <v>44454</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -14584,7 +14584,7 @@
         <v>44466</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -14641,7 +14641,7 @@
         <v>44469</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -14698,7 +14698,7 @@
         <v>44470</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -14755,7 +14755,7 @@
         <v>44474</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -14812,7 +14812,7 @@
         <v>44475</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -14869,7 +14869,7 @@
         <v>44489</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -14926,7 +14926,7 @@
         <v>44497</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -14983,7 +14983,7 @@
         <v>44503</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -15045,7 +15045,7 @@
         <v>44512</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -15102,7 +15102,7 @@
         <v>44529</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -15159,7 +15159,7 @@
         <v>44529</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -15216,7 +15216,7 @@
         <v>44529</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -15273,7 +15273,7 @@
         <v>44543</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -15330,7 +15330,7 @@
         <v>44572</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -15387,7 +15387,7 @@
         <v>44573</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -15449,7 +15449,7 @@
         <v>44578</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -15506,7 +15506,7 @@
         <v>44594</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -15563,7 +15563,7 @@
         <v>44594</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -15620,7 +15620,7 @@
         <v>44601</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -15677,7 +15677,7 @@
         <v>44602</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -15734,7 +15734,7 @@
         <v>44603</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -15791,7 +15791,7 @@
         <v>44616</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -15848,7 +15848,7 @@
         <v>44622</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -15905,7 +15905,7 @@
         <v>44623</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -15962,7 +15962,7 @@
         <v>44627</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -16024,7 +16024,7 @@
         <v>44629</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -16081,7 +16081,7 @@
         <v>44630</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -16138,7 +16138,7 @@
         <v>44630</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -16195,7 +16195,7 @@
         <v>44636</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -16252,7 +16252,7 @@
         <v>44636</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -16309,7 +16309,7 @@
         <v>44637</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -16366,7 +16366,7 @@
         <v>44663</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -16423,7 +16423,7 @@
         <v>44672</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -16480,7 +16480,7 @@
         <v>44707</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -16537,7 +16537,7 @@
         <v>44711</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -16594,7 +16594,7 @@
         <v>44713</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -16651,7 +16651,7 @@
         <v>44722</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -16708,7 +16708,7 @@
         <v>44726</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -16765,7 +16765,7 @@
         <v>44729</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -16822,7 +16822,7 @@
         <v>44739</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -16879,7 +16879,7 @@
         <v>44742</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -16936,7 +16936,7 @@
         <v>44742</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -16993,7 +16993,7 @@
         <v>44802</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -17050,7 +17050,7 @@
         <v>44802</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -17107,7 +17107,7 @@
         <v>44803</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -17164,7 +17164,7 @@
         <v>44805</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -17221,7 +17221,7 @@
         <v>44819</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -17278,7 +17278,7 @@
         <v>44823</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -17335,7 +17335,7 @@
         <v>44823</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -17392,7 +17392,7 @@
         <v>44838</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -17449,7 +17449,7 @@
         <v>44838</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -17506,7 +17506,7 @@
         <v>44861</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -17563,7 +17563,7 @@
         <v>44869</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -17620,7 +17620,7 @@
         <v>44880</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -17677,7 +17677,7 @@
         <v>44880</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -17734,7 +17734,7 @@
         <v>44882</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -17791,7 +17791,7 @@
         <v>44895</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -17848,7 +17848,7 @@
         <v>44928</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -17905,7 +17905,7 @@
         <v>44928</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -17962,7 +17962,7 @@
         <v>44945</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -18019,7 +18019,7 @@
         <v>44952</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -18076,7 +18076,7 @@
         <v>44952</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -18133,7 +18133,7 @@
         <v>44952</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -18190,7 +18190,7 @@
         <v>44952</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -18247,7 +18247,7 @@
         <v>44957</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -18304,7 +18304,7 @@
         <v>44957</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -18361,7 +18361,7 @@
         <v>44960</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -18418,7 +18418,7 @@
         <v>44974</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -18475,7 +18475,7 @@
         <v>44979</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -18537,7 +18537,7 @@
         <v>44985</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -18594,7 +18594,7 @@
         <v>44993</v>
       </c>
       <c r="C311" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -18651,7 +18651,7 @@
         <v>45014</v>
       </c>
       <c r="C312" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -18708,7 +18708,7 @@
         <v>45014</v>
       </c>
       <c r="C313" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -18765,7 +18765,7 @@
         <v>45014</v>
       </c>
       <c r="C314" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -18822,7 +18822,7 @@
         <v>45014</v>
       </c>
       <c r="C315" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -18879,7 +18879,7 @@
         <v>45014</v>
       </c>
       <c r="C316" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -18936,7 +18936,7 @@
         <v>45022</v>
       </c>
       <c r="C317" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -18993,7 +18993,7 @@
         <v>45022</v>
       </c>
       <c r="C318" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -19050,7 +19050,7 @@
         <v>45027</v>
       </c>
       <c r="C319" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -19107,7 +19107,7 @@
         <v>45033</v>
       </c>
       <c r="C320" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -19164,7 +19164,7 @@
         <v>45033</v>
       </c>
       <c r="C321" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
@@ -19221,7 +19221,7 @@
         <v>45033</v>
       </c>
       <c r="C322" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
@@ -19278,7 +19278,7 @@
         <v>45036</v>
       </c>
       <c r="C323" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
@@ -19335,7 +19335,7 @@
         <v>45050</v>
       </c>
       <c r="C324" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D324" t="inlineStr">
         <is>
@@ -19392,7 +19392,7 @@
         <v>45050</v>
       </c>
       <c r="C325" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D325" t="inlineStr">
         <is>
@@ -19449,7 +19449,7 @@
         <v>45065</v>
       </c>
       <c r="C326" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D326" t="inlineStr">
         <is>
@@ -19506,7 +19506,7 @@
         <v>45072</v>
       </c>
       <c r="C327" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D327" t="inlineStr">
         <is>
@@ -19563,7 +19563,7 @@
         <v>45073</v>
       </c>
       <c r="C328" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D328" t="inlineStr">
         <is>
@@ -19620,7 +19620,7 @@
         <v>45076</v>
       </c>
       <c r="C329" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D329" t="inlineStr">
         <is>
@@ -19677,7 +19677,7 @@
         <v>45076</v>
       </c>
       <c r="C330" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D330" t="inlineStr">
         <is>
@@ -19734,7 +19734,7 @@
         <v>45076</v>
       </c>
       <c r="C331" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D331" t="inlineStr">
         <is>
@@ -19791,7 +19791,7 @@
         <v>45076</v>
       </c>
       <c r="C332" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D332" t="inlineStr">
         <is>
@@ -19848,7 +19848,7 @@
         <v>45076</v>
       </c>
       <c r="C333" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D333" t="inlineStr">
         <is>
@@ -19905,7 +19905,7 @@
         <v>45078</v>
       </c>
       <c r="C334" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D334" t="inlineStr">
         <is>
@@ -19962,7 +19962,7 @@
         <v>45082</v>
       </c>
       <c r="C335" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D335" t="inlineStr">
         <is>
@@ -20019,7 +20019,7 @@
         <v>45082</v>
       </c>
       <c r="C336" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D336" t="inlineStr">
         <is>
@@ -20081,7 +20081,7 @@
         <v>45084</v>
       </c>
       <c r="C337" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D337" t="inlineStr">
         <is>
@@ -20138,7 +20138,7 @@
         <v>45084</v>
       </c>
       <c r="C338" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D338" t="inlineStr">
         <is>
@@ -20195,7 +20195,7 @@
         <v>45085</v>
       </c>
       <c r="C339" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D339" t="inlineStr">
         <is>
@@ -20252,7 +20252,7 @@
         <v>45085</v>
       </c>
       <c r="C340" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D340" t="inlineStr">
         <is>
@@ -20309,7 +20309,7 @@
         <v>45089</v>
       </c>
       <c r="C341" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D341" t="inlineStr">
         <is>
@@ -20366,7 +20366,7 @@
         <v>45089</v>
       </c>
       <c r="C342" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D342" t="inlineStr">
         <is>
@@ -20423,7 +20423,7 @@
         <v>45090</v>
       </c>
       <c r="C343" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D343" t="inlineStr">
         <is>
@@ -20480,7 +20480,7 @@
         <v>45091</v>
       </c>
       <c r="C344" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D344" t="inlineStr">
         <is>
@@ -20537,7 +20537,7 @@
         <v>45091</v>
       </c>
       <c r="C345" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D345" t="inlineStr">
         <is>
@@ -20594,7 +20594,7 @@
         <v>45091</v>
       </c>
       <c r="C346" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D346" t="inlineStr">
         <is>
@@ -20651,7 +20651,7 @@
         <v>45092</v>
       </c>
       <c r="C347" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D347" t="inlineStr">
         <is>
@@ -20708,7 +20708,7 @@
         <v>45093</v>
       </c>
       <c r="C348" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D348" t="inlineStr">
         <is>
@@ -20765,7 +20765,7 @@
         <v>45097</v>
       </c>
       <c r="C349" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D349" t="inlineStr">
         <is>
@@ -20822,7 +20822,7 @@
         <v>45103</v>
       </c>
       <c r="C350" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D350" t="inlineStr">
         <is>
@@ -20879,7 +20879,7 @@
         <v>45105</v>
       </c>
       <c r="C351" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D351" t="inlineStr">
         <is>
@@ -20936,7 +20936,7 @@
         <v>45107</v>
       </c>
       <c r="C352" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D352" t="inlineStr">
         <is>
@@ -20993,7 +20993,7 @@
         <v>45112</v>
       </c>
       <c r="C353" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D353" t="inlineStr">
         <is>
@@ -21050,7 +21050,7 @@
         <v>45116</v>
       </c>
       <c r="C354" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D354" t="inlineStr">
         <is>
@@ -21107,7 +21107,7 @@
         <v>45141</v>
       </c>
       <c r="C355" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D355" t="inlineStr">
         <is>
@@ -21164,7 +21164,7 @@
         <v>45142</v>
       </c>
       <c r="C356" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D356" t="inlineStr">
         <is>
@@ -21221,7 +21221,7 @@
         <v>45146</v>
       </c>
       <c r="C357" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D357" t="inlineStr">
         <is>
@@ -21278,7 +21278,7 @@
         <v>45148</v>
       </c>
       <c r="C358" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D358" t="inlineStr">
         <is>
@@ -21335,7 +21335,7 @@
         <v>45148</v>
       </c>
       <c r="C359" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D359" t="inlineStr">
         <is>
@@ -21392,7 +21392,7 @@
         <v>45154</v>
       </c>
       <c r="C360" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D360" t="inlineStr">
         <is>

--- a/Översikt FALKÖPING.xlsx
+++ b/Översikt FALKÖPING.xlsx
@@ -572,7 +572,7 @@
         <v>44950</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -632,27 +632,27 @@
         </is>
       </c>
       <c r="S2">
-        <f>HYPERLINK("https://klasma.github.io/Logging_FALKOPING/artfynd/A 3607-2023.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_FALKOPING/artfynd/A 3607-2023.xlsx", "A 3607-2023")</f>
         <v/>
       </c>
       <c r="T2">
-        <f>HYPERLINK("https://klasma.github.io/Logging_FALKOPING/kartor/A 3607-2023.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_FALKOPING/kartor/A 3607-2023.png", "A 3607-2023")</f>
         <v/>
       </c>
       <c r="V2">
-        <f>HYPERLINK("https://klasma.github.io/Logging_FALKOPING/klagomål/A 3607-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_FALKOPING/klagomål/A 3607-2023.docx", "A 3607-2023")</f>
         <v/>
       </c>
       <c r="W2">
-        <f>HYPERLINK("https://klasma.github.io/Logging_FALKOPING/klagomålsmail/A 3607-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_FALKOPING/klagomålsmail/A 3607-2023.docx", "A 3607-2023")</f>
         <v/>
       </c>
       <c r="X2">
-        <f>HYPERLINK("https://klasma.github.io/Logging_FALKOPING/tillsyn/A 3607-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_FALKOPING/tillsyn/A 3607-2023.docx", "A 3607-2023")</f>
         <v/>
       </c>
       <c r="Y2">
-        <f>HYPERLINK("https://klasma.github.io/Logging_FALKOPING/tillsynsmail/A 3607-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_FALKOPING/tillsynsmail/A 3607-2023.docx", "A 3607-2023")</f>
         <v/>
       </c>
     </row>
@@ -666,7 +666,7 @@
         <v>44890</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -719,27 +719,27 @@
         </is>
       </c>
       <c r="S3">
-        <f>HYPERLINK("https://klasma.github.io/Logging_FALKOPING/artfynd/A 56381-2022.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_FALKOPING/artfynd/A 56381-2022.xlsx", "A 56381-2022")</f>
         <v/>
       </c>
       <c r="T3">
-        <f>HYPERLINK("https://klasma.github.io/Logging_FALKOPING/kartor/A 56381-2022.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_FALKOPING/kartor/A 56381-2022.png", "A 56381-2022")</f>
         <v/>
       </c>
       <c r="V3">
-        <f>HYPERLINK("https://klasma.github.io/Logging_FALKOPING/klagomål/A 56381-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_FALKOPING/klagomål/A 56381-2022.docx", "A 56381-2022")</f>
         <v/>
       </c>
       <c r="W3">
-        <f>HYPERLINK("https://klasma.github.io/Logging_FALKOPING/klagomålsmail/A 56381-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_FALKOPING/klagomålsmail/A 56381-2022.docx", "A 56381-2022")</f>
         <v/>
       </c>
       <c r="X3">
-        <f>HYPERLINK("https://klasma.github.io/Logging_FALKOPING/tillsyn/A 56381-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_FALKOPING/tillsyn/A 56381-2022.docx", "A 56381-2022")</f>
         <v/>
       </c>
       <c r="Y3">
-        <f>HYPERLINK("https://klasma.github.io/Logging_FALKOPING/tillsynsmail/A 56381-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_FALKOPING/tillsynsmail/A 56381-2022.docx", "A 56381-2022")</f>
         <v/>
       </c>
     </row>
@@ -753,7 +753,7 @@
         <v>44418</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -805,27 +805,27 @@
         </is>
       </c>
       <c r="S4">
-        <f>HYPERLINK("https://klasma.github.io/Logging_FALKOPING/artfynd/A 40067-2021.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_FALKOPING/artfynd/A 40067-2021.xlsx", "A 40067-2021")</f>
         <v/>
       </c>
       <c r="T4">
-        <f>HYPERLINK("https://klasma.github.io/Logging_FALKOPING/kartor/A 40067-2021.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_FALKOPING/kartor/A 40067-2021.png", "A 40067-2021")</f>
         <v/>
       </c>
       <c r="V4">
-        <f>HYPERLINK("https://klasma.github.io/Logging_FALKOPING/klagomål/A 40067-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_FALKOPING/klagomål/A 40067-2021.docx", "A 40067-2021")</f>
         <v/>
       </c>
       <c r="W4">
-        <f>HYPERLINK("https://klasma.github.io/Logging_FALKOPING/klagomålsmail/A 40067-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_FALKOPING/klagomålsmail/A 40067-2021.docx", "A 40067-2021")</f>
         <v/>
       </c>
       <c r="X4">
-        <f>HYPERLINK("https://klasma.github.io/Logging_FALKOPING/tillsyn/A 40067-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_FALKOPING/tillsyn/A 40067-2021.docx", "A 40067-2021")</f>
         <v/>
       </c>
       <c r="Y4">
-        <f>HYPERLINK("https://klasma.github.io/Logging_FALKOPING/tillsynsmail/A 40067-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_FALKOPING/tillsynsmail/A 40067-2021.docx", "A 40067-2021")</f>
         <v/>
       </c>
     </row>
@@ -839,7 +839,7 @@
         <v>44748</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -891,27 +891,27 @@
         </is>
       </c>
       <c r="S5">
-        <f>HYPERLINK("https://klasma.github.io/Logging_FALKOPING/artfynd/A 28676-2022.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_FALKOPING/artfynd/A 28676-2022.xlsx", "A 28676-2022")</f>
         <v/>
       </c>
       <c r="T5">
-        <f>HYPERLINK("https://klasma.github.io/Logging_FALKOPING/kartor/A 28676-2022.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_FALKOPING/kartor/A 28676-2022.png", "A 28676-2022")</f>
         <v/>
       </c>
       <c r="V5">
-        <f>HYPERLINK("https://klasma.github.io/Logging_FALKOPING/klagomål/A 28676-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_FALKOPING/klagomål/A 28676-2022.docx", "A 28676-2022")</f>
         <v/>
       </c>
       <c r="W5">
-        <f>HYPERLINK("https://klasma.github.io/Logging_FALKOPING/klagomålsmail/A 28676-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_FALKOPING/klagomålsmail/A 28676-2022.docx", "A 28676-2022")</f>
         <v/>
       </c>
       <c r="X5">
-        <f>HYPERLINK("https://klasma.github.io/Logging_FALKOPING/tillsyn/A 28676-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_FALKOPING/tillsyn/A 28676-2022.docx", "A 28676-2022")</f>
         <v/>
       </c>
       <c r="Y5">
-        <f>HYPERLINK("https://klasma.github.io/Logging_FALKOPING/tillsynsmail/A 28676-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_FALKOPING/tillsynsmail/A 28676-2022.docx", "A 28676-2022")</f>
         <v/>
       </c>
     </row>
@@ -925,7 +925,7 @@
         <v>43349</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -976,27 +976,27 @@
         </is>
       </c>
       <c r="S6">
-        <f>HYPERLINK("https://klasma.github.io/Logging_FALKOPING/artfynd/A 41499-2018.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_FALKOPING/artfynd/A 41499-2018.xlsx", "A 41499-2018")</f>
         <v/>
       </c>
       <c r="T6">
-        <f>HYPERLINK("https://klasma.github.io/Logging_FALKOPING/kartor/A 41499-2018.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_FALKOPING/kartor/A 41499-2018.png", "A 41499-2018")</f>
         <v/>
       </c>
       <c r="V6">
-        <f>HYPERLINK("https://klasma.github.io/Logging_FALKOPING/klagomål/A 41499-2018.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_FALKOPING/klagomål/A 41499-2018.docx", "A 41499-2018")</f>
         <v/>
       </c>
       <c r="W6">
-        <f>HYPERLINK("https://klasma.github.io/Logging_FALKOPING/klagomålsmail/A 41499-2018.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_FALKOPING/klagomålsmail/A 41499-2018.docx", "A 41499-2018")</f>
         <v/>
       </c>
       <c r="X6">
-        <f>HYPERLINK("https://klasma.github.io/Logging_FALKOPING/tillsyn/A 41499-2018.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_FALKOPING/tillsyn/A 41499-2018.docx", "A 41499-2018")</f>
         <v/>
       </c>
       <c r="Y6">
-        <f>HYPERLINK("https://klasma.github.io/Logging_FALKOPING/tillsynsmail/A 41499-2018.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_FALKOPING/tillsynsmail/A 41499-2018.docx", "A 41499-2018")</f>
         <v/>
       </c>
     </row>
@@ -1010,7 +1010,7 @@
         <v>43451</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1061,27 +1061,27 @@
         </is>
       </c>
       <c r="S7">
-        <f>HYPERLINK("https://klasma.github.io/Logging_FALKOPING/artfynd/A 70607-2018.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_FALKOPING/artfynd/A 70607-2018.xlsx", "A 70607-2018")</f>
         <v/>
       </c>
       <c r="T7">
-        <f>HYPERLINK("https://klasma.github.io/Logging_FALKOPING/kartor/A 70607-2018.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_FALKOPING/kartor/A 70607-2018.png", "A 70607-2018")</f>
         <v/>
       </c>
       <c r="V7">
-        <f>HYPERLINK("https://klasma.github.io/Logging_FALKOPING/klagomål/A 70607-2018.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_FALKOPING/klagomål/A 70607-2018.docx", "A 70607-2018")</f>
         <v/>
       </c>
       <c r="W7">
-        <f>HYPERLINK("https://klasma.github.io/Logging_FALKOPING/klagomålsmail/A 70607-2018.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_FALKOPING/klagomålsmail/A 70607-2018.docx", "A 70607-2018")</f>
         <v/>
       </c>
       <c r="X7">
-        <f>HYPERLINK("https://klasma.github.io/Logging_FALKOPING/tillsyn/A 70607-2018.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_FALKOPING/tillsyn/A 70607-2018.docx", "A 70607-2018")</f>
         <v/>
       </c>
       <c r="Y7">
-        <f>HYPERLINK("https://klasma.github.io/Logging_FALKOPING/tillsynsmail/A 70607-2018.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_FALKOPING/tillsynsmail/A 70607-2018.docx", "A 70607-2018")</f>
         <v/>
       </c>
     </row>
@@ -1095,7 +1095,7 @@
         <v>43549</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1146,27 +1146,27 @@
         </is>
       </c>
       <c r="S8">
-        <f>HYPERLINK("https://klasma.github.io/Logging_FALKOPING/artfynd/A 16637-2019.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_FALKOPING/artfynd/A 16637-2019.xlsx", "A 16637-2019")</f>
         <v/>
       </c>
       <c r="T8">
-        <f>HYPERLINK("https://klasma.github.io/Logging_FALKOPING/kartor/A 16637-2019.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_FALKOPING/kartor/A 16637-2019.png", "A 16637-2019")</f>
         <v/>
       </c>
       <c r="V8">
-        <f>HYPERLINK("https://klasma.github.io/Logging_FALKOPING/klagomål/A 16637-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_FALKOPING/klagomål/A 16637-2019.docx", "A 16637-2019")</f>
         <v/>
       </c>
       <c r="W8">
-        <f>HYPERLINK("https://klasma.github.io/Logging_FALKOPING/klagomålsmail/A 16637-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_FALKOPING/klagomålsmail/A 16637-2019.docx", "A 16637-2019")</f>
         <v/>
       </c>
       <c r="X8">
-        <f>HYPERLINK("https://klasma.github.io/Logging_FALKOPING/tillsyn/A 16637-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_FALKOPING/tillsyn/A 16637-2019.docx", "A 16637-2019")</f>
         <v/>
       </c>
       <c r="Y8">
-        <f>HYPERLINK("https://klasma.github.io/Logging_FALKOPING/tillsynsmail/A 16637-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_FALKOPING/tillsynsmail/A 16637-2019.docx", "A 16637-2019")</f>
         <v/>
       </c>
     </row>
@@ -1180,7 +1180,7 @@
         <v>44349</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1231,27 +1231,27 @@
         </is>
       </c>
       <c r="S9">
-        <f>HYPERLINK("https://klasma.github.io/Logging_FALKOPING/artfynd/A 26710-2021.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_FALKOPING/artfynd/A 26710-2021.xlsx", "A 26710-2021")</f>
         <v/>
       </c>
       <c r="T9">
-        <f>HYPERLINK("https://klasma.github.io/Logging_FALKOPING/kartor/A 26710-2021.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_FALKOPING/kartor/A 26710-2021.png", "A 26710-2021")</f>
         <v/>
       </c>
       <c r="V9">
-        <f>HYPERLINK("https://klasma.github.io/Logging_FALKOPING/klagomål/A 26710-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_FALKOPING/klagomål/A 26710-2021.docx", "A 26710-2021")</f>
         <v/>
       </c>
       <c r="W9">
-        <f>HYPERLINK("https://klasma.github.io/Logging_FALKOPING/klagomålsmail/A 26710-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_FALKOPING/klagomålsmail/A 26710-2021.docx", "A 26710-2021")</f>
         <v/>
       </c>
       <c r="X9">
-        <f>HYPERLINK("https://klasma.github.io/Logging_FALKOPING/tillsyn/A 26710-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_FALKOPING/tillsyn/A 26710-2021.docx", "A 26710-2021")</f>
         <v/>
       </c>
       <c r="Y9">
-        <f>HYPERLINK("https://klasma.github.io/Logging_FALKOPING/tillsynsmail/A 26710-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_FALKOPING/tillsynsmail/A 26710-2021.docx", "A 26710-2021")</f>
         <v/>
       </c>
     </row>
@@ -1265,7 +1265,7 @@
         <v>44427</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1316,27 +1316,27 @@
         </is>
       </c>
       <c r="S10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_FALKOPING/artfynd/A 42509-2021.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_FALKOPING/artfynd/A 42509-2021.xlsx", "A 42509-2021")</f>
         <v/>
       </c>
       <c r="T10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_FALKOPING/kartor/A 42509-2021.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_FALKOPING/kartor/A 42509-2021.png", "A 42509-2021")</f>
         <v/>
       </c>
       <c r="V10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_FALKOPING/klagomål/A 42509-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_FALKOPING/klagomål/A 42509-2021.docx", "A 42509-2021")</f>
         <v/>
       </c>
       <c r="W10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_FALKOPING/klagomålsmail/A 42509-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_FALKOPING/klagomålsmail/A 42509-2021.docx", "A 42509-2021")</f>
         <v/>
       </c>
       <c r="X10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_FALKOPING/tillsyn/A 42509-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_FALKOPING/tillsyn/A 42509-2021.docx", "A 42509-2021")</f>
         <v/>
       </c>
       <c r="Y10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_FALKOPING/tillsynsmail/A 42509-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_FALKOPING/tillsynsmail/A 42509-2021.docx", "A 42509-2021")</f>
         <v/>
       </c>
     </row>
@@ -1350,7 +1350,7 @@
         <v>44474</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1401,27 +1401,27 @@
         </is>
       </c>
       <c r="S11">
-        <f>HYPERLINK("https://klasma.github.io/Logging_FALKOPING/artfynd/A 55075-2021.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_FALKOPING/artfynd/A 55075-2021.xlsx", "A 55075-2021")</f>
         <v/>
       </c>
       <c r="T11">
-        <f>HYPERLINK("https://klasma.github.io/Logging_FALKOPING/kartor/A 55075-2021.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_FALKOPING/kartor/A 55075-2021.png", "A 55075-2021")</f>
         <v/>
       </c>
       <c r="V11">
-        <f>HYPERLINK("https://klasma.github.io/Logging_FALKOPING/klagomål/A 55075-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_FALKOPING/klagomål/A 55075-2021.docx", "A 55075-2021")</f>
         <v/>
       </c>
       <c r="W11">
-        <f>HYPERLINK("https://klasma.github.io/Logging_FALKOPING/klagomålsmail/A 55075-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_FALKOPING/klagomålsmail/A 55075-2021.docx", "A 55075-2021")</f>
         <v/>
       </c>
       <c r="X11">
-        <f>HYPERLINK("https://klasma.github.io/Logging_FALKOPING/tillsyn/A 55075-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_FALKOPING/tillsyn/A 55075-2021.docx", "A 55075-2021")</f>
         <v/>
       </c>
       <c r="Y11">
-        <f>HYPERLINK("https://klasma.github.io/Logging_FALKOPING/tillsynsmail/A 55075-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_FALKOPING/tillsynsmail/A 55075-2021.docx", "A 55075-2021")</f>
         <v/>
       </c>
     </row>
@@ -1435,7 +1435,7 @@
         <v>44805</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1486,27 +1486,27 @@
         </is>
       </c>
       <c r="S12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_FALKOPING/artfynd/A 36973-2022.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_FALKOPING/artfynd/A 36973-2022.xlsx", "A 36973-2022")</f>
         <v/>
       </c>
       <c r="T12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_FALKOPING/kartor/A 36973-2022.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_FALKOPING/kartor/A 36973-2022.png", "A 36973-2022")</f>
         <v/>
       </c>
       <c r="V12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_FALKOPING/klagomål/A 36973-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_FALKOPING/klagomål/A 36973-2022.docx", "A 36973-2022")</f>
         <v/>
       </c>
       <c r="W12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_FALKOPING/klagomålsmail/A 36973-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_FALKOPING/klagomålsmail/A 36973-2022.docx", "A 36973-2022")</f>
         <v/>
       </c>
       <c r="X12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_FALKOPING/tillsyn/A 36973-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_FALKOPING/tillsyn/A 36973-2022.docx", "A 36973-2022")</f>
         <v/>
       </c>
       <c r="Y12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_FALKOPING/tillsynsmail/A 36973-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_FALKOPING/tillsynsmail/A 36973-2022.docx", "A 36973-2022")</f>
         <v/>
       </c>
     </row>
@@ -1520,7 +1520,7 @@
         <v>44906</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1571,27 +1571,27 @@
         </is>
       </c>
       <c r="S13">
-        <f>HYPERLINK("https://klasma.github.io/Logging_FALKOPING/artfynd/A 60616-2022.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_FALKOPING/artfynd/A 60616-2022.xlsx", "A 60616-2022")</f>
         <v/>
       </c>
       <c r="T13">
-        <f>HYPERLINK("https://klasma.github.io/Logging_FALKOPING/kartor/A 60616-2022.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_FALKOPING/kartor/A 60616-2022.png", "A 60616-2022")</f>
         <v/>
       </c>
       <c r="V13">
-        <f>HYPERLINK("https://klasma.github.io/Logging_FALKOPING/klagomål/A 60616-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_FALKOPING/klagomål/A 60616-2022.docx", "A 60616-2022")</f>
         <v/>
       </c>
       <c r="W13">
-        <f>HYPERLINK("https://klasma.github.io/Logging_FALKOPING/klagomålsmail/A 60616-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_FALKOPING/klagomålsmail/A 60616-2022.docx", "A 60616-2022")</f>
         <v/>
       </c>
       <c r="X13">
-        <f>HYPERLINK("https://klasma.github.io/Logging_FALKOPING/tillsyn/A 60616-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_FALKOPING/tillsyn/A 60616-2022.docx", "A 60616-2022")</f>
         <v/>
       </c>
       <c r="Y13">
-        <f>HYPERLINK("https://klasma.github.io/Logging_FALKOPING/tillsynsmail/A 60616-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_FALKOPING/tillsynsmail/A 60616-2022.docx", "A 60616-2022")</f>
         <v/>
       </c>
     </row>
@@ -1605,7 +1605,7 @@
         <v>43325</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1662,7 +1662,7 @@
         <v>43340</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1719,7 +1719,7 @@
         <v>43347</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1776,7 +1776,7 @@
         <v>43362</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1833,7 +1833,7 @@
         <v>43362</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1890,7 +1890,7 @@
         <v>43362</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1947,7 +1947,7 @@
         <v>43368</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2004,7 +2004,7 @@
         <v>43368</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2061,7 +2061,7 @@
         <v>43368</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2118,7 +2118,7 @@
         <v>43368</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2175,7 +2175,7 @@
         <v>43368</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2232,7 +2232,7 @@
         <v>43368</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2289,7 +2289,7 @@
         <v>43370</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2346,7 +2346,7 @@
         <v>43370</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2403,7 +2403,7 @@
         <v>43392</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2460,7 +2460,7 @@
         <v>43405</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2517,7 +2517,7 @@
         <v>43412</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2574,7 +2574,7 @@
         <v>43423</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2631,7 +2631,7 @@
         <v>43424</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2688,7 +2688,7 @@
         <v>43424</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2745,7 +2745,7 @@
         <v>43424</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2802,7 +2802,7 @@
         <v>43425</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2859,7 +2859,7 @@
         <v>43425</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -2916,7 +2916,7 @@
         <v>43426</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -2973,7 +2973,7 @@
         <v>43426</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3030,7 +3030,7 @@
         <v>43427</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3087,7 +3087,7 @@
         <v>43430</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3144,7 +3144,7 @@
         <v>43431</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3201,7 +3201,7 @@
         <v>43439</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3258,7 +3258,7 @@
         <v>43444</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3315,7 +3315,7 @@
         <v>43444</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3372,7 +3372,7 @@
         <v>43446</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3429,7 +3429,7 @@
         <v>43446</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3486,7 +3486,7 @@
         <v>43446</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3543,7 +3543,7 @@
         <v>43446</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3600,7 +3600,7 @@
         <v>43447</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3662,7 +3662,7 @@
         <v>43447</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3719,7 +3719,7 @@
         <v>43451</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3776,7 +3776,7 @@
         <v>43452</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3833,7 +3833,7 @@
         <v>43452</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -3890,7 +3890,7 @@
         <v>43452</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -3947,7 +3947,7 @@
         <v>43453</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4004,7 +4004,7 @@
         <v>43453</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4061,7 +4061,7 @@
         <v>43469</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4118,7 +4118,7 @@
         <v>43473</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4175,7 +4175,7 @@
         <v>43473</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4232,7 +4232,7 @@
         <v>43475</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4289,7 +4289,7 @@
         <v>43476</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4346,7 +4346,7 @@
         <v>43479</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4403,7 +4403,7 @@
         <v>43479</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4460,7 +4460,7 @@
         <v>43486</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4517,7 +4517,7 @@
         <v>43490</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4574,7 +4574,7 @@
         <v>43490</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4631,7 +4631,7 @@
         <v>43500</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4688,7 +4688,7 @@
         <v>43500</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4745,7 +4745,7 @@
         <v>43502</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -4802,7 +4802,7 @@
         <v>43502</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -4859,7 +4859,7 @@
         <v>43509</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -4916,7 +4916,7 @@
         <v>43509</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -4973,7 +4973,7 @@
         <v>43514</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5030,7 +5030,7 @@
         <v>43518</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5087,7 +5087,7 @@
         <v>43542</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5144,7 +5144,7 @@
         <v>43542</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5201,7 +5201,7 @@
         <v>43542</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5258,7 +5258,7 @@
         <v>43542</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5315,7 +5315,7 @@
         <v>43543</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5372,7 +5372,7 @@
         <v>43578</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5429,7 +5429,7 @@
         <v>43592</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5486,7 +5486,7 @@
         <v>43595</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5543,7 +5543,7 @@
         <v>43595</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5600,7 +5600,7 @@
         <v>43604</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5657,7 +5657,7 @@
         <v>43604</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5714,7 +5714,7 @@
         <v>43605</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -5776,7 +5776,7 @@
         <v>43607</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -5833,7 +5833,7 @@
         <v>43609</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -5890,7 +5890,7 @@
         <v>43612</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -5947,7 +5947,7 @@
         <v>43614</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6004,7 +6004,7 @@
         <v>43619</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6061,7 +6061,7 @@
         <v>43628</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6118,7 +6118,7 @@
         <v>43640</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6175,7 +6175,7 @@
         <v>43643</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6232,7 +6232,7 @@
         <v>43651</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6289,7 +6289,7 @@
         <v>43657</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6346,7 +6346,7 @@
         <v>43663</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6403,7 +6403,7 @@
         <v>43671</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6460,7 +6460,7 @@
         <v>43685</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6517,7 +6517,7 @@
         <v>43685</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6574,7 +6574,7 @@
         <v>43699</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6631,7 +6631,7 @@
         <v>43699</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -6688,7 +6688,7 @@
         <v>43700</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -6745,7 +6745,7 @@
         <v>43700</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -6802,7 +6802,7 @@
         <v>43700</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -6859,7 +6859,7 @@
         <v>43700</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -6916,7 +6916,7 @@
         <v>43700</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -6973,7 +6973,7 @@
         <v>43700</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7030,7 +7030,7 @@
         <v>43707</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7087,7 +7087,7 @@
         <v>43711</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7144,7 +7144,7 @@
         <v>43731</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7201,7 +7201,7 @@
         <v>43762</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7258,7 +7258,7 @@
         <v>43762</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7315,7 +7315,7 @@
         <v>43762</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7372,7 +7372,7 @@
         <v>43762</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7429,7 +7429,7 @@
         <v>43774</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7486,7 +7486,7 @@
         <v>43782</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7543,7 +7543,7 @@
         <v>43783</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -7605,7 +7605,7 @@
         <v>43788</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -7662,7 +7662,7 @@
         <v>43790</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -7719,7 +7719,7 @@
         <v>43790</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -7776,7 +7776,7 @@
         <v>43791</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -7833,7 +7833,7 @@
         <v>43798</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -7890,7 +7890,7 @@
         <v>43798</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -7947,7 +7947,7 @@
         <v>43803</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8004,7 +8004,7 @@
         <v>43803</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8061,7 +8061,7 @@
         <v>43812</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8118,7 +8118,7 @@
         <v>43826</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8175,7 +8175,7 @@
         <v>43826</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8232,7 +8232,7 @@
         <v>43839</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8289,7 +8289,7 @@
         <v>43850</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8346,7 +8346,7 @@
         <v>43850</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8403,7 +8403,7 @@
         <v>43852</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8460,7 +8460,7 @@
         <v>43852</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -8517,7 +8517,7 @@
         <v>43852</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -8574,7 +8574,7 @@
         <v>43852</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -8631,7 +8631,7 @@
         <v>43852</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -8688,7 +8688,7 @@
         <v>43852</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -8745,7 +8745,7 @@
         <v>43852</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -8802,7 +8802,7 @@
         <v>43852</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -8859,7 +8859,7 @@
         <v>43852</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -8916,7 +8916,7 @@
         <v>43853</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -8978,7 +8978,7 @@
         <v>43853</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -9040,7 +9040,7 @@
         <v>43858</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9097,7 +9097,7 @@
         <v>43866</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9159,7 +9159,7 @@
         <v>43868</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9216,7 +9216,7 @@
         <v>43868</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9273,7 +9273,7 @@
         <v>43868</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9330,7 +9330,7 @@
         <v>43873</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9387,7 +9387,7 @@
         <v>43873</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -9444,7 +9444,7 @@
         <v>43874</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -9501,7 +9501,7 @@
         <v>43878</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -9558,7 +9558,7 @@
         <v>43889</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -9615,7 +9615,7 @@
         <v>43890</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -9672,7 +9672,7 @@
         <v>43894</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -9729,7 +9729,7 @@
         <v>43907</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -9786,7 +9786,7 @@
         <v>43907</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -9843,7 +9843,7 @@
         <v>43907</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -9900,7 +9900,7 @@
         <v>43907</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -9957,7 +9957,7 @@
         <v>43908</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -10014,7 +10014,7 @@
         <v>43908</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -10076,7 +10076,7 @@
         <v>43908</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -10133,7 +10133,7 @@
         <v>43919</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -10190,7 +10190,7 @@
         <v>43921</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -10247,7 +10247,7 @@
         <v>43921</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -10304,7 +10304,7 @@
         <v>43989</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -10361,7 +10361,7 @@
         <v>43990</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -10418,7 +10418,7 @@
         <v>43992</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -10475,7 +10475,7 @@
         <v>44000</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -10532,7 +10532,7 @@
         <v>44012</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -10589,7 +10589,7 @@
         <v>44020</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -10646,7 +10646,7 @@
         <v>44024</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -10703,7 +10703,7 @@
         <v>44071</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -10760,7 +10760,7 @@
         <v>44089</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -10817,7 +10817,7 @@
         <v>44089</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -10874,7 +10874,7 @@
         <v>44089</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -10931,7 +10931,7 @@
         <v>44089</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -10988,7 +10988,7 @@
         <v>44105</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -11045,7 +11045,7 @@
         <v>44106</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -11102,7 +11102,7 @@
         <v>44109</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -11159,7 +11159,7 @@
         <v>44109</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -11216,7 +11216,7 @@
         <v>44117</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -11273,7 +11273,7 @@
         <v>44120</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -11330,7 +11330,7 @@
         <v>44125</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -11387,7 +11387,7 @@
         <v>44126</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -11444,7 +11444,7 @@
         <v>44131</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -11501,7 +11501,7 @@
         <v>44131</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -11558,7 +11558,7 @@
         <v>44142</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -11615,7 +11615,7 @@
         <v>44142</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -11672,7 +11672,7 @@
         <v>44146</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -11729,7 +11729,7 @@
         <v>44146</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -11786,7 +11786,7 @@
         <v>44153</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -11843,7 +11843,7 @@
         <v>44155</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -11900,7 +11900,7 @@
         <v>44157</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -11957,7 +11957,7 @@
         <v>44157</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -12014,7 +12014,7 @@
         <v>44157</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -12071,7 +12071,7 @@
         <v>44162</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -12128,7 +12128,7 @@
         <v>44162</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -12185,7 +12185,7 @@
         <v>44165</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -12242,7 +12242,7 @@
         <v>44181</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -12299,7 +12299,7 @@
         <v>44206</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -12356,7 +12356,7 @@
         <v>44209</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -12413,7 +12413,7 @@
         <v>44215</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -12470,7 +12470,7 @@
         <v>44215</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -12527,7 +12527,7 @@
         <v>44215</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -12584,7 +12584,7 @@
         <v>44220</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -12641,7 +12641,7 @@
         <v>44220</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -12698,7 +12698,7 @@
         <v>44228</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -12755,7 +12755,7 @@
         <v>44228</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -12812,7 +12812,7 @@
         <v>44230</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -12869,7 +12869,7 @@
         <v>44252</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -12926,7 +12926,7 @@
         <v>44258</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -12988,7 +12988,7 @@
         <v>44263</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -13045,7 +13045,7 @@
         <v>44265</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -13102,7 +13102,7 @@
         <v>44266</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -13159,7 +13159,7 @@
         <v>44270</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -13216,7 +13216,7 @@
         <v>44293</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -13273,7 +13273,7 @@
         <v>44299</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -13330,7 +13330,7 @@
         <v>44300</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -13387,7 +13387,7 @@
         <v>44312</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -13444,7 +13444,7 @@
         <v>44322</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -13501,7 +13501,7 @@
         <v>44332</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -13558,7 +13558,7 @@
         <v>44334</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -13615,7 +13615,7 @@
         <v>44350</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -13672,7 +13672,7 @@
         <v>44350</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -13729,7 +13729,7 @@
         <v>44351</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -13786,7 +13786,7 @@
         <v>44360</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -13843,7 +13843,7 @@
         <v>44361</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -13900,7 +13900,7 @@
         <v>44368</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -13957,7 +13957,7 @@
         <v>44418</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -14014,7 +14014,7 @@
         <v>44420</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -14071,7 +14071,7 @@
         <v>44428</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -14128,7 +14128,7 @@
         <v>44428</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -14185,7 +14185,7 @@
         <v>44429</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -14242,7 +14242,7 @@
         <v>44429</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -14299,7 +14299,7 @@
         <v>44433</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -14356,7 +14356,7 @@
         <v>44433</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -14413,7 +14413,7 @@
         <v>44434</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -14470,7 +14470,7 @@
         <v>44447</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -14527,7 +14527,7 @@
         <v>44454</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -14584,7 +14584,7 @@
         <v>44466</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -14641,7 +14641,7 @@
         <v>44469</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -14698,7 +14698,7 @@
         <v>44470</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -14755,7 +14755,7 @@
         <v>44474</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -14812,7 +14812,7 @@
         <v>44475</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -14869,7 +14869,7 @@
         <v>44489</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -14926,7 +14926,7 @@
         <v>44497</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -14983,7 +14983,7 @@
         <v>44503</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -15045,7 +15045,7 @@
         <v>44512</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -15102,7 +15102,7 @@
         <v>44529</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -15159,7 +15159,7 @@
         <v>44529</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -15216,7 +15216,7 @@
         <v>44529</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -15273,7 +15273,7 @@
         <v>44543</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -15330,7 +15330,7 @@
         <v>44572</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -15387,7 +15387,7 @@
         <v>44573</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -15449,7 +15449,7 @@
         <v>44578</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -15506,7 +15506,7 @@
         <v>44594</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -15563,7 +15563,7 @@
         <v>44594</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -15620,7 +15620,7 @@
         <v>44601</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -15677,7 +15677,7 @@
         <v>44602</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -15734,7 +15734,7 @@
         <v>44603</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -15791,7 +15791,7 @@
         <v>44616</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -15848,7 +15848,7 @@
         <v>44622</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -15905,7 +15905,7 @@
         <v>44623</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -15962,7 +15962,7 @@
         <v>44627</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -16024,7 +16024,7 @@
         <v>44629</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -16081,7 +16081,7 @@
         <v>44630</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -16138,7 +16138,7 @@
         <v>44630</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -16195,7 +16195,7 @@
         <v>44636</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -16252,7 +16252,7 @@
         <v>44636</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -16309,7 +16309,7 @@
         <v>44637</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -16366,7 +16366,7 @@
         <v>44663</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -16423,7 +16423,7 @@
         <v>44672</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -16480,7 +16480,7 @@
         <v>44707</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -16537,7 +16537,7 @@
         <v>44711</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -16594,7 +16594,7 @@
         <v>44713</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -16651,7 +16651,7 @@
         <v>44722</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -16708,7 +16708,7 @@
         <v>44726</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -16765,7 +16765,7 @@
         <v>44729</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -16822,7 +16822,7 @@
         <v>44739</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -16879,7 +16879,7 @@
         <v>44742</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -16936,7 +16936,7 @@
         <v>44742</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -16993,7 +16993,7 @@
         <v>44802</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -17050,7 +17050,7 @@
         <v>44802</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -17107,7 +17107,7 @@
         <v>44803</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -17164,7 +17164,7 @@
         <v>44805</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -17221,7 +17221,7 @@
         <v>44819</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -17278,7 +17278,7 @@
         <v>44823</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -17335,7 +17335,7 @@
         <v>44823</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -17392,7 +17392,7 @@
         <v>44838</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -17449,7 +17449,7 @@
         <v>44838</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -17506,7 +17506,7 @@
         <v>44861</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -17563,7 +17563,7 @@
         <v>44869</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -17620,7 +17620,7 @@
         <v>44880</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -17677,7 +17677,7 @@
         <v>44880</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -17734,7 +17734,7 @@
         <v>44882</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -17791,7 +17791,7 @@
         <v>44895</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -17848,7 +17848,7 @@
         <v>44928</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -17905,7 +17905,7 @@
         <v>44928</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -17962,7 +17962,7 @@
         <v>44945</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -18019,7 +18019,7 @@
         <v>44952</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -18076,7 +18076,7 @@
         <v>44952</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -18133,7 +18133,7 @@
         <v>44952</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -18190,7 +18190,7 @@
         <v>44952</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -18247,7 +18247,7 @@
         <v>44957</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -18304,7 +18304,7 @@
         <v>44957</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -18361,7 +18361,7 @@
         <v>44960</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -18418,7 +18418,7 @@
         <v>44974</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -18475,7 +18475,7 @@
         <v>44979</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -18537,7 +18537,7 @@
         <v>44985</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -18594,7 +18594,7 @@
         <v>44993</v>
       </c>
       <c r="C311" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -18651,7 +18651,7 @@
         <v>45014</v>
       </c>
       <c r="C312" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -18708,7 +18708,7 @@
         <v>45014</v>
       </c>
       <c r="C313" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -18765,7 +18765,7 @@
         <v>45014</v>
       </c>
       <c r="C314" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -18822,7 +18822,7 @@
         <v>45014</v>
       </c>
       <c r="C315" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -18879,7 +18879,7 @@
         <v>45014</v>
       </c>
       <c r="C316" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -18936,7 +18936,7 @@
         <v>45022</v>
       </c>
       <c r="C317" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -18993,7 +18993,7 @@
         <v>45022</v>
       </c>
       <c r="C318" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -19050,7 +19050,7 @@
         <v>45027</v>
       </c>
       <c r="C319" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -19107,7 +19107,7 @@
         <v>45033</v>
       </c>
       <c r="C320" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -19164,7 +19164,7 @@
         <v>45033</v>
       </c>
       <c r="C321" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
@@ -19221,7 +19221,7 @@
         <v>45033</v>
       </c>
       <c r="C322" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
@@ -19278,7 +19278,7 @@
         <v>45036</v>
       </c>
       <c r="C323" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
@@ -19335,7 +19335,7 @@
         <v>45050</v>
       </c>
       <c r="C324" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D324" t="inlineStr">
         <is>
@@ -19392,7 +19392,7 @@
         <v>45050</v>
       </c>
       <c r="C325" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D325" t="inlineStr">
         <is>
@@ -19449,7 +19449,7 @@
         <v>45065</v>
       </c>
       <c r="C326" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D326" t="inlineStr">
         <is>
@@ -19506,7 +19506,7 @@
         <v>45072</v>
       </c>
       <c r="C327" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D327" t="inlineStr">
         <is>
@@ -19563,7 +19563,7 @@
         <v>45073</v>
       </c>
       <c r="C328" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D328" t="inlineStr">
         <is>
@@ -19620,7 +19620,7 @@
         <v>45076</v>
       </c>
       <c r="C329" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D329" t="inlineStr">
         <is>
@@ -19677,7 +19677,7 @@
         <v>45076</v>
       </c>
       <c r="C330" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D330" t="inlineStr">
         <is>
@@ -19734,7 +19734,7 @@
         <v>45076</v>
       </c>
       <c r="C331" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D331" t="inlineStr">
         <is>
@@ -19791,7 +19791,7 @@
         <v>45076</v>
       </c>
       <c r="C332" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D332" t="inlineStr">
         <is>
@@ -19848,7 +19848,7 @@
         <v>45076</v>
       </c>
       <c r="C333" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D333" t="inlineStr">
         <is>
@@ -19905,7 +19905,7 @@
         <v>45078</v>
       </c>
       <c r="C334" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D334" t="inlineStr">
         <is>
@@ -19962,7 +19962,7 @@
         <v>45082</v>
       </c>
       <c r="C335" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D335" t="inlineStr">
         <is>
@@ -20019,7 +20019,7 @@
         <v>45082</v>
       </c>
       <c r="C336" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D336" t="inlineStr">
         <is>
@@ -20081,7 +20081,7 @@
         <v>45084</v>
       </c>
       <c r="C337" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D337" t="inlineStr">
         <is>
@@ -20138,7 +20138,7 @@
         <v>45084</v>
       </c>
       <c r="C338" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D338" t="inlineStr">
         <is>
@@ -20195,7 +20195,7 @@
         <v>45085</v>
       </c>
       <c r="C339" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D339" t="inlineStr">
         <is>
@@ -20252,7 +20252,7 @@
         <v>45085</v>
       </c>
       <c r="C340" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D340" t="inlineStr">
         <is>
@@ -20309,7 +20309,7 @@
         <v>45089</v>
       </c>
       <c r="C341" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D341" t="inlineStr">
         <is>
@@ -20366,7 +20366,7 @@
         <v>45089</v>
       </c>
       <c r="C342" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D342" t="inlineStr">
         <is>
@@ -20423,7 +20423,7 @@
         <v>45090</v>
       </c>
       <c r="C343" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D343" t="inlineStr">
         <is>
@@ -20480,7 +20480,7 @@
         <v>45091</v>
       </c>
       <c r="C344" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D344" t="inlineStr">
         <is>
@@ -20537,7 +20537,7 @@
         <v>45091</v>
       </c>
       <c r="C345" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D345" t="inlineStr">
         <is>
@@ -20594,7 +20594,7 @@
         <v>45091</v>
       </c>
       <c r="C346" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D346" t="inlineStr">
         <is>
@@ -20651,7 +20651,7 @@
         <v>45092</v>
       </c>
       <c r="C347" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D347" t="inlineStr">
         <is>
@@ -20708,7 +20708,7 @@
         <v>45093</v>
       </c>
       <c r="C348" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D348" t="inlineStr">
         <is>
@@ -20765,7 +20765,7 @@
         <v>45097</v>
       </c>
       <c r="C349" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D349" t="inlineStr">
         <is>
@@ -20822,7 +20822,7 @@
         <v>45103</v>
       </c>
       <c r="C350" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D350" t="inlineStr">
         <is>
@@ -20879,7 +20879,7 @@
         <v>45105</v>
       </c>
       <c r="C351" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D351" t="inlineStr">
         <is>
@@ -20936,7 +20936,7 @@
         <v>45107</v>
       </c>
       <c r="C352" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D352" t="inlineStr">
         <is>
@@ -20993,7 +20993,7 @@
         <v>45112</v>
       </c>
       <c r="C353" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D353" t="inlineStr">
         <is>
@@ -21050,7 +21050,7 @@
         <v>45116</v>
       </c>
       <c r="C354" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D354" t="inlineStr">
         <is>
@@ -21107,7 +21107,7 @@
         <v>45141</v>
       </c>
       <c r="C355" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D355" t="inlineStr">
         <is>
@@ -21164,7 +21164,7 @@
         <v>45142</v>
       </c>
       <c r="C356" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D356" t="inlineStr">
         <is>
@@ -21221,7 +21221,7 @@
         <v>45146</v>
       </c>
       <c r="C357" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D357" t="inlineStr">
         <is>
@@ -21278,7 +21278,7 @@
         <v>45148</v>
       </c>
       <c r="C358" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D358" t="inlineStr">
         <is>
@@ -21335,7 +21335,7 @@
         <v>45148</v>
       </c>
       <c r="C359" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D359" t="inlineStr">
         <is>
@@ -21392,7 +21392,7 @@
         <v>45154</v>
       </c>
       <c r="C360" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D360" t="inlineStr">
         <is>

--- a/Översikt FALKÖPING.xlsx
+++ b/Översikt FALKÖPING.xlsx
@@ -572,7 +572,7 @@
         <v>44950</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -666,7 +666,7 @@
         <v>44890</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -753,7 +753,7 @@
         <v>44418</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -839,7 +839,7 @@
         <v>44748</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -925,7 +925,7 @@
         <v>43349</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1010,7 +1010,7 @@
         <v>43451</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1095,7 +1095,7 @@
         <v>43549</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1180,7 +1180,7 @@
         <v>44349</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1265,7 +1265,7 @@
         <v>44427</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1350,7 +1350,7 @@
         <v>44474</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1435,7 +1435,7 @@
         <v>44805</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1520,7 +1520,7 @@
         <v>44906</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1605,7 +1605,7 @@
         <v>43325</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1662,7 +1662,7 @@
         <v>43340</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1719,7 +1719,7 @@
         <v>43347</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1776,7 +1776,7 @@
         <v>43362</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1833,7 +1833,7 @@
         <v>43362</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1890,7 +1890,7 @@
         <v>43362</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1947,7 +1947,7 @@
         <v>43368</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2004,7 +2004,7 @@
         <v>43368</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2061,7 +2061,7 @@
         <v>43368</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2118,7 +2118,7 @@
         <v>43368</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2175,7 +2175,7 @@
         <v>43368</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2232,7 +2232,7 @@
         <v>43368</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2289,7 +2289,7 @@
         <v>43370</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2346,7 +2346,7 @@
         <v>43370</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2403,7 +2403,7 @@
         <v>43392</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2460,7 +2460,7 @@
         <v>43405</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2517,7 +2517,7 @@
         <v>43412</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2574,7 +2574,7 @@
         <v>43423</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2631,7 +2631,7 @@
         <v>43424</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2688,7 +2688,7 @@
         <v>43424</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2745,7 +2745,7 @@
         <v>43424</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2802,7 +2802,7 @@
         <v>43425</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2859,7 +2859,7 @@
         <v>43425</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -2916,7 +2916,7 @@
         <v>43426</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -2973,7 +2973,7 @@
         <v>43426</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3030,7 +3030,7 @@
         <v>43427</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3087,7 +3087,7 @@
         <v>43430</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3144,7 +3144,7 @@
         <v>43431</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3201,7 +3201,7 @@
         <v>43439</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3258,7 +3258,7 @@
         <v>43444</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3315,7 +3315,7 @@
         <v>43444</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3372,7 +3372,7 @@
         <v>43446</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3429,7 +3429,7 @@
         <v>43446</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3486,7 +3486,7 @@
         <v>43446</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3543,7 +3543,7 @@
         <v>43446</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3600,7 +3600,7 @@
         <v>43447</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3662,7 +3662,7 @@
         <v>43447</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3719,7 +3719,7 @@
         <v>43451</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3776,7 +3776,7 @@
         <v>43452</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3833,7 +3833,7 @@
         <v>43452</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -3890,7 +3890,7 @@
         <v>43452</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -3947,7 +3947,7 @@
         <v>43453</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4004,7 +4004,7 @@
         <v>43453</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4061,7 +4061,7 @@
         <v>43469</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4118,7 +4118,7 @@
         <v>43473</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4175,7 +4175,7 @@
         <v>43473</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4232,7 +4232,7 @@
         <v>43475</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4289,7 +4289,7 @@
         <v>43476</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4346,7 +4346,7 @@
         <v>43479</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4403,7 +4403,7 @@
         <v>43479</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4460,7 +4460,7 @@
         <v>43486</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4517,7 +4517,7 @@
         <v>43490</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4574,7 +4574,7 @@
         <v>43490</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4631,7 +4631,7 @@
         <v>43500</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4688,7 +4688,7 @@
         <v>43500</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4745,7 +4745,7 @@
         <v>43502</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -4802,7 +4802,7 @@
         <v>43502</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -4859,7 +4859,7 @@
         <v>43509</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -4916,7 +4916,7 @@
         <v>43509</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -4973,7 +4973,7 @@
         <v>43514</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5030,7 +5030,7 @@
         <v>43518</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5087,7 +5087,7 @@
         <v>43542</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5144,7 +5144,7 @@
         <v>43542</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5201,7 +5201,7 @@
         <v>43542</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5258,7 +5258,7 @@
         <v>43542</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5315,7 +5315,7 @@
         <v>43543</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5372,7 +5372,7 @@
         <v>43578</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5429,7 +5429,7 @@
         <v>43592</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5486,7 +5486,7 @@
         <v>43595</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5543,7 +5543,7 @@
         <v>43595</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5600,7 +5600,7 @@
         <v>43604</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5657,7 +5657,7 @@
         <v>43604</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5714,7 +5714,7 @@
         <v>43605</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -5776,7 +5776,7 @@
         <v>43607</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -5833,7 +5833,7 @@
         <v>43609</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -5890,7 +5890,7 @@
         <v>43612</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -5947,7 +5947,7 @@
         <v>43614</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6004,7 +6004,7 @@
         <v>43619</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6061,7 +6061,7 @@
         <v>43628</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6118,7 +6118,7 @@
         <v>43640</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6175,7 +6175,7 @@
         <v>43643</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6232,7 +6232,7 @@
         <v>43651</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6289,7 +6289,7 @@
         <v>43657</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6346,7 +6346,7 @@
         <v>43663</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6403,7 +6403,7 @@
         <v>43671</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6460,7 +6460,7 @@
         <v>43685</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6517,7 +6517,7 @@
         <v>43685</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6574,7 +6574,7 @@
         <v>43699</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6631,7 +6631,7 @@
         <v>43699</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -6688,7 +6688,7 @@
         <v>43700</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -6745,7 +6745,7 @@
         <v>43700</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -6802,7 +6802,7 @@
         <v>43700</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -6859,7 +6859,7 @@
         <v>43700</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -6916,7 +6916,7 @@
         <v>43700</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -6973,7 +6973,7 @@
         <v>43700</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7030,7 +7030,7 @@
         <v>43707</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7087,7 +7087,7 @@
         <v>43711</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7144,7 +7144,7 @@
         <v>43731</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7201,7 +7201,7 @@
         <v>43762</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7258,7 +7258,7 @@
         <v>43762</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7315,7 +7315,7 @@
         <v>43762</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7372,7 +7372,7 @@
         <v>43762</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7429,7 +7429,7 @@
         <v>43774</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7486,7 +7486,7 @@
         <v>43782</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7543,7 +7543,7 @@
         <v>43783</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -7605,7 +7605,7 @@
         <v>43788</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -7662,7 +7662,7 @@
         <v>43790</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -7719,7 +7719,7 @@
         <v>43790</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -7776,7 +7776,7 @@
         <v>43791</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -7833,7 +7833,7 @@
         <v>43798</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -7890,7 +7890,7 @@
         <v>43798</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -7947,7 +7947,7 @@
         <v>43803</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8004,7 +8004,7 @@
         <v>43803</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8061,7 +8061,7 @@
         <v>43812</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8118,7 +8118,7 @@
         <v>43826</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8175,7 +8175,7 @@
         <v>43826</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8232,7 +8232,7 @@
         <v>43839</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8289,7 +8289,7 @@
         <v>43850</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8346,7 +8346,7 @@
         <v>43850</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8403,7 +8403,7 @@
         <v>43852</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8460,7 +8460,7 @@
         <v>43852</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -8517,7 +8517,7 @@
         <v>43852</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -8574,7 +8574,7 @@
         <v>43852</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -8631,7 +8631,7 @@
         <v>43852</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -8688,7 +8688,7 @@
         <v>43852</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -8745,7 +8745,7 @@
         <v>43852</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -8802,7 +8802,7 @@
         <v>43852</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -8859,7 +8859,7 @@
         <v>43852</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -8916,7 +8916,7 @@
         <v>43853</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -8978,7 +8978,7 @@
         <v>43853</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -9040,7 +9040,7 @@
         <v>43858</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9097,7 +9097,7 @@
         <v>43866</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9159,7 +9159,7 @@
         <v>43868</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9216,7 +9216,7 @@
         <v>43868</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9273,7 +9273,7 @@
         <v>43868</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9330,7 +9330,7 @@
         <v>43873</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9387,7 +9387,7 @@
         <v>43873</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -9444,7 +9444,7 @@
         <v>43874</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -9501,7 +9501,7 @@
         <v>43878</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -9558,7 +9558,7 @@
         <v>43889</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -9615,7 +9615,7 @@
         <v>43890</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -9672,7 +9672,7 @@
         <v>43894</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -9729,7 +9729,7 @@
         <v>43907</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -9786,7 +9786,7 @@
         <v>43907</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -9843,7 +9843,7 @@
         <v>43907</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -9900,7 +9900,7 @@
         <v>43907</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -9957,7 +9957,7 @@
         <v>43908</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -10014,7 +10014,7 @@
         <v>43908</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -10076,7 +10076,7 @@
         <v>43908</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -10133,7 +10133,7 @@
         <v>43919</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -10190,7 +10190,7 @@
         <v>43921</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -10247,7 +10247,7 @@
         <v>43921</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -10304,7 +10304,7 @@
         <v>43989</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -10361,7 +10361,7 @@
         <v>43990</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -10418,7 +10418,7 @@
         <v>43992</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -10475,7 +10475,7 @@
         <v>44000</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -10532,7 +10532,7 @@
         <v>44012</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -10589,7 +10589,7 @@
         <v>44020</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -10646,7 +10646,7 @@
         <v>44024</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -10703,7 +10703,7 @@
         <v>44071</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -10760,7 +10760,7 @@
         <v>44089</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -10817,7 +10817,7 @@
         <v>44089</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -10874,7 +10874,7 @@
         <v>44089</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -10931,7 +10931,7 @@
         <v>44089</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -10988,7 +10988,7 @@
         <v>44105</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -11045,7 +11045,7 @@
         <v>44106</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -11102,7 +11102,7 @@
         <v>44109</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -11159,7 +11159,7 @@
         <v>44109</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -11216,7 +11216,7 @@
         <v>44117</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -11273,7 +11273,7 @@
         <v>44120</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -11330,7 +11330,7 @@
         <v>44125</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -11387,7 +11387,7 @@
         <v>44126</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -11444,7 +11444,7 @@
         <v>44131</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -11501,7 +11501,7 @@
         <v>44131</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -11558,7 +11558,7 @@
         <v>44142</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -11615,7 +11615,7 @@
         <v>44142</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -11672,7 +11672,7 @@
         <v>44146</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -11729,7 +11729,7 @@
         <v>44146</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -11786,7 +11786,7 @@
         <v>44153</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -11843,7 +11843,7 @@
         <v>44155</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -11900,7 +11900,7 @@
         <v>44157</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -11957,7 +11957,7 @@
         <v>44157</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -12014,7 +12014,7 @@
         <v>44157</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -12071,7 +12071,7 @@
         <v>44162</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -12128,7 +12128,7 @@
         <v>44162</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -12185,7 +12185,7 @@
         <v>44165</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -12242,7 +12242,7 @@
         <v>44181</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -12299,7 +12299,7 @@
         <v>44206</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -12356,7 +12356,7 @@
         <v>44209</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -12413,7 +12413,7 @@
         <v>44215</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -12470,7 +12470,7 @@
         <v>44215</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -12527,7 +12527,7 @@
         <v>44215</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -12584,7 +12584,7 @@
         <v>44220</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -12641,7 +12641,7 @@
         <v>44220</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -12698,7 +12698,7 @@
         <v>44228</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -12755,7 +12755,7 @@
         <v>44228</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -12812,7 +12812,7 @@
         <v>44230</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -12869,7 +12869,7 @@
         <v>44252</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -12926,7 +12926,7 @@
         <v>44258</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -12988,7 +12988,7 @@
         <v>44263</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -13045,7 +13045,7 @@
         <v>44265</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -13102,7 +13102,7 @@
         <v>44266</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -13159,7 +13159,7 @@
         <v>44270</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -13216,7 +13216,7 @@
         <v>44293</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -13273,7 +13273,7 @@
         <v>44299</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -13330,7 +13330,7 @@
         <v>44300</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -13387,7 +13387,7 @@
         <v>44312</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -13444,7 +13444,7 @@
         <v>44322</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -13501,7 +13501,7 @@
         <v>44332</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -13558,7 +13558,7 @@
         <v>44334</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -13615,7 +13615,7 @@
         <v>44350</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -13672,7 +13672,7 @@
         <v>44350</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -13729,7 +13729,7 @@
         <v>44351</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -13786,7 +13786,7 @@
         <v>44360</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -13843,7 +13843,7 @@
         <v>44361</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -13900,7 +13900,7 @@
         <v>44368</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -13957,7 +13957,7 @@
         <v>44418</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -14014,7 +14014,7 @@
         <v>44420</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -14071,7 +14071,7 @@
         <v>44428</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -14128,7 +14128,7 @@
         <v>44428</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -14185,7 +14185,7 @@
         <v>44429</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -14242,7 +14242,7 @@
         <v>44429</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -14299,7 +14299,7 @@
         <v>44433</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -14356,7 +14356,7 @@
         <v>44433</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -14413,7 +14413,7 @@
         <v>44434</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -14470,7 +14470,7 @@
         <v>44447</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -14527,7 +14527,7 @@
         <v>44454</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -14584,7 +14584,7 @@
         <v>44466</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -14641,7 +14641,7 @@
         <v>44469</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -14698,7 +14698,7 @@
         <v>44470</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -14755,7 +14755,7 @@
         <v>44474</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -14812,7 +14812,7 @@
         <v>44475</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -14869,7 +14869,7 @@
         <v>44489</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -14926,7 +14926,7 @@
         <v>44497</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -14983,7 +14983,7 @@
         <v>44503</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -15045,7 +15045,7 @@
         <v>44512</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -15102,7 +15102,7 @@
         <v>44529</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -15159,7 +15159,7 @@
         <v>44529</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -15216,7 +15216,7 @@
         <v>44529</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -15273,7 +15273,7 @@
         <v>44543</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -15330,7 +15330,7 @@
         <v>44572</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -15387,7 +15387,7 @@
         <v>44573</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -15449,7 +15449,7 @@
         <v>44578</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -15506,7 +15506,7 @@
         <v>44594</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -15563,7 +15563,7 @@
         <v>44594</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -15620,7 +15620,7 @@
         <v>44601</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -15677,7 +15677,7 @@
         <v>44602</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -15734,7 +15734,7 @@
         <v>44603</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -15791,7 +15791,7 @@
         <v>44616</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -15848,7 +15848,7 @@
         <v>44622</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -15905,7 +15905,7 @@
         <v>44623</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -15962,7 +15962,7 @@
         <v>44627</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -16024,7 +16024,7 @@
         <v>44629</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -16081,7 +16081,7 @@
         <v>44630</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -16138,7 +16138,7 @@
         <v>44630</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -16195,7 +16195,7 @@
         <v>44636</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -16252,7 +16252,7 @@
         <v>44636</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -16309,7 +16309,7 @@
         <v>44637</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -16366,7 +16366,7 @@
         <v>44663</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -16423,7 +16423,7 @@
         <v>44672</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -16480,7 +16480,7 @@
         <v>44707</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -16537,7 +16537,7 @@
         <v>44711</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -16594,7 +16594,7 @@
         <v>44713</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -16651,7 +16651,7 @@
         <v>44722</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -16708,7 +16708,7 @@
         <v>44726</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -16765,7 +16765,7 @@
         <v>44729</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -16822,7 +16822,7 @@
         <v>44739</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -16879,7 +16879,7 @@
         <v>44742</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -16936,7 +16936,7 @@
         <v>44742</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -16993,7 +16993,7 @@
         <v>44802</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -17050,7 +17050,7 @@
         <v>44802</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -17107,7 +17107,7 @@
         <v>44803</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -17164,7 +17164,7 @@
         <v>44805</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -17221,7 +17221,7 @@
         <v>44819</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -17278,7 +17278,7 @@
         <v>44823</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -17335,7 +17335,7 @@
         <v>44823</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -17392,7 +17392,7 @@
         <v>44838</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -17449,7 +17449,7 @@
         <v>44838</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -17506,7 +17506,7 @@
         <v>44861</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -17563,7 +17563,7 @@
         <v>44869</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -17620,7 +17620,7 @@
         <v>44880</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -17677,7 +17677,7 @@
         <v>44880</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -17734,7 +17734,7 @@
         <v>44882</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -17791,7 +17791,7 @@
         <v>44895</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -17848,7 +17848,7 @@
         <v>44928</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -17905,7 +17905,7 @@
         <v>44928</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -17962,7 +17962,7 @@
         <v>44945</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -18019,7 +18019,7 @@
         <v>44952</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -18076,7 +18076,7 @@
         <v>44952</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -18133,7 +18133,7 @@
         <v>44952</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -18190,7 +18190,7 @@
         <v>44952</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -18247,7 +18247,7 @@
         <v>44957</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -18304,7 +18304,7 @@
         <v>44957</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -18361,7 +18361,7 @@
         <v>44960</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -18418,7 +18418,7 @@
         <v>44974</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -18475,7 +18475,7 @@
         <v>44979</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -18537,7 +18537,7 @@
         <v>44985</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -18594,7 +18594,7 @@
         <v>44993</v>
       </c>
       <c r="C311" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -18651,7 +18651,7 @@
         <v>45014</v>
       </c>
       <c r="C312" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -18708,7 +18708,7 @@
         <v>45014</v>
       </c>
       <c r="C313" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -18765,7 +18765,7 @@
         <v>45014</v>
       </c>
       <c r="C314" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -18822,7 +18822,7 @@
         <v>45014</v>
       </c>
       <c r="C315" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -18879,7 +18879,7 @@
         <v>45014</v>
       </c>
       <c r="C316" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -18936,7 +18936,7 @@
         <v>45022</v>
       </c>
       <c r="C317" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -18993,7 +18993,7 @@
         <v>45022</v>
       </c>
       <c r="C318" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -19050,7 +19050,7 @@
         <v>45027</v>
       </c>
       <c r="C319" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -19107,7 +19107,7 @@
         <v>45033</v>
       </c>
       <c r="C320" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -19164,7 +19164,7 @@
         <v>45033</v>
       </c>
       <c r="C321" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
@@ -19221,7 +19221,7 @@
         <v>45033</v>
       </c>
       <c r="C322" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
@@ -19278,7 +19278,7 @@
         <v>45036</v>
       </c>
       <c r="C323" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
@@ -19335,7 +19335,7 @@
         <v>45050</v>
       </c>
       <c r="C324" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D324" t="inlineStr">
         <is>
@@ -19392,7 +19392,7 @@
         <v>45050</v>
       </c>
       <c r="C325" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D325" t="inlineStr">
         <is>
@@ -19449,7 +19449,7 @@
         <v>45065</v>
       </c>
       <c r="C326" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D326" t="inlineStr">
         <is>
@@ -19506,7 +19506,7 @@
         <v>45072</v>
       </c>
       <c r="C327" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D327" t="inlineStr">
         <is>
@@ -19563,7 +19563,7 @@
         <v>45073</v>
       </c>
       <c r="C328" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D328" t="inlineStr">
         <is>
@@ -19620,7 +19620,7 @@
         <v>45076</v>
       </c>
       <c r="C329" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D329" t="inlineStr">
         <is>
@@ -19677,7 +19677,7 @@
         <v>45076</v>
       </c>
       <c r="C330" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D330" t="inlineStr">
         <is>
@@ -19734,7 +19734,7 @@
         <v>45076</v>
       </c>
       <c r="C331" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D331" t="inlineStr">
         <is>
@@ -19791,7 +19791,7 @@
         <v>45076</v>
       </c>
       <c r="C332" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D332" t="inlineStr">
         <is>
@@ -19848,7 +19848,7 @@
         <v>45076</v>
       </c>
       <c r="C333" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D333" t="inlineStr">
         <is>
@@ -19905,7 +19905,7 @@
         <v>45078</v>
       </c>
       <c r="C334" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D334" t="inlineStr">
         <is>
@@ -19962,7 +19962,7 @@
         <v>45082</v>
       </c>
       <c r="C335" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D335" t="inlineStr">
         <is>
@@ -20019,7 +20019,7 @@
         <v>45082</v>
       </c>
       <c r="C336" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D336" t="inlineStr">
         <is>
@@ -20081,7 +20081,7 @@
         <v>45084</v>
       </c>
       <c r="C337" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D337" t="inlineStr">
         <is>
@@ -20138,7 +20138,7 @@
         <v>45084</v>
       </c>
       <c r="C338" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D338" t="inlineStr">
         <is>
@@ -20195,7 +20195,7 @@
         <v>45085</v>
       </c>
       <c r="C339" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D339" t="inlineStr">
         <is>
@@ -20252,7 +20252,7 @@
         <v>45085</v>
       </c>
       <c r="C340" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D340" t="inlineStr">
         <is>
@@ -20309,7 +20309,7 @@
         <v>45089</v>
       </c>
       <c r="C341" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D341" t="inlineStr">
         <is>
@@ -20366,7 +20366,7 @@
         <v>45089</v>
       </c>
       <c r="C342" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D342" t="inlineStr">
         <is>
@@ -20423,7 +20423,7 @@
         <v>45090</v>
       </c>
       <c r="C343" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D343" t="inlineStr">
         <is>
@@ -20480,7 +20480,7 @@
         <v>45091</v>
       </c>
       <c r="C344" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D344" t="inlineStr">
         <is>
@@ -20537,7 +20537,7 @@
         <v>45091</v>
       </c>
       <c r="C345" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D345" t="inlineStr">
         <is>
@@ -20594,7 +20594,7 @@
         <v>45091</v>
       </c>
       <c r="C346" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D346" t="inlineStr">
         <is>
@@ -20651,7 +20651,7 @@
         <v>45092</v>
       </c>
       <c r="C347" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D347" t="inlineStr">
         <is>
@@ -20708,7 +20708,7 @@
         <v>45093</v>
       </c>
       <c r="C348" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D348" t="inlineStr">
         <is>
@@ -20765,7 +20765,7 @@
         <v>45097</v>
       </c>
       <c r="C349" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D349" t="inlineStr">
         <is>
@@ -20822,7 +20822,7 @@
         <v>45103</v>
       </c>
       <c r="C350" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D350" t="inlineStr">
         <is>
@@ -20879,7 +20879,7 @@
         <v>45105</v>
       </c>
       <c r="C351" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D351" t="inlineStr">
         <is>
@@ -20936,7 +20936,7 @@
         <v>45107</v>
       </c>
       <c r="C352" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D352" t="inlineStr">
         <is>
@@ -20993,7 +20993,7 @@
         <v>45112</v>
       </c>
       <c r="C353" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D353" t="inlineStr">
         <is>
@@ -21050,7 +21050,7 @@
         <v>45116</v>
       </c>
       <c r="C354" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D354" t="inlineStr">
         <is>
@@ -21107,7 +21107,7 @@
         <v>45141</v>
       </c>
       <c r="C355" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D355" t="inlineStr">
         <is>
@@ -21164,7 +21164,7 @@
         <v>45142</v>
       </c>
       <c r="C356" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D356" t="inlineStr">
         <is>
@@ -21221,7 +21221,7 @@
         <v>45146</v>
       </c>
       <c r="C357" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D357" t="inlineStr">
         <is>
@@ -21278,7 +21278,7 @@
         <v>45148</v>
       </c>
       <c r="C358" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D358" t="inlineStr">
         <is>
@@ -21335,7 +21335,7 @@
         <v>45148</v>
       </c>
       <c r="C359" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D359" t="inlineStr">
         <is>
@@ -21392,7 +21392,7 @@
         <v>45154</v>
       </c>
       <c r="C360" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D360" t="inlineStr">
         <is>

--- a/Översikt FALKÖPING.xlsx
+++ b/Översikt FALKÖPING.xlsx
@@ -572,7 +572,7 @@
         <v>44950</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -666,7 +666,7 @@
         <v>44890</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -753,7 +753,7 @@
         <v>44418</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -839,7 +839,7 @@
         <v>44748</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -925,7 +925,7 @@
         <v>43349</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1010,7 +1010,7 @@
         <v>43451</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1095,7 +1095,7 @@
         <v>43549</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1180,7 +1180,7 @@
         <v>44349</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1265,7 +1265,7 @@
         <v>44427</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1350,7 +1350,7 @@
         <v>44474</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1435,7 +1435,7 @@
         <v>44805</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1520,7 +1520,7 @@
         <v>44906</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1605,7 +1605,7 @@
         <v>43325</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1662,7 +1662,7 @@
         <v>43340</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1719,7 +1719,7 @@
         <v>43347</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1776,7 +1776,7 @@
         <v>43362</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1833,7 +1833,7 @@
         <v>43362</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1890,7 +1890,7 @@
         <v>43362</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1947,7 +1947,7 @@
         <v>43368</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2004,7 +2004,7 @@
         <v>43368</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2061,7 +2061,7 @@
         <v>43368</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2118,7 +2118,7 @@
         <v>43368</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2175,7 +2175,7 @@
         <v>43368</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2232,7 +2232,7 @@
         <v>43368</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2289,7 +2289,7 @@
         <v>43370</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2346,7 +2346,7 @@
         <v>43370</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2403,7 +2403,7 @@
         <v>43392</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2460,7 +2460,7 @@
         <v>43405</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2517,7 +2517,7 @@
         <v>43412</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2574,7 +2574,7 @@
         <v>43423</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2631,7 +2631,7 @@
         <v>43424</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2688,7 +2688,7 @@
         <v>43424</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2745,7 +2745,7 @@
         <v>43424</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2802,7 +2802,7 @@
         <v>43425</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2859,7 +2859,7 @@
         <v>43425</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -2916,7 +2916,7 @@
         <v>43426</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -2973,7 +2973,7 @@
         <v>43426</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3030,7 +3030,7 @@
         <v>43427</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3087,7 +3087,7 @@
         <v>43430</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3144,7 +3144,7 @@
         <v>43431</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3201,7 +3201,7 @@
         <v>43439</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3258,7 +3258,7 @@
         <v>43444</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3315,7 +3315,7 @@
         <v>43444</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3372,7 +3372,7 @@
         <v>43446</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3429,7 +3429,7 @@
         <v>43446</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3486,7 +3486,7 @@
         <v>43446</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3543,7 +3543,7 @@
         <v>43446</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3600,7 +3600,7 @@
         <v>43447</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3662,7 +3662,7 @@
         <v>43447</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3719,7 +3719,7 @@
         <v>43451</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3776,7 +3776,7 @@
         <v>43452</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3833,7 +3833,7 @@
         <v>43452</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -3890,7 +3890,7 @@
         <v>43452</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -3947,7 +3947,7 @@
         <v>43453</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4004,7 +4004,7 @@
         <v>43453</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4061,7 +4061,7 @@
         <v>43469</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4118,7 +4118,7 @@
         <v>43473</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4175,7 +4175,7 @@
         <v>43473</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4232,7 +4232,7 @@
         <v>43475</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4289,7 +4289,7 @@
         <v>43476</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4346,7 +4346,7 @@
         <v>43479</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4403,7 +4403,7 @@
         <v>43479</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4460,7 +4460,7 @@
         <v>43486</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4517,7 +4517,7 @@
         <v>43490</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4574,7 +4574,7 @@
         <v>43490</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4631,7 +4631,7 @@
         <v>43500</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4688,7 +4688,7 @@
         <v>43500</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4745,7 +4745,7 @@
         <v>43502</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -4802,7 +4802,7 @@
         <v>43502</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -4859,7 +4859,7 @@
         <v>43509</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -4916,7 +4916,7 @@
         <v>43509</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -4973,7 +4973,7 @@
         <v>43514</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5030,7 +5030,7 @@
         <v>43518</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5087,7 +5087,7 @@
         <v>43542</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5144,7 +5144,7 @@
         <v>43542</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5201,7 +5201,7 @@
         <v>43542</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5258,7 +5258,7 @@
         <v>43542</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5315,7 +5315,7 @@
         <v>43543</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5372,7 +5372,7 @@
         <v>43578</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5429,7 +5429,7 @@
         <v>43592</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5486,7 +5486,7 @@
         <v>43595</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5543,7 +5543,7 @@
         <v>43595</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5600,7 +5600,7 @@
         <v>43604</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5657,7 +5657,7 @@
         <v>43604</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5714,7 +5714,7 @@
         <v>43605</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -5776,7 +5776,7 @@
         <v>43607</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -5833,7 +5833,7 @@
         <v>43609</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -5890,7 +5890,7 @@
         <v>43612</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -5947,7 +5947,7 @@
         <v>43614</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6004,7 +6004,7 @@
         <v>43619</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6061,7 +6061,7 @@
         <v>43628</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6118,7 +6118,7 @@
         <v>43640</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6175,7 +6175,7 @@
         <v>43643</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6232,7 +6232,7 @@
         <v>43651</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6289,7 +6289,7 @@
         <v>43657</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6346,7 +6346,7 @@
         <v>43663</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6403,7 +6403,7 @@
         <v>43671</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6460,7 +6460,7 @@
         <v>43685</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6517,7 +6517,7 @@
         <v>43685</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6574,7 +6574,7 @@
         <v>43699</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6631,7 +6631,7 @@
         <v>43699</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -6688,7 +6688,7 @@
         <v>43700</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -6745,7 +6745,7 @@
         <v>43700</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -6802,7 +6802,7 @@
         <v>43700</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -6859,7 +6859,7 @@
         <v>43700</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -6916,7 +6916,7 @@
         <v>43700</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -6973,7 +6973,7 @@
         <v>43700</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7030,7 +7030,7 @@
         <v>43707</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7087,7 +7087,7 @@
         <v>43711</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7144,7 +7144,7 @@
         <v>43731</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7201,7 +7201,7 @@
         <v>43762</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7258,7 +7258,7 @@
         <v>43762</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7315,7 +7315,7 @@
         <v>43762</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7372,7 +7372,7 @@
         <v>43762</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7429,7 +7429,7 @@
         <v>43774</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7486,7 +7486,7 @@
         <v>43782</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7543,7 +7543,7 @@
         <v>43783</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -7605,7 +7605,7 @@
         <v>43788</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -7662,7 +7662,7 @@
         <v>43790</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -7719,7 +7719,7 @@
         <v>43790</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -7776,7 +7776,7 @@
         <v>43791</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -7833,7 +7833,7 @@
         <v>43798</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -7890,7 +7890,7 @@
         <v>43798</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -7947,7 +7947,7 @@
         <v>43803</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8004,7 +8004,7 @@
         <v>43803</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8061,7 +8061,7 @@
         <v>43812</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8118,7 +8118,7 @@
         <v>43826</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8175,7 +8175,7 @@
         <v>43826</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8232,7 +8232,7 @@
         <v>43839</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8289,7 +8289,7 @@
         <v>43850</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8346,7 +8346,7 @@
         <v>43850</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8403,7 +8403,7 @@
         <v>43852</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8460,7 +8460,7 @@
         <v>43852</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -8517,7 +8517,7 @@
         <v>43852</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -8574,7 +8574,7 @@
         <v>43852</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -8631,7 +8631,7 @@
         <v>43852</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -8688,7 +8688,7 @@
         <v>43852</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -8745,7 +8745,7 @@
         <v>43852</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -8802,7 +8802,7 @@
         <v>43852</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -8859,7 +8859,7 @@
         <v>43852</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -8916,7 +8916,7 @@
         <v>43853</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -8978,7 +8978,7 @@
         <v>43853</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -9040,7 +9040,7 @@
         <v>43858</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9097,7 +9097,7 @@
         <v>43866</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9159,7 +9159,7 @@
         <v>43868</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9216,7 +9216,7 @@
         <v>43868</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9273,7 +9273,7 @@
         <v>43868</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9330,7 +9330,7 @@
         <v>43873</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9387,7 +9387,7 @@
         <v>43873</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -9444,7 +9444,7 @@
         <v>43874</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -9501,7 +9501,7 @@
         <v>43878</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -9558,7 +9558,7 @@
         <v>43889</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -9615,7 +9615,7 @@
         <v>43890</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -9672,7 +9672,7 @@
         <v>43894</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -9729,7 +9729,7 @@
         <v>43907</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -9786,7 +9786,7 @@
         <v>43907</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -9843,7 +9843,7 @@
         <v>43907</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -9900,7 +9900,7 @@
         <v>43907</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -9957,7 +9957,7 @@
         <v>43908</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -10014,7 +10014,7 @@
         <v>43908</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -10076,7 +10076,7 @@
         <v>43908</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -10133,7 +10133,7 @@
         <v>43919</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -10190,7 +10190,7 @@
         <v>43921</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -10247,7 +10247,7 @@
         <v>43921</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -10304,7 +10304,7 @@
         <v>43989</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -10361,7 +10361,7 @@
         <v>43990</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -10418,7 +10418,7 @@
         <v>43992</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -10475,7 +10475,7 @@
         <v>44000</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -10532,7 +10532,7 @@
         <v>44012</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -10589,7 +10589,7 @@
         <v>44020</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -10646,7 +10646,7 @@
         <v>44024</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -10703,7 +10703,7 @@
         <v>44071</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -10760,7 +10760,7 @@
         <v>44089</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -10817,7 +10817,7 @@
         <v>44089</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -10874,7 +10874,7 @@
         <v>44089</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -10931,7 +10931,7 @@
         <v>44089</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -10988,7 +10988,7 @@
         <v>44105</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -11045,7 +11045,7 @@
         <v>44106</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -11102,7 +11102,7 @@
         <v>44109</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -11159,7 +11159,7 @@
         <v>44109</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -11216,7 +11216,7 @@
         <v>44117</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -11273,7 +11273,7 @@
         <v>44120</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -11330,7 +11330,7 @@
         <v>44125</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -11387,7 +11387,7 @@
         <v>44126</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -11444,7 +11444,7 @@
         <v>44131</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -11501,7 +11501,7 @@
         <v>44131</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -11558,7 +11558,7 @@
         <v>44142</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -11615,7 +11615,7 @@
         <v>44142</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -11672,7 +11672,7 @@
         <v>44146</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -11729,7 +11729,7 @@
         <v>44146</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -11786,7 +11786,7 @@
         <v>44153</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -11843,7 +11843,7 @@
         <v>44155</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -11900,7 +11900,7 @@
         <v>44157</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -11957,7 +11957,7 @@
         <v>44157</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -12014,7 +12014,7 @@
         <v>44157</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -12071,7 +12071,7 @@
         <v>44162</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -12128,7 +12128,7 @@
         <v>44162</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -12185,7 +12185,7 @@
         <v>44165</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -12242,7 +12242,7 @@
         <v>44181</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -12299,7 +12299,7 @@
         <v>44206</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -12356,7 +12356,7 @@
         <v>44209</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -12413,7 +12413,7 @@
         <v>44215</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -12470,7 +12470,7 @@
         <v>44215</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -12527,7 +12527,7 @@
         <v>44215</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -12584,7 +12584,7 @@
         <v>44220</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -12641,7 +12641,7 @@
         <v>44220</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -12698,7 +12698,7 @@
         <v>44228</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -12755,7 +12755,7 @@
         <v>44228</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -12812,7 +12812,7 @@
         <v>44230</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -12869,7 +12869,7 @@
         <v>44252</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -12926,7 +12926,7 @@
         <v>44258</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -12988,7 +12988,7 @@
         <v>44263</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -13045,7 +13045,7 @@
         <v>44265</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -13102,7 +13102,7 @@
         <v>44266</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -13159,7 +13159,7 @@
         <v>44270</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -13216,7 +13216,7 @@
         <v>44293</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -13273,7 +13273,7 @@
         <v>44299</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -13330,7 +13330,7 @@
         <v>44300</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -13387,7 +13387,7 @@
         <v>44312</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -13444,7 +13444,7 @@
         <v>44322</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -13501,7 +13501,7 @@
         <v>44332</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -13558,7 +13558,7 @@
         <v>44334</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -13615,7 +13615,7 @@
         <v>44350</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -13672,7 +13672,7 @@
         <v>44350</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -13729,7 +13729,7 @@
         <v>44351</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -13786,7 +13786,7 @@
         <v>44360</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -13843,7 +13843,7 @@
         <v>44361</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -13900,7 +13900,7 @@
         <v>44368</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -13957,7 +13957,7 @@
         <v>44418</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -14014,7 +14014,7 @@
         <v>44420</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -14071,7 +14071,7 @@
         <v>44428</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -14128,7 +14128,7 @@
         <v>44428</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -14185,7 +14185,7 @@
         <v>44429</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -14242,7 +14242,7 @@
         <v>44429</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -14299,7 +14299,7 @@
         <v>44433</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -14356,7 +14356,7 @@
         <v>44433</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -14413,7 +14413,7 @@
         <v>44434</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -14470,7 +14470,7 @@
         <v>44447</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -14527,7 +14527,7 @@
         <v>44454</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -14584,7 +14584,7 @@
         <v>44466</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -14641,7 +14641,7 @@
         <v>44469</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -14698,7 +14698,7 @@
         <v>44470</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -14755,7 +14755,7 @@
         <v>44474</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -14812,7 +14812,7 @@
         <v>44475</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -14869,7 +14869,7 @@
         <v>44489</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -14926,7 +14926,7 @@
         <v>44497</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -14983,7 +14983,7 @@
         <v>44503</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -15045,7 +15045,7 @@
         <v>44512</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -15102,7 +15102,7 @@
         <v>44529</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -15159,7 +15159,7 @@
         <v>44529</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -15216,7 +15216,7 @@
         <v>44529</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -15273,7 +15273,7 @@
         <v>44543</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -15330,7 +15330,7 @@
         <v>44572</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -15387,7 +15387,7 @@
         <v>44573</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -15449,7 +15449,7 @@
         <v>44578</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -15506,7 +15506,7 @@
         <v>44594</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -15563,7 +15563,7 @@
         <v>44594</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -15620,7 +15620,7 @@
         <v>44601</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -15677,7 +15677,7 @@
         <v>44602</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -15734,7 +15734,7 @@
         <v>44603</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -15791,7 +15791,7 @@
         <v>44616</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -15848,7 +15848,7 @@
         <v>44622</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -15905,7 +15905,7 @@
         <v>44623</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -15962,7 +15962,7 @@
         <v>44627</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -16024,7 +16024,7 @@
         <v>44629</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -16081,7 +16081,7 @@
         <v>44630</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -16138,7 +16138,7 @@
         <v>44630</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -16195,7 +16195,7 @@
         <v>44636</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -16252,7 +16252,7 @@
         <v>44636</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -16309,7 +16309,7 @@
         <v>44637</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -16366,7 +16366,7 @@
         <v>44663</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -16423,7 +16423,7 @@
         <v>44672</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -16480,7 +16480,7 @@
         <v>44707</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -16537,7 +16537,7 @@
         <v>44711</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -16594,7 +16594,7 @@
         <v>44713</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -16651,7 +16651,7 @@
         <v>44722</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -16708,7 +16708,7 @@
         <v>44726</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -16765,7 +16765,7 @@
         <v>44729</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -16822,7 +16822,7 @@
         <v>44739</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -16879,7 +16879,7 @@
         <v>44742</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -16936,7 +16936,7 @@
         <v>44742</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -16993,7 +16993,7 @@
         <v>44802</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -17050,7 +17050,7 @@
         <v>44802</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -17107,7 +17107,7 @@
         <v>44803</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -17164,7 +17164,7 @@
         <v>44805</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -17221,7 +17221,7 @@
         <v>44819</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -17278,7 +17278,7 @@
         <v>44823</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -17335,7 +17335,7 @@
         <v>44823</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -17392,7 +17392,7 @@
         <v>44838</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -17449,7 +17449,7 @@
         <v>44838</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -17506,7 +17506,7 @@
         <v>44861</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -17563,7 +17563,7 @@
         <v>44869</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -17620,7 +17620,7 @@
         <v>44880</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -17677,7 +17677,7 @@
         <v>44880</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -17734,7 +17734,7 @@
         <v>44882</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -17791,7 +17791,7 @@
         <v>44895</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -17848,7 +17848,7 @@
         <v>44928</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -17905,7 +17905,7 @@
         <v>44928</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -17962,7 +17962,7 @@
         <v>44945</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -18019,7 +18019,7 @@
         <v>44952</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -18076,7 +18076,7 @@
         <v>44952</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -18133,7 +18133,7 @@
         <v>44952</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -18190,7 +18190,7 @@
         <v>44952</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -18247,7 +18247,7 @@
         <v>44957</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -18304,7 +18304,7 @@
         <v>44957</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -18361,7 +18361,7 @@
         <v>44960</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -18418,7 +18418,7 @@
         <v>44974</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -18475,7 +18475,7 @@
         <v>44979</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -18537,7 +18537,7 @@
         <v>44985</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -18594,7 +18594,7 @@
         <v>44993</v>
       </c>
       <c r="C311" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -18651,7 +18651,7 @@
         <v>45014</v>
       </c>
       <c r="C312" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -18708,7 +18708,7 @@
         <v>45014</v>
       </c>
       <c r="C313" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -18765,7 +18765,7 @@
         <v>45014</v>
       </c>
       <c r="C314" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -18822,7 +18822,7 @@
         <v>45014</v>
       </c>
       <c r="C315" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -18879,7 +18879,7 @@
         <v>45014</v>
       </c>
       <c r="C316" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -18936,7 +18936,7 @@
         <v>45022</v>
       </c>
       <c r="C317" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -18993,7 +18993,7 @@
         <v>45022</v>
       </c>
       <c r="C318" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -19050,7 +19050,7 @@
         <v>45027</v>
       </c>
       <c r="C319" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -19107,7 +19107,7 @@
         <v>45033</v>
       </c>
       <c r="C320" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -19164,7 +19164,7 @@
         <v>45033</v>
       </c>
       <c r="C321" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
@@ -19221,7 +19221,7 @@
         <v>45033</v>
       </c>
       <c r="C322" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
@@ -19278,7 +19278,7 @@
         <v>45036</v>
       </c>
       <c r="C323" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
@@ -19335,7 +19335,7 @@
         <v>45050</v>
       </c>
       <c r="C324" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D324" t="inlineStr">
         <is>
@@ -19392,7 +19392,7 @@
         <v>45050</v>
       </c>
       <c r="C325" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D325" t="inlineStr">
         <is>
@@ -19449,7 +19449,7 @@
         <v>45065</v>
       </c>
       <c r="C326" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D326" t="inlineStr">
         <is>
@@ -19506,7 +19506,7 @@
         <v>45072</v>
       </c>
       <c r="C327" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D327" t="inlineStr">
         <is>
@@ -19563,7 +19563,7 @@
         <v>45073</v>
       </c>
       <c r="C328" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D328" t="inlineStr">
         <is>
@@ -19620,7 +19620,7 @@
         <v>45076</v>
       </c>
       <c r="C329" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D329" t="inlineStr">
         <is>
@@ -19677,7 +19677,7 @@
         <v>45076</v>
       </c>
       <c r="C330" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D330" t="inlineStr">
         <is>
@@ -19734,7 +19734,7 @@
         <v>45076</v>
       </c>
       <c r="C331" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D331" t="inlineStr">
         <is>
@@ -19791,7 +19791,7 @@
         <v>45076</v>
       </c>
       <c r="C332" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D332" t="inlineStr">
         <is>
@@ -19848,7 +19848,7 @@
         <v>45076</v>
       </c>
       <c r="C333" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D333" t="inlineStr">
         <is>
@@ -19905,7 +19905,7 @@
         <v>45078</v>
       </c>
       <c r="C334" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D334" t="inlineStr">
         <is>
@@ -19962,7 +19962,7 @@
         <v>45082</v>
       </c>
       <c r="C335" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D335" t="inlineStr">
         <is>
@@ -20019,7 +20019,7 @@
         <v>45082</v>
       </c>
       <c r="C336" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D336" t="inlineStr">
         <is>
@@ -20081,7 +20081,7 @@
         <v>45084</v>
       </c>
       <c r="C337" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D337" t="inlineStr">
         <is>
@@ -20138,7 +20138,7 @@
         <v>45084</v>
       </c>
       <c r="C338" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D338" t="inlineStr">
         <is>
@@ -20195,7 +20195,7 @@
         <v>45085</v>
       </c>
       <c r="C339" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D339" t="inlineStr">
         <is>
@@ -20252,7 +20252,7 @@
         <v>45085</v>
       </c>
       <c r="C340" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D340" t="inlineStr">
         <is>
@@ -20309,7 +20309,7 @@
         <v>45089</v>
       </c>
       <c r="C341" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D341" t="inlineStr">
         <is>
@@ -20366,7 +20366,7 @@
         <v>45089</v>
       </c>
       <c r="C342" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D342" t="inlineStr">
         <is>
@@ -20423,7 +20423,7 @@
         <v>45090</v>
       </c>
       <c r="C343" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D343" t="inlineStr">
         <is>
@@ -20480,7 +20480,7 @@
         <v>45091</v>
       </c>
       <c r="C344" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D344" t="inlineStr">
         <is>
@@ -20537,7 +20537,7 @@
         <v>45091</v>
       </c>
       <c r="C345" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D345" t="inlineStr">
         <is>
@@ -20594,7 +20594,7 @@
         <v>45091</v>
       </c>
       <c r="C346" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D346" t="inlineStr">
         <is>
@@ -20651,7 +20651,7 @@
         <v>45092</v>
       </c>
       <c r="C347" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D347" t="inlineStr">
         <is>
@@ -20708,7 +20708,7 @@
         <v>45093</v>
       </c>
       <c r="C348" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D348" t="inlineStr">
         <is>
@@ -20765,7 +20765,7 @@
         <v>45097</v>
       </c>
       <c r="C349" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D349" t="inlineStr">
         <is>
@@ -20822,7 +20822,7 @@
         <v>45103</v>
       </c>
       <c r="C350" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D350" t="inlineStr">
         <is>
@@ -20879,7 +20879,7 @@
         <v>45105</v>
       </c>
       <c r="C351" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D351" t="inlineStr">
         <is>
@@ -20936,7 +20936,7 @@
         <v>45107</v>
       </c>
       <c r="C352" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D352" t="inlineStr">
         <is>
@@ -20993,7 +20993,7 @@
         <v>45112</v>
       </c>
       <c r="C353" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D353" t="inlineStr">
         <is>
@@ -21050,7 +21050,7 @@
         <v>45116</v>
       </c>
       <c r="C354" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D354" t="inlineStr">
         <is>
@@ -21107,7 +21107,7 @@
         <v>45141</v>
       </c>
       <c r="C355" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D355" t="inlineStr">
         <is>
@@ -21164,7 +21164,7 @@
         <v>45142</v>
       </c>
       <c r="C356" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D356" t="inlineStr">
         <is>
@@ -21221,7 +21221,7 @@
         <v>45146</v>
       </c>
       <c r="C357" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D357" t="inlineStr">
         <is>
@@ -21278,7 +21278,7 @@
         <v>45148</v>
       </c>
       <c r="C358" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D358" t="inlineStr">
         <is>
@@ -21335,7 +21335,7 @@
         <v>45148</v>
       </c>
       <c r="C359" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D359" t="inlineStr">
         <is>
@@ -21392,7 +21392,7 @@
         <v>45154</v>
       </c>
       <c r="C360" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D360" t="inlineStr">
         <is>

--- a/Översikt FALKÖPING.xlsx
+++ b/Översikt FALKÖPING.xlsx
@@ -572,7 +572,7 @@
         <v>44950</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -666,7 +666,7 @@
         <v>44890</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -753,7 +753,7 @@
         <v>44418</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -839,7 +839,7 @@
         <v>44748</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -925,7 +925,7 @@
         <v>43349</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1010,7 +1010,7 @@
         <v>43451</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1095,7 +1095,7 @@
         <v>43549</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1180,7 +1180,7 @@
         <v>44349</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1265,7 +1265,7 @@
         <v>44427</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1350,7 +1350,7 @@
         <v>44474</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1435,7 +1435,7 @@
         <v>44805</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1520,7 +1520,7 @@
         <v>44906</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1605,7 +1605,7 @@
         <v>43325</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1662,7 +1662,7 @@
         <v>43340</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1719,7 +1719,7 @@
         <v>43347</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1776,7 +1776,7 @@
         <v>43362</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1833,7 +1833,7 @@
         <v>43362</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1890,7 +1890,7 @@
         <v>43362</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1947,7 +1947,7 @@
         <v>43368</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2004,7 +2004,7 @@
         <v>43368</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2061,7 +2061,7 @@
         <v>43368</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2118,7 +2118,7 @@
         <v>43368</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2175,7 +2175,7 @@
         <v>43368</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2232,7 +2232,7 @@
         <v>43368</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2289,7 +2289,7 @@
         <v>43370</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2346,7 +2346,7 @@
         <v>43370</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2403,7 +2403,7 @@
         <v>43392</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2460,7 +2460,7 @@
         <v>43405</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2517,7 +2517,7 @@
         <v>43412</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2574,7 +2574,7 @@
         <v>43423</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2631,7 +2631,7 @@
         <v>43424</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2688,7 +2688,7 @@
         <v>43424</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2745,7 +2745,7 @@
         <v>43424</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2802,7 +2802,7 @@
         <v>43425</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2859,7 +2859,7 @@
         <v>43425</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -2916,7 +2916,7 @@
         <v>43426</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -2973,7 +2973,7 @@
         <v>43426</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3030,7 +3030,7 @@
         <v>43427</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3087,7 +3087,7 @@
         <v>43430</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3144,7 +3144,7 @@
         <v>43431</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3201,7 +3201,7 @@
         <v>43439</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3258,7 +3258,7 @@
         <v>43444</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3315,7 +3315,7 @@
         <v>43444</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3372,7 +3372,7 @@
         <v>43446</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3429,7 +3429,7 @@
         <v>43446</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3486,7 +3486,7 @@
         <v>43446</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3543,7 +3543,7 @@
         <v>43446</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3600,7 +3600,7 @@
         <v>43447</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3662,7 +3662,7 @@
         <v>43447</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3719,7 +3719,7 @@
         <v>43451</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3776,7 +3776,7 @@
         <v>43452</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3833,7 +3833,7 @@
         <v>43452</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -3890,7 +3890,7 @@
         <v>43452</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -3947,7 +3947,7 @@
         <v>43453</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4004,7 +4004,7 @@
         <v>43453</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4061,7 +4061,7 @@
         <v>43469</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4118,7 +4118,7 @@
         <v>43473</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4175,7 +4175,7 @@
         <v>43473</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4232,7 +4232,7 @@
         <v>43475</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4289,7 +4289,7 @@
         <v>43476</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4346,7 +4346,7 @@
         <v>43479</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4403,7 +4403,7 @@
         <v>43479</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4460,7 +4460,7 @@
         <v>43486</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4517,7 +4517,7 @@
         <v>43490</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4574,7 +4574,7 @@
         <v>43490</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4631,7 +4631,7 @@
         <v>43500</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4688,7 +4688,7 @@
         <v>43500</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4745,7 +4745,7 @@
         <v>43502</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -4802,7 +4802,7 @@
         <v>43502</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -4859,7 +4859,7 @@
         <v>43509</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -4916,7 +4916,7 @@
         <v>43509</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -4973,7 +4973,7 @@
         <v>43514</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5030,7 +5030,7 @@
         <v>43518</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5087,7 +5087,7 @@
         <v>43542</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5144,7 +5144,7 @@
         <v>43542</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5201,7 +5201,7 @@
         <v>43542</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5258,7 +5258,7 @@
         <v>43542</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5315,7 +5315,7 @@
         <v>43543</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5372,7 +5372,7 @@
         <v>43578</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5429,7 +5429,7 @@
         <v>43592</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5486,7 +5486,7 @@
         <v>43595</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5543,7 +5543,7 @@
         <v>43595</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5600,7 +5600,7 @@
         <v>43604</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5657,7 +5657,7 @@
         <v>43604</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5714,7 +5714,7 @@
         <v>43605</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -5776,7 +5776,7 @@
         <v>43607</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -5833,7 +5833,7 @@
         <v>43609</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -5890,7 +5890,7 @@
         <v>43612</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -5947,7 +5947,7 @@
         <v>43614</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6004,7 +6004,7 @@
         <v>43619</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6061,7 +6061,7 @@
         <v>43628</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6118,7 +6118,7 @@
         <v>43640</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6175,7 +6175,7 @@
         <v>43643</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6232,7 +6232,7 @@
         <v>43651</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6289,7 +6289,7 @@
         <v>43657</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6346,7 +6346,7 @@
         <v>43663</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6403,7 +6403,7 @@
         <v>43671</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6460,7 +6460,7 @@
         <v>43685</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6517,7 +6517,7 @@
         <v>43685</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6574,7 +6574,7 @@
         <v>43699</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6631,7 +6631,7 @@
         <v>43699</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -6688,7 +6688,7 @@
         <v>43700</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -6745,7 +6745,7 @@
         <v>43700</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -6802,7 +6802,7 @@
         <v>43700</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -6859,7 +6859,7 @@
         <v>43700</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -6916,7 +6916,7 @@
         <v>43700</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -6973,7 +6973,7 @@
         <v>43700</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7030,7 +7030,7 @@
         <v>43707</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7087,7 +7087,7 @@
         <v>43711</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7144,7 +7144,7 @@
         <v>43731</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7201,7 +7201,7 @@
         <v>43762</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7258,7 +7258,7 @@
         <v>43762</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7315,7 +7315,7 @@
         <v>43762</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7372,7 +7372,7 @@
         <v>43762</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7429,7 +7429,7 @@
         <v>43774</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7486,7 +7486,7 @@
         <v>43782</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7543,7 +7543,7 @@
         <v>43783</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -7605,7 +7605,7 @@
         <v>43788</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -7662,7 +7662,7 @@
         <v>43790</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -7719,7 +7719,7 @@
         <v>43790</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -7776,7 +7776,7 @@
         <v>43791</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -7833,7 +7833,7 @@
         <v>43798</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -7890,7 +7890,7 @@
         <v>43798</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -7947,7 +7947,7 @@
         <v>43803</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8004,7 +8004,7 @@
         <v>43803</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8061,7 +8061,7 @@
         <v>43812</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8118,7 +8118,7 @@
         <v>43826</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8175,7 +8175,7 @@
         <v>43826</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8232,7 +8232,7 @@
         <v>43839</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8289,7 +8289,7 @@
         <v>43850</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8346,7 +8346,7 @@
         <v>43850</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8403,7 +8403,7 @@
         <v>43852</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8460,7 +8460,7 @@
         <v>43852</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -8517,7 +8517,7 @@
         <v>43852</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -8574,7 +8574,7 @@
         <v>43852</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -8631,7 +8631,7 @@
         <v>43852</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -8688,7 +8688,7 @@
         <v>43852</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -8745,7 +8745,7 @@
         <v>43852</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -8802,7 +8802,7 @@
         <v>43852</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -8859,7 +8859,7 @@
         <v>43852</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -8916,7 +8916,7 @@
         <v>43853</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -8978,7 +8978,7 @@
         <v>43853</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -9040,7 +9040,7 @@
         <v>43858</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9097,7 +9097,7 @@
         <v>43866</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9159,7 +9159,7 @@
         <v>43868</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9216,7 +9216,7 @@
         <v>43868</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9273,7 +9273,7 @@
         <v>43868</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9330,7 +9330,7 @@
         <v>43873</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9387,7 +9387,7 @@
         <v>43873</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -9444,7 +9444,7 @@
         <v>43874</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -9501,7 +9501,7 @@
         <v>43878</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -9558,7 +9558,7 @@
         <v>43889</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -9615,7 +9615,7 @@
         <v>43890</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -9672,7 +9672,7 @@
         <v>43894</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -9729,7 +9729,7 @@
         <v>43907</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -9786,7 +9786,7 @@
         <v>43907</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -9843,7 +9843,7 @@
         <v>43907</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -9900,7 +9900,7 @@
         <v>43907</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -9957,7 +9957,7 @@
         <v>43908</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -10014,7 +10014,7 @@
         <v>43908</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -10076,7 +10076,7 @@
         <v>43908</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -10133,7 +10133,7 @@
         <v>43919</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -10190,7 +10190,7 @@
         <v>43921</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -10247,7 +10247,7 @@
         <v>43921</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -10304,7 +10304,7 @@
         <v>43989</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -10361,7 +10361,7 @@
         <v>43990</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -10418,7 +10418,7 @@
         <v>43992</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -10475,7 +10475,7 @@
         <v>44000</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -10532,7 +10532,7 @@
         <v>44012</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -10589,7 +10589,7 @@
         <v>44020</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -10646,7 +10646,7 @@
         <v>44024</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -10703,7 +10703,7 @@
         <v>44071</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -10760,7 +10760,7 @@
         <v>44089</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -10817,7 +10817,7 @@
         <v>44089</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -10874,7 +10874,7 @@
         <v>44089</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -10931,7 +10931,7 @@
         <v>44089</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -10988,7 +10988,7 @@
         <v>44105</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -11045,7 +11045,7 @@
         <v>44106</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -11102,7 +11102,7 @@
         <v>44109</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -11159,7 +11159,7 @@
         <v>44109</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -11216,7 +11216,7 @@
         <v>44117</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -11273,7 +11273,7 @@
         <v>44120</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -11330,7 +11330,7 @@
         <v>44125</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -11387,7 +11387,7 @@
         <v>44126</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -11444,7 +11444,7 @@
         <v>44131</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -11501,7 +11501,7 @@
         <v>44131</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -11558,7 +11558,7 @@
         <v>44142</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -11615,7 +11615,7 @@
         <v>44142</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -11672,7 +11672,7 @@
         <v>44146</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -11729,7 +11729,7 @@
         <v>44146</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -11786,7 +11786,7 @@
         <v>44153</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -11843,7 +11843,7 @@
         <v>44155</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -11900,7 +11900,7 @@
         <v>44157</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -11957,7 +11957,7 @@
         <v>44157</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -12014,7 +12014,7 @@
         <v>44157</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -12071,7 +12071,7 @@
         <v>44162</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -12128,7 +12128,7 @@
         <v>44162</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -12185,7 +12185,7 @@
         <v>44165</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -12242,7 +12242,7 @@
         <v>44181</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -12299,7 +12299,7 @@
         <v>44206</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -12356,7 +12356,7 @@
         <v>44209</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -12413,7 +12413,7 @@
         <v>44215</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -12470,7 +12470,7 @@
         <v>44215</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -12527,7 +12527,7 @@
         <v>44215</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -12584,7 +12584,7 @@
         <v>44220</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -12641,7 +12641,7 @@
         <v>44220</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -12698,7 +12698,7 @@
         <v>44228</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -12755,7 +12755,7 @@
         <v>44228</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -12812,7 +12812,7 @@
         <v>44230</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -12869,7 +12869,7 @@
         <v>44252</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -12926,7 +12926,7 @@
         <v>44258</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -12988,7 +12988,7 @@
         <v>44263</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -13045,7 +13045,7 @@
         <v>44265</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -13102,7 +13102,7 @@
         <v>44266</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -13159,7 +13159,7 @@
         <v>44270</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -13216,7 +13216,7 @@
         <v>44293</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -13273,7 +13273,7 @@
         <v>44299</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -13330,7 +13330,7 @@
         <v>44300</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -13387,7 +13387,7 @@
         <v>44312</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -13444,7 +13444,7 @@
         <v>44322</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -13501,7 +13501,7 @@
         <v>44332</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -13558,7 +13558,7 @@
         <v>44334</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -13615,7 +13615,7 @@
         <v>44350</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -13672,7 +13672,7 @@
         <v>44350</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -13729,7 +13729,7 @@
         <v>44351</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -13786,7 +13786,7 @@
         <v>44360</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -13843,7 +13843,7 @@
         <v>44361</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -13900,7 +13900,7 @@
         <v>44368</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -13957,7 +13957,7 @@
         <v>44418</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -14014,7 +14014,7 @@
         <v>44420</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -14071,7 +14071,7 @@
         <v>44428</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -14128,7 +14128,7 @@
         <v>44428</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -14185,7 +14185,7 @@
         <v>44429</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -14242,7 +14242,7 @@
         <v>44429</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -14299,7 +14299,7 @@
         <v>44433</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -14356,7 +14356,7 @@
         <v>44433</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -14413,7 +14413,7 @@
         <v>44434</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -14470,7 +14470,7 @@
         <v>44447</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -14527,7 +14527,7 @@
         <v>44454</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -14584,7 +14584,7 @@
         <v>44466</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -14641,7 +14641,7 @@
         <v>44469</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -14698,7 +14698,7 @@
         <v>44470</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -14755,7 +14755,7 @@
         <v>44474</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -14812,7 +14812,7 @@
         <v>44475</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -14869,7 +14869,7 @@
         <v>44489</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -14926,7 +14926,7 @@
         <v>44497</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -14983,7 +14983,7 @@
         <v>44503</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -15045,7 +15045,7 @@
         <v>44512</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -15102,7 +15102,7 @@
         <v>44529</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -15159,7 +15159,7 @@
         <v>44529</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -15216,7 +15216,7 @@
         <v>44529</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -15273,7 +15273,7 @@
         <v>44543</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -15330,7 +15330,7 @@
         <v>44572</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -15387,7 +15387,7 @@
         <v>44573</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -15449,7 +15449,7 @@
         <v>44578</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -15506,7 +15506,7 @@
         <v>44594</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -15563,7 +15563,7 @@
         <v>44594</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -15620,7 +15620,7 @@
         <v>44601</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -15677,7 +15677,7 @@
         <v>44602</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -15734,7 +15734,7 @@
         <v>44603</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -15791,7 +15791,7 @@
         <v>44616</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -15848,7 +15848,7 @@
         <v>44622</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -15905,7 +15905,7 @@
         <v>44623</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -15962,7 +15962,7 @@
         <v>44627</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -16024,7 +16024,7 @@
         <v>44629</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -16081,7 +16081,7 @@
         <v>44630</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -16138,7 +16138,7 @@
         <v>44630</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -16195,7 +16195,7 @@
         <v>44636</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -16252,7 +16252,7 @@
         <v>44636</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -16309,7 +16309,7 @@
         <v>44637</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -16366,7 +16366,7 @@
         <v>44663</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -16423,7 +16423,7 @@
         <v>44672</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -16480,7 +16480,7 @@
         <v>44707</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -16537,7 +16537,7 @@
         <v>44711</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -16594,7 +16594,7 @@
         <v>44713</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -16651,7 +16651,7 @@
         <v>44722</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -16708,7 +16708,7 @@
         <v>44726</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -16765,7 +16765,7 @@
         <v>44729</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -16822,7 +16822,7 @@
         <v>44739</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -16879,7 +16879,7 @@
         <v>44742</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -16936,7 +16936,7 @@
         <v>44742</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -16993,7 +16993,7 @@
         <v>44802</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -17050,7 +17050,7 @@
         <v>44802</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -17107,7 +17107,7 @@
         <v>44803</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -17164,7 +17164,7 @@
         <v>44805</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -17221,7 +17221,7 @@
         <v>44819</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -17278,7 +17278,7 @@
         <v>44823</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -17335,7 +17335,7 @@
         <v>44823</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -17392,7 +17392,7 @@
         <v>44838</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -17449,7 +17449,7 @@
         <v>44838</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -17506,7 +17506,7 @@
         <v>44861</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -17563,7 +17563,7 @@
         <v>44869</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -17620,7 +17620,7 @@
         <v>44880</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -17677,7 +17677,7 @@
         <v>44880</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -17734,7 +17734,7 @@
         <v>44882</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -17791,7 +17791,7 @@
         <v>44895</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -17848,7 +17848,7 @@
         <v>44928</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -17905,7 +17905,7 @@
         <v>44928</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -17962,7 +17962,7 @@
         <v>44945</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -18019,7 +18019,7 @@
         <v>44952</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -18076,7 +18076,7 @@
         <v>44952</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -18133,7 +18133,7 @@
         <v>44952</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -18190,7 +18190,7 @@
         <v>44952</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -18247,7 +18247,7 @@
         <v>44957</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -18304,7 +18304,7 @@
         <v>44957</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -18361,7 +18361,7 @@
         <v>44960</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -18418,7 +18418,7 @@
         <v>44974</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -18475,7 +18475,7 @@
         <v>44979</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -18537,7 +18537,7 @@
         <v>44985</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -18594,7 +18594,7 @@
         <v>44993</v>
       </c>
       <c r="C311" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -18651,7 +18651,7 @@
         <v>45014</v>
       </c>
       <c r="C312" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -18708,7 +18708,7 @@
         <v>45014</v>
       </c>
       <c r="C313" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -18765,7 +18765,7 @@
         <v>45014</v>
       </c>
       <c r="C314" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -18822,7 +18822,7 @@
         <v>45014</v>
       </c>
       <c r="C315" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -18879,7 +18879,7 @@
         <v>45014</v>
       </c>
       <c r="C316" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -18936,7 +18936,7 @@
         <v>45022</v>
       </c>
       <c r="C317" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -18993,7 +18993,7 @@
         <v>45022</v>
       </c>
       <c r="C318" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -19050,7 +19050,7 @@
         <v>45027</v>
       </c>
       <c r="C319" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -19107,7 +19107,7 @@
         <v>45033</v>
       </c>
       <c r="C320" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -19164,7 +19164,7 @@
         <v>45033</v>
       </c>
       <c r="C321" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
@@ -19221,7 +19221,7 @@
         <v>45033</v>
       </c>
       <c r="C322" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
@@ -19278,7 +19278,7 @@
         <v>45036</v>
       </c>
       <c r="C323" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
@@ -19335,7 +19335,7 @@
         <v>45050</v>
       </c>
       <c r="C324" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D324" t="inlineStr">
         <is>
@@ -19392,7 +19392,7 @@
         <v>45050</v>
       </c>
       <c r="C325" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D325" t="inlineStr">
         <is>
@@ -19449,7 +19449,7 @@
         <v>45065</v>
       </c>
       <c r="C326" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D326" t="inlineStr">
         <is>
@@ -19506,7 +19506,7 @@
         <v>45072</v>
       </c>
       <c r="C327" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D327" t="inlineStr">
         <is>
@@ -19563,7 +19563,7 @@
         <v>45073</v>
       </c>
       <c r="C328" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D328" t="inlineStr">
         <is>
@@ -19620,7 +19620,7 @@
         <v>45076</v>
       </c>
       <c r="C329" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D329" t="inlineStr">
         <is>
@@ -19677,7 +19677,7 @@
         <v>45076</v>
       </c>
       <c r="C330" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D330" t="inlineStr">
         <is>
@@ -19734,7 +19734,7 @@
         <v>45076</v>
       </c>
       <c r="C331" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D331" t="inlineStr">
         <is>
@@ -19791,7 +19791,7 @@
         <v>45076</v>
       </c>
       <c r="C332" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D332" t="inlineStr">
         <is>
@@ -19848,7 +19848,7 @@
         <v>45076</v>
       </c>
       <c r="C333" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D333" t="inlineStr">
         <is>
@@ -19905,7 +19905,7 @@
         <v>45078</v>
       </c>
       <c r="C334" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D334" t="inlineStr">
         <is>
@@ -19962,7 +19962,7 @@
         <v>45082</v>
       </c>
       <c r="C335" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D335" t="inlineStr">
         <is>
@@ -20019,7 +20019,7 @@
         <v>45082</v>
       </c>
       <c r="C336" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D336" t="inlineStr">
         <is>
@@ -20081,7 +20081,7 @@
         <v>45084</v>
       </c>
       <c r="C337" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D337" t="inlineStr">
         <is>
@@ -20138,7 +20138,7 @@
         <v>45084</v>
       </c>
       <c r="C338" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D338" t="inlineStr">
         <is>
@@ -20195,7 +20195,7 @@
         <v>45085</v>
       </c>
       <c r="C339" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D339" t="inlineStr">
         <is>
@@ -20252,7 +20252,7 @@
         <v>45085</v>
       </c>
       <c r="C340" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D340" t="inlineStr">
         <is>
@@ -20309,7 +20309,7 @@
         <v>45089</v>
       </c>
       <c r="C341" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D341" t="inlineStr">
         <is>
@@ -20366,7 +20366,7 @@
         <v>45089</v>
       </c>
       <c r="C342" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D342" t="inlineStr">
         <is>
@@ -20423,7 +20423,7 @@
         <v>45090</v>
       </c>
       <c r="C343" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D343" t="inlineStr">
         <is>
@@ -20480,7 +20480,7 @@
         <v>45091</v>
       </c>
       <c r="C344" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D344" t="inlineStr">
         <is>
@@ -20537,7 +20537,7 @@
         <v>45091</v>
       </c>
       <c r="C345" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D345" t="inlineStr">
         <is>
@@ -20594,7 +20594,7 @@
         <v>45091</v>
       </c>
       <c r="C346" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D346" t="inlineStr">
         <is>
@@ -20651,7 +20651,7 @@
         <v>45092</v>
       </c>
       <c r="C347" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D347" t="inlineStr">
         <is>
@@ -20708,7 +20708,7 @@
         <v>45093</v>
       </c>
       <c r="C348" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D348" t="inlineStr">
         <is>
@@ -20765,7 +20765,7 @@
         <v>45097</v>
       </c>
       <c r="C349" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D349" t="inlineStr">
         <is>
@@ -20822,7 +20822,7 @@
         <v>45103</v>
       </c>
       <c r="C350" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D350" t="inlineStr">
         <is>
@@ -20879,7 +20879,7 @@
         <v>45105</v>
       </c>
       <c r="C351" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D351" t="inlineStr">
         <is>
@@ -20936,7 +20936,7 @@
         <v>45107</v>
       </c>
       <c r="C352" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D352" t="inlineStr">
         <is>
@@ -20993,7 +20993,7 @@
         <v>45112</v>
       </c>
       <c r="C353" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D353" t="inlineStr">
         <is>
@@ -21050,7 +21050,7 @@
         <v>45116</v>
       </c>
       <c r="C354" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D354" t="inlineStr">
         <is>
@@ -21107,7 +21107,7 @@
         <v>45141</v>
       </c>
       <c r="C355" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D355" t="inlineStr">
         <is>
@@ -21164,7 +21164,7 @@
         <v>45142</v>
       </c>
       <c r="C356" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D356" t="inlineStr">
         <is>
@@ -21221,7 +21221,7 @@
         <v>45146</v>
       </c>
       <c r="C357" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D357" t="inlineStr">
         <is>
@@ -21278,7 +21278,7 @@
         <v>45148</v>
       </c>
       <c r="C358" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D358" t="inlineStr">
         <is>
@@ -21335,7 +21335,7 @@
         <v>45148</v>
       </c>
       <c r="C359" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D359" t="inlineStr">
         <is>
@@ -21392,7 +21392,7 @@
         <v>45154</v>
       </c>
       <c r="C360" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D360" t="inlineStr">
         <is>

--- a/Översikt FALKÖPING.xlsx
+++ b/Översikt FALKÖPING.xlsx
@@ -572,7 +572,7 @@
         <v>44950</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -666,7 +666,7 @@
         <v>44890</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -753,7 +753,7 @@
         <v>44418</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -839,7 +839,7 @@
         <v>44748</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -925,7 +925,7 @@
         <v>43349</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1010,7 +1010,7 @@
         <v>43451</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1095,7 +1095,7 @@
         <v>43549</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1180,7 +1180,7 @@
         <v>44349</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1265,7 +1265,7 @@
         <v>44427</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1350,7 +1350,7 @@
         <v>44474</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1435,7 +1435,7 @@
         <v>44805</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1520,7 +1520,7 @@
         <v>44906</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1605,7 +1605,7 @@
         <v>43325</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1662,7 +1662,7 @@
         <v>43340</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1719,7 +1719,7 @@
         <v>43347</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1776,7 +1776,7 @@
         <v>43362</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1833,7 +1833,7 @@
         <v>43362</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1890,7 +1890,7 @@
         <v>43362</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1947,7 +1947,7 @@
         <v>43368</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2004,7 +2004,7 @@
         <v>43368</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2061,7 +2061,7 @@
         <v>43368</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2118,7 +2118,7 @@
         <v>43368</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2175,7 +2175,7 @@
         <v>43368</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2232,7 +2232,7 @@
         <v>43368</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2289,7 +2289,7 @@
         <v>43370</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2346,7 +2346,7 @@
         <v>43370</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2403,7 +2403,7 @@
         <v>43392</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2460,7 +2460,7 @@
         <v>43405</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2517,7 +2517,7 @@
         <v>43412</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2574,7 +2574,7 @@
         <v>43423</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2631,7 +2631,7 @@
         <v>43424</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2688,7 +2688,7 @@
         <v>43424</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2745,7 +2745,7 @@
         <v>43424</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2802,7 +2802,7 @@
         <v>43425</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2859,7 +2859,7 @@
         <v>43425</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -2916,7 +2916,7 @@
         <v>43426</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -2973,7 +2973,7 @@
         <v>43426</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3030,7 +3030,7 @@
         <v>43427</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3087,7 +3087,7 @@
         <v>43430</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3144,7 +3144,7 @@
         <v>43431</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3201,7 +3201,7 @@
         <v>43439</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3258,7 +3258,7 @@
         <v>43444</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3315,7 +3315,7 @@
         <v>43444</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3372,7 +3372,7 @@
         <v>43446</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3429,7 +3429,7 @@
         <v>43446</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3486,7 +3486,7 @@
         <v>43446</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3543,7 +3543,7 @@
         <v>43446</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3600,7 +3600,7 @@
         <v>43447</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3662,7 +3662,7 @@
         <v>43447</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3719,7 +3719,7 @@
         <v>43451</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3776,7 +3776,7 @@
         <v>43452</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3833,7 +3833,7 @@
         <v>43452</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -3890,7 +3890,7 @@
         <v>43452</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -3947,7 +3947,7 @@
         <v>43453</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4004,7 +4004,7 @@
         <v>43453</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4061,7 +4061,7 @@
         <v>43469</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4118,7 +4118,7 @@
         <v>43473</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4175,7 +4175,7 @@
         <v>43473</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4232,7 +4232,7 @@
         <v>43475</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4289,7 +4289,7 @@
         <v>43476</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4346,7 +4346,7 @@
         <v>43479</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4403,7 +4403,7 @@
         <v>43479</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4460,7 +4460,7 @@
         <v>43486</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4517,7 +4517,7 @@
         <v>43490</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4574,7 +4574,7 @@
         <v>43490</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4631,7 +4631,7 @@
         <v>43500</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4688,7 +4688,7 @@
         <v>43500</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4745,7 +4745,7 @@
         <v>43502</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -4802,7 +4802,7 @@
         <v>43502</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -4859,7 +4859,7 @@
         <v>43509</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -4916,7 +4916,7 @@
         <v>43509</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -4973,7 +4973,7 @@
         <v>43514</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5030,7 +5030,7 @@
         <v>43518</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5087,7 +5087,7 @@
         <v>43542</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5144,7 +5144,7 @@
         <v>43542</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5201,7 +5201,7 @@
         <v>43542</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5258,7 +5258,7 @@
         <v>43542</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5315,7 +5315,7 @@
         <v>43543</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5372,7 +5372,7 @@
         <v>43578</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5429,7 +5429,7 @@
         <v>43592</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5486,7 +5486,7 @@
         <v>43595</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5543,7 +5543,7 @@
         <v>43595</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5600,7 +5600,7 @@
         <v>43604</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5657,7 +5657,7 @@
         <v>43604</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5714,7 +5714,7 @@
         <v>43605</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -5776,7 +5776,7 @@
         <v>43607</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -5833,7 +5833,7 @@
         <v>43609</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -5890,7 +5890,7 @@
         <v>43612</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -5947,7 +5947,7 @@
         <v>43614</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6004,7 +6004,7 @@
         <v>43619</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6061,7 +6061,7 @@
         <v>43628</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6118,7 +6118,7 @@
         <v>43640</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6175,7 +6175,7 @@
         <v>43643</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6232,7 +6232,7 @@
         <v>43651</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6289,7 +6289,7 @@
         <v>43657</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6346,7 +6346,7 @@
         <v>43663</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6403,7 +6403,7 @@
         <v>43671</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6460,7 +6460,7 @@
         <v>43685</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6517,7 +6517,7 @@
         <v>43685</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6574,7 +6574,7 @@
         <v>43699</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6631,7 +6631,7 @@
         <v>43699</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -6688,7 +6688,7 @@
         <v>43700</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -6745,7 +6745,7 @@
         <v>43700</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -6802,7 +6802,7 @@
         <v>43700</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -6859,7 +6859,7 @@
         <v>43700</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -6916,7 +6916,7 @@
         <v>43700</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -6973,7 +6973,7 @@
         <v>43700</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7030,7 +7030,7 @@
         <v>43707</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7087,7 +7087,7 @@
         <v>43711</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7144,7 +7144,7 @@
         <v>43731</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7201,7 +7201,7 @@
         <v>43762</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7258,7 +7258,7 @@
         <v>43762</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7315,7 +7315,7 @@
         <v>43762</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7372,7 +7372,7 @@
         <v>43762</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7429,7 +7429,7 @@
         <v>43774</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7486,7 +7486,7 @@
         <v>43782</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7543,7 +7543,7 @@
         <v>43783</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -7605,7 +7605,7 @@
         <v>43788</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -7662,7 +7662,7 @@
         <v>43790</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -7719,7 +7719,7 @@
         <v>43790</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -7776,7 +7776,7 @@
         <v>43791</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -7833,7 +7833,7 @@
         <v>43798</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -7890,7 +7890,7 @@
         <v>43798</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -7947,7 +7947,7 @@
         <v>43803</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8004,7 +8004,7 @@
         <v>43803</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8061,7 +8061,7 @@
         <v>43812</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8118,7 +8118,7 @@
         <v>43826</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8175,7 +8175,7 @@
         <v>43826</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8232,7 +8232,7 @@
         <v>43839</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8289,7 +8289,7 @@
         <v>43850</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8346,7 +8346,7 @@
         <v>43850</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8403,7 +8403,7 @@
         <v>43852</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8460,7 +8460,7 @@
         <v>43852</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -8517,7 +8517,7 @@
         <v>43852</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -8574,7 +8574,7 @@
         <v>43852</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -8631,7 +8631,7 @@
         <v>43852</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -8688,7 +8688,7 @@
         <v>43852</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -8745,7 +8745,7 @@
         <v>43852</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -8802,7 +8802,7 @@
         <v>43852</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -8859,7 +8859,7 @@
         <v>43852</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -8916,7 +8916,7 @@
         <v>43853</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -8978,7 +8978,7 @@
         <v>43853</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -9040,7 +9040,7 @@
         <v>43858</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9097,7 +9097,7 @@
         <v>43866</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9159,7 +9159,7 @@
         <v>43868</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9216,7 +9216,7 @@
         <v>43868</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9273,7 +9273,7 @@
         <v>43868</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9330,7 +9330,7 @@
         <v>43873</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9387,7 +9387,7 @@
         <v>43873</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -9444,7 +9444,7 @@
         <v>43874</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -9501,7 +9501,7 @@
         <v>43878</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -9558,7 +9558,7 @@
         <v>43889</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -9615,7 +9615,7 @@
         <v>43890</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -9672,7 +9672,7 @@
         <v>43894</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -9729,7 +9729,7 @@
         <v>43907</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -9786,7 +9786,7 @@
         <v>43907</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -9843,7 +9843,7 @@
         <v>43907</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -9900,7 +9900,7 @@
         <v>43907</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -9957,7 +9957,7 @@
         <v>43908</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -10014,7 +10014,7 @@
         <v>43908</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -10076,7 +10076,7 @@
         <v>43908</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -10133,7 +10133,7 @@
         <v>43919</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -10190,7 +10190,7 @@
         <v>43921</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -10247,7 +10247,7 @@
         <v>43921</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -10304,7 +10304,7 @@
         <v>43989</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -10361,7 +10361,7 @@
         <v>43990</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -10418,7 +10418,7 @@
         <v>43992</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -10475,7 +10475,7 @@
         <v>44000</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -10532,7 +10532,7 @@
         <v>44012</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -10589,7 +10589,7 @@
         <v>44020</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -10646,7 +10646,7 @@
         <v>44024</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -10703,7 +10703,7 @@
         <v>44071</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -10760,7 +10760,7 @@
         <v>44089</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -10817,7 +10817,7 @@
         <v>44089</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -10874,7 +10874,7 @@
         <v>44089</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -10931,7 +10931,7 @@
         <v>44089</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -10988,7 +10988,7 @@
         <v>44105</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -11045,7 +11045,7 @@
         <v>44106</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -11102,7 +11102,7 @@
         <v>44109</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -11159,7 +11159,7 @@
         <v>44109</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -11216,7 +11216,7 @@
         <v>44117</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -11273,7 +11273,7 @@
         <v>44120</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -11330,7 +11330,7 @@
         <v>44125</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -11387,7 +11387,7 @@
         <v>44126</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -11444,7 +11444,7 @@
         <v>44131</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -11501,7 +11501,7 @@
         <v>44131</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -11558,7 +11558,7 @@
         <v>44142</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -11615,7 +11615,7 @@
         <v>44142</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -11672,7 +11672,7 @@
         <v>44146</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -11729,7 +11729,7 @@
         <v>44146</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -11786,7 +11786,7 @@
         <v>44153</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -11843,7 +11843,7 @@
         <v>44155</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -11900,7 +11900,7 @@
         <v>44157</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -11957,7 +11957,7 @@
         <v>44157</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -12014,7 +12014,7 @@
         <v>44157</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -12071,7 +12071,7 @@
         <v>44162</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -12128,7 +12128,7 @@
         <v>44162</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -12185,7 +12185,7 @@
         <v>44165</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -12242,7 +12242,7 @@
         <v>44181</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -12299,7 +12299,7 @@
         <v>44206</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -12356,7 +12356,7 @@
         <v>44209</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -12413,7 +12413,7 @@
         <v>44215</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -12470,7 +12470,7 @@
         <v>44215</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -12527,7 +12527,7 @@
         <v>44215</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -12584,7 +12584,7 @@
         <v>44220</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -12641,7 +12641,7 @@
         <v>44220</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -12698,7 +12698,7 @@
         <v>44228</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -12755,7 +12755,7 @@
         <v>44228</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -12812,7 +12812,7 @@
         <v>44230</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -12869,7 +12869,7 @@
         <v>44252</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -12926,7 +12926,7 @@
         <v>44258</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -12988,7 +12988,7 @@
         <v>44263</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -13045,7 +13045,7 @@
         <v>44265</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -13102,7 +13102,7 @@
         <v>44266</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -13159,7 +13159,7 @@
         <v>44270</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -13216,7 +13216,7 @@
         <v>44293</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -13273,7 +13273,7 @@
         <v>44299</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -13330,7 +13330,7 @@
         <v>44300</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -13387,7 +13387,7 @@
         <v>44312</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -13444,7 +13444,7 @@
         <v>44322</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -13501,7 +13501,7 @@
         <v>44332</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -13558,7 +13558,7 @@
         <v>44334</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -13615,7 +13615,7 @@
         <v>44350</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -13672,7 +13672,7 @@
         <v>44350</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -13729,7 +13729,7 @@
         <v>44351</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -13786,7 +13786,7 @@
         <v>44360</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -13843,7 +13843,7 @@
         <v>44361</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -13900,7 +13900,7 @@
         <v>44368</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -13957,7 +13957,7 @@
         <v>44418</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -14014,7 +14014,7 @@
         <v>44420</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -14071,7 +14071,7 @@
         <v>44428</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -14128,7 +14128,7 @@
         <v>44428</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -14185,7 +14185,7 @@
         <v>44429</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -14242,7 +14242,7 @@
         <v>44429</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -14299,7 +14299,7 @@
         <v>44433</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -14356,7 +14356,7 @@
         <v>44433</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -14413,7 +14413,7 @@
         <v>44434</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -14470,7 +14470,7 @@
         <v>44447</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -14527,7 +14527,7 @@
         <v>44454</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -14584,7 +14584,7 @@
         <v>44466</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -14641,7 +14641,7 @@
         <v>44469</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -14698,7 +14698,7 @@
         <v>44470</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -14755,7 +14755,7 @@
         <v>44474</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -14812,7 +14812,7 @@
         <v>44475</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -14869,7 +14869,7 @@
         <v>44489</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -14926,7 +14926,7 @@
         <v>44497</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -14983,7 +14983,7 @@
         <v>44503</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -15045,7 +15045,7 @@
         <v>44512</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -15102,7 +15102,7 @@
         <v>44529</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -15159,7 +15159,7 @@
         <v>44529</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -15216,7 +15216,7 @@
         <v>44529</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -15273,7 +15273,7 @@
         <v>44543</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -15330,7 +15330,7 @@
         <v>44572</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -15387,7 +15387,7 @@
         <v>44573</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -15449,7 +15449,7 @@
         <v>44578</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -15506,7 +15506,7 @@
         <v>44594</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -15563,7 +15563,7 @@
         <v>44594</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -15620,7 +15620,7 @@
         <v>44601</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -15677,7 +15677,7 @@
         <v>44602</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -15734,7 +15734,7 @@
         <v>44603</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -15791,7 +15791,7 @@
         <v>44616</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -15848,7 +15848,7 @@
         <v>44622</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -15905,7 +15905,7 @@
         <v>44623</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -15962,7 +15962,7 @@
         <v>44627</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -16024,7 +16024,7 @@
         <v>44629</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -16081,7 +16081,7 @@
         <v>44630</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -16138,7 +16138,7 @@
         <v>44630</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -16195,7 +16195,7 @@
         <v>44636</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -16252,7 +16252,7 @@
         <v>44636</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -16309,7 +16309,7 @@
         <v>44637</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -16366,7 +16366,7 @@
         <v>44663</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -16423,7 +16423,7 @@
         <v>44672</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -16480,7 +16480,7 @@
         <v>44707</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -16537,7 +16537,7 @@
         <v>44711</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -16594,7 +16594,7 @@
         <v>44713</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -16651,7 +16651,7 @@
         <v>44722</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -16708,7 +16708,7 @@
         <v>44726</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -16765,7 +16765,7 @@
         <v>44729</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -16822,7 +16822,7 @@
         <v>44739</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -16879,7 +16879,7 @@
         <v>44742</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -16936,7 +16936,7 @@
         <v>44742</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -16993,7 +16993,7 @@
         <v>44802</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -17050,7 +17050,7 @@
         <v>44802</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -17107,7 +17107,7 @@
         <v>44803</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -17164,7 +17164,7 @@
         <v>44805</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -17221,7 +17221,7 @@
         <v>44819</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -17278,7 +17278,7 @@
         <v>44823</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -17335,7 +17335,7 @@
         <v>44823</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -17392,7 +17392,7 @@
         <v>44838</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -17449,7 +17449,7 @@
         <v>44838</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -17506,7 +17506,7 @@
         <v>44861</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -17563,7 +17563,7 @@
         <v>44869</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -17620,7 +17620,7 @@
         <v>44880</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -17677,7 +17677,7 @@
         <v>44880</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -17734,7 +17734,7 @@
         <v>44882</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -17791,7 +17791,7 @@
         <v>44895</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -17848,7 +17848,7 @@
         <v>44928</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -17905,7 +17905,7 @@
         <v>44928</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -17962,7 +17962,7 @@
         <v>44945</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -18019,7 +18019,7 @@
         <v>44952</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -18076,7 +18076,7 @@
         <v>44952</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -18133,7 +18133,7 @@
         <v>44952</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -18190,7 +18190,7 @@
         <v>44952</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -18247,7 +18247,7 @@
         <v>44957</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -18304,7 +18304,7 @@
         <v>44957</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -18361,7 +18361,7 @@
         <v>44960</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -18418,7 +18418,7 @@
         <v>44974</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -18475,7 +18475,7 @@
         <v>44979</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -18537,7 +18537,7 @@
         <v>44985</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -18594,7 +18594,7 @@
         <v>44993</v>
       </c>
       <c r="C311" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -18651,7 +18651,7 @@
         <v>45014</v>
       </c>
       <c r="C312" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -18708,7 +18708,7 @@
         <v>45014</v>
       </c>
       <c r="C313" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -18765,7 +18765,7 @@
         <v>45014</v>
       </c>
       <c r="C314" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -18822,7 +18822,7 @@
         <v>45014</v>
       </c>
       <c r="C315" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -18879,7 +18879,7 @@
         <v>45014</v>
       </c>
       <c r="C316" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -18936,7 +18936,7 @@
         <v>45022</v>
       </c>
       <c r="C317" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -18993,7 +18993,7 @@
         <v>45022</v>
       </c>
       <c r="C318" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -19050,7 +19050,7 @@
         <v>45027</v>
       </c>
       <c r="C319" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -19107,7 +19107,7 @@
         <v>45033</v>
       </c>
       <c r="C320" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -19164,7 +19164,7 @@
         <v>45033</v>
       </c>
       <c r="C321" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
@@ -19221,7 +19221,7 @@
         <v>45033</v>
       </c>
       <c r="C322" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
@@ -19278,7 +19278,7 @@
         <v>45036</v>
       </c>
       <c r="C323" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
@@ -19335,7 +19335,7 @@
         <v>45050</v>
       </c>
       <c r="C324" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D324" t="inlineStr">
         <is>
@@ -19392,7 +19392,7 @@
         <v>45050</v>
       </c>
       <c r="C325" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D325" t="inlineStr">
         <is>
@@ -19449,7 +19449,7 @@
         <v>45065</v>
       </c>
       <c r="C326" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D326" t="inlineStr">
         <is>
@@ -19506,7 +19506,7 @@
         <v>45072</v>
       </c>
       <c r="C327" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D327" t="inlineStr">
         <is>
@@ -19563,7 +19563,7 @@
         <v>45073</v>
       </c>
       <c r="C328" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D328" t="inlineStr">
         <is>
@@ -19620,7 +19620,7 @@
         <v>45076</v>
       </c>
       <c r="C329" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D329" t="inlineStr">
         <is>
@@ -19677,7 +19677,7 @@
         <v>45076</v>
       </c>
       <c r="C330" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D330" t="inlineStr">
         <is>
@@ -19734,7 +19734,7 @@
         <v>45076</v>
       </c>
       <c r="C331" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D331" t="inlineStr">
         <is>
@@ -19791,7 +19791,7 @@
         <v>45076</v>
       </c>
       <c r="C332" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D332" t="inlineStr">
         <is>
@@ -19848,7 +19848,7 @@
         <v>45076</v>
       </c>
       <c r="C333" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D333" t="inlineStr">
         <is>
@@ -19905,7 +19905,7 @@
         <v>45078</v>
       </c>
       <c r="C334" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D334" t="inlineStr">
         <is>
@@ -19962,7 +19962,7 @@
         <v>45082</v>
       </c>
       <c r="C335" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D335" t="inlineStr">
         <is>
@@ -20019,7 +20019,7 @@
         <v>45082</v>
       </c>
       <c r="C336" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D336" t="inlineStr">
         <is>
@@ -20081,7 +20081,7 @@
         <v>45084</v>
       </c>
       <c r="C337" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D337" t="inlineStr">
         <is>
@@ -20138,7 +20138,7 @@
         <v>45084</v>
       </c>
       <c r="C338" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D338" t="inlineStr">
         <is>
@@ -20195,7 +20195,7 @@
         <v>45085</v>
       </c>
       <c r="C339" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D339" t="inlineStr">
         <is>
@@ -20252,7 +20252,7 @@
         <v>45085</v>
       </c>
       <c r="C340" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D340" t="inlineStr">
         <is>
@@ -20309,7 +20309,7 @@
         <v>45089</v>
       </c>
       <c r="C341" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D341" t="inlineStr">
         <is>
@@ -20366,7 +20366,7 @@
         <v>45089</v>
       </c>
       <c r="C342" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D342" t="inlineStr">
         <is>
@@ -20423,7 +20423,7 @@
         <v>45090</v>
       </c>
       <c r="C343" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D343" t="inlineStr">
         <is>
@@ -20480,7 +20480,7 @@
         <v>45091</v>
       </c>
       <c r="C344" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D344" t="inlineStr">
         <is>
@@ -20537,7 +20537,7 @@
         <v>45091</v>
       </c>
       <c r="C345" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D345" t="inlineStr">
         <is>
@@ -20594,7 +20594,7 @@
         <v>45091</v>
       </c>
       <c r="C346" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D346" t="inlineStr">
         <is>
@@ -20651,7 +20651,7 @@
         <v>45092</v>
       </c>
       <c r="C347" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D347" t="inlineStr">
         <is>
@@ -20708,7 +20708,7 @@
         <v>45093</v>
       </c>
       <c r="C348" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D348" t="inlineStr">
         <is>
@@ -20765,7 +20765,7 @@
         <v>45097</v>
       </c>
       <c r="C349" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D349" t="inlineStr">
         <is>
@@ -20822,7 +20822,7 @@
         <v>45103</v>
       </c>
       <c r="C350" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D350" t="inlineStr">
         <is>
@@ -20879,7 +20879,7 @@
         <v>45105</v>
       </c>
       <c r="C351" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D351" t="inlineStr">
         <is>
@@ -20936,7 +20936,7 @@
         <v>45107</v>
       </c>
       <c r="C352" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D352" t="inlineStr">
         <is>
@@ -20993,7 +20993,7 @@
         <v>45112</v>
       </c>
       <c r="C353" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D353" t="inlineStr">
         <is>
@@ -21050,7 +21050,7 @@
         <v>45116</v>
       </c>
       <c r="C354" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D354" t="inlineStr">
         <is>
@@ -21107,7 +21107,7 @@
         <v>45141</v>
       </c>
       <c r="C355" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D355" t="inlineStr">
         <is>
@@ -21164,7 +21164,7 @@
         <v>45142</v>
       </c>
       <c r="C356" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D356" t="inlineStr">
         <is>
@@ -21221,7 +21221,7 @@
         <v>45146</v>
       </c>
       <c r="C357" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D357" t="inlineStr">
         <is>
@@ -21278,7 +21278,7 @@
         <v>45148</v>
       </c>
       <c r="C358" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D358" t="inlineStr">
         <is>
@@ -21335,7 +21335,7 @@
         <v>45148</v>
       </c>
       <c r="C359" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D359" t="inlineStr">
         <is>
@@ -21392,7 +21392,7 @@
         <v>45154</v>
       </c>
       <c r="C360" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D360" t="inlineStr">
         <is>

--- a/Översikt FALKÖPING.xlsx
+++ b/Översikt FALKÖPING.xlsx
@@ -572,7 +572,7 @@
         <v>44950</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -666,7 +666,7 @@
         <v>44890</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -753,7 +753,7 @@
         <v>44418</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -839,7 +839,7 @@
         <v>44748</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -925,7 +925,7 @@
         <v>43349</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1010,7 +1010,7 @@
         <v>43451</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1095,7 +1095,7 @@
         <v>43549</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1180,7 +1180,7 @@
         <v>44349</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1265,7 +1265,7 @@
         <v>44427</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1350,7 +1350,7 @@
         <v>44474</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1435,7 +1435,7 @@
         <v>44805</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1520,7 +1520,7 @@
         <v>44906</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1605,7 +1605,7 @@
         <v>43325</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1662,7 +1662,7 @@
         <v>43340</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1719,7 +1719,7 @@
         <v>43347</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1776,7 +1776,7 @@
         <v>43362</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1833,7 +1833,7 @@
         <v>43362</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1890,7 +1890,7 @@
         <v>43362</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1947,7 +1947,7 @@
         <v>43368</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2004,7 +2004,7 @@
         <v>43368</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2061,7 +2061,7 @@
         <v>43368</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2118,7 +2118,7 @@
         <v>43368</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2175,7 +2175,7 @@
         <v>43368</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2232,7 +2232,7 @@
         <v>43368</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2289,7 +2289,7 @@
         <v>43370</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2346,7 +2346,7 @@
         <v>43370</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2403,7 +2403,7 @@
         <v>43392</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2460,7 +2460,7 @@
         <v>43405</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2517,7 +2517,7 @@
         <v>43412</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2574,7 +2574,7 @@
         <v>43423</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2631,7 +2631,7 @@
         <v>43424</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2688,7 +2688,7 @@
         <v>43424</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2745,7 +2745,7 @@
         <v>43424</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2802,7 +2802,7 @@
         <v>43425</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2859,7 +2859,7 @@
         <v>43425</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -2916,7 +2916,7 @@
         <v>43426</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -2973,7 +2973,7 @@
         <v>43426</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3030,7 +3030,7 @@
         <v>43427</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3087,7 +3087,7 @@
         <v>43430</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3144,7 +3144,7 @@
         <v>43431</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3201,7 +3201,7 @@
         <v>43439</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3258,7 +3258,7 @@
         <v>43444</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3315,7 +3315,7 @@
         <v>43444</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3372,7 +3372,7 @@
         <v>43446</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3429,7 +3429,7 @@
         <v>43446</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3486,7 +3486,7 @@
         <v>43446</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3543,7 +3543,7 @@
         <v>43446</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3600,7 +3600,7 @@
         <v>43447</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3662,7 +3662,7 @@
         <v>43447</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3719,7 +3719,7 @@
         <v>43451</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3776,7 +3776,7 @@
         <v>43452</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3833,7 +3833,7 @@
         <v>43452</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -3890,7 +3890,7 @@
         <v>43452</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -3947,7 +3947,7 @@
         <v>43453</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4004,7 +4004,7 @@
         <v>43453</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4061,7 +4061,7 @@
         <v>43469</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4118,7 +4118,7 @@
         <v>43473</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4175,7 +4175,7 @@
         <v>43473</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4232,7 +4232,7 @@
         <v>43475</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4289,7 +4289,7 @@
         <v>43476</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4346,7 +4346,7 @@
         <v>43479</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4403,7 +4403,7 @@
         <v>43479</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4460,7 +4460,7 @@
         <v>43486</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4517,7 +4517,7 @@
         <v>43490</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4574,7 +4574,7 @@
         <v>43490</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4631,7 +4631,7 @@
         <v>43500</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4688,7 +4688,7 @@
         <v>43500</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4745,7 +4745,7 @@
         <v>43502</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -4802,7 +4802,7 @@
         <v>43502</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -4859,7 +4859,7 @@
         <v>43509</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -4916,7 +4916,7 @@
         <v>43509</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -4973,7 +4973,7 @@
         <v>43514</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5030,7 +5030,7 @@
         <v>43518</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5087,7 +5087,7 @@
         <v>43542</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5144,7 +5144,7 @@
         <v>43542</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5201,7 +5201,7 @@
         <v>43542</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5258,7 +5258,7 @@
         <v>43542</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5315,7 +5315,7 @@
         <v>43543</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5372,7 +5372,7 @@
         <v>43578</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5429,7 +5429,7 @@
         <v>43592</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5486,7 +5486,7 @@
         <v>43595</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5543,7 +5543,7 @@
         <v>43595</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5600,7 +5600,7 @@
         <v>43604</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5657,7 +5657,7 @@
         <v>43604</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5714,7 +5714,7 @@
         <v>43605</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -5776,7 +5776,7 @@
         <v>43607</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -5833,7 +5833,7 @@
         <v>43609</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -5890,7 +5890,7 @@
         <v>43612</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -5947,7 +5947,7 @@
         <v>43614</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6004,7 +6004,7 @@
         <v>43619</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6061,7 +6061,7 @@
         <v>43628</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6118,7 +6118,7 @@
         <v>43640</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6175,7 +6175,7 @@
         <v>43643</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6232,7 +6232,7 @@
         <v>43651</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6289,7 +6289,7 @@
         <v>43657</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6346,7 +6346,7 @@
         <v>43663</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6403,7 +6403,7 @@
         <v>43671</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6460,7 +6460,7 @@
         <v>43685</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6517,7 +6517,7 @@
         <v>43685</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6574,7 +6574,7 @@
         <v>43699</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6631,7 +6631,7 @@
         <v>43699</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -6688,7 +6688,7 @@
         <v>43700</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -6745,7 +6745,7 @@
         <v>43700</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -6802,7 +6802,7 @@
         <v>43700</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -6859,7 +6859,7 @@
         <v>43700</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -6916,7 +6916,7 @@
         <v>43700</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -6973,7 +6973,7 @@
         <v>43700</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7030,7 +7030,7 @@
         <v>43707</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7087,7 +7087,7 @@
         <v>43711</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7144,7 +7144,7 @@
         <v>43731</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7201,7 +7201,7 @@
         <v>43762</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7258,7 +7258,7 @@
         <v>43762</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7315,7 +7315,7 @@
         <v>43762</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7372,7 +7372,7 @@
         <v>43762</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7429,7 +7429,7 @@
         <v>43774</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7486,7 +7486,7 @@
         <v>43782</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7543,7 +7543,7 @@
         <v>43783</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -7605,7 +7605,7 @@
         <v>43788</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -7662,7 +7662,7 @@
         <v>43790</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -7719,7 +7719,7 @@
         <v>43790</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -7776,7 +7776,7 @@
         <v>43791</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -7833,7 +7833,7 @@
         <v>43798</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -7890,7 +7890,7 @@
         <v>43798</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -7947,7 +7947,7 @@
         <v>43803</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8004,7 +8004,7 @@
         <v>43803</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8061,7 +8061,7 @@
         <v>43812</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8118,7 +8118,7 @@
         <v>43826</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8175,7 +8175,7 @@
         <v>43826</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8232,7 +8232,7 @@
         <v>43839</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8289,7 +8289,7 @@
         <v>43850</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8346,7 +8346,7 @@
         <v>43850</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8403,7 +8403,7 @@
         <v>43852</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8460,7 +8460,7 @@
         <v>43852</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -8517,7 +8517,7 @@
         <v>43852</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -8574,7 +8574,7 @@
         <v>43852</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -8631,7 +8631,7 @@
         <v>43852</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -8688,7 +8688,7 @@
         <v>43852</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -8745,7 +8745,7 @@
         <v>43852</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -8802,7 +8802,7 @@
         <v>43852</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -8859,7 +8859,7 @@
         <v>43852</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -8916,7 +8916,7 @@
         <v>43853</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -8978,7 +8978,7 @@
         <v>43853</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -9040,7 +9040,7 @@
         <v>43858</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9097,7 +9097,7 @@
         <v>43866</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9159,7 +9159,7 @@
         <v>43868</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9216,7 +9216,7 @@
         <v>43868</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9273,7 +9273,7 @@
         <v>43868</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9330,7 +9330,7 @@
         <v>43873</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9387,7 +9387,7 @@
         <v>43873</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -9444,7 +9444,7 @@
         <v>43874</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -9501,7 +9501,7 @@
         <v>43878</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -9558,7 +9558,7 @@
         <v>43889</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -9615,7 +9615,7 @@
         <v>43890</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -9672,7 +9672,7 @@
         <v>43894</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -9729,7 +9729,7 @@
         <v>43907</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -9786,7 +9786,7 @@
         <v>43907</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -9843,7 +9843,7 @@
         <v>43907</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -9900,7 +9900,7 @@
         <v>43907</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -9957,7 +9957,7 @@
         <v>43908</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -10014,7 +10014,7 @@
         <v>43908</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -10076,7 +10076,7 @@
         <v>43908</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -10133,7 +10133,7 @@
         <v>43919</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -10190,7 +10190,7 @@
         <v>43921</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -10247,7 +10247,7 @@
         <v>43921</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -10304,7 +10304,7 @@
         <v>43989</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -10361,7 +10361,7 @@
         <v>43990</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -10418,7 +10418,7 @@
         <v>43992</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -10475,7 +10475,7 @@
         <v>44000</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -10532,7 +10532,7 @@
         <v>44012</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -10589,7 +10589,7 @@
         <v>44020</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -10646,7 +10646,7 @@
         <v>44024</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -10703,7 +10703,7 @@
         <v>44071</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -10760,7 +10760,7 @@
         <v>44089</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -10817,7 +10817,7 @@
         <v>44089</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -10874,7 +10874,7 @@
         <v>44089</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -10931,7 +10931,7 @@
         <v>44089</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -10988,7 +10988,7 @@
         <v>44105</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -11045,7 +11045,7 @@
         <v>44106</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -11102,7 +11102,7 @@
         <v>44109</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -11159,7 +11159,7 @@
         <v>44109</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -11216,7 +11216,7 @@
         <v>44117</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -11273,7 +11273,7 @@
         <v>44120</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -11330,7 +11330,7 @@
         <v>44125</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -11387,7 +11387,7 @@
         <v>44126</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -11444,7 +11444,7 @@
         <v>44131</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -11501,7 +11501,7 @@
         <v>44131</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -11558,7 +11558,7 @@
         <v>44142</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -11615,7 +11615,7 @@
         <v>44142</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -11672,7 +11672,7 @@
         <v>44146</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -11729,7 +11729,7 @@
         <v>44146</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -11786,7 +11786,7 @@
         <v>44153</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -11843,7 +11843,7 @@
         <v>44155</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -11900,7 +11900,7 @@
         <v>44157</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -11957,7 +11957,7 @@
         <v>44157</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -12014,7 +12014,7 @@
         <v>44157</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -12071,7 +12071,7 @@
         <v>44162</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -12128,7 +12128,7 @@
         <v>44162</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -12185,7 +12185,7 @@
         <v>44165</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -12242,7 +12242,7 @@
         <v>44181</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -12299,7 +12299,7 @@
         <v>44206</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -12356,7 +12356,7 @@
         <v>44209</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -12413,7 +12413,7 @@
         <v>44215</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -12470,7 +12470,7 @@
         <v>44215</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -12527,7 +12527,7 @@
         <v>44215</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -12584,7 +12584,7 @@
         <v>44220</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -12641,7 +12641,7 @@
         <v>44220</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -12698,7 +12698,7 @@
         <v>44228</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -12755,7 +12755,7 @@
         <v>44228</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -12812,7 +12812,7 @@
         <v>44230</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -12869,7 +12869,7 @@
         <v>44252</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -12926,7 +12926,7 @@
         <v>44258</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -12988,7 +12988,7 @@
         <v>44263</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -13045,7 +13045,7 @@
         <v>44265</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -13102,7 +13102,7 @@
         <v>44266</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -13159,7 +13159,7 @@
         <v>44270</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -13216,7 +13216,7 @@
         <v>44293</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -13273,7 +13273,7 @@
         <v>44299</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -13330,7 +13330,7 @@
         <v>44300</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -13387,7 +13387,7 @@
         <v>44312</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -13444,7 +13444,7 @@
         <v>44322</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -13501,7 +13501,7 @@
         <v>44332</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -13558,7 +13558,7 @@
         <v>44334</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -13615,7 +13615,7 @@
         <v>44350</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -13672,7 +13672,7 @@
         <v>44350</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -13729,7 +13729,7 @@
         <v>44351</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -13786,7 +13786,7 @@
         <v>44360</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -13843,7 +13843,7 @@
         <v>44361</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -13900,7 +13900,7 @@
         <v>44368</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -13957,7 +13957,7 @@
         <v>44418</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -14014,7 +14014,7 @@
         <v>44420</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -14071,7 +14071,7 @@
         <v>44428</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -14128,7 +14128,7 @@
         <v>44428</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -14185,7 +14185,7 @@
         <v>44429</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -14242,7 +14242,7 @@
         <v>44429</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -14299,7 +14299,7 @@
         <v>44433</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -14356,7 +14356,7 @@
         <v>44433</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -14413,7 +14413,7 @@
         <v>44434</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -14470,7 +14470,7 @@
         <v>44447</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -14527,7 +14527,7 @@
         <v>44454</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -14584,7 +14584,7 @@
         <v>44466</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -14641,7 +14641,7 @@
         <v>44469</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -14698,7 +14698,7 @@
         <v>44470</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -14755,7 +14755,7 @@
         <v>44474</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -14812,7 +14812,7 @@
         <v>44475</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -14869,7 +14869,7 @@
         <v>44489</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -14926,7 +14926,7 @@
         <v>44497</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -14983,7 +14983,7 @@
         <v>44503</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -15045,7 +15045,7 @@
         <v>44512</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -15102,7 +15102,7 @@
         <v>44529</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -15159,7 +15159,7 @@
         <v>44529</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -15216,7 +15216,7 @@
         <v>44529</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -15273,7 +15273,7 @@
         <v>44543</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -15330,7 +15330,7 @@
         <v>44572</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -15387,7 +15387,7 @@
         <v>44573</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -15449,7 +15449,7 @@
         <v>44578</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -15506,7 +15506,7 @@
         <v>44594</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -15563,7 +15563,7 @@
         <v>44594</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -15620,7 +15620,7 @@
         <v>44601</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -15677,7 +15677,7 @@
         <v>44602</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -15734,7 +15734,7 @@
         <v>44603</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -15791,7 +15791,7 @@
         <v>44616</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -15848,7 +15848,7 @@
         <v>44622</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -15905,7 +15905,7 @@
         <v>44623</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -15962,7 +15962,7 @@
         <v>44627</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -16024,7 +16024,7 @@
         <v>44629</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -16081,7 +16081,7 @@
         <v>44630</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -16138,7 +16138,7 @@
         <v>44630</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -16195,7 +16195,7 @@
         <v>44636</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -16252,7 +16252,7 @@
         <v>44636</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -16309,7 +16309,7 @@
         <v>44637</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -16366,7 +16366,7 @@
         <v>44663</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -16423,7 +16423,7 @@
         <v>44672</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -16480,7 +16480,7 @@
         <v>44707</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -16537,7 +16537,7 @@
         <v>44711</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -16594,7 +16594,7 @@
         <v>44713</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -16651,7 +16651,7 @@
         <v>44722</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -16708,7 +16708,7 @@
         <v>44726</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -16765,7 +16765,7 @@
         <v>44729</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -16822,7 +16822,7 @@
         <v>44739</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -16879,7 +16879,7 @@
         <v>44742</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -16936,7 +16936,7 @@
         <v>44742</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -16993,7 +16993,7 @@
         <v>44802</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -17050,7 +17050,7 @@
         <v>44802</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -17107,7 +17107,7 @@
         <v>44803</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -17164,7 +17164,7 @@
         <v>44805</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -17221,7 +17221,7 @@
         <v>44819</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -17278,7 +17278,7 @@
         <v>44823</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -17335,7 +17335,7 @@
         <v>44823</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -17392,7 +17392,7 @@
         <v>44838</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -17449,7 +17449,7 @@
         <v>44838</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -17506,7 +17506,7 @@
         <v>44861</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -17563,7 +17563,7 @@
         <v>44869</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -17620,7 +17620,7 @@
         <v>44880</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -17677,7 +17677,7 @@
         <v>44880</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -17734,7 +17734,7 @@
         <v>44882</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -17791,7 +17791,7 @@
         <v>44895</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -17848,7 +17848,7 @@
         <v>44928</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -17905,7 +17905,7 @@
         <v>44928</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -17962,7 +17962,7 @@
         <v>44945</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -18019,7 +18019,7 @@
         <v>44952</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -18076,7 +18076,7 @@
         <v>44952</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -18133,7 +18133,7 @@
         <v>44952</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -18190,7 +18190,7 @@
         <v>44952</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -18247,7 +18247,7 @@
         <v>44957</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -18304,7 +18304,7 @@
         <v>44957</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -18361,7 +18361,7 @@
         <v>44960</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -18418,7 +18418,7 @@
         <v>44974</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -18475,7 +18475,7 @@
         <v>44979</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -18537,7 +18537,7 @@
         <v>44985</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -18594,7 +18594,7 @@
         <v>44993</v>
       </c>
       <c r="C311" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -18651,7 +18651,7 @@
         <v>45014</v>
       </c>
       <c r="C312" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -18708,7 +18708,7 @@
         <v>45014</v>
       </c>
       <c r="C313" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -18765,7 +18765,7 @@
         <v>45014</v>
       </c>
       <c r="C314" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -18822,7 +18822,7 @@
         <v>45014</v>
       </c>
       <c r="C315" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -18879,7 +18879,7 @@
         <v>45014</v>
       </c>
       <c r="C316" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -18936,7 +18936,7 @@
         <v>45022</v>
       </c>
       <c r="C317" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -18993,7 +18993,7 @@
         <v>45022</v>
       </c>
       <c r="C318" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -19050,7 +19050,7 @@
         <v>45027</v>
       </c>
       <c r="C319" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -19107,7 +19107,7 @@
         <v>45033</v>
       </c>
       <c r="C320" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -19164,7 +19164,7 @@
         <v>45033</v>
       </c>
       <c r="C321" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
@@ -19221,7 +19221,7 @@
         <v>45033</v>
       </c>
       <c r="C322" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
@@ -19278,7 +19278,7 @@
         <v>45036</v>
       </c>
       <c r="C323" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
@@ -19335,7 +19335,7 @@
         <v>45050</v>
       </c>
       <c r="C324" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D324" t="inlineStr">
         <is>
@@ -19392,7 +19392,7 @@
         <v>45050</v>
       </c>
       <c r="C325" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D325" t="inlineStr">
         <is>
@@ -19449,7 +19449,7 @@
         <v>45065</v>
       </c>
       <c r="C326" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D326" t="inlineStr">
         <is>
@@ -19506,7 +19506,7 @@
         <v>45072</v>
       </c>
       <c r="C327" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D327" t="inlineStr">
         <is>
@@ -19563,7 +19563,7 @@
         <v>45073</v>
       </c>
       <c r="C328" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D328" t="inlineStr">
         <is>
@@ -19620,7 +19620,7 @@
         <v>45076</v>
       </c>
       <c r="C329" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D329" t="inlineStr">
         <is>
@@ -19677,7 +19677,7 @@
         <v>45076</v>
       </c>
       <c r="C330" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D330" t="inlineStr">
         <is>
@@ -19734,7 +19734,7 @@
         <v>45076</v>
       </c>
       <c r="C331" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D331" t="inlineStr">
         <is>
@@ -19791,7 +19791,7 @@
         <v>45076</v>
       </c>
       <c r="C332" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D332" t="inlineStr">
         <is>
@@ -19848,7 +19848,7 @@
         <v>45076</v>
       </c>
       <c r="C333" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D333" t="inlineStr">
         <is>
@@ -19905,7 +19905,7 @@
         <v>45078</v>
       </c>
       <c r="C334" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D334" t="inlineStr">
         <is>
@@ -19962,7 +19962,7 @@
         <v>45082</v>
       </c>
       <c r="C335" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D335" t="inlineStr">
         <is>
@@ -20019,7 +20019,7 @@
         <v>45082</v>
       </c>
       <c r="C336" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D336" t="inlineStr">
         <is>
@@ -20081,7 +20081,7 @@
         <v>45084</v>
       </c>
       <c r="C337" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D337" t="inlineStr">
         <is>
@@ -20138,7 +20138,7 @@
         <v>45084</v>
       </c>
       <c r="C338" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D338" t="inlineStr">
         <is>
@@ -20195,7 +20195,7 @@
         <v>45085</v>
       </c>
       <c r="C339" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D339" t="inlineStr">
         <is>
@@ -20252,7 +20252,7 @@
         <v>45085</v>
       </c>
       <c r="C340" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D340" t="inlineStr">
         <is>
@@ -20309,7 +20309,7 @@
         <v>45089</v>
       </c>
       <c r="C341" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D341" t="inlineStr">
         <is>
@@ -20366,7 +20366,7 @@
         <v>45089</v>
       </c>
       <c r="C342" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D342" t="inlineStr">
         <is>
@@ -20423,7 +20423,7 @@
         <v>45090</v>
       </c>
       <c r="C343" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D343" t="inlineStr">
         <is>
@@ -20480,7 +20480,7 @@
         <v>45091</v>
       </c>
       <c r="C344" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D344" t="inlineStr">
         <is>
@@ -20537,7 +20537,7 @@
         <v>45091</v>
       </c>
       <c r="C345" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D345" t="inlineStr">
         <is>
@@ -20594,7 +20594,7 @@
         <v>45091</v>
       </c>
       <c r="C346" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D346" t="inlineStr">
         <is>
@@ -20651,7 +20651,7 @@
         <v>45092</v>
       </c>
       <c r="C347" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D347" t="inlineStr">
         <is>
@@ -20708,7 +20708,7 @@
         <v>45093</v>
       </c>
       <c r="C348" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D348" t="inlineStr">
         <is>
@@ -20765,7 +20765,7 @@
         <v>45097</v>
       </c>
       <c r="C349" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D349" t="inlineStr">
         <is>
@@ -20822,7 +20822,7 @@
         <v>45103</v>
       </c>
       <c r="C350" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D350" t="inlineStr">
         <is>
@@ -20879,7 +20879,7 @@
         <v>45105</v>
       </c>
       <c r="C351" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D351" t="inlineStr">
         <is>
@@ -20936,7 +20936,7 @@
         <v>45107</v>
       </c>
       <c r="C352" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D352" t="inlineStr">
         <is>
@@ -20993,7 +20993,7 @@
         <v>45112</v>
       </c>
       <c r="C353" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D353" t="inlineStr">
         <is>
@@ -21050,7 +21050,7 @@
         <v>45116</v>
       </c>
       <c r="C354" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D354" t="inlineStr">
         <is>
@@ -21107,7 +21107,7 @@
         <v>45141</v>
       </c>
       <c r="C355" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D355" t="inlineStr">
         <is>
@@ -21164,7 +21164,7 @@
         <v>45142</v>
       </c>
       <c r="C356" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D356" t="inlineStr">
         <is>
@@ -21221,7 +21221,7 @@
         <v>45146</v>
       </c>
       <c r="C357" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D357" t="inlineStr">
         <is>
@@ -21278,7 +21278,7 @@
         <v>45148</v>
       </c>
       <c r="C358" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D358" t="inlineStr">
         <is>
@@ -21335,7 +21335,7 @@
         <v>45148</v>
       </c>
       <c r="C359" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D359" t="inlineStr">
         <is>
@@ -21392,7 +21392,7 @@
         <v>45154</v>
       </c>
       <c r="C360" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D360" t="inlineStr">
         <is>

--- a/Översikt FALKÖPING.xlsx
+++ b/Översikt FALKÖPING.xlsx
@@ -572,7 +572,7 @@
         <v>44950</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -666,7 +666,7 @@
         <v>44890</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -753,7 +753,7 @@
         <v>44418</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -839,7 +839,7 @@
         <v>44748</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -925,7 +925,7 @@
         <v>43349</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1010,7 +1010,7 @@
         <v>43451</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1095,7 +1095,7 @@
         <v>43549</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1180,7 +1180,7 @@
         <v>44349</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1265,7 +1265,7 @@
         <v>44427</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1350,7 +1350,7 @@
         <v>44474</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1435,7 +1435,7 @@
         <v>44805</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1520,7 +1520,7 @@
         <v>44906</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1605,7 +1605,7 @@
         <v>43325</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1662,7 +1662,7 @@
         <v>43340</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1719,7 +1719,7 @@
         <v>43347</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1776,7 +1776,7 @@
         <v>43362</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1833,7 +1833,7 @@
         <v>43362</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1890,7 +1890,7 @@
         <v>43362</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1947,7 +1947,7 @@
         <v>43368</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2004,7 +2004,7 @@
         <v>43368</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2061,7 +2061,7 @@
         <v>43368</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2118,7 +2118,7 @@
         <v>43368</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2175,7 +2175,7 @@
         <v>43368</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2232,7 +2232,7 @@
         <v>43368</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2289,7 +2289,7 @@
         <v>43370</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2346,7 +2346,7 @@
         <v>43370</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2403,7 +2403,7 @@
         <v>43392</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2460,7 +2460,7 @@
         <v>43405</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2517,7 +2517,7 @@
         <v>43412</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2574,7 +2574,7 @@
         <v>43423</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2631,7 +2631,7 @@
         <v>43424</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2688,7 +2688,7 @@
         <v>43424</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2745,7 +2745,7 @@
         <v>43424</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2802,7 +2802,7 @@
         <v>43425</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2859,7 +2859,7 @@
         <v>43425</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -2916,7 +2916,7 @@
         <v>43426</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -2973,7 +2973,7 @@
         <v>43426</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3030,7 +3030,7 @@
         <v>43427</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3087,7 +3087,7 @@
         <v>43430</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3144,7 +3144,7 @@
         <v>43431</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3201,7 +3201,7 @@
         <v>43439</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3258,7 +3258,7 @@
         <v>43444</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3315,7 +3315,7 @@
         <v>43444</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3372,7 +3372,7 @@
         <v>43446</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3429,7 +3429,7 @@
         <v>43446</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3486,7 +3486,7 @@
         <v>43446</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3543,7 +3543,7 @@
         <v>43446</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3600,7 +3600,7 @@
         <v>43447</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3662,7 +3662,7 @@
         <v>43447</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3719,7 +3719,7 @@
         <v>43451</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3776,7 +3776,7 @@
         <v>43452</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3833,7 +3833,7 @@
         <v>43452</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -3890,7 +3890,7 @@
         <v>43452</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -3947,7 +3947,7 @@
         <v>43453</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4004,7 +4004,7 @@
         <v>43453</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4061,7 +4061,7 @@
         <v>43469</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4118,7 +4118,7 @@
         <v>43473</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4175,7 +4175,7 @@
         <v>43473</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4232,7 +4232,7 @@
         <v>43475</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4289,7 +4289,7 @@
         <v>43476</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4346,7 +4346,7 @@
         <v>43479</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4403,7 +4403,7 @@
         <v>43479</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4460,7 +4460,7 @@
         <v>43486</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4517,7 +4517,7 @@
         <v>43490</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4574,7 +4574,7 @@
         <v>43490</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4631,7 +4631,7 @@
         <v>43500</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4688,7 +4688,7 @@
         <v>43500</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4745,7 +4745,7 @@
         <v>43502</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -4802,7 +4802,7 @@
         <v>43502</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -4859,7 +4859,7 @@
         <v>43509</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -4916,7 +4916,7 @@
         <v>43509</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -4973,7 +4973,7 @@
         <v>43514</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5030,7 +5030,7 @@
         <v>43518</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5087,7 +5087,7 @@
         <v>43542</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5144,7 +5144,7 @@
         <v>43542</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5201,7 +5201,7 @@
         <v>43542</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5258,7 +5258,7 @@
         <v>43542</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5315,7 +5315,7 @@
         <v>43543</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5372,7 +5372,7 @@
         <v>43578</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5429,7 +5429,7 @@
         <v>43592</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5486,7 +5486,7 @@
         <v>43595</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5543,7 +5543,7 @@
         <v>43595</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5600,7 +5600,7 @@
         <v>43604</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5657,7 +5657,7 @@
         <v>43604</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5714,7 +5714,7 @@
         <v>43605</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -5776,7 +5776,7 @@
         <v>43607</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -5833,7 +5833,7 @@
         <v>43609</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -5890,7 +5890,7 @@
         <v>43612</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -5947,7 +5947,7 @@
         <v>43614</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6004,7 +6004,7 @@
         <v>43619</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6061,7 +6061,7 @@
         <v>43628</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6118,7 +6118,7 @@
         <v>43640</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6175,7 +6175,7 @@
         <v>43643</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6232,7 +6232,7 @@
         <v>43651</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6289,7 +6289,7 @@
         <v>43657</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6346,7 +6346,7 @@
         <v>43663</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6403,7 +6403,7 @@
         <v>43671</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6460,7 +6460,7 @@
         <v>43685</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6517,7 +6517,7 @@
         <v>43685</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6574,7 +6574,7 @@
         <v>43699</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6631,7 +6631,7 @@
         <v>43699</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -6688,7 +6688,7 @@
         <v>43700</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -6745,7 +6745,7 @@
         <v>43700</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -6802,7 +6802,7 @@
         <v>43700</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -6859,7 +6859,7 @@
         <v>43700</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -6916,7 +6916,7 @@
         <v>43700</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -6973,7 +6973,7 @@
         <v>43700</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7030,7 +7030,7 @@
         <v>43707</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7087,7 +7087,7 @@
         <v>43711</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7144,7 +7144,7 @@
         <v>43731</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7201,7 +7201,7 @@
         <v>43762</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7258,7 +7258,7 @@
         <v>43762</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7315,7 +7315,7 @@
         <v>43762</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7372,7 +7372,7 @@
         <v>43762</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7429,7 +7429,7 @@
         <v>43774</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7486,7 +7486,7 @@
         <v>43782</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7543,7 +7543,7 @@
         <v>43783</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -7605,7 +7605,7 @@
         <v>43788</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -7662,7 +7662,7 @@
         <v>43790</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -7719,7 +7719,7 @@
         <v>43790</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -7776,7 +7776,7 @@
         <v>43791</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -7833,7 +7833,7 @@
         <v>43798</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -7890,7 +7890,7 @@
         <v>43798</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -7947,7 +7947,7 @@
         <v>43803</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8004,7 +8004,7 @@
         <v>43803</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8061,7 +8061,7 @@
         <v>43812</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8118,7 +8118,7 @@
         <v>43826</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8175,7 +8175,7 @@
         <v>43826</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8232,7 +8232,7 @@
         <v>43839</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8289,7 +8289,7 @@
         <v>43850</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8346,7 +8346,7 @@
         <v>43850</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8403,7 +8403,7 @@
         <v>43852</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8460,7 +8460,7 @@
         <v>43852</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -8517,7 +8517,7 @@
         <v>43852</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -8574,7 +8574,7 @@
         <v>43852</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -8631,7 +8631,7 @@
         <v>43852</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -8688,7 +8688,7 @@
         <v>43852</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -8745,7 +8745,7 @@
         <v>43852</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -8802,7 +8802,7 @@
         <v>43852</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -8859,7 +8859,7 @@
         <v>43852</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -8916,7 +8916,7 @@
         <v>43853</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -8978,7 +8978,7 @@
         <v>43853</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -9040,7 +9040,7 @@
         <v>43858</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9097,7 +9097,7 @@
         <v>43866</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9159,7 +9159,7 @@
         <v>43868</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9216,7 +9216,7 @@
         <v>43868</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9273,7 +9273,7 @@
         <v>43868</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9330,7 +9330,7 @@
         <v>43873</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9387,7 +9387,7 @@
         <v>43873</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -9444,7 +9444,7 @@
         <v>43874</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -9501,7 +9501,7 @@
         <v>43878</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -9558,7 +9558,7 @@
         <v>43889</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -9615,7 +9615,7 @@
         <v>43890</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -9672,7 +9672,7 @@
         <v>43894</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -9729,7 +9729,7 @@
         <v>43907</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -9786,7 +9786,7 @@
         <v>43907</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -9843,7 +9843,7 @@
         <v>43907</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -9900,7 +9900,7 @@
         <v>43907</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -9957,7 +9957,7 @@
         <v>43908</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -10014,7 +10014,7 @@
         <v>43908</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -10076,7 +10076,7 @@
         <v>43908</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -10133,7 +10133,7 @@
         <v>43919</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -10190,7 +10190,7 @@
         <v>43921</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -10247,7 +10247,7 @@
         <v>43921</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -10304,7 +10304,7 @@
         <v>43989</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -10361,7 +10361,7 @@
         <v>43990</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -10418,7 +10418,7 @@
         <v>43992</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -10475,7 +10475,7 @@
         <v>44000</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -10532,7 +10532,7 @@
         <v>44012</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -10589,7 +10589,7 @@
         <v>44020</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -10646,7 +10646,7 @@
         <v>44024</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -10703,7 +10703,7 @@
         <v>44071</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -10760,7 +10760,7 @@
         <v>44089</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -10817,7 +10817,7 @@
         <v>44089</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -10874,7 +10874,7 @@
         <v>44089</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -10931,7 +10931,7 @@
         <v>44089</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -10988,7 +10988,7 @@
         <v>44105</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -11045,7 +11045,7 @@
         <v>44106</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -11102,7 +11102,7 @@
         <v>44109</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -11159,7 +11159,7 @@
         <v>44109</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -11216,7 +11216,7 @@
         <v>44117</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -11273,7 +11273,7 @@
         <v>44120</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -11330,7 +11330,7 @@
         <v>44125</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -11387,7 +11387,7 @@
         <v>44126</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -11444,7 +11444,7 @@
         <v>44131</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -11501,7 +11501,7 @@
         <v>44131</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -11558,7 +11558,7 @@
         <v>44142</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -11615,7 +11615,7 @@
         <v>44142</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -11672,7 +11672,7 @@
         <v>44146</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -11729,7 +11729,7 @@
         <v>44146</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -11786,7 +11786,7 @@
         <v>44153</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -11843,7 +11843,7 @@
         <v>44155</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -11900,7 +11900,7 @@
         <v>44157</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -11957,7 +11957,7 @@
         <v>44157</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -12014,7 +12014,7 @@
         <v>44157</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -12071,7 +12071,7 @@
         <v>44162</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -12128,7 +12128,7 @@
         <v>44162</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -12185,7 +12185,7 @@
         <v>44165</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -12242,7 +12242,7 @@
         <v>44181</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -12299,7 +12299,7 @@
         <v>44206</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -12356,7 +12356,7 @@
         <v>44209</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -12413,7 +12413,7 @@
         <v>44215</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -12470,7 +12470,7 @@
         <v>44215</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -12527,7 +12527,7 @@
         <v>44215</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -12584,7 +12584,7 @@
         <v>44220</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -12641,7 +12641,7 @@
         <v>44220</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -12698,7 +12698,7 @@
         <v>44228</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -12755,7 +12755,7 @@
         <v>44228</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -12812,7 +12812,7 @@
         <v>44230</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -12869,7 +12869,7 @@
         <v>44252</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -12926,7 +12926,7 @@
         <v>44258</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -12988,7 +12988,7 @@
         <v>44263</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -13045,7 +13045,7 @@
         <v>44265</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -13102,7 +13102,7 @@
         <v>44266</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -13159,7 +13159,7 @@
         <v>44270</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -13216,7 +13216,7 @@
         <v>44293</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -13273,7 +13273,7 @@
         <v>44299</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -13330,7 +13330,7 @@
         <v>44300</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -13387,7 +13387,7 @@
         <v>44312</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -13444,7 +13444,7 @@
         <v>44322</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -13501,7 +13501,7 @@
         <v>44332</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -13558,7 +13558,7 @@
         <v>44334</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -13615,7 +13615,7 @@
         <v>44350</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -13672,7 +13672,7 @@
         <v>44350</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -13729,7 +13729,7 @@
         <v>44351</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -13786,7 +13786,7 @@
         <v>44360</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -13843,7 +13843,7 @@
         <v>44361</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -13900,7 +13900,7 @@
         <v>44368</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -13957,7 +13957,7 @@
         <v>44418</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -14014,7 +14014,7 @@
         <v>44420</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -14071,7 +14071,7 @@
         <v>44428</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -14128,7 +14128,7 @@
         <v>44428</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -14185,7 +14185,7 @@
         <v>44429</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -14242,7 +14242,7 @@
         <v>44429</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -14299,7 +14299,7 @@
         <v>44433</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -14356,7 +14356,7 @@
         <v>44433</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -14413,7 +14413,7 @@
         <v>44434</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -14470,7 +14470,7 @@
         <v>44447</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -14527,7 +14527,7 @@
         <v>44454</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -14584,7 +14584,7 @@
         <v>44466</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -14641,7 +14641,7 @@
         <v>44469</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -14698,7 +14698,7 @@
         <v>44470</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -14755,7 +14755,7 @@
         <v>44474</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -14812,7 +14812,7 @@
         <v>44475</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -14869,7 +14869,7 @@
         <v>44489</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -14926,7 +14926,7 @@
         <v>44497</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -14983,7 +14983,7 @@
         <v>44503</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -15045,7 +15045,7 @@
         <v>44512</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -15102,7 +15102,7 @@
         <v>44529</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -15159,7 +15159,7 @@
         <v>44529</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -15216,7 +15216,7 @@
         <v>44529</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -15273,7 +15273,7 @@
         <v>44543</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -15330,7 +15330,7 @@
         <v>44572</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -15387,7 +15387,7 @@
         <v>44573</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -15449,7 +15449,7 @@
         <v>44578</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -15506,7 +15506,7 @@
         <v>44594</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -15563,7 +15563,7 @@
         <v>44594</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -15620,7 +15620,7 @@
         <v>44601</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -15677,7 +15677,7 @@
         <v>44602</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -15734,7 +15734,7 @@
         <v>44603</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -15791,7 +15791,7 @@
         <v>44616</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -15848,7 +15848,7 @@
         <v>44622</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -15905,7 +15905,7 @@
         <v>44623</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -15962,7 +15962,7 @@
         <v>44627</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -16024,7 +16024,7 @@
         <v>44629</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -16081,7 +16081,7 @@
         <v>44630</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -16138,7 +16138,7 @@
         <v>44630</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -16195,7 +16195,7 @@
         <v>44636</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -16252,7 +16252,7 @@
         <v>44636</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -16309,7 +16309,7 @@
         <v>44637</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -16366,7 +16366,7 @@
         <v>44663</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -16423,7 +16423,7 @@
         <v>44672</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -16480,7 +16480,7 @@
         <v>44707</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -16537,7 +16537,7 @@
         <v>44711</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -16594,7 +16594,7 @@
         <v>44713</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -16651,7 +16651,7 @@
         <v>44722</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -16708,7 +16708,7 @@
         <v>44726</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -16765,7 +16765,7 @@
         <v>44729</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -16822,7 +16822,7 @@
         <v>44739</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -16879,7 +16879,7 @@
         <v>44742</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -16936,7 +16936,7 @@
         <v>44742</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -16993,7 +16993,7 @@
         <v>44802</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -17050,7 +17050,7 @@
         <v>44802</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -17107,7 +17107,7 @@
         <v>44803</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -17164,7 +17164,7 @@
         <v>44805</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -17221,7 +17221,7 @@
         <v>44819</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -17278,7 +17278,7 @@
         <v>44823</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -17335,7 +17335,7 @@
         <v>44823</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -17392,7 +17392,7 @@
         <v>44838</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -17449,7 +17449,7 @@
         <v>44838</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -17506,7 +17506,7 @@
         <v>44861</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -17563,7 +17563,7 @@
         <v>44869</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -17620,7 +17620,7 @@
         <v>44880</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -17677,7 +17677,7 @@
         <v>44880</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -17734,7 +17734,7 @@
         <v>44882</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -17791,7 +17791,7 @@
         <v>44895</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -17848,7 +17848,7 @@
         <v>44928</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -17905,7 +17905,7 @@
         <v>44928</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -17962,7 +17962,7 @@
         <v>44945</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -18019,7 +18019,7 @@
         <v>44952</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -18076,7 +18076,7 @@
         <v>44952</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -18133,7 +18133,7 @@
         <v>44952</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -18190,7 +18190,7 @@
         <v>44952</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -18247,7 +18247,7 @@
         <v>44957</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -18304,7 +18304,7 @@
         <v>44957</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -18361,7 +18361,7 @@
         <v>44960</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -18418,7 +18418,7 @@
         <v>44974</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -18475,7 +18475,7 @@
         <v>44979</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -18537,7 +18537,7 @@
         <v>44985</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -18594,7 +18594,7 @@
         <v>44993</v>
       </c>
       <c r="C311" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -18651,7 +18651,7 @@
         <v>45014</v>
       </c>
       <c r="C312" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -18708,7 +18708,7 @@
         <v>45014</v>
       </c>
       <c r="C313" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -18765,7 +18765,7 @@
         <v>45014</v>
       </c>
       <c r="C314" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -18822,7 +18822,7 @@
         <v>45014</v>
       </c>
       <c r="C315" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -18879,7 +18879,7 @@
         <v>45014</v>
       </c>
       <c r="C316" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -18936,7 +18936,7 @@
         <v>45022</v>
       </c>
       <c r="C317" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -18993,7 +18993,7 @@
         <v>45022</v>
       </c>
       <c r="C318" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -19050,7 +19050,7 @@
         <v>45027</v>
       </c>
       <c r="C319" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -19107,7 +19107,7 @@
         <v>45033</v>
       </c>
       <c r="C320" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -19164,7 +19164,7 @@
         <v>45033</v>
       </c>
       <c r="C321" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
@@ -19221,7 +19221,7 @@
         <v>45033</v>
       </c>
       <c r="C322" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
@@ -19278,7 +19278,7 @@
         <v>45036</v>
       </c>
       <c r="C323" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
@@ -19335,7 +19335,7 @@
         <v>45050</v>
       </c>
       <c r="C324" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D324" t="inlineStr">
         <is>
@@ -19392,7 +19392,7 @@
         <v>45050</v>
       </c>
       <c r="C325" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D325" t="inlineStr">
         <is>
@@ -19449,7 +19449,7 @@
         <v>45065</v>
       </c>
       <c r="C326" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D326" t="inlineStr">
         <is>
@@ -19506,7 +19506,7 @@
         <v>45072</v>
       </c>
       <c r="C327" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D327" t="inlineStr">
         <is>
@@ -19563,7 +19563,7 @@
         <v>45073</v>
       </c>
       <c r="C328" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D328" t="inlineStr">
         <is>
@@ -19620,7 +19620,7 @@
         <v>45076</v>
       </c>
       <c r="C329" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D329" t="inlineStr">
         <is>
@@ -19677,7 +19677,7 @@
         <v>45076</v>
       </c>
       <c r="C330" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D330" t="inlineStr">
         <is>
@@ -19734,7 +19734,7 @@
         <v>45076</v>
       </c>
       <c r="C331" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D331" t="inlineStr">
         <is>
@@ -19791,7 +19791,7 @@
         <v>45076</v>
       </c>
       <c r="C332" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D332" t="inlineStr">
         <is>
@@ -19848,7 +19848,7 @@
         <v>45076</v>
       </c>
       <c r="C333" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D333" t="inlineStr">
         <is>
@@ -19905,7 +19905,7 @@
         <v>45078</v>
       </c>
       <c r="C334" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D334" t="inlineStr">
         <is>
@@ -19962,7 +19962,7 @@
         <v>45082</v>
       </c>
       <c r="C335" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D335" t="inlineStr">
         <is>
@@ -20019,7 +20019,7 @@
         <v>45082</v>
       </c>
       <c r="C336" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D336" t="inlineStr">
         <is>
@@ -20081,7 +20081,7 @@
         <v>45084</v>
       </c>
       <c r="C337" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D337" t="inlineStr">
         <is>
@@ -20138,7 +20138,7 @@
         <v>45084</v>
       </c>
       <c r="C338" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D338" t="inlineStr">
         <is>
@@ -20195,7 +20195,7 @@
         <v>45085</v>
       </c>
       <c r="C339" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D339" t="inlineStr">
         <is>
@@ -20252,7 +20252,7 @@
         <v>45085</v>
       </c>
       <c r="C340" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D340" t="inlineStr">
         <is>
@@ -20309,7 +20309,7 @@
         <v>45089</v>
       </c>
       <c r="C341" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D341" t="inlineStr">
         <is>
@@ -20366,7 +20366,7 @@
         <v>45089</v>
       </c>
       <c r="C342" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D342" t="inlineStr">
         <is>
@@ -20423,7 +20423,7 @@
         <v>45090</v>
       </c>
       <c r="C343" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D343" t="inlineStr">
         <is>
@@ -20480,7 +20480,7 @@
         <v>45091</v>
       </c>
       <c r="C344" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D344" t="inlineStr">
         <is>
@@ -20537,7 +20537,7 @@
         <v>45091</v>
       </c>
       <c r="C345" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D345" t="inlineStr">
         <is>
@@ -20594,7 +20594,7 @@
         <v>45091</v>
       </c>
       <c r="C346" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D346" t="inlineStr">
         <is>
@@ -20651,7 +20651,7 @@
         <v>45092</v>
       </c>
       <c r="C347" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D347" t="inlineStr">
         <is>
@@ -20708,7 +20708,7 @@
         <v>45093</v>
       </c>
       <c r="C348" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D348" t="inlineStr">
         <is>
@@ -20765,7 +20765,7 @@
         <v>45097</v>
       </c>
       <c r="C349" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D349" t="inlineStr">
         <is>
@@ -20822,7 +20822,7 @@
         <v>45103</v>
       </c>
       <c r="C350" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D350" t="inlineStr">
         <is>
@@ -20879,7 +20879,7 @@
         <v>45105</v>
       </c>
       <c r="C351" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D351" t="inlineStr">
         <is>
@@ -20936,7 +20936,7 @@
         <v>45107</v>
       </c>
       <c r="C352" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D352" t="inlineStr">
         <is>
@@ -20993,7 +20993,7 @@
         <v>45112</v>
       </c>
       <c r="C353" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D353" t="inlineStr">
         <is>
@@ -21050,7 +21050,7 @@
         <v>45116</v>
       </c>
       <c r="C354" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D354" t="inlineStr">
         <is>
@@ -21107,7 +21107,7 @@
         <v>45141</v>
       </c>
       <c r="C355" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D355" t="inlineStr">
         <is>
@@ -21164,7 +21164,7 @@
         <v>45142</v>
       </c>
       <c r="C356" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D356" t="inlineStr">
         <is>
@@ -21221,7 +21221,7 @@
         <v>45146</v>
       </c>
       <c r="C357" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D357" t="inlineStr">
         <is>
@@ -21278,7 +21278,7 @@
         <v>45148</v>
       </c>
       <c r="C358" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D358" t="inlineStr">
         <is>
@@ -21335,7 +21335,7 @@
         <v>45148</v>
       </c>
       <c r="C359" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D359" t="inlineStr">
         <is>
@@ -21392,7 +21392,7 @@
         <v>45154</v>
       </c>
       <c r="C360" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D360" t="inlineStr">
         <is>

--- a/Översikt FALKÖPING.xlsx
+++ b/Översikt FALKÖPING.xlsx
@@ -572,7 +572,7 @@
         <v>44950</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -666,7 +666,7 @@
         <v>44890</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -753,7 +753,7 @@
         <v>44418</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -839,7 +839,7 @@
         <v>44748</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -925,7 +925,7 @@
         <v>43349</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1010,7 +1010,7 @@
         <v>43451</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1095,7 +1095,7 @@
         <v>43549</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1180,7 +1180,7 @@
         <v>44349</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1265,7 +1265,7 @@
         <v>44427</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1350,7 +1350,7 @@
         <v>44474</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1435,7 +1435,7 @@
         <v>44805</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1520,7 +1520,7 @@
         <v>44906</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1605,7 +1605,7 @@
         <v>43325</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1662,7 +1662,7 @@
         <v>43340</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1719,7 +1719,7 @@
         <v>43347</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1776,7 +1776,7 @@
         <v>43362</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1833,7 +1833,7 @@
         <v>43362</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1890,7 +1890,7 @@
         <v>43362</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1947,7 +1947,7 @@
         <v>43368</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2004,7 +2004,7 @@
         <v>43368</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2061,7 +2061,7 @@
         <v>43368</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2118,7 +2118,7 @@
         <v>43368</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2175,7 +2175,7 @@
         <v>43368</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2232,7 +2232,7 @@
         <v>43368</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2289,7 +2289,7 @@
         <v>43370</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2346,7 +2346,7 @@
         <v>43370</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2403,7 +2403,7 @@
         <v>43392</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2460,7 +2460,7 @@
         <v>43405</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2517,7 +2517,7 @@
         <v>43412</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2574,7 +2574,7 @@
         <v>43423</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2631,7 +2631,7 @@
         <v>43424</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2688,7 +2688,7 @@
         <v>43424</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2745,7 +2745,7 @@
         <v>43424</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2802,7 +2802,7 @@
         <v>43425</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2859,7 +2859,7 @@
         <v>43425</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -2916,7 +2916,7 @@
         <v>43426</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -2973,7 +2973,7 @@
         <v>43426</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3030,7 +3030,7 @@
         <v>43427</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3087,7 +3087,7 @@
         <v>43430</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3144,7 +3144,7 @@
         <v>43431</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3201,7 +3201,7 @@
         <v>43439</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3258,7 +3258,7 @@
         <v>43444</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3315,7 +3315,7 @@
         <v>43444</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3372,7 +3372,7 @@
         <v>43446</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3429,7 +3429,7 @@
         <v>43446</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3486,7 +3486,7 @@
         <v>43446</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3543,7 +3543,7 @@
         <v>43446</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3600,7 +3600,7 @@
         <v>43447</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3662,7 +3662,7 @@
         <v>43447</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3719,7 +3719,7 @@
         <v>43451</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3776,7 +3776,7 @@
         <v>43452</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3833,7 +3833,7 @@
         <v>43452</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -3890,7 +3890,7 @@
         <v>43452</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -3947,7 +3947,7 @@
         <v>43453</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4004,7 +4004,7 @@
         <v>43453</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4061,7 +4061,7 @@
         <v>43469</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4118,7 +4118,7 @@
         <v>43473</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4175,7 +4175,7 @@
         <v>43473</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4232,7 +4232,7 @@
         <v>43475</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4289,7 +4289,7 @@
         <v>43476</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4346,7 +4346,7 @@
         <v>43479</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4403,7 +4403,7 @@
         <v>43479</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4460,7 +4460,7 @@
         <v>43486</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4517,7 +4517,7 @@
         <v>43490</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4574,7 +4574,7 @@
         <v>43490</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4631,7 +4631,7 @@
         <v>43500</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4688,7 +4688,7 @@
         <v>43500</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4745,7 +4745,7 @@
         <v>43502</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -4802,7 +4802,7 @@
         <v>43502</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -4859,7 +4859,7 @@
         <v>43509</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -4916,7 +4916,7 @@
         <v>43509</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -4973,7 +4973,7 @@
         <v>43514</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5030,7 +5030,7 @@
         <v>43518</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5087,7 +5087,7 @@
         <v>43542</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5144,7 +5144,7 @@
         <v>43542</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5201,7 +5201,7 @@
         <v>43542</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5258,7 +5258,7 @@
         <v>43542</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5315,7 +5315,7 @@
         <v>43543</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5372,7 +5372,7 @@
         <v>43578</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5429,7 +5429,7 @@
         <v>43592</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5486,7 +5486,7 @@
         <v>43595</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5543,7 +5543,7 @@
         <v>43595</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5600,7 +5600,7 @@
         <v>43604</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5657,7 +5657,7 @@
         <v>43604</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5714,7 +5714,7 @@
         <v>43605</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -5776,7 +5776,7 @@
         <v>43607</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -5833,7 +5833,7 @@
         <v>43609</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -5890,7 +5890,7 @@
         <v>43612</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -5947,7 +5947,7 @@
         <v>43614</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6004,7 +6004,7 @@
         <v>43619</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6061,7 +6061,7 @@
         <v>43628</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6118,7 +6118,7 @@
         <v>43640</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6175,7 +6175,7 @@
         <v>43643</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6232,7 +6232,7 @@
         <v>43651</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6289,7 +6289,7 @@
         <v>43657</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6346,7 +6346,7 @@
         <v>43663</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6403,7 +6403,7 @@
         <v>43671</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6460,7 +6460,7 @@
         <v>43685</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6517,7 +6517,7 @@
         <v>43685</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6574,7 +6574,7 @@
         <v>43699</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6631,7 +6631,7 @@
         <v>43699</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -6688,7 +6688,7 @@
         <v>43700</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -6745,7 +6745,7 @@
         <v>43700</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -6802,7 +6802,7 @@
         <v>43700</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -6859,7 +6859,7 @@
         <v>43700</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -6916,7 +6916,7 @@
         <v>43700</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -6973,7 +6973,7 @@
         <v>43700</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7030,7 +7030,7 @@
         <v>43707</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7087,7 +7087,7 @@
         <v>43711</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7144,7 +7144,7 @@
         <v>43731</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7201,7 +7201,7 @@
         <v>43762</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7258,7 +7258,7 @@
         <v>43762</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7315,7 +7315,7 @@
         <v>43762</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7372,7 +7372,7 @@
         <v>43762</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7429,7 +7429,7 @@
         <v>43774</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7486,7 +7486,7 @@
         <v>43782</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7543,7 +7543,7 @@
         <v>43783</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -7605,7 +7605,7 @@
         <v>43788</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -7662,7 +7662,7 @@
         <v>43790</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -7719,7 +7719,7 @@
         <v>43790</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -7776,7 +7776,7 @@
         <v>43791</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -7833,7 +7833,7 @@
         <v>43798</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -7890,7 +7890,7 @@
         <v>43798</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -7947,7 +7947,7 @@
         <v>43803</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8004,7 +8004,7 @@
         <v>43803</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8061,7 +8061,7 @@
         <v>43812</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8118,7 +8118,7 @@
         <v>43826</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8175,7 +8175,7 @@
         <v>43826</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8232,7 +8232,7 @@
         <v>43839</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8289,7 +8289,7 @@
         <v>43850</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8346,7 +8346,7 @@
         <v>43850</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8403,7 +8403,7 @@
         <v>43852</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8460,7 +8460,7 @@
         <v>43852</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -8517,7 +8517,7 @@
         <v>43852</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -8574,7 +8574,7 @@
         <v>43852</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -8631,7 +8631,7 @@
         <v>43852</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -8688,7 +8688,7 @@
         <v>43852</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -8745,7 +8745,7 @@
         <v>43852</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -8802,7 +8802,7 @@
         <v>43852</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -8859,7 +8859,7 @@
         <v>43852</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -8916,7 +8916,7 @@
         <v>43853</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -8978,7 +8978,7 @@
         <v>43853</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -9040,7 +9040,7 @@
         <v>43858</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9097,7 +9097,7 @@
         <v>43866</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9159,7 +9159,7 @@
         <v>43868</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9216,7 +9216,7 @@
         <v>43868</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9273,7 +9273,7 @@
         <v>43868</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9330,7 +9330,7 @@
         <v>43873</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9387,7 +9387,7 @@
         <v>43873</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -9444,7 +9444,7 @@
         <v>43874</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -9501,7 +9501,7 @@
         <v>43878</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -9558,7 +9558,7 @@
         <v>43889</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -9615,7 +9615,7 @@
         <v>43890</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -9672,7 +9672,7 @@
         <v>43894</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -9729,7 +9729,7 @@
         <v>43907</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -9786,7 +9786,7 @@
         <v>43907</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -9843,7 +9843,7 @@
         <v>43907</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -9900,7 +9900,7 @@
         <v>43907</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -9957,7 +9957,7 @@
         <v>43908</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -10014,7 +10014,7 @@
         <v>43908</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -10076,7 +10076,7 @@
         <v>43908</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -10133,7 +10133,7 @@
         <v>43919</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -10190,7 +10190,7 @@
         <v>43921</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -10247,7 +10247,7 @@
         <v>43921</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -10304,7 +10304,7 @@
         <v>43989</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -10361,7 +10361,7 @@
         <v>43990</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -10418,7 +10418,7 @@
         <v>43992</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -10475,7 +10475,7 @@
         <v>44000</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -10532,7 +10532,7 @@
         <v>44012</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -10589,7 +10589,7 @@
         <v>44020</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -10646,7 +10646,7 @@
         <v>44024</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -10703,7 +10703,7 @@
         <v>44071</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -10760,7 +10760,7 @@
         <v>44089</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -10817,7 +10817,7 @@
         <v>44089</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -10874,7 +10874,7 @@
         <v>44089</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -10931,7 +10931,7 @@
         <v>44089</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -10988,7 +10988,7 @@
         <v>44105</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -11045,7 +11045,7 @@
         <v>44106</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -11102,7 +11102,7 @@
         <v>44109</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -11159,7 +11159,7 @@
         <v>44109</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -11216,7 +11216,7 @@
         <v>44117</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -11273,7 +11273,7 @@
         <v>44120</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -11330,7 +11330,7 @@
         <v>44125</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -11387,7 +11387,7 @@
         <v>44126</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -11444,7 +11444,7 @@
         <v>44131</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -11501,7 +11501,7 @@
         <v>44131</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -11558,7 +11558,7 @@
         <v>44142</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -11615,7 +11615,7 @@
         <v>44142</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -11672,7 +11672,7 @@
         <v>44146</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -11729,7 +11729,7 @@
         <v>44146</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -11786,7 +11786,7 @@
         <v>44153</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -11843,7 +11843,7 @@
         <v>44155</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -11900,7 +11900,7 @@
         <v>44157</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -11957,7 +11957,7 @@
         <v>44157</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -12014,7 +12014,7 @@
         <v>44157</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -12071,7 +12071,7 @@
         <v>44162</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -12128,7 +12128,7 @@
         <v>44162</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -12185,7 +12185,7 @@
         <v>44165</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -12242,7 +12242,7 @@
         <v>44181</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -12299,7 +12299,7 @@
         <v>44206</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -12356,7 +12356,7 @@
         <v>44209</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -12413,7 +12413,7 @@
         <v>44215</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -12470,7 +12470,7 @@
         <v>44215</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -12527,7 +12527,7 @@
         <v>44215</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -12584,7 +12584,7 @@
         <v>44220</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -12641,7 +12641,7 @@
         <v>44220</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -12698,7 +12698,7 @@
         <v>44228</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -12755,7 +12755,7 @@
         <v>44228</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -12812,7 +12812,7 @@
         <v>44230</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -12869,7 +12869,7 @@
         <v>44252</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -12926,7 +12926,7 @@
         <v>44258</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -12988,7 +12988,7 @@
         <v>44263</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -13045,7 +13045,7 @@
         <v>44265</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -13102,7 +13102,7 @@
         <v>44266</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -13159,7 +13159,7 @@
         <v>44270</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -13216,7 +13216,7 @@
         <v>44293</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -13273,7 +13273,7 @@
         <v>44299</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -13330,7 +13330,7 @@
         <v>44300</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -13387,7 +13387,7 @@
         <v>44312</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -13444,7 +13444,7 @@
         <v>44322</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -13501,7 +13501,7 @@
         <v>44332</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -13558,7 +13558,7 @@
         <v>44334</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -13615,7 +13615,7 @@
         <v>44350</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -13672,7 +13672,7 @@
         <v>44350</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -13729,7 +13729,7 @@
         <v>44351</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -13786,7 +13786,7 @@
         <v>44360</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -13843,7 +13843,7 @@
         <v>44361</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -13900,7 +13900,7 @@
         <v>44368</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -13957,7 +13957,7 @@
         <v>44418</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -14014,7 +14014,7 @@
         <v>44420</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -14071,7 +14071,7 @@
         <v>44428</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -14128,7 +14128,7 @@
         <v>44428</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -14185,7 +14185,7 @@
         <v>44429</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -14242,7 +14242,7 @@
         <v>44429</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -14299,7 +14299,7 @@
         <v>44433</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -14356,7 +14356,7 @@
         <v>44433</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -14413,7 +14413,7 @@
         <v>44434</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -14470,7 +14470,7 @@
         <v>44447</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -14527,7 +14527,7 @@
         <v>44454</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -14584,7 +14584,7 @@
         <v>44466</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -14641,7 +14641,7 @@
         <v>44469</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -14698,7 +14698,7 @@
         <v>44470</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -14755,7 +14755,7 @@
         <v>44474</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -14812,7 +14812,7 @@
         <v>44475</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -14869,7 +14869,7 @@
         <v>44489</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -14926,7 +14926,7 @@
         <v>44497</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -14983,7 +14983,7 @@
         <v>44503</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -15045,7 +15045,7 @@
         <v>44512</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -15102,7 +15102,7 @@
         <v>44529</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -15159,7 +15159,7 @@
         <v>44529</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -15216,7 +15216,7 @@
         <v>44529</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -15273,7 +15273,7 @@
         <v>44543</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -15330,7 +15330,7 @@
         <v>44572</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -15387,7 +15387,7 @@
         <v>44573</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -15449,7 +15449,7 @@
         <v>44578</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -15506,7 +15506,7 @@
         <v>44594</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -15563,7 +15563,7 @@
         <v>44594</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -15620,7 +15620,7 @@
         <v>44601</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -15677,7 +15677,7 @@
         <v>44602</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -15734,7 +15734,7 @@
         <v>44603</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -15791,7 +15791,7 @@
         <v>44616</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -15848,7 +15848,7 @@
         <v>44622</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -15905,7 +15905,7 @@
         <v>44623</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -15962,7 +15962,7 @@
         <v>44627</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -16024,7 +16024,7 @@
         <v>44629</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -16081,7 +16081,7 @@
         <v>44630</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -16138,7 +16138,7 @@
         <v>44630</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -16195,7 +16195,7 @@
         <v>44636</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -16252,7 +16252,7 @@
         <v>44636</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -16309,7 +16309,7 @@
         <v>44637</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -16366,7 +16366,7 @@
         <v>44663</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -16423,7 +16423,7 @@
         <v>44672</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -16480,7 +16480,7 @@
         <v>44707</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -16537,7 +16537,7 @@
         <v>44711</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -16594,7 +16594,7 @@
         <v>44713</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -16651,7 +16651,7 @@
         <v>44722</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -16708,7 +16708,7 @@
         <v>44726</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -16765,7 +16765,7 @@
         <v>44729</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -16822,7 +16822,7 @@
         <v>44739</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -16879,7 +16879,7 @@
         <v>44742</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -16936,7 +16936,7 @@
         <v>44742</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -16993,7 +16993,7 @@
         <v>44802</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -17050,7 +17050,7 @@
         <v>44802</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -17107,7 +17107,7 @@
         <v>44803</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -17164,7 +17164,7 @@
         <v>44805</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -17221,7 +17221,7 @@
         <v>44819</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -17278,7 +17278,7 @@
         <v>44823</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -17335,7 +17335,7 @@
         <v>44823</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -17392,7 +17392,7 @@
         <v>44838</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -17449,7 +17449,7 @@
         <v>44838</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -17506,7 +17506,7 @@
         <v>44861</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -17563,7 +17563,7 @@
         <v>44869</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -17620,7 +17620,7 @@
         <v>44880</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -17677,7 +17677,7 @@
         <v>44880</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -17734,7 +17734,7 @@
         <v>44882</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -17791,7 +17791,7 @@
         <v>44895</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -17848,7 +17848,7 @@
         <v>44928</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -17905,7 +17905,7 @@
         <v>44928</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -17962,7 +17962,7 @@
         <v>44945</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -18019,7 +18019,7 @@
         <v>44952</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -18076,7 +18076,7 @@
         <v>44952</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -18133,7 +18133,7 @@
         <v>44952</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -18190,7 +18190,7 @@
         <v>44952</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -18247,7 +18247,7 @@
         <v>44957</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -18304,7 +18304,7 @@
         <v>44957</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -18361,7 +18361,7 @@
         <v>44960</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -18418,7 +18418,7 @@
         <v>44974</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -18475,7 +18475,7 @@
         <v>44979</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -18537,7 +18537,7 @@
         <v>44985</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -18594,7 +18594,7 @@
         <v>44993</v>
       </c>
       <c r="C311" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -18651,7 +18651,7 @@
         <v>45014</v>
       </c>
       <c r="C312" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -18708,7 +18708,7 @@
         <v>45014</v>
       </c>
       <c r="C313" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -18765,7 +18765,7 @@
         <v>45014</v>
       </c>
       <c r="C314" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -18822,7 +18822,7 @@
         <v>45014</v>
       </c>
       <c r="C315" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -18879,7 +18879,7 @@
         <v>45014</v>
       </c>
       <c r="C316" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -18936,7 +18936,7 @@
         <v>45022</v>
       </c>
       <c r="C317" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -18993,7 +18993,7 @@
         <v>45022</v>
       </c>
       <c r="C318" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -19050,7 +19050,7 @@
         <v>45027</v>
       </c>
       <c r="C319" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -19107,7 +19107,7 @@
         <v>45033</v>
       </c>
       <c r="C320" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -19164,7 +19164,7 @@
         <v>45033</v>
       </c>
       <c r="C321" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
@@ -19221,7 +19221,7 @@
         <v>45033</v>
       </c>
       <c r="C322" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
@@ -19278,7 +19278,7 @@
         <v>45036</v>
       </c>
       <c r="C323" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
@@ -19335,7 +19335,7 @@
         <v>45050</v>
       </c>
       <c r="C324" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D324" t="inlineStr">
         <is>
@@ -19392,7 +19392,7 @@
         <v>45050</v>
       </c>
       <c r="C325" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D325" t="inlineStr">
         <is>
@@ -19449,7 +19449,7 @@
         <v>45065</v>
       </c>
       <c r="C326" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D326" t="inlineStr">
         <is>
@@ -19506,7 +19506,7 @@
         <v>45072</v>
       </c>
       <c r="C327" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D327" t="inlineStr">
         <is>
@@ -19563,7 +19563,7 @@
         <v>45073</v>
       </c>
       <c r="C328" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D328" t="inlineStr">
         <is>
@@ -19620,7 +19620,7 @@
         <v>45076</v>
       </c>
       <c r="C329" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D329" t="inlineStr">
         <is>
@@ -19677,7 +19677,7 @@
         <v>45076</v>
       </c>
       <c r="C330" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D330" t="inlineStr">
         <is>
@@ -19734,7 +19734,7 @@
         <v>45076</v>
       </c>
       <c r="C331" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D331" t="inlineStr">
         <is>
@@ -19791,7 +19791,7 @@
         <v>45076</v>
       </c>
       <c r="C332" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D332" t="inlineStr">
         <is>
@@ -19848,7 +19848,7 @@
         <v>45076</v>
       </c>
       <c r="C333" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D333" t="inlineStr">
         <is>
@@ -19905,7 +19905,7 @@
         <v>45078</v>
       </c>
       <c r="C334" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D334" t="inlineStr">
         <is>
@@ -19962,7 +19962,7 @@
         <v>45082</v>
       </c>
       <c r="C335" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D335" t="inlineStr">
         <is>
@@ -20019,7 +20019,7 @@
         <v>45082</v>
       </c>
       <c r="C336" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D336" t="inlineStr">
         <is>
@@ -20081,7 +20081,7 @@
         <v>45084</v>
       </c>
       <c r="C337" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D337" t="inlineStr">
         <is>
@@ -20138,7 +20138,7 @@
         <v>45084</v>
       </c>
       <c r="C338" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D338" t="inlineStr">
         <is>
@@ -20195,7 +20195,7 @@
         <v>45085</v>
       </c>
       <c r="C339" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D339" t="inlineStr">
         <is>
@@ -20252,7 +20252,7 @@
         <v>45085</v>
       </c>
       <c r="C340" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D340" t="inlineStr">
         <is>
@@ -20309,7 +20309,7 @@
         <v>45089</v>
       </c>
       <c r="C341" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D341" t="inlineStr">
         <is>
@@ -20366,7 +20366,7 @@
         <v>45089</v>
       </c>
       <c r="C342" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D342" t="inlineStr">
         <is>
@@ -20423,7 +20423,7 @@
         <v>45090</v>
       </c>
       <c r="C343" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D343" t="inlineStr">
         <is>
@@ -20480,7 +20480,7 @@
         <v>45091</v>
       </c>
       <c r="C344" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D344" t="inlineStr">
         <is>
@@ -20537,7 +20537,7 @@
         <v>45091</v>
       </c>
       <c r="C345" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D345" t="inlineStr">
         <is>
@@ -20594,7 +20594,7 @@
         <v>45091</v>
       </c>
       <c r="C346" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D346" t="inlineStr">
         <is>
@@ -20651,7 +20651,7 @@
         <v>45092</v>
       </c>
       <c r="C347" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D347" t="inlineStr">
         <is>
@@ -20708,7 +20708,7 @@
         <v>45093</v>
       </c>
       <c r="C348" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D348" t="inlineStr">
         <is>
@@ -20765,7 +20765,7 @@
         <v>45097</v>
       </c>
       <c r="C349" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D349" t="inlineStr">
         <is>
@@ -20822,7 +20822,7 @@
         <v>45103</v>
       </c>
       <c r="C350" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D350" t="inlineStr">
         <is>
@@ -20879,7 +20879,7 @@
         <v>45105</v>
       </c>
       <c r="C351" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D351" t="inlineStr">
         <is>
@@ -20936,7 +20936,7 @@
         <v>45107</v>
       </c>
       <c r="C352" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D352" t="inlineStr">
         <is>
@@ -20993,7 +20993,7 @@
         <v>45112</v>
       </c>
       <c r="C353" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D353" t="inlineStr">
         <is>
@@ -21050,7 +21050,7 @@
         <v>45116</v>
       </c>
       <c r="C354" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D354" t="inlineStr">
         <is>
@@ -21107,7 +21107,7 @@
         <v>45141</v>
       </c>
       <c r="C355" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D355" t="inlineStr">
         <is>
@@ -21164,7 +21164,7 @@
         <v>45142</v>
       </c>
       <c r="C356" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D356" t="inlineStr">
         <is>
@@ -21221,7 +21221,7 @@
         <v>45146</v>
       </c>
       <c r="C357" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D357" t="inlineStr">
         <is>
@@ -21278,7 +21278,7 @@
         <v>45148</v>
       </c>
       <c r="C358" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D358" t="inlineStr">
         <is>
@@ -21335,7 +21335,7 @@
         <v>45148</v>
       </c>
       <c r="C359" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D359" t="inlineStr">
         <is>
@@ -21392,7 +21392,7 @@
         <v>45154</v>
       </c>
       <c r="C360" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D360" t="inlineStr">
         <is>

--- a/Översikt FALKÖPING.xlsx
+++ b/Översikt FALKÖPING.xlsx
@@ -572,7 +572,7 @@
         <v>44950</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -666,7 +666,7 @@
         <v>44890</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -753,7 +753,7 @@
         <v>44418</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -839,7 +839,7 @@
         <v>44748</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -925,7 +925,7 @@
         <v>43349</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1010,7 +1010,7 @@
         <v>43451</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1095,7 +1095,7 @@
         <v>43549</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1180,7 +1180,7 @@
         <v>44349</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1265,7 +1265,7 @@
         <v>44427</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1350,7 +1350,7 @@
         <v>44474</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1435,7 +1435,7 @@
         <v>44805</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1520,7 +1520,7 @@
         <v>44906</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1605,7 +1605,7 @@
         <v>43325</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1662,7 +1662,7 @@
         <v>43340</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1719,7 +1719,7 @@
         <v>43347</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1776,7 +1776,7 @@
         <v>43362</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1833,7 +1833,7 @@
         <v>43362</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1890,7 +1890,7 @@
         <v>43362</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1947,7 +1947,7 @@
         <v>43368</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2004,7 +2004,7 @@
         <v>43368</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2061,7 +2061,7 @@
         <v>43368</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2118,7 +2118,7 @@
         <v>43368</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2175,7 +2175,7 @@
         <v>43368</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2232,7 +2232,7 @@
         <v>43368</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2289,7 +2289,7 @@
         <v>43370</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2346,7 +2346,7 @@
         <v>43370</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2403,7 +2403,7 @@
         <v>43392</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2460,7 +2460,7 @@
         <v>43405</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2517,7 +2517,7 @@
         <v>43412</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2574,7 +2574,7 @@
         <v>43423</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2631,7 +2631,7 @@
         <v>43424</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2688,7 +2688,7 @@
         <v>43424</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2745,7 +2745,7 @@
         <v>43424</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2802,7 +2802,7 @@
         <v>43425</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2859,7 +2859,7 @@
         <v>43425</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -2916,7 +2916,7 @@
         <v>43426</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -2973,7 +2973,7 @@
         <v>43426</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3030,7 +3030,7 @@
         <v>43427</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3087,7 +3087,7 @@
         <v>43430</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3144,7 +3144,7 @@
         <v>43431</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3201,7 +3201,7 @@
         <v>43439</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3258,7 +3258,7 @@
         <v>43444</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3315,7 +3315,7 @@
         <v>43444</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3372,7 +3372,7 @@
         <v>43446</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3429,7 +3429,7 @@
         <v>43446</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3486,7 +3486,7 @@
         <v>43446</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3543,7 +3543,7 @@
         <v>43446</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3600,7 +3600,7 @@
         <v>43447</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3662,7 +3662,7 @@
         <v>43447</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3719,7 +3719,7 @@
         <v>43451</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3776,7 +3776,7 @@
         <v>43452</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3833,7 +3833,7 @@
         <v>43452</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -3890,7 +3890,7 @@
         <v>43452</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -3947,7 +3947,7 @@
         <v>43453</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4004,7 +4004,7 @@
         <v>43453</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4061,7 +4061,7 @@
         <v>43469</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4118,7 +4118,7 @@
         <v>43473</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4175,7 +4175,7 @@
         <v>43473</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4232,7 +4232,7 @@
         <v>43475</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4289,7 +4289,7 @@
         <v>43476</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4346,7 +4346,7 @@
         <v>43479</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4403,7 +4403,7 @@
         <v>43479</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4460,7 +4460,7 @@
         <v>43486</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4517,7 +4517,7 @@
         <v>43490</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4574,7 +4574,7 @@
         <v>43490</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4631,7 +4631,7 @@
         <v>43500</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4688,7 +4688,7 @@
         <v>43500</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4745,7 +4745,7 @@
         <v>43502</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -4802,7 +4802,7 @@
         <v>43502</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -4859,7 +4859,7 @@
         <v>43509</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -4916,7 +4916,7 @@
         <v>43509</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -4973,7 +4973,7 @@
         <v>43514</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5030,7 +5030,7 @@
         <v>43518</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5087,7 +5087,7 @@
         <v>43542</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5144,7 +5144,7 @@
         <v>43542</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5201,7 +5201,7 @@
         <v>43542</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5258,7 +5258,7 @@
         <v>43542</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5315,7 +5315,7 @@
         <v>43543</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5372,7 +5372,7 @@
         <v>43578</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5429,7 +5429,7 @@
         <v>43592</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5486,7 +5486,7 @@
         <v>43595</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5543,7 +5543,7 @@
         <v>43595</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5600,7 +5600,7 @@
         <v>43604</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5657,7 +5657,7 @@
         <v>43604</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5714,7 +5714,7 @@
         <v>43605</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -5776,7 +5776,7 @@
         <v>43607</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -5833,7 +5833,7 @@
         <v>43609</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -5890,7 +5890,7 @@
         <v>43612</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -5947,7 +5947,7 @@
         <v>43614</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6004,7 +6004,7 @@
         <v>43619</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6061,7 +6061,7 @@
         <v>43628</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6118,7 +6118,7 @@
         <v>43640</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6175,7 +6175,7 @@
         <v>43643</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6232,7 +6232,7 @@
         <v>43651</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6289,7 +6289,7 @@
         <v>43657</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6346,7 +6346,7 @@
         <v>43663</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6403,7 +6403,7 @@
         <v>43671</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6460,7 +6460,7 @@
         <v>43685</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6517,7 +6517,7 @@
         <v>43685</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6574,7 +6574,7 @@
         <v>43699</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6631,7 +6631,7 @@
         <v>43699</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -6688,7 +6688,7 @@
         <v>43700</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -6745,7 +6745,7 @@
         <v>43700</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -6802,7 +6802,7 @@
         <v>43700</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -6859,7 +6859,7 @@
         <v>43700</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -6916,7 +6916,7 @@
         <v>43700</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -6973,7 +6973,7 @@
         <v>43700</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7030,7 +7030,7 @@
         <v>43707</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7087,7 +7087,7 @@
         <v>43711</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7144,7 +7144,7 @@
         <v>43731</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7201,7 +7201,7 @@
         <v>43762</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7258,7 +7258,7 @@
         <v>43762</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7315,7 +7315,7 @@
         <v>43762</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7372,7 +7372,7 @@
         <v>43762</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7429,7 +7429,7 @@
         <v>43774</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7486,7 +7486,7 @@
         <v>43782</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7543,7 +7543,7 @@
         <v>43783</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -7605,7 +7605,7 @@
         <v>43788</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -7662,7 +7662,7 @@
         <v>43790</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -7719,7 +7719,7 @@
         <v>43790</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -7776,7 +7776,7 @@
         <v>43791</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -7833,7 +7833,7 @@
         <v>43798</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -7890,7 +7890,7 @@
         <v>43798</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -7947,7 +7947,7 @@
         <v>43803</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8004,7 +8004,7 @@
         <v>43803</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8061,7 +8061,7 @@
         <v>43812</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8118,7 +8118,7 @@
         <v>43826</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8175,7 +8175,7 @@
         <v>43826</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8232,7 +8232,7 @@
         <v>43839</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8289,7 +8289,7 @@
         <v>43850</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8346,7 +8346,7 @@
         <v>43850</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8403,7 +8403,7 @@
         <v>43852</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8460,7 +8460,7 @@
         <v>43852</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -8517,7 +8517,7 @@
         <v>43852</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -8574,7 +8574,7 @@
         <v>43852</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -8631,7 +8631,7 @@
         <v>43852</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -8688,7 +8688,7 @@
         <v>43852</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -8745,7 +8745,7 @@
         <v>43852</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -8802,7 +8802,7 @@
         <v>43852</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -8859,7 +8859,7 @@
         <v>43852</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -8916,7 +8916,7 @@
         <v>43853</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -8978,7 +8978,7 @@
         <v>43853</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -9040,7 +9040,7 @@
         <v>43858</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9097,7 +9097,7 @@
         <v>43866</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9159,7 +9159,7 @@
         <v>43868</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9216,7 +9216,7 @@
         <v>43868</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9273,7 +9273,7 @@
         <v>43868</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9330,7 +9330,7 @@
         <v>43873</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9387,7 +9387,7 @@
         <v>43873</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -9444,7 +9444,7 @@
         <v>43874</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -9501,7 +9501,7 @@
         <v>43878</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -9558,7 +9558,7 @@
         <v>43889</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -9615,7 +9615,7 @@
         <v>43890</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -9672,7 +9672,7 @@
         <v>43894</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -9729,7 +9729,7 @@
         <v>43907</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -9786,7 +9786,7 @@
         <v>43907</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -9843,7 +9843,7 @@
         <v>43907</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -9900,7 +9900,7 @@
         <v>43907</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -9957,7 +9957,7 @@
         <v>43908</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -10014,7 +10014,7 @@
         <v>43908</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -10076,7 +10076,7 @@
         <v>43908</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -10133,7 +10133,7 @@
         <v>43919</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -10190,7 +10190,7 @@
         <v>43921</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -10247,7 +10247,7 @@
         <v>43921</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -10304,7 +10304,7 @@
         <v>43989</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -10361,7 +10361,7 @@
         <v>43990</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -10418,7 +10418,7 @@
         <v>43992</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -10475,7 +10475,7 @@
         <v>44000</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -10532,7 +10532,7 @@
         <v>44012</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -10589,7 +10589,7 @@
         <v>44020</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -10646,7 +10646,7 @@
         <v>44024</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -10703,7 +10703,7 @@
         <v>44071</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -10760,7 +10760,7 @@
         <v>44089</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -10817,7 +10817,7 @@
         <v>44089</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -10874,7 +10874,7 @@
         <v>44089</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -10931,7 +10931,7 @@
         <v>44089</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -10988,7 +10988,7 @@
         <v>44105</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -11045,7 +11045,7 @@
         <v>44106</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -11102,7 +11102,7 @@
         <v>44109</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -11159,7 +11159,7 @@
         <v>44109</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -11216,7 +11216,7 @@
         <v>44117</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -11273,7 +11273,7 @@
         <v>44120</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -11330,7 +11330,7 @@
         <v>44125</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -11387,7 +11387,7 @@
         <v>44126</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -11444,7 +11444,7 @@
         <v>44131</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -11501,7 +11501,7 @@
         <v>44131</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -11558,7 +11558,7 @@
         <v>44142</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -11615,7 +11615,7 @@
         <v>44142</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -11672,7 +11672,7 @@
         <v>44146</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -11729,7 +11729,7 @@
         <v>44146</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -11786,7 +11786,7 @@
         <v>44153</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -11843,7 +11843,7 @@
         <v>44155</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -11900,7 +11900,7 @@
         <v>44157</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -11957,7 +11957,7 @@
         <v>44157</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -12014,7 +12014,7 @@
         <v>44157</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -12071,7 +12071,7 @@
         <v>44162</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -12128,7 +12128,7 @@
         <v>44162</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -12185,7 +12185,7 @@
         <v>44165</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -12242,7 +12242,7 @@
         <v>44181</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -12299,7 +12299,7 @@
         <v>44206</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -12356,7 +12356,7 @@
         <v>44209</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -12413,7 +12413,7 @@
         <v>44215</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -12470,7 +12470,7 @@
         <v>44215</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -12527,7 +12527,7 @@
         <v>44215</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -12584,7 +12584,7 @@
         <v>44220</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -12641,7 +12641,7 @@
         <v>44220</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -12698,7 +12698,7 @@
         <v>44228</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -12755,7 +12755,7 @@
         <v>44228</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -12812,7 +12812,7 @@
         <v>44230</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -12869,7 +12869,7 @@
         <v>44252</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -12926,7 +12926,7 @@
         <v>44258</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -12988,7 +12988,7 @@
         <v>44263</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -13045,7 +13045,7 @@
         <v>44265</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -13102,7 +13102,7 @@
         <v>44266</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -13159,7 +13159,7 @@
         <v>44270</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -13216,7 +13216,7 @@
         <v>44293</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -13273,7 +13273,7 @@
         <v>44299</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -13330,7 +13330,7 @@
         <v>44300</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -13387,7 +13387,7 @@
         <v>44312</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -13444,7 +13444,7 @@
         <v>44322</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -13501,7 +13501,7 @@
         <v>44332</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -13558,7 +13558,7 @@
         <v>44334</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -13615,7 +13615,7 @@
         <v>44350</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -13672,7 +13672,7 @@
         <v>44350</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -13729,7 +13729,7 @@
         <v>44351</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -13786,7 +13786,7 @@
         <v>44360</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -13843,7 +13843,7 @@
         <v>44361</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -13900,7 +13900,7 @@
         <v>44368</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -13957,7 +13957,7 @@
         <v>44418</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -14014,7 +14014,7 @@
         <v>44420</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -14071,7 +14071,7 @@
         <v>44428</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -14128,7 +14128,7 @@
         <v>44428</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -14185,7 +14185,7 @@
         <v>44429</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -14242,7 +14242,7 @@
         <v>44429</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -14299,7 +14299,7 @@
         <v>44433</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -14356,7 +14356,7 @@
         <v>44433</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -14413,7 +14413,7 @@
         <v>44434</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -14470,7 +14470,7 @@
         <v>44447</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -14527,7 +14527,7 @@
         <v>44454</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -14584,7 +14584,7 @@
         <v>44466</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -14641,7 +14641,7 @@
         <v>44469</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -14698,7 +14698,7 @@
         <v>44470</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -14755,7 +14755,7 @@
         <v>44474</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -14812,7 +14812,7 @@
         <v>44475</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -14869,7 +14869,7 @@
         <v>44489</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -14926,7 +14926,7 @@
         <v>44497</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -14983,7 +14983,7 @@
         <v>44503</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -15045,7 +15045,7 @@
         <v>44512</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -15102,7 +15102,7 @@
         <v>44529</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -15159,7 +15159,7 @@
         <v>44529</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -15216,7 +15216,7 @@
         <v>44529</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -15273,7 +15273,7 @@
         <v>44543</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -15330,7 +15330,7 @@
         <v>44572</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -15387,7 +15387,7 @@
         <v>44573</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -15449,7 +15449,7 @@
         <v>44578</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -15506,7 +15506,7 @@
         <v>44594</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -15563,7 +15563,7 @@
         <v>44594</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -15620,7 +15620,7 @@
         <v>44601</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -15677,7 +15677,7 @@
         <v>44602</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -15734,7 +15734,7 @@
         <v>44603</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -15791,7 +15791,7 @@
         <v>44616</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -15848,7 +15848,7 @@
         <v>44622</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -15905,7 +15905,7 @@
         <v>44623</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -15962,7 +15962,7 @@
         <v>44627</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -16024,7 +16024,7 @@
         <v>44629</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -16081,7 +16081,7 @@
         <v>44630</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -16138,7 +16138,7 @@
         <v>44630</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -16195,7 +16195,7 @@
         <v>44636</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -16252,7 +16252,7 @@
         <v>44636</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -16309,7 +16309,7 @@
         <v>44637</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -16366,7 +16366,7 @@
         <v>44663</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -16423,7 +16423,7 @@
         <v>44672</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -16480,7 +16480,7 @@
         <v>44707</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -16537,7 +16537,7 @@
         <v>44711</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -16594,7 +16594,7 @@
         <v>44713</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -16651,7 +16651,7 @@
         <v>44722</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -16708,7 +16708,7 @@
         <v>44726</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -16765,7 +16765,7 @@
         <v>44729</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -16822,7 +16822,7 @@
         <v>44739</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -16879,7 +16879,7 @@
         <v>44742</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -16936,7 +16936,7 @@
         <v>44742</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -16993,7 +16993,7 @@
         <v>44802</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -17050,7 +17050,7 @@
         <v>44802</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -17107,7 +17107,7 @@
         <v>44803</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -17164,7 +17164,7 @@
         <v>44805</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -17221,7 +17221,7 @@
         <v>44819</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -17278,7 +17278,7 @@
         <v>44823</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -17335,7 +17335,7 @@
         <v>44823</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -17392,7 +17392,7 @@
         <v>44838</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -17449,7 +17449,7 @@
         <v>44838</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -17506,7 +17506,7 @@
         <v>44861</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -17563,7 +17563,7 @@
         <v>44869</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -17620,7 +17620,7 @@
         <v>44880</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -17677,7 +17677,7 @@
         <v>44880</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -17734,7 +17734,7 @@
         <v>44882</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -17791,7 +17791,7 @@
         <v>44895</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -17848,7 +17848,7 @@
         <v>44928</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -17905,7 +17905,7 @@
         <v>44928</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -17962,7 +17962,7 @@
         <v>44945</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -18019,7 +18019,7 @@
         <v>44952</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -18076,7 +18076,7 @@
         <v>44952</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -18133,7 +18133,7 @@
         <v>44952</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -18190,7 +18190,7 @@
         <v>44952</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -18247,7 +18247,7 @@
         <v>44957</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -18304,7 +18304,7 @@
         <v>44957</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -18361,7 +18361,7 @@
         <v>44960</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -18418,7 +18418,7 @@
         <v>44974</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -18475,7 +18475,7 @@
         <v>44979</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -18537,7 +18537,7 @@
         <v>44985</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -18594,7 +18594,7 @@
         <v>44993</v>
       </c>
       <c r="C311" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -18651,7 +18651,7 @@
         <v>45014</v>
       </c>
       <c r="C312" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -18708,7 +18708,7 @@
         <v>45014</v>
       </c>
       <c r="C313" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -18765,7 +18765,7 @@
         <v>45014</v>
       </c>
       <c r="C314" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -18822,7 +18822,7 @@
         <v>45014</v>
       </c>
       <c r="C315" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -18879,7 +18879,7 @@
         <v>45014</v>
       </c>
       <c r="C316" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -18936,7 +18936,7 @@
         <v>45022</v>
       </c>
       <c r="C317" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -18993,7 +18993,7 @@
         <v>45022</v>
       </c>
       <c r="C318" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -19050,7 +19050,7 @@
         <v>45027</v>
       </c>
       <c r="C319" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -19107,7 +19107,7 @@
         <v>45033</v>
       </c>
       <c r="C320" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -19164,7 +19164,7 @@
         <v>45033</v>
       </c>
       <c r="C321" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
@@ -19221,7 +19221,7 @@
         <v>45033</v>
       </c>
       <c r="C322" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
@@ -19278,7 +19278,7 @@
         <v>45036</v>
       </c>
       <c r="C323" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
@@ -19335,7 +19335,7 @@
         <v>45050</v>
       </c>
       <c r="C324" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D324" t="inlineStr">
         <is>
@@ -19392,7 +19392,7 @@
         <v>45050</v>
       </c>
       <c r="C325" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D325" t="inlineStr">
         <is>
@@ -19449,7 +19449,7 @@
         <v>45065</v>
       </c>
       <c r="C326" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D326" t="inlineStr">
         <is>
@@ -19506,7 +19506,7 @@
         <v>45072</v>
       </c>
       <c r="C327" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D327" t="inlineStr">
         <is>
@@ -19563,7 +19563,7 @@
         <v>45073</v>
       </c>
       <c r="C328" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D328" t="inlineStr">
         <is>
@@ -19620,7 +19620,7 @@
         <v>45076</v>
       </c>
       <c r="C329" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D329" t="inlineStr">
         <is>
@@ -19677,7 +19677,7 @@
         <v>45076</v>
       </c>
       <c r="C330" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D330" t="inlineStr">
         <is>
@@ -19734,7 +19734,7 @@
         <v>45076</v>
       </c>
       <c r="C331" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D331" t="inlineStr">
         <is>
@@ -19791,7 +19791,7 @@
         <v>45076</v>
       </c>
       <c r="C332" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D332" t="inlineStr">
         <is>
@@ -19848,7 +19848,7 @@
         <v>45076</v>
       </c>
       <c r="C333" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D333" t="inlineStr">
         <is>
@@ -19905,7 +19905,7 @@
         <v>45078</v>
       </c>
       <c r="C334" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D334" t="inlineStr">
         <is>
@@ -19962,7 +19962,7 @@
         <v>45082</v>
       </c>
       <c r="C335" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D335" t="inlineStr">
         <is>
@@ -20019,7 +20019,7 @@
         <v>45082</v>
       </c>
       <c r="C336" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D336" t="inlineStr">
         <is>
@@ -20081,7 +20081,7 @@
         <v>45084</v>
       </c>
       <c r="C337" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D337" t="inlineStr">
         <is>
@@ -20138,7 +20138,7 @@
         <v>45084</v>
       </c>
       <c r="C338" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D338" t="inlineStr">
         <is>
@@ -20195,7 +20195,7 @@
         <v>45085</v>
       </c>
       <c r="C339" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D339" t="inlineStr">
         <is>
@@ -20252,7 +20252,7 @@
         <v>45085</v>
       </c>
       <c r="C340" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D340" t="inlineStr">
         <is>
@@ -20309,7 +20309,7 @@
         <v>45089</v>
       </c>
       <c r="C341" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D341" t="inlineStr">
         <is>
@@ -20366,7 +20366,7 @@
         <v>45089</v>
       </c>
       <c r="C342" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D342" t="inlineStr">
         <is>
@@ -20423,7 +20423,7 @@
         <v>45090</v>
       </c>
       <c r="C343" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D343" t="inlineStr">
         <is>
@@ -20480,7 +20480,7 @@
         <v>45091</v>
       </c>
       <c r="C344" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D344" t="inlineStr">
         <is>
@@ -20537,7 +20537,7 @@
         <v>45091</v>
       </c>
       <c r="C345" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D345" t="inlineStr">
         <is>
@@ -20594,7 +20594,7 @@
         <v>45091</v>
       </c>
       <c r="C346" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D346" t="inlineStr">
         <is>
@@ -20651,7 +20651,7 @@
         <v>45092</v>
       </c>
       <c r="C347" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D347" t="inlineStr">
         <is>
@@ -20708,7 +20708,7 @@
         <v>45093</v>
       </c>
       <c r="C348" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D348" t="inlineStr">
         <is>
@@ -20765,7 +20765,7 @@
         <v>45097</v>
       </c>
       <c r="C349" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D349" t="inlineStr">
         <is>
@@ -20822,7 +20822,7 @@
         <v>45103</v>
       </c>
       <c r="C350" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D350" t="inlineStr">
         <is>
@@ -20879,7 +20879,7 @@
         <v>45105</v>
       </c>
       <c r="C351" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D351" t="inlineStr">
         <is>
@@ -20936,7 +20936,7 @@
         <v>45107</v>
       </c>
       <c r="C352" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D352" t="inlineStr">
         <is>
@@ -20993,7 +20993,7 @@
         <v>45112</v>
       </c>
       <c r="C353" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D353" t="inlineStr">
         <is>
@@ -21050,7 +21050,7 @@
         <v>45116</v>
       </c>
       <c r="C354" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D354" t="inlineStr">
         <is>
@@ -21107,7 +21107,7 @@
         <v>45141</v>
       </c>
       <c r="C355" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D355" t="inlineStr">
         <is>
@@ -21164,7 +21164,7 @@
         <v>45142</v>
       </c>
       <c r="C356" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D356" t="inlineStr">
         <is>
@@ -21221,7 +21221,7 @@
         <v>45146</v>
       </c>
       <c r="C357" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D357" t="inlineStr">
         <is>
@@ -21278,7 +21278,7 @@
         <v>45148</v>
       </c>
       <c r="C358" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D358" t="inlineStr">
         <is>
@@ -21335,7 +21335,7 @@
         <v>45148</v>
       </c>
       <c r="C359" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D359" t="inlineStr">
         <is>
@@ -21392,7 +21392,7 @@
         <v>45154</v>
       </c>
       <c r="C360" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D360" t="inlineStr">
         <is>
